--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-120" windowWidth="23040" windowHeight="9024" tabRatio="518"/>
+    <workbookView xWindow="0" yWindow="-120" windowWidth="23040" windowHeight="9030" tabRatio="518"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="248">
   <si>
     <t>power to mass ratio</t>
   </si>
@@ -782,6 +782,9 @@
   <si>
     <t>32t, 40t, 60t</t>
   </si>
+  <si>
+    <t>own assumption for 2000, 2010, 2050. Cox et al. 2020 for 2020, 2040. Assumed to be half that of passenger cars.</t>
+  </si>
 </sst>
 </file>
 
@@ -1310,30 +1313,30 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E264" sqref="E264"/>
+      <selection pane="bottomRight" activeCell="N304" sqref="N304"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.21875" style="20" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="20" customWidth="1"/>
-    <col min="4" max="4" width="37.77734375" style="20" customWidth="1"/>
-    <col min="5" max="5" width="38.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.77734375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="20" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="20" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" style="20" customWidth="1"/>
+    <col min="5" max="5" width="38.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="20" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" style="2" customWidth="1"/>
-    <col min="10" max="10" width="33.5546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.5703125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.21875" style="1"/>
+    <col min="22" max="23" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>134</v>
       </c>
@@ -1422,7 +1425,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="L2" s="19" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1583,7 +1586,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1688,7 +1691,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1999,7 +2002,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2100,7 +2103,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2201,7 +2204,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2266,7 +2269,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2339,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2549,7 +2552,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -2654,7 +2657,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -2860,7 +2863,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -3062,7 +3065,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3253,7 +3256,7 @@
         <v>943.11249999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -3355,7 +3358,7 @@
         <v>1886.2249999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -3457,7 +3460,7 @@
         <v>3600.9749999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>3772.45</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -3661,7 +3664,7 @@
         <v>4115.3999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3763,7 +3766,7 @@
         <v>4115.3999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -3865,7 +3868,7 @@
         <v>5658.6750000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -3966,7 +3969,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -4067,7 +4070,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -4168,7 +4171,7 @@
         <v>2.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -4269,7 +4272,7 @@
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -4371,7 +4374,7 @@
       </c>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -4473,7 +4476,7 @@
       </c>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4575,7 +4578,7 @@
       </c>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -4657,7 +4660,7 @@
       </c>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
@@ -4739,7 +4742,7 @@
       </c>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -4821,7 +4824,7 @@
       </c>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
@@ -4903,7 +4906,7 @@
       </c>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -4985,7 +4988,7 @@
       </c>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
@@ -5067,7 +5070,7 @@
       </c>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -5149,7 +5152,7 @@
       </c>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -5257,7 +5260,7 @@
       </c>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
@@ -5365,7 +5368,7 @@
       </c>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
@@ -5473,7 +5476,7 @@
       </c>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -5581,7 +5584,7 @@
       </c>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
@@ -5689,7 +5692,7 @@
       </c>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
@@ -5797,7 +5800,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -5905,7 +5908,7 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
@@ -6013,7 +6016,7 @@
       </c>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -6121,7 +6124,7 @@
       </c>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -6229,7 +6232,7 @@
       </c>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -6337,7 +6340,7 @@
       </c>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -6445,7 +6448,7 @@
       </c>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6553,7 +6556,7 @@
       </c>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -6661,7 +6664,7 @@
       </c>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -6751,7 +6754,7 @@
       </c>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -6841,7 +6844,7 @@
       </c>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -6931,7 +6934,7 @@
       </c>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -7021,7 +7024,7 @@
       </c>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -7111,7 +7114,7 @@
       </c>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -7201,7 +7204,7 @@
       </c>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
@@ -7291,7 +7294,7 @@
       </c>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
@@ -7373,7 +7376,7 @@
       </c>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -7463,7 +7466,7 @@
       </c>
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
@@ -7553,7 +7556,7 @@
       </c>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
@@ -7643,7 +7646,7 @@
       </c>
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>57</v>
       </c>
@@ -7733,7 +7736,7 @@
       </c>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
@@ -7823,7 +7826,7 @@
       </c>
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>57</v>
       </c>
@@ -7913,7 +7916,7 @@
       </c>
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
@@ -8003,7 +8006,7 @@
       </c>
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>57</v>
       </c>
@@ -8085,7 +8088,7 @@
       </c>
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
@@ -8167,7 +8170,7 @@
       </c>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>57</v>
       </c>
@@ -8255,7 +8258,7 @@
       </c>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>57</v>
       </c>
@@ -8337,7 +8340,7 @@
       </c>
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="1:30" s="24" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>57</v>
       </c>
@@ -8445,7 +8448,7 @@
       </c>
       <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>57</v>
       </c>
@@ -8527,7 +8530,7 @@
       </c>
       <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>57</v>
       </c>
@@ -8609,7 +8612,7 @@
       </c>
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>57</v>
       </c>
@@ -8691,7 +8694,7 @@
       </c>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>57</v>
       </c>
@@ -8773,7 +8776,7 @@
       </c>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>57</v>
       </c>
@@ -8855,7 +8858,7 @@
       </c>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>57</v>
       </c>
@@ -8937,7 +8940,7 @@
       </c>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
@@ -9019,7 +9022,7 @@
       </c>
       <c r="AD81" s="1"/>
     </row>
-    <row r="82" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>57</v>
       </c>
@@ -9077,7 +9080,7 @@
       </c>
       <c r="AD82" s="1"/>
     </row>
-    <row r="83" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>57</v>
       </c>
@@ -9159,7 +9162,7 @@
       </c>
       <c r="AD83" s="1"/>
     </row>
-    <row r="84" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>57</v>
       </c>
@@ -9241,7 +9244,7 @@
       </c>
       <c r="AD84" s="1"/>
     </row>
-    <row r="85" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>57</v>
       </c>
@@ -9323,7 +9326,7 @@
       </c>
       <c r="AD85" s="1"/>
     </row>
-    <row r="86" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>57</v>
       </c>
@@ -9405,7 +9408,7 @@
       </c>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" s="24" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>57</v>
       </c>
@@ -9495,7 +9498,7 @@
       </c>
       <c r="AD87" s="1"/>
     </row>
-    <row r="88" spans="1:30" s="24" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>57</v>
       </c>
@@ -9585,7 +9588,7 @@
       </c>
       <c r="AD88" s="1"/>
     </row>
-    <row r="89" spans="1:30" s="24" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>57</v>
       </c>
@@ -9675,7 +9678,7 @@
       </c>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" s="24" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>57</v>
       </c>
@@ -9765,7 +9768,7 @@
       </c>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30" s="24" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>57</v>
       </c>
@@ -9855,7 +9858,7 @@
       </c>
       <c r="AD91" s="1"/>
     </row>
-    <row r="92" spans="1:30" s="24" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>57</v>
       </c>
@@ -9945,7 +9948,7 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>57</v>
       </c>
@@ -10027,7 +10030,7 @@
       </c>
       <c r="AD93" s="1"/>
     </row>
-    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>57</v>
       </c>
@@ -10114,7 +10117,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>35</v>
       </c>
@@ -10316,7 +10319,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>35</v>
       </c>
@@ -10417,7 +10420,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>35</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>35</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>35</v>
       </c>
@@ -10720,7 +10723,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>35</v>
       </c>
@@ -10821,7 +10824,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>35</v>
       </c>
@@ -10922,7 +10925,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>35</v>
       </c>
@@ -11023,7 +11026,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>35</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>35</v>
       </c>
@@ -11225,7 +11228,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>35</v>
       </c>
@@ -11326,7 +11329,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>35</v>
       </c>
@@ -11427,7 +11430,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>35</v>
       </c>
@@ -11528,7 +11531,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>37</v>
       </c>
@@ -11615,7 +11618,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>37</v>
       </c>
@@ -11706,7 +11709,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>37</v>
       </c>
@@ -11791,7 +11794,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>37</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>30</v>
       </c>
@@ -11937,7 +11940,7 @@
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
     </row>
-    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>30</v>
       </c>
@@ -11998,7 +12001,7 @@
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
     </row>
-    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
@@ -12059,7 +12062,7 @@
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
     </row>
-    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>30</v>
       </c>
@@ -12148,7 +12151,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>30</v>
       </c>
@@ -12233,7 +12236,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>30</v>
       </c>
@@ -12322,7 +12325,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>30</v>
       </c>
@@ -12407,7 +12410,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>30</v>
       </c>
@@ -12496,7 +12499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>30</v>
       </c>
@@ -12585,7 +12588,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>30</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>30</v>
       </c>
@@ -12783,7 +12786,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>30</v>
       </c>
@@ -12885,7 +12888,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>30</v>
       </c>
@@ -12987,7 +12990,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>30</v>
       </c>
@@ -13076,7 +13079,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>30</v>
       </c>
@@ -13171,7 +13174,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>30</v>
       </c>
@@ -13266,7 +13269,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>30</v>
       </c>
@@ -13355,7 +13358,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>30</v>
       </c>
@@ -13444,7 +13447,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>30</v>
       </c>
@@ -13533,7 +13536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>30</v>
       </c>
@@ -13622,7 +13625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>30</v>
       </c>
@@ -13717,7 +13720,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>30</v>
       </c>
@@ -13806,7 +13809,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>30</v>
       </c>
@@ -13895,7 +13898,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>30</v>
       </c>
@@ -13984,7 +13987,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>30</v>
       </c>
@@ -14071,7 +14074,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>30</v>
       </c>
@@ -14158,7 +14161,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>30</v>
       </c>
@@ -14257,7 +14260,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>30</v>
       </c>
@@ -14356,7 +14359,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>27</v>
       </c>
@@ -14418,7 +14421,7 @@
       <c r="AB141" s="19"/>
       <c r="AC141" s="19"/>
     </row>
-    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>27</v>
       </c>
@@ -14480,7 +14483,7 @@
       <c r="AB142" s="19"/>
       <c r="AC142" s="19"/>
     </row>
-    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="s">
         <v>27</v>
       </c>
@@ -14542,7 +14545,7 @@
       <c r="AB143" s="19"/>
       <c r="AC143" s="19"/>
     </row>
-    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="s">
         <v>27</v>
       </c>
@@ -14604,7 +14607,7 @@
       <c r="AB144" s="19"/>
       <c r="AC144" s="19"/>
     </row>
-    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
         <v>27</v>
       </c>
@@ -14666,7 +14669,7 @@
       <c r="AB145" s="19"/>
       <c r="AC145" s="19"/>
     </row>
-    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
         <v>27</v>
       </c>
@@ -14728,7 +14731,7 @@
       <c r="AB146" s="19"/>
       <c r="AC146" s="19"/>
     </row>
-    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
         <v>27</v>
       </c>
@@ -14790,7 +14793,7 @@
       <c r="AB147" s="19"/>
       <c r="AC147" s="19"/>
     </row>
-    <row r="148" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
         <v>27</v>
       </c>
@@ -14891,7 +14894,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
         <v>27</v>
       </c>
@@ -14992,7 +14995,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
         <v>27</v>
       </c>
@@ -15093,7 +15096,7 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
         <v>27</v>
       </c>
@@ -15194,7 +15197,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
         <v>27</v>
       </c>
@@ -15295,7 +15298,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
         <v>27</v>
       </c>
@@ -15396,7 +15399,7 @@
         <v>1777.5</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
         <v>27</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>2666.25</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
         <v>27</v>
       </c>
@@ -15598,7 +15601,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
         <v>27</v>
       </c>
@@ -15699,7 +15702,7 @@
         <v>831.25</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
         <v>27</v>
       </c>
@@ -15800,7 +15803,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
         <v>27</v>
       </c>
@@ -15901,7 +15904,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>27</v>
       </c>
@@ -16002,7 +16005,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
         <v>27</v>
       </c>
@@ -16103,7 +16106,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
         <v>27</v>
       </c>
@@ -16204,7 +16207,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="s">
         <v>27</v>
       </c>
@@ -16291,7 +16294,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
         <v>27</v>
       </c>
@@ -16380,7 +16383,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
         <v>27</v>
       </c>
@@ -16469,7 +16472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="s">
         <v>27</v>
       </c>
@@ -16558,7 +16561,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
         <v>27</v>
       </c>
@@ -16647,7 +16650,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
         <v>27</v>
       </c>
@@ -16736,7 +16739,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="s">
         <v>27</v>
       </c>
@@ -16825,7 +16828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="s">
         <v>27</v>
       </c>
@@ -16914,7 +16917,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="s">
         <v>27</v>
       </c>
@@ -17021,7 +17024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
         <v>27</v>
       </c>
@@ -17128,7 +17131,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="s">
         <v>27</v>
       </c>
@@ -17229,7 +17232,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="s">
         <v>27</v>
       </c>
@@ -17330,7 +17333,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
         <v>27</v>
       </c>
@@ -17431,7 +17434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="s">
         <v>27</v>
       </c>
@@ -17532,7 +17535,7 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
         <v>27</v>
       </c>
@@ -17633,7 +17636,7 @@
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="s">
         <v>27</v>
       </c>
@@ -17734,7 +17737,7 @@
         <v>823.75</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
         <v>27</v>
       </c>
@@ -17835,7 +17838,7 @@
         <v>1766.25</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
         <v>27</v>
       </c>
@@ -17936,7 +17939,7 @@
         <v>2875</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
         <v>27</v>
       </c>
@@ -18037,7 +18040,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>27</v>
       </c>
@@ -18138,7 +18141,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
         <v>27</v>
       </c>
@@ -18239,7 +18242,7 @@
         <v>3375</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
         <v>27</v>
       </c>
@@ -18340,7 +18343,7 @@
         <v>5062.5</v>
       </c>
     </row>
-    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="s">
         <v>27</v>
       </c>
@@ -18429,7 +18432,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="s">
         <v>27</v>
       </c>
@@ -18518,7 +18521,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="s">
         <v>27</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="s">
         <v>27</v>
       </c>
@@ -18696,7 +18699,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
         <v>27</v>
       </c>
@@ -18785,7 +18788,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="s">
         <v>27</v>
       </c>
@@ -18874,7 +18877,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="s">
         <v>27</v>
       </c>
@@ -18963,7 +18966,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
         <v>27</v>
       </c>
@@ -19060,7 +19063,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
         <v>27</v>
       </c>
@@ -19157,7 +19160,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>27</v>
       </c>
@@ -19218,7 +19221,7 @@
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
     </row>
-    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>27</v>
       </c>
@@ -19279,7 +19282,7 @@
       <c r="AB194" s="4"/>
       <c r="AC194" s="4"/>
     </row>
-    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>27</v>
       </c>
@@ -19340,7 +19343,7 @@
       <c r="AB195" s="4"/>
       <c r="AC195" s="4"/>
     </row>
-    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>27</v>
       </c>
@@ -19401,7 +19404,7 @@
       <c r="AB196" s="4"/>
       <c r="AC196" s="4"/>
     </row>
-    <row r="197" spans="1:29" ht="31.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:29" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>27</v>
       </c>
@@ -19462,7 +19465,7 @@
       <c r="AB197" s="4"/>
       <c r="AC197" s="4"/>
     </row>
-    <row r="198" spans="1:29" ht="29.1" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:29" ht="29.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>27</v>
       </c>
@@ -19523,7 +19526,7 @@
       <c r="AB198" s="4"/>
       <c r="AC198" s="4"/>
     </row>
-    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>27</v>
       </c>
@@ -19584,7 +19587,7 @@
       <c r="AB199" s="4"/>
       <c r="AC199" s="4"/>
     </row>
-    <row r="200" spans="1:29" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:29" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
         <v>27</v>
       </c>
@@ -19685,7 +19688,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="26.7" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:29" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
         <v>27</v>
       </c>
@@ -19786,7 +19789,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="25.2" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:29" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
         <v>27</v>
       </c>
@@ -19887,7 +19890,7 @@
         <v>768.75</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
         <v>27</v>
       </c>
@@ -19988,7 +19991,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
         <v>27</v>
       </c>
@@ -20053,7 +20056,7 @@
       <c r="AB204" s="13"/>
       <c r="AC204" s="13"/>
     </row>
-    <row r="205" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
         <v>27</v>
       </c>
@@ -20154,7 +20157,7 @@
         <v>4298.75</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
         <v>27</v>
       </c>
@@ -20255,7 +20258,7 @@
         <v>6448.75</v>
       </c>
     </row>
-    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="s">
         <v>27</v>
       </c>
@@ -20353,7 +20356,7 @@
         <v>3.8581874999999992</v>
       </c>
     </row>
-    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
         <v>27</v>
       </c>
@@ -20451,7 +20454,7 @@
         <v>5.4871999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
         <v>27</v>
       </c>
@@ -20549,7 +20552,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="23" t="s">
         <v>27</v>
       </c>
@@ -20647,7 +20650,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="s">
         <v>27</v>
       </c>
@@ -20736,7 +20739,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="s">
         <v>27</v>
       </c>
@@ -20834,7 +20837,7 @@
         <v>7.2019499999999992</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="23" t="s">
         <v>27</v>
       </c>
@@ -20932,7 +20935,7 @@
         <v>7.2019499999999992</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="23" t="s">
         <v>27</v>
       </c>
@@ -21033,7 +21036,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="23" t="s">
         <v>27</v>
       </c>
@@ -21134,7 +21137,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="23" t="s">
         <v>27</v>
       </c>
@@ -21235,7 +21238,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
         <v>27</v>
       </c>
@@ -21336,7 +21339,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:29" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
         <v>27</v>
       </c>
@@ -21437,7 +21440,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>27</v>
       </c>
@@ -21538,7 +21541,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
         <v>27</v>
       </c>
@@ -21639,7 +21642,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="23" t="s">
         <v>27</v>
       </c>
@@ -21740,7 +21743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
         <v>27</v>
       </c>
@@ -21841,7 +21844,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
         <v>27</v>
       </c>
@@ -21942,7 +21945,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="23" t="s">
         <v>27</v>
       </c>
@@ -22043,7 +22046,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>27</v>
       </c>
@@ -22144,7 +22147,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="23" t="s">
         <v>27</v>
       </c>
@@ -22245,7 +22248,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="23" t="s">
         <v>27</v>
       </c>
@@ -22346,7 +22349,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="23" t="s">
         <v>27</v>
       </c>
@@ -22447,7 +22450,7 @@
         <v>0.37400000000000005</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
         <v>27</v>
       </c>
@@ -22548,7 +22551,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>27</v>
       </c>
@@ -22649,7 +22652,7 @@
         <v>0.35200000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>27</v>
       </c>
@@ -22750,7 +22753,7 @@
         <v>0.50600000000000012</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>27</v>
       </c>
@@ -22851,7 +22854,7 @@
         <v>0.49500000000000005</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>27</v>
       </c>
@@ -22952,7 +22955,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>27</v>
       </c>
@@ -23053,7 +23056,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
         <v>27</v>
       </c>
@@ -23154,7 +23157,7 @@
         <v>218.75</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="23" t="s">
         <v>27</v>
       </c>
@@ -23255,7 +23258,7 @@
         <v>468.75</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="23" t="s">
         <v>27</v>
       </c>
@@ -23356,7 +23359,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="23" t="s">
         <v>27</v>
       </c>
@@ -23457,7 +23460,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="23" t="s">
         <v>27</v>
       </c>
@@ -23558,7 +23561,7 @@
         <v>1152.5</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
         <v>27</v>
       </c>
@@ -23659,7 +23662,7 @@
         <v>1441.25</v>
       </c>
     </row>
-    <row r="241" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>27</v>
       </c>
@@ -23760,7 +23763,7 @@
         <v>2162.5</v>
       </c>
     </row>
-    <row r="242" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="23" t="s">
         <v>27</v>
       </c>
@@ -23861,7 +23864,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="23" t="s">
         <v>27</v>
       </c>
@@ -23962,7 +23965,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="23" t="s">
         <v>27</v>
       </c>
@@ -24063,7 +24066,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="245" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="23" t="s">
         <v>27</v>
       </c>
@@ -24164,7 +24167,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="246" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
         <v>27</v>
       </c>
@@ -24265,7 +24268,7 @@
         <v>783.75</v>
       </c>
     </row>
-    <row r="247" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="23" t="s">
         <v>27</v>
       </c>
@@ -24366,7 +24369,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="248" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="23" t="s">
         <v>27</v>
       </c>
@@ -24467,7 +24470,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="23" t="s">
         <v>27</v>
       </c>
@@ -24530,7 +24533,7 @@
       <c r="AB249" s="5"/>
       <c r="AC249" s="5"/>
     </row>
-    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="23" t="s">
         <v>27</v>
       </c>
@@ -24617,7 +24620,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="23" t="s">
         <v>27</v>
       </c>
@@ -24704,7 +24707,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="252" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>28</v>
       </c>
@@ -24793,7 +24796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="253" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>28</v>
       </c>
@@ -24894,7 +24897,7 @@
         <v>161.25</v>
       </c>
     </row>
-    <row r="254" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>28</v>
       </c>
@@ -24991,7 +24994,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>28</v>
       </c>
@@ -25086,7 +25089,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>28</v>
       </c>
@@ -25179,7 +25182,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>28</v>
       </c>
@@ -25276,7 +25279,7 @@
         <v>5.5000000000000007E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>28</v>
       </c>
@@ -25379,7 +25382,7 @@
         <v>5.5000000000000007E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>28</v>
       </c>
@@ -25468,7 +25471,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="260" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>28</v>
       </c>
@@ -25575,7 +25578,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="261" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>28</v>
       </c>
@@ -25604,67 +25607,67 @@
         <v>82</v>
       </c>
       <c r="J261" s="3" t="s">
-        <v>147</v>
+        <v>247</v>
       </c>
       <c r="K261" s="3" t="s">
         <v>69</v>
       </c>
       <c r="L261" s="5">
+        <v>350</v>
+      </c>
+      <c r="M261" s="5">
+        <v>250</v>
+      </c>
+      <c r="N261" s="5">
+        <v>450</v>
+      </c>
+      <c r="O261" s="5">
+        <v>400</v>
+      </c>
+      <c r="P261" s="5">
+        <v>300</v>
+      </c>
+      <c r="Q261" s="5">
+        <v>500</v>
+      </c>
+      <c r="R261" s="5">
+        <v>450</v>
+      </c>
+      <c r="S261" s="5">
+        <v>350</v>
+      </c>
+      <c r="T261" s="5">
+        <v>550</v>
+      </c>
+      <c r="U261" s="5">
+        <v>450</v>
+      </c>
+      <c r="V261" s="5">
+        <v>350</v>
+      </c>
+      <c r="W261" s="5">
+        <v>550</v>
+      </c>
+      <c r="X261" s="5">
+        <v>500</v>
+      </c>
+      <c r="Y261" s="5">
+        <v>400</v>
+      </c>
+      <c r="Z261" s="5">
+        <v>600</v>
+      </c>
+      <c r="AA261" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB261" s="3">
+        <v>550</v>
+      </c>
+      <c r="AC261" s="3">
         <v>700</v>
       </c>
-      <c r="M261" s="5">
-        <v>500</v>
-      </c>
-      <c r="N261" s="5">
-        <v>900</v>
-      </c>
-      <c r="O261" s="5">
-        <v>800</v>
-      </c>
-      <c r="P261" s="5">
-        <v>600</v>
-      </c>
-      <c r="Q261" s="5">
-        <v>1000</v>
-      </c>
-      <c r="R261" s="5">
-        <v>900</v>
-      </c>
-      <c r="S261" s="5">
-        <v>700</v>
-      </c>
-      <c r="T261" s="5">
-        <v>1100</v>
-      </c>
-      <c r="U261" s="5">
-        <v>900</v>
-      </c>
-      <c r="V261" s="5">
-        <v>700</v>
-      </c>
-      <c r="W261" s="5">
-        <v>1100</v>
-      </c>
-      <c r="X261" s="5">
-        <v>1000</v>
-      </c>
-      <c r="Y261" s="5">
-        <v>800</v>
-      </c>
-      <c r="Z261" s="5">
-        <v>1200</v>
-      </c>
-      <c r="AA261" s="3">
-        <v>1200</v>
-      </c>
-      <c r="AB261" s="3">
-        <v>1100</v>
-      </c>
-      <c r="AC261" s="3">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="262" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>28</v>
       </c>
@@ -25745,7 +25748,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>28</v>
       </c>
@@ -25835,7 +25838,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="264" spans="1:29" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:29" s="27" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>28</v>
       </c>
@@ -25925,7 +25928,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:29" s="27" customFormat="1" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:29" s="27" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>28</v>
       </c>
@@ -26029,7 +26032,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="266" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>28</v>
       </c>
@@ -26133,7 +26136,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="267" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>28</v>
       </c>
@@ -26198,7 +26201,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>28</v>
       </c>
@@ -26263,7 +26266,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>28</v>
       </c>
@@ -26352,7 +26355,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>28</v>
       </c>
@@ -26441,7 +26444,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>28</v>
       </c>
@@ -26530,7 +26533,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>28</v>
       </c>
@@ -26619,7 +26622,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>28</v>
       </c>
@@ -26708,7 +26711,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>28</v>
       </c>
@@ -26797,7 +26800,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>28</v>
       </c>
@@ -26886,7 +26889,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>28</v>
       </c>
@@ -26981,7 +26984,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>28</v>
       </c>
@@ -27076,7 +27079,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>28</v>
       </c>
@@ -27171,7 +27174,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>28</v>
       </c>
@@ -27266,7 +27269,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>28</v>
       </c>
@@ -27361,7 +27364,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>28</v>
       </c>
@@ -27456,7 +27459,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>28</v>
       </c>
@@ -27551,7 +27554,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="283" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>28</v>
       </c>
@@ -27640,7 +27643,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="284" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>28</v>
       </c>
@@ -27705,7 +27708,7 @@
       <c r="AB284" s="5"/>
       <c r="AC284" s="5"/>
     </row>
-    <row r="285" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>28</v>
       </c>
@@ -27800,7 +27803,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="286" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>28</v>
       </c>
@@ -27889,7 +27892,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="287" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3" t="s">
         <v>28</v>
       </c>
@@ -27978,7 +27981,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="288" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3" t="s">
         <v>28</v>
       </c>
@@ -28067,7 +28070,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="289" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3" t="s">
         <v>28</v>
       </c>
@@ -28156,7 +28159,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="290" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3" t="s">
         <v>28</v>
       </c>
@@ -28245,7 +28248,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="291" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3" t="s">
         <v>28</v>
       </c>
@@ -28334,7 +28337,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="292" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3" t="s">
         <v>28</v>
       </c>
@@ -28423,7 +28426,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3" t="s">
         <v>28</v>
       </c>
@@ -28488,7 +28491,7 @@
       <c r="AB293" s="3"/>
       <c r="AC293" s="3"/>
     </row>
-    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3" t="s">
         <v>28</v>
       </c>
@@ -28553,7 +28556,7 @@
       <c r="AB294" s="5"/>
       <c r="AC294" s="5"/>
     </row>
-    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3" t="s">
         <v>28</v>
       </c>
@@ -28618,7 +28621,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>28</v>
       </c>
@@ -28723,8 +28726,12 @@
   <autoFilter ref="A2:AC296">
     <filterColumn colId="4">
       <filters>
-        <filter val="fuel cell ancillary BoP mass per power"/>
-        <filter val="fuel cell essential BoP mass per power"/>
+        <filter val="battery cell energy density, LFP"/>
+        <filter val="battery cell energy density, LTO"/>
+        <filter val="battery cell energy density, NCA"/>
+        <filter val="battery cell energy density, NMC-111"/>
+        <filter val="battery cell power density"/>
+        <filter val="fuel cell power area density"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -1303,13 +1303,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AD296"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L154" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J207" sqref="J207"/>
+      <selection pane="bottomRight" activeCell="R293" sqref="R293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1477,7 +1478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -1687,7 +1688,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>29</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -2099,7 +2100,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2200,7 +2201,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -2265,7 +2266,7 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -2443,7 +2444,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:29" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -2758,7 +2759,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:29" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" ht="14.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>29</v>
       </c>
@@ -2960,7 +2961,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>29</v>
       </c>
@@ -3061,7 +3062,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>29</v>
       </c>
@@ -3150,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>943.11249999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>29</v>
       </c>
@@ -3354,7 +3355,7 @@
         <v>1886.2249999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>3600.9749999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>29</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>3772.45</v>
       </c>
     </row>
-    <row r="24" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>29</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>4115.3999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>29</v>
       </c>
@@ -3762,7 +3763,7 @@
         <v>4115.3999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>29</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>5658.6750000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>57</v>
       </c>
@@ -3965,7 +3966,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -4066,7 +4067,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>2.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>57</v>
       </c>
@@ -4268,7 +4269,7 @@
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -4370,7 +4371,7 @@
       </c>
       <c r="AD31" s="1"/>
     </row>
-    <row r="32" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
@@ -4472,7 +4473,7 @@
       </c>
       <c r="AD32" s="1"/>
     </row>
-    <row r="33" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>57</v>
       </c>
@@ -4574,7 +4575,7 @@
       </c>
       <c r="AD33" s="1"/>
     </row>
-    <row r="34" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>57</v>
       </c>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="AD34" s="1"/>
     </row>
-    <row r="35" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>57</v>
       </c>
@@ -4738,7 +4739,7 @@
       </c>
       <c r="AD35" s="1"/>
     </row>
-    <row r="36" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>57</v>
       </c>
@@ -4820,7 +4821,7 @@
       </c>
       <c r="AD36" s="1"/>
     </row>
-    <row r="37" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
@@ -4902,7 +4903,7 @@
       </c>
       <c r="AD37" s="1"/>
     </row>
-    <row r="38" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -4984,7 +4985,7 @@
       </c>
       <c r="AD38" s="1"/>
     </row>
-    <row r="39" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>57</v>
       </c>
@@ -5066,7 +5067,7 @@
       </c>
       <c r="AD39" s="1"/>
     </row>
-    <row r="40" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
@@ -5148,7 +5149,7 @@
       </c>
       <c r="AD40" s="1"/>
     </row>
-    <row r="41" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>57</v>
       </c>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="AD41" s="1"/>
     </row>
-    <row r="42" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
@@ -5364,7 +5365,7 @@
       </c>
       <c r="AD42" s="1"/>
     </row>
-    <row r="43" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>57</v>
       </c>
@@ -5472,7 +5473,7 @@
       </c>
       <c r="AD43" s="1"/>
     </row>
-    <row r="44" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
@@ -5580,7 +5581,7 @@
       </c>
       <c r="AD44" s="1"/>
     </row>
-    <row r="45" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
@@ -5688,7 +5689,7 @@
       </c>
       <c r="AD45" s="1"/>
     </row>
-    <row r="46" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>57</v>
       </c>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="AD46" s="1"/>
     </row>
-    <row r="47" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>57</v>
       </c>
@@ -5904,7 +5905,7 @@
       </c>
       <c r="AD47" s="1"/>
     </row>
-    <row r="48" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>57</v>
       </c>
@@ -6012,7 +6013,7 @@
       </c>
       <c r="AD48" s="1"/>
     </row>
-    <row r="49" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>57</v>
       </c>
@@ -6120,7 +6121,7 @@
       </c>
       <c r="AD49" s="1"/>
     </row>
-    <row r="50" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>57</v>
       </c>
@@ -6228,7 +6229,7 @@
       </c>
       <c r="AD50" s="1"/>
     </row>
-    <row r="51" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>57</v>
       </c>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="AD51" s="1"/>
     </row>
-    <row r="52" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>57</v>
       </c>
@@ -6444,7 +6445,7 @@
       </c>
       <c r="AD52" s="1"/>
     </row>
-    <row r="53" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>57</v>
       </c>
@@ -6552,7 +6553,7 @@
       </c>
       <c r="AD53" s="1"/>
     </row>
-    <row r="54" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>57</v>
       </c>
@@ -6660,7 +6661,7 @@
       </c>
       <c r="AD54" s="1"/>
     </row>
-    <row r="55" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>57</v>
       </c>
@@ -6750,7 +6751,7 @@
       </c>
       <c r="AD55" s="1"/>
     </row>
-    <row r="56" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
@@ -6840,7 +6841,7 @@
       </c>
       <c r="AD56" s="1"/>
     </row>
-    <row r="57" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>57</v>
       </c>
@@ -6930,7 +6931,7 @@
       </c>
       <c r="AD57" s="1"/>
     </row>
-    <row r="58" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>57</v>
       </c>
@@ -7020,7 +7021,7 @@
       </c>
       <c r="AD58" s="1"/>
     </row>
-    <row r="59" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>57</v>
       </c>
@@ -7110,7 +7111,7 @@
       </c>
       <c r="AD59" s="1"/>
     </row>
-    <row r="60" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>57</v>
       </c>
@@ -7200,7 +7201,7 @@
       </c>
       <c r="AD60" s="1"/>
     </row>
-    <row r="61" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
@@ -7290,7 +7291,7 @@
       </c>
       <c r="AD61" s="1"/>
     </row>
-    <row r="62" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>57</v>
       </c>
@@ -7372,7 +7373,7 @@
       </c>
       <c r="AD62" s="1"/>
     </row>
-    <row r="63" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>57</v>
       </c>
@@ -7462,7 +7463,7 @@
       </c>
       <c r="AD63" s="1"/>
     </row>
-    <row r="64" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>57</v>
       </c>
@@ -7552,7 +7553,7 @@
       </c>
       <c r="AD64" s="1"/>
     </row>
-    <row r="65" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>57</v>
       </c>
@@ -7642,7 +7643,7 @@
       </c>
       <c r="AD65" s="1"/>
     </row>
-    <row r="66" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>57</v>
       </c>
@@ -7732,7 +7733,7 @@
       </c>
       <c r="AD66" s="1"/>
     </row>
-    <row r="67" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>57</v>
       </c>
@@ -7822,7 +7823,7 @@
       </c>
       <c r="AD67" s="1"/>
     </row>
-    <row r="68" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>57</v>
       </c>
@@ -7912,7 +7913,7 @@
       </c>
       <c r="AD68" s="1"/>
     </row>
-    <row r="69" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>57</v>
       </c>
@@ -8002,7 +8003,7 @@
       </c>
       <c r="AD69" s="1"/>
     </row>
-    <row r="70" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>57</v>
       </c>
@@ -8084,7 +8085,7 @@
       </c>
       <c r="AD70" s="1"/>
     </row>
-    <row r="71" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>57</v>
       </c>
@@ -8166,7 +8167,7 @@
       </c>
       <c r="AD71" s="1"/>
     </row>
-    <row r="72" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>57</v>
       </c>
@@ -8254,7 +8255,7 @@
       </c>
       <c r="AD72" s="1"/>
     </row>
-    <row r="73" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>57</v>
       </c>
@@ -8336,7 +8337,7 @@
       </c>
       <c r="AD73" s="1"/>
     </row>
-    <row r="74" spans="1:30" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>57</v>
       </c>
@@ -8444,7 +8445,7 @@
       </c>
       <c r="AD74" s="1"/>
     </row>
-    <row r="75" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>57</v>
       </c>
@@ -8526,7 +8527,7 @@
       </c>
       <c r="AD75" s="1"/>
     </row>
-    <row r="76" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>57</v>
       </c>
@@ -8608,7 +8609,7 @@
       </c>
       <c r="AD76" s="1"/>
     </row>
-    <row r="77" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>57</v>
       </c>
@@ -8690,7 +8691,7 @@
       </c>
       <c r="AD77" s="1"/>
     </row>
-    <row r="78" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>57</v>
       </c>
@@ -8772,7 +8773,7 @@
       </c>
       <c r="AD78" s="1"/>
     </row>
-    <row r="79" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>57</v>
       </c>
@@ -8854,7 +8855,7 @@
       </c>
       <c r="AD79" s="1"/>
     </row>
-    <row r="80" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>57</v>
       </c>
@@ -8936,7 +8937,7 @@
       </c>
       <c r="AD80" s="1"/>
     </row>
-    <row r="81" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>57</v>
       </c>
@@ -9018,7 +9019,7 @@
       </c>
       <c r="AD81" s="1"/>
     </row>
-    <row r="82" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>57</v>
       </c>
@@ -9076,7 +9077,7 @@
       </c>
       <c r="AD82" s="1"/>
     </row>
-    <row r="83" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>57</v>
       </c>
@@ -9158,7 +9159,7 @@
       </c>
       <c r="AD83" s="1"/>
     </row>
-    <row r="84" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>57</v>
       </c>
@@ -9240,7 +9241,7 @@
       </c>
       <c r="AD84" s="1"/>
     </row>
-    <row r="85" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>57</v>
       </c>
@@ -9322,7 +9323,7 @@
       </c>
       <c r="AD85" s="1"/>
     </row>
-    <row r="86" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>57</v>
       </c>
@@ -9404,7 +9405,7 @@
       </c>
       <c r="AD86" s="1"/>
     </row>
-    <row r="87" spans="1:30" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>57</v>
       </c>
@@ -9494,7 +9495,7 @@
       </c>
       <c r="AD87" s="1"/>
     </row>
-    <row r="88" spans="1:30" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>57</v>
       </c>
@@ -9584,7 +9585,7 @@
       </c>
       <c r="AD88" s="1"/>
     </row>
-    <row r="89" spans="1:30" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>57</v>
       </c>
@@ -9674,7 +9675,7 @@
       </c>
       <c r="AD89" s="1"/>
     </row>
-    <row r="90" spans="1:30" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>57</v>
       </c>
@@ -9764,7 +9765,7 @@
       </c>
       <c r="AD90" s="1"/>
     </row>
-    <row r="91" spans="1:30" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>57</v>
       </c>
@@ -9854,7 +9855,7 @@
       </c>
       <c r="AD91" s="1"/>
     </row>
-    <row r="92" spans="1:30" s="24" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" s="24" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>57</v>
       </c>
@@ -9944,7 +9945,7 @@
       </c>
       <c r="AD92" s="1"/>
     </row>
-    <row r="93" spans="1:30" s="24" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" s="24" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>57</v>
       </c>
@@ -10026,7 +10027,7 @@
       </c>
       <c r="AD93" s="1"/>
     </row>
-    <row r="94" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>57</v>
       </c>
@@ -10113,7 +10114,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>35</v>
       </c>
@@ -10214,7 +10215,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="96" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>35</v>
       </c>
@@ -10315,7 +10316,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>35</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>35</v>
       </c>
@@ -10517,7 +10518,7 @@
         <v>875000</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>35</v>
       </c>
@@ -10618,7 +10619,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>35</v>
       </c>
@@ -10719,7 +10720,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>35</v>
       </c>
@@ -10820,7 +10821,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>35</v>
       </c>
@@ -10921,7 +10922,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>35</v>
       </c>
@@ -11022,7 +11023,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>35</v>
       </c>
@@ -11123,7 +11124,7 @@
         <v>52500</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>35</v>
       </c>
@@ -11224,7 +11225,7 @@
         <v>43750</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>35</v>
       </c>
@@ -11325,7 +11326,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>35</v>
       </c>
@@ -11426,7 +11427,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>35</v>
       </c>
@@ -11527,7 +11528,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>37</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>37</v>
       </c>
@@ -11705,7 +11706,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>37</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>37</v>
       </c>
@@ -11875,7 +11876,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>30</v>
       </c>
@@ -11936,7 +11937,7 @@
       <c r="AB113" s="5"/>
       <c r="AC113" s="5"/>
     </row>
-    <row r="114" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>30</v>
       </c>
@@ -11997,7 +11998,7 @@
       <c r="AB114" s="5"/>
       <c r="AC114" s="5"/>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>30</v>
       </c>
@@ -12058,7 +12059,7 @@
       <c r="AB115" s="5"/>
       <c r="AC115" s="5"/>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>30</v>
       </c>
@@ -12147,7 +12148,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>30</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="118" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>30</v>
       </c>
@@ -12321,7 +12322,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>30</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>30</v>
       </c>
@@ -12495,7 +12496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="121" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>30</v>
       </c>
@@ -12584,7 +12585,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>30</v>
       </c>
@@ -12683,7 +12684,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>30</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>30</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>30</v>
       </c>
@@ -12986,7 +12987,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>30</v>
       </c>
@@ -13075,7 +13076,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>30</v>
       </c>
@@ -13170,7 +13171,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>30</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>30</v>
       </c>
@@ -13354,7 +13355,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>30</v>
       </c>
@@ -13443,7 +13444,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>30</v>
       </c>
@@ -13532,7 +13533,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>30</v>
       </c>
@@ -13621,7 +13622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>30</v>
       </c>
@@ -13716,7 +13717,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>30</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="135" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>30</v>
       </c>
@@ -13894,7 +13895,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>30</v>
       </c>
@@ -13983,7 +13984,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="137" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>30</v>
       </c>
@@ -14070,7 +14071,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>30</v>
       </c>
@@ -14157,7 +14158,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>30</v>
       </c>
@@ -14256,7 +14257,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>30</v>
       </c>
@@ -14355,7 +14356,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="23" t="s">
         <v>27</v>
       </c>
@@ -14417,7 +14418,7 @@
       <c r="AB141" s="19"/>
       <c r="AC141" s="19"/>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="23" t="s">
         <v>27</v>
       </c>
@@ -14479,7 +14480,7 @@
       <c r="AB142" s="19"/>
       <c r="AC142" s="19"/>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="23" t="s">
         <v>27</v>
       </c>
@@ -14541,7 +14542,7 @@
       <c r="AB143" s="19"/>
       <c r="AC143" s="19"/>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="23" t="s">
         <v>27</v>
       </c>
@@ -14603,7 +14604,7 @@
       <c r="AB144" s="19"/>
       <c r="AC144" s="19"/>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="23" t="s">
         <v>27</v>
       </c>
@@ -14665,7 +14666,7 @@
       <c r="AB145" s="19"/>
       <c r="AC145" s="19"/>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="23" t="s">
         <v>27</v>
       </c>
@@ -14727,7 +14728,7 @@
       <c r="AB146" s="19"/>
       <c r="AC146" s="19"/>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="23" t="s">
         <v>27</v>
       </c>
@@ -14789,7 +14790,7 @@
       <c r="AB147" s="19"/>
       <c r="AC147" s="19"/>
     </row>
-    <row r="148" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="23" t="s">
         <v>27</v>
       </c>
@@ -14890,7 +14891,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="23" t="s">
         <v>27</v>
       </c>
@@ -14991,7 +14992,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
         <v>27</v>
       </c>
@@ -15092,7 +15093,7 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="23" t="s">
         <v>27</v>
       </c>
@@ -15194,7 +15195,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="23" t="s">
         <v>27</v>
       </c>
@@ -15295,7 +15296,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="23" t="s">
         <v>27</v>
       </c>
@@ -15396,7 +15397,7 @@
         <v>1777.5</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
         <v>27</v>
       </c>
@@ -15497,7 +15498,7 @@
         <v>2666.25</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="23" t="s">
         <v>27</v>
       </c>
@@ -15598,7 +15599,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="23" t="s">
         <v>27</v>
       </c>
@@ -15699,7 +15700,7 @@
         <v>831.25</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="23" t="s">
         <v>27</v>
       </c>
@@ -15800,7 +15801,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="23" t="s">
         <v>27</v>
       </c>
@@ -15902,7 +15903,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
         <v>27</v>
       </c>
@@ -16003,7 +16004,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="23" t="s">
         <v>27</v>
       </c>
@@ -16104,7 +16105,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="161" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
         <v>27</v>
       </c>
@@ -16205,7 +16206,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="23" t="s">
         <v>27</v>
       </c>
@@ -16292,7 +16293,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="23" t="s">
         <v>27</v>
       </c>
@@ -16381,7 +16382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="23" t="s">
         <v>27</v>
       </c>
@@ -16470,7 +16471,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="23" t="s">
         <v>27</v>
       </c>
@@ -16559,7 +16560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="23" t="s">
         <v>27</v>
       </c>
@@ -16648,7 +16649,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="23" t="s">
         <v>27</v>
       </c>
@@ -16737,7 +16738,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="23" t="s">
         <v>27</v>
       </c>
@@ -16826,7 +16827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="23" t="s">
         <v>27</v>
       </c>
@@ -16915,7 +16916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="23" t="s">
         <v>27</v>
       </c>
@@ -17022,7 +17023,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="23" t="s">
         <v>27</v>
       </c>
@@ -17129,7 +17130,7 @@
         <v>34.4</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="23" t="s">
         <v>27</v>
       </c>
@@ -17230,7 +17231,7 @@
         <v>35.200000000000003</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="23" t="s">
         <v>27</v>
       </c>
@@ -17331,7 +17332,7 @@
         <v>31.200000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="23" t="s">
         <v>27</v>
       </c>
@@ -17432,7 +17433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="23" t="s">
         <v>27</v>
       </c>
@@ -17533,7 +17534,7 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="23" t="s">
         <v>27</v>
       </c>
@@ -17634,7 +17635,7 @@
         <v>19.200000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="23" t="s">
         <v>27</v>
       </c>
@@ -17735,7 +17736,7 @@
         <v>148.75</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
         <v>27</v>
       </c>
@@ -17836,7 +17837,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="23" t="s">
         <v>27</v>
       </c>
@@ -17937,7 +17938,7 @@
         <v>767.5</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="23" t="s">
         <v>27</v>
       </c>
@@ -18039,7 +18040,7 @@
         <v>3125</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="23" t="s">
         <v>27</v>
       </c>
@@ -18140,7 +18141,7 @@
         <v>1058.75</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
         <v>27</v>
       </c>
@@ -18241,7 +18242,7 @@
         <v>1323.75</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
         <v>27</v>
       </c>
@@ -18342,7 +18343,7 @@
         <v>5062.5</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="23" t="s">
         <v>27</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="23" t="s">
         <v>27</v>
       </c>
@@ -18520,7 +18521,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="23" t="s">
         <v>27</v>
       </c>
@@ -18609,7 +18610,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="23" t="s">
         <v>27</v>
       </c>
@@ -18698,7 +18699,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="23" t="s">
         <v>27</v>
       </c>
@@ -18787,7 +18788,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="23" t="s">
         <v>27</v>
       </c>
@@ -18876,7 +18877,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="23" t="s">
         <v>27</v>
       </c>
@@ -18965,7 +18966,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="23" t="s">
         <v>27</v>
       </c>
@@ -19062,7 +19063,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="23" t="s">
         <v>27</v>
       </c>
@@ -19159,7 +19160,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="193" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>27</v>
       </c>
@@ -19220,7 +19221,7 @@
       <c r="AB193" s="4"/>
       <c r="AC193" s="4"/>
     </row>
-    <row r="194" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>27</v>
       </c>
@@ -19281,7 +19282,7 @@
       <c r="AB194" s="4"/>
       <c r="AC194" s="4"/>
     </row>
-    <row r="195" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>27</v>
       </c>
@@ -19342,7 +19343,7 @@
       <c r="AB195" s="4"/>
       <c r="AC195" s="4"/>
     </row>
-    <row r="196" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>27</v>
       </c>
@@ -19403,7 +19404,7 @@
       <c r="AB196" s="4"/>
       <c r="AC196" s="4"/>
     </row>
-    <row r="197" spans="1:29" ht="31.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:29" ht="31.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>27</v>
       </c>
@@ -19464,7 +19465,7 @@
       <c r="AB197" s="4"/>
       <c r="AC197" s="4"/>
     </row>
-    <row r="198" spans="1:29" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:29" ht="29.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>27</v>
       </c>
@@ -19525,7 +19526,7 @@
       <c r="AB198" s="4"/>
       <c r="AC198" s="4"/>
     </row>
-    <row r="199" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>27</v>
       </c>
@@ -19586,7 +19587,7 @@
       <c r="AB199" s="4"/>
       <c r="AC199" s="4"/>
     </row>
-    <row r="200" spans="1:29" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:29" ht="36.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
         <v>27</v>
       </c>
@@ -19692,7 +19693,7 @@
         <v>878.75</v>
       </c>
     </row>
-    <row r="201" spans="1:29" ht="26.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:29" ht="26.65" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
         <v>27</v>
       </c>
@@ -19798,7 +19799,7 @@
         <v>1882.5</v>
       </c>
     </row>
-    <row r="202" spans="1:29" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:29" ht="25.15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
         <v>27</v>
       </c>
@@ -19905,7 +19906,7 @@
         <v>4518.75</v>
       </c>
     </row>
-    <row r="203" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
         <v>27</v>
       </c>
@@ -20008,7 +20009,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="204" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
         <v>27</v>
       </c>
@@ -20115,7 +20116,7 @@
         <v>5538.75</v>
       </c>
     </row>
-    <row r="205" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
         <v>27</v>
       </c>
@@ -20222,7 +20223,7 @@
         <v>6923.75</v>
       </c>
     </row>
-    <row r="206" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
         <v>27</v>
       </c>
@@ -20329,7 +20330,7 @@
         <v>10386.25</v>
       </c>
     </row>
-    <row r="207" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="23" t="s">
         <v>27</v>
       </c>
@@ -20427,7 +20428,7 @@
         <v>3.8581874999999992</v>
       </c>
     </row>
-    <row r="208" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="23" t="s">
         <v>27</v>
       </c>
@@ -20525,7 +20526,7 @@
         <v>5.4871999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="23" t="s">
         <v>27</v>
       </c>
@@ -20623,7 +20624,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="23" t="s">
         <v>27</v>
       </c>
@@ -20721,7 +20722,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="23" t="s">
         <v>27</v>
       </c>
@@ -20810,7 +20811,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="23" t="s">
         <v>27</v>
       </c>
@@ -20908,7 +20909,7 @@
         <v>7.2019499999999992</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="23" t="s">
         <v>27</v>
       </c>
@@ -21006,7 +21007,7 @@
         <v>7.2019499999999992</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="23" t="s">
         <v>27</v>
       </c>
@@ -21107,7 +21108,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="23" t="s">
         <v>27</v>
       </c>
@@ -21208,7 +21209,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="23" t="s">
         <v>27</v>
       </c>
@@ -21309,7 +21310,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
         <v>27</v>
       </c>
@@ -21411,7 +21412,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:29" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
         <v>27</v>
       </c>
@@ -21512,7 +21513,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
         <v>27</v>
       </c>
@@ -21613,7 +21614,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
         <v>27</v>
       </c>
@@ -21714,7 +21715,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="23" t="s">
         <v>27</v>
       </c>
@@ -21815,7 +21816,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
         <v>27</v>
       </c>
@@ -21916,7 +21917,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
         <v>27</v>
       </c>
@@ -22017,7 +22018,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="23" t="s">
         <v>27</v>
       </c>
@@ -22119,7 +22120,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>27</v>
       </c>
@@ -22220,7 +22221,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="23" t="s">
         <v>27</v>
       </c>
@@ -22321,7 +22322,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="23" t="s">
         <v>27</v>
       </c>
@@ -22422,7 +22423,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="23" t="s">
         <v>27</v>
       </c>
@@ -22523,7 +22524,7 @@
         <v>0.37400000000000005</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="23" t="s">
         <v>27</v>
       </c>
@@ -22624,7 +22625,7 @@
         <v>0.22000000000000003</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>27</v>
       </c>
@@ -22725,7 +22726,7 @@
         <v>0.35200000000000004</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>27</v>
       </c>
@@ -22826,7 +22827,7 @@
         <v>0.50600000000000012</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>27</v>
       </c>
@@ -22927,7 +22928,7 @@
         <v>0.49500000000000005</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>27</v>
       </c>
@@ -23028,7 +23029,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>27</v>
       </c>
@@ -23129,7 +23130,7 @@
         <v>0.38500000000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="23" t="s">
         <v>27</v>
       </c>
@@ -23230,7 +23231,7 @@
         <v>218.75</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="23" t="s">
         <v>27</v>
       </c>
@@ -23331,7 +23332,7 @@
         <v>468.75</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="23" t="s">
         <v>27</v>
       </c>
@@ -23432,7 +23433,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="23" t="s">
         <v>27</v>
       </c>
@@ -23534,7 +23535,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="23" t="s">
         <v>27</v>
       </c>
@@ -23635,7 +23636,7 @@
         <v>1152.5</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
         <v>27</v>
       </c>
@@ -23736,7 +23737,7 @@
         <v>1441.25</v>
       </c>
     </row>
-    <row r="241" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
         <v>27</v>
       </c>
@@ -23837,7 +23838,7 @@
         <v>2162.5</v>
       </c>
     </row>
-    <row r="242" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="23" t="s">
         <v>27</v>
       </c>
@@ -23938,7 +23939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="243" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="23" t="s">
         <v>27</v>
       </c>
@@ -24039,7 +24040,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="244" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="23" t="s">
         <v>27</v>
       </c>
@@ -24140,7 +24141,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="245" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="23" t="s">
         <v>27</v>
       </c>
@@ -24242,7 +24243,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="246" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="23" t="s">
         <v>27</v>
       </c>
@@ -24343,7 +24344,7 @@
         <v>783.75</v>
       </c>
     </row>
-    <row r="247" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="23" t="s">
         <v>27</v>
       </c>
@@ -24444,7 +24445,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="248" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="23" t="s">
         <v>27</v>
       </c>
@@ -24545,7 +24546,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="249" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="23" t="s">
         <v>27</v>
       </c>
@@ -24608,7 +24609,7 @@
       <c r="AB249" s="5"/>
       <c r="AC249" s="5"/>
     </row>
-    <row r="250" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="23" t="s">
         <v>27</v>
       </c>
@@ -24695,7 +24696,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="251" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="23" t="s">
         <v>27</v>
       </c>
@@ -24782,7 +24783,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="252" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>28</v>
       </c>
@@ -24883,7 +24884,7 @@
         <v>25.960000000000004</v>
       </c>
     </row>
-    <row r="253" spans="1:29" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>28</v>
       </c>
@@ -24984,7 +24985,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="254" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>28</v>
       </c>
@@ -25081,7 +25082,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="255" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>28</v>
       </c>
@@ -25176,7 +25177,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="256" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>28</v>
       </c>
@@ -25269,7 +25270,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="257" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>28</v>
       </c>
@@ -25366,7 +25367,7 @@
         <v>5.5000000000000007E-2</v>
       </c>
     </row>
-    <row r="258" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>28</v>
       </c>
@@ -25469,7 +25470,7 @@
         <v>5.5000000000000007E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:29" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>28</v>
       </c>
@@ -25558,7 +25559,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="260" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:29" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>28</v>
       </c>
@@ -25665,7 +25666,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="261" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:29" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>28</v>
       </c>
@@ -25754,7 +25755,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="262" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:29" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>28</v>
       </c>
@@ -25835,7 +25836,7 @@
         <v>1.1499999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:29" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>28</v>
       </c>
@@ -25925,7 +25926,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="264" spans="1:29" s="26" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:29" s="26" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>28</v>
       </c>
@@ -26015,7 +26016,7 @@
         <v>0.32300000000000001</v>
       </c>
     </row>
-    <row r="265" spans="1:29" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:29" s="26" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>28</v>
       </c>
@@ -26119,7 +26120,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="266" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>28</v>
       </c>
@@ -26223,7 +26224,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="267" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>28</v>
       </c>
@@ -26288,7 +26289,7 @@
       <c r="AB267" s="3"/>
       <c r="AC267" s="3"/>
     </row>
-    <row r="268" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>28</v>
       </c>
@@ -26353,7 +26354,7 @@
       <c r="AB268" s="3"/>
       <c r="AC268" s="3"/>
     </row>
-    <row r="269" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>28</v>
       </c>
@@ -26442,7 +26443,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="270" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>28</v>
       </c>
@@ -26531,7 +26532,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="271" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>28</v>
       </c>
@@ -26620,7 +26621,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="272" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>28</v>
       </c>
@@ -26709,7 +26710,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="273" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>28</v>
       </c>
@@ -26798,7 +26799,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="274" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>28</v>
       </c>
@@ -26887,7 +26888,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="275" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>28</v>
       </c>
@@ -26976,7 +26977,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="276" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>28</v>
       </c>
@@ -27071,7 +27072,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="277" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>28</v>
       </c>
@@ -27166,7 +27167,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="278" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>28</v>
       </c>
@@ -27261,7 +27262,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="279" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>28</v>
       </c>
@@ -27356,7 +27357,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="280" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>28</v>
       </c>
@@ -27451,7 +27452,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="281" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>28</v>
       </c>
@@ -27546,7 +27547,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="282" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>28</v>
       </c>
@@ -27641,7 +27642,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="283" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>28</v>
       </c>
@@ -27730,7 +27731,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="284" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>28</v>
       </c>
@@ -27795,7 +27796,7 @@
       <c r="AB284" s="5"/>
       <c r="AC284" s="5"/>
     </row>
-    <row r="285" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>28</v>
       </c>
@@ -28708,7 +28709,7 @@
       <c r="AB295" s="3"/>
       <c r="AC295" s="3"/>
     </row>
-    <row r="296" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3" t="s">
         <v>28</v>
       </c>
@@ -28810,7 +28811,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AC296"/>
+  <autoFilter ref="A2:AC296">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="combustion power share"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I251" r:id="rId1"/>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -1317,10 +1317,10 @@
   <dimension ref="A1:AD303"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="Y141" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="S261" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB144" sqref="AB144"/>
+      <selection pane="bottomRight" activeCell="AB261" sqref="AB261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -14366,7 +14366,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>30</v>
       </c>
@@ -14453,7 +14453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>30</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>30</v>
       </c>
@@ -14627,7 +14627,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>30</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>99.000000000000014</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>30</v>
       </c>
@@ -14801,7 +14801,7 @@
         <v>104.50000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>30</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>121.00000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:29" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>30</v>
       </c>
@@ -25658,7 +25658,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:29" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:29" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A261" s="3" t="s">
         <v>28</v>
       </c>
@@ -25722,13 +25722,13 @@
         <v>5</v>
       </c>
       <c r="U261" s="5">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="V261" s="5">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W261" s="5">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="X261" s="5">
         <f>R261*0.95</f>
@@ -29485,9 +29485,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A2:AC303">
-    <filterColumn colId="1">
+    <filterColumn colId="4">
       <filters>
-        <filter val="PHEV-d"/>
+        <filter val="power distribution unit mass"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -1363,10 +1363,10 @@
   <dimension ref="A1:AE320"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="N280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="Q179" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA281" sqref="AA281"/>
+      <selection pane="bottomRight" activeCell="AD186" sqref="AD186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -13614,7 +13614,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>29</v>
       </c>
@@ -13713,7 +13713,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>29</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A179" s="23" t="s">
         <v>26</v>
       </c>
@@ -18578,7 +18578,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A180" s="23" t="s">
         <v>26</v>
       </c>
@@ -18671,7 +18671,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A181" s="23" t="s">
         <v>26</v>
       </c>
@@ -18764,7 +18764,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A182" s="23" t="s">
         <v>26</v>
       </c>
@@ -18857,7 +18857,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A183" s="23" t="s">
         <v>26</v>
       </c>
@@ -18950,7 +18950,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A184" s="23" t="s">
         <v>26</v>
       </c>
@@ -19043,7 +19043,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A185" s="23" t="s">
         <v>26</v>
       </c>
@@ -19136,7 +19136,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A186" s="23" t="s">
         <v>26</v>
       </c>
@@ -19171,83 +19171,77 @@
         <v>68</v>
       </c>
       <c r="L186" s="5">
-        <f>L179*0.8</f>
-        <v>52.800000000000004</v>
+        <v>30</v>
       </c>
       <c r="M186" s="5">
         <f t="shared" ref="M186:M192" si="144">L186*0.9</f>
-        <v>47.52</v>
+        <v>27</v>
       </c>
       <c r="N186" s="5">
         <f t="shared" ref="N186:N192" si="145">L186*1.1</f>
-        <v>58.080000000000013</v>
+        <v>33</v>
       </c>
       <c r="O186" s="5">
-        <f t="shared" ref="O186:AC186" si="146">O179*0.8</f>
-        <v>52.800000000000004</v>
+        <v>30</v>
       </c>
       <c r="P186" s="5">
-        <f t="shared" ref="P186:P192" si="147">O186*0.9</f>
-        <v>47.52</v>
+        <f t="shared" ref="P186:P192" si="146">O186*0.9</f>
+        <v>27</v>
       </c>
       <c r="Q186" s="5">
-        <f t="shared" ref="Q186:Q192" si="148">O186*1.1</f>
-        <v>58.080000000000013</v>
+        <f t="shared" ref="Q186:Q192" si="147">O186*1.1</f>
+        <v>33</v>
       </c>
       <c r="R186" s="5">
-        <f t="shared" si="146"/>
-        <v>52.800000000000004</v>
+        <v>30</v>
       </c>
       <c r="S186" s="5">
-        <f t="shared" ref="S186:S192" si="149">R186*0.9</f>
-        <v>47.52</v>
+        <f t="shared" ref="S186:S192" si="148">R186*0.9</f>
+        <v>27</v>
       </c>
       <c r="T186" s="5">
-        <f t="shared" ref="T186:T192" si="150">R186*1.1</f>
-        <v>58.080000000000013</v>
+        <f t="shared" ref="T186:T192" si="149">R186*1.1</f>
+        <v>33</v>
       </c>
       <c r="U186" s="5">
-        <f t="shared" si="146"/>
-        <v>52.800000000000004</v>
+        <v>30</v>
       </c>
       <c r="V186" s="5">
-        <f t="shared" ref="V186:V192" si="151">U186*0.9</f>
-        <v>47.52</v>
+        <f t="shared" ref="V186:V192" si="150">U186*0.9</f>
+        <v>27</v>
       </c>
       <c r="W186" s="5">
-        <f t="shared" ref="W186:W192" si="152">U186*1.1</f>
-        <v>58.080000000000013</v>
+        <f t="shared" ref="W186:W192" si="151">U186*1.1</f>
+        <v>33</v>
       </c>
       <c r="X186" s="5">
-        <f t="shared" si="146"/>
-        <v>52.800000000000004</v>
+        <v>30</v>
       </c>
       <c r="Y186" s="5">
-        <f t="shared" ref="Y186:Y192" si="153">X186*0.9</f>
-        <v>47.52</v>
+        <f t="shared" ref="Y186:Y192" si="152">X186*0.9</f>
+        <v>27</v>
       </c>
       <c r="Z186" s="5">
-        <f t="shared" ref="Z186:Z192" si="154">X186*1.1</f>
-        <v>58.080000000000013</v>
+        <f t="shared" ref="Z186:Z192" si="153">X186*1.1</f>
+        <v>33</v>
       </c>
       <c r="AA186" s="5">
-        <f t="shared" si="146"/>
-        <v>52.800000000000004</v>
+        <v>30</v>
       </c>
       <c r="AB186" s="5">
-        <f t="shared" ref="AB186:AB192" si="155">AA186*0.9</f>
-        <v>47.52</v>
+        <f t="shared" ref="AB186:AB192" si="154">AA186*0.9</f>
+        <v>27</v>
       </c>
       <c r="AC186" s="5">
-        <f t="shared" ref="AC186:AC192" si="156">AA186*1.1</f>
-        <v>58.080000000000013</v>
+        <f t="shared" ref="AC186:AC192" si="155">AA186*1.1</f>
+        <v>33</v>
       </c>
       <c r="AE186" s="1" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A187" s="23" t="s">
         <v>26</v>
       </c>
@@ -19282,83 +19276,77 @@
         <v>68</v>
       </c>
       <c r="L187" s="5">
-        <f t="shared" ref="L187:N192" si="157">L180*0.8</f>
-        <v>30.400000000000002</v>
+        <v>30</v>
       </c>
       <c r="M187" s="5">
         <f t="shared" si="144"/>
-        <v>27.360000000000003</v>
+        <v>27</v>
       </c>
       <c r="N187" s="5">
         <f t="shared" si="145"/>
-        <v>33.440000000000005</v>
+        <v>33</v>
       </c>
       <c r="O187" s="5">
-        <f t="shared" ref="O187:AC187" si="158">O180*0.8</f>
-        <v>30.400000000000002</v>
+        <v>30</v>
       </c>
       <c r="P187" s="5">
+        <f t="shared" si="146"/>
+        <v>27</v>
+      </c>
+      <c r="Q187" s="5">
         <f t="shared" si="147"/>
-        <v>27.360000000000003</v>
-      </c>
-      <c r="Q187" s="5">
+        <v>33</v>
+      </c>
+      <c r="R187" s="5">
+        <v>30</v>
+      </c>
+      <c r="S187" s="5">
         <f t="shared" si="148"/>
-        <v>33.440000000000005</v>
-      </c>
-      <c r="R187" s="5">
-        <f t="shared" si="158"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="S187" s="5">
+        <v>27</v>
+      </c>
+      <c r="T187" s="5">
         <f t="shared" si="149"/>
-        <v>27.360000000000003</v>
-      </c>
-      <c r="T187" s="5">
+        <v>33</v>
+      </c>
+      <c r="U187" s="5">
+        <v>30</v>
+      </c>
+      <c r="V187" s="5">
         <f t="shared" si="150"/>
-        <v>33.440000000000005</v>
-      </c>
-      <c r="U187" s="5">
-        <f t="shared" si="158"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="V187" s="5">
+        <v>27</v>
+      </c>
+      <c r="W187" s="5">
         <f t="shared" si="151"/>
-        <v>27.360000000000003</v>
-      </c>
-      <c r="W187" s="5">
+        <v>33</v>
+      </c>
+      <c r="X187" s="5">
+        <v>30</v>
+      </c>
+      <c r="Y187" s="5">
         <f t="shared" si="152"/>
-        <v>33.440000000000005</v>
-      </c>
-      <c r="X187" s="5">
-        <f t="shared" si="158"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="Y187" s="5">
+        <v>27</v>
+      </c>
+      <c r="Z187" s="5">
         <f t="shared" si="153"/>
-        <v>27.360000000000003</v>
-      </c>
-      <c r="Z187" s="5">
+        <v>33</v>
+      </c>
+      <c r="AA187" s="5">
+        <v>30</v>
+      </c>
+      <c r="AB187" s="5">
         <f t="shared" si="154"/>
-        <v>33.440000000000005</v>
-      </c>
-      <c r="AA187" s="5">
-        <f t="shared" si="158"/>
-        <v>30.400000000000002</v>
-      </c>
-      <c r="AB187" s="5">
+        <v>27</v>
+      </c>
+      <c r="AC187" s="5">
         <f t="shared" si="155"/>
-        <v>27.360000000000003</v>
-      </c>
-      <c r="AC187" s="5">
-        <f t="shared" si="156"/>
-        <v>33.440000000000005</v>
+        <v>33</v>
       </c>
       <c r="AE187" s="1" t="str">
         <f t="shared" si="96"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A188" s="23" t="s">
         <v>26</v>
       </c>
@@ -19407,55 +19395,55 @@
         <v>30</v>
       </c>
       <c r="P188" s="5">
+        <f t="shared" si="146"/>
+        <v>27</v>
+      </c>
+      <c r="Q188" s="5">
         <f t="shared" si="147"/>
-        <v>27</v>
-      </c>
-      <c r="Q188" s="5">
-        <f t="shared" si="148"/>
         <v>33</v>
       </c>
       <c r="R188" s="5">
         <v>30</v>
       </c>
       <c r="S188" s="5">
+        <f t="shared" si="148"/>
+        <v>27</v>
+      </c>
+      <c r="T188" s="5">
         <f t="shared" si="149"/>
-        <v>27</v>
-      </c>
-      <c r="T188" s="5">
-        <f t="shared" si="150"/>
         <v>33</v>
       </c>
       <c r="U188" s="5">
         <v>30</v>
       </c>
       <c r="V188" s="5">
+        <f t="shared" si="150"/>
+        <v>27</v>
+      </c>
+      <c r="W188" s="5">
         <f t="shared" si="151"/>
-        <v>27</v>
-      </c>
-      <c r="W188" s="5">
-        <f t="shared" si="152"/>
         <v>33</v>
       </c>
       <c r="X188" s="5">
         <v>30</v>
       </c>
       <c r="Y188" s="5">
+        <f t="shared" si="152"/>
+        <v>27</v>
+      </c>
+      <c r="Z188" s="5">
         <f t="shared" si="153"/>
-        <v>27</v>
-      </c>
-      <c r="Z188" s="5">
-        <f t="shared" si="154"/>
         <v>33</v>
       </c>
       <c r="AA188" s="5">
         <v>30</v>
       </c>
       <c r="AB188" s="5">
+        <f t="shared" si="154"/>
+        <v>27</v>
+      </c>
+      <c r="AC188" s="5">
         <f t="shared" si="155"/>
-        <v>27</v>
-      </c>
-      <c r="AC188" s="5">
-        <f t="shared" si="156"/>
         <v>33</v>
       </c>
       <c r="AE188" s="1" t="str">
@@ -19463,7 +19451,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A189" s="23" t="s">
         <v>26</v>
       </c>
@@ -19512,55 +19500,55 @@
         <v>30</v>
       </c>
       <c r="P189" s="5">
+        <f t="shared" si="146"/>
+        <v>27</v>
+      </c>
+      <c r="Q189" s="5">
         <f t="shared" si="147"/>
-        <v>27</v>
-      </c>
-      <c r="Q189" s="5">
-        <f t="shared" si="148"/>
         <v>33</v>
       </c>
       <c r="R189" s="5">
         <v>30</v>
       </c>
       <c r="S189" s="5">
+        <f t="shared" si="148"/>
+        <v>27</v>
+      </c>
+      <c r="T189" s="5">
         <f t="shared" si="149"/>
-        <v>27</v>
-      </c>
-      <c r="T189" s="5">
-        <f t="shared" si="150"/>
         <v>33</v>
       </c>
       <c r="U189" s="5">
         <v>30</v>
       </c>
       <c r="V189" s="5">
+        <f t="shared" si="150"/>
+        <v>27</v>
+      </c>
+      <c r="W189" s="5">
         <f t="shared" si="151"/>
-        <v>27</v>
-      </c>
-      <c r="W189" s="5">
-        <f t="shared" si="152"/>
         <v>33</v>
       </c>
       <c r="X189" s="5">
         <v>30</v>
       </c>
       <c r="Y189" s="5">
+        <f t="shared" si="152"/>
+        <v>27</v>
+      </c>
+      <c r="Z189" s="5">
         <f t="shared" si="153"/>
-        <v>27</v>
-      </c>
-      <c r="Z189" s="5">
-        <f t="shared" si="154"/>
         <v>33</v>
       </c>
       <c r="AA189" s="5">
         <v>30</v>
       </c>
       <c r="AB189" s="5">
+        <f t="shared" si="154"/>
+        <v>27</v>
+      </c>
+      <c r="AC189" s="5">
         <f t="shared" si="155"/>
-        <v>27</v>
-      </c>
-      <c r="AC189" s="5">
-        <f t="shared" si="156"/>
         <v>33</v>
       </c>
       <c r="AE189" s="1" t="str">
@@ -19568,7 +19556,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A190" s="23" t="s">
         <v>26</v>
       </c>
@@ -19617,55 +19605,55 @@
         <v>30</v>
       </c>
       <c r="P190" s="5">
+        <f t="shared" si="146"/>
+        <v>27</v>
+      </c>
+      <c r="Q190" s="5">
         <f t="shared" si="147"/>
-        <v>27</v>
-      </c>
-      <c r="Q190" s="5">
-        <f t="shared" si="148"/>
         <v>33</v>
       </c>
       <c r="R190" s="5">
         <v>30</v>
       </c>
       <c r="S190" s="5">
+        <f t="shared" si="148"/>
+        <v>27</v>
+      </c>
+      <c r="T190" s="5">
         <f t="shared" si="149"/>
-        <v>27</v>
-      </c>
-      <c r="T190" s="5">
-        <f t="shared" si="150"/>
         <v>33</v>
       </c>
       <c r="U190" s="5">
         <v>30</v>
       </c>
       <c r="V190" s="5">
+        <f t="shared" si="150"/>
+        <v>27</v>
+      </c>
+      <c r="W190" s="5">
         <f t="shared" si="151"/>
-        <v>27</v>
-      </c>
-      <c r="W190" s="5">
-        <f t="shared" si="152"/>
         <v>33</v>
       </c>
       <c r="X190" s="5">
         <v>30</v>
       </c>
       <c r="Y190" s="5">
+        <f t="shared" si="152"/>
+        <v>27</v>
+      </c>
+      <c r="Z190" s="5">
         <f t="shared" si="153"/>
-        <v>27</v>
-      </c>
-      <c r="Z190" s="5">
-        <f t="shared" si="154"/>
         <v>33</v>
       </c>
       <c r="AA190" s="5">
         <v>30</v>
       </c>
       <c r="AB190" s="5">
+        <f t="shared" si="154"/>
+        <v>27</v>
+      </c>
+      <c r="AC190" s="5">
         <f t="shared" si="155"/>
-        <v>27</v>
-      </c>
-      <c r="AC190" s="5">
-        <f t="shared" si="156"/>
         <v>33</v>
       </c>
       <c r="AE190" s="1" t="str">
@@ -19673,7 +19661,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A191" s="23" t="s">
         <v>26</v>
       </c>
@@ -19722,55 +19710,55 @@
         <v>30</v>
       </c>
       <c r="P191" s="5">
+        <f t="shared" si="146"/>
+        <v>27</v>
+      </c>
+      <c r="Q191" s="5">
         <f t="shared" si="147"/>
-        <v>27</v>
-      </c>
-      <c r="Q191" s="5">
-        <f t="shared" si="148"/>
         <v>33</v>
       </c>
       <c r="R191" s="5">
         <v>30</v>
       </c>
       <c r="S191" s="5">
+        <f t="shared" si="148"/>
+        <v>27</v>
+      </c>
+      <c r="T191" s="5">
         <f t="shared" si="149"/>
-        <v>27</v>
-      </c>
-      <c r="T191" s="5">
-        <f t="shared" si="150"/>
         <v>33</v>
       </c>
       <c r="U191" s="5">
         <v>30</v>
       </c>
       <c r="V191" s="5">
+        <f t="shared" si="150"/>
+        <v>27</v>
+      </c>
+      <c r="W191" s="5">
         <f t="shared" si="151"/>
-        <v>27</v>
-      </c>
-      <c r="W191" s="5">
-        <f t="shared" si="152"/>
         <v>33</v>
       </c>
       <c r="X191" s="5">
         <v>30</v>
       </c>
       <c r="Y191" s="5">
+        <f t="shared" si="152"/>
+        <v>27</v>
+      </c>
+      <c r="Z191" s="5">
         <f t="shared" si="153"/>
-        <v>27</v>
-      </c>
-      <c r="Z191" s="5">
-        <f t="shared" si="154"/>
         <v>33</v>
       </c>
       <c r="AA191" s="5">
         <v>30</v>
       </c>
       <c r="AB191" s="5">
+        <f t="shared" si="154"/>
+        <v>27</v>
+      </c>
+      <c r="AC191" s="5">
         <f t="shared" si="155"/>
-        <v>27</v>
-      </c>
-      <c r="AC191" s="5">
-        <f t="shared" si="156"/>
         <v>33</v>
       </c>
       <c r="AE191" s="1" t="str">
@@ -19778,7 +19766,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A192" s="23" t="s">
         <v>26</v>
       </c>
@@ -19827,55 +19815,55 @@
         <v>30</v>
       </c>
       <c r="P192" s="5">
+        <f t="shared" si="146"/>
+        <v>27</v>
+      </c>
+      <c r="Q192" s="5">
         <f t="shared" si="147"/>
-        <v>27</v>
-      </c>
-      <c r="Q192" s="5">
-        <f t="shared" si="148"/>
         <v>33</v>
       </c>
       <c r="R192" s="5">
         <v>30</v>
       </c>
       <c r="S192" s="5">
+        <f t="shared" si="148"/>
+        <v>27</v>
+      </c>
+      <c r="T192" s="5">
         <f t="shared" si="149"/>
-        <v>27</v>
-      </c>
-      <c r="T192" s="5">
-        <f t="shared" si="150"/>
         <v>33</v>
       </c>
       <c r="U192" s="5">
         <v>30</v>
       </c>
       <c r="V192" s="5">
+        <f t="shared" si="150"/>
+        <v>27</v>
+      </c>
+      <c r="W192" s="5">
         <f t="shared" si="151"/>
-        <v>27</v>
-      </c>
-      <c r="W192" s="5">
-        <f t="shared" si="152"/>
         <v>33</v>
       </c>
       <c r="X192" s="5">
         <v>30</v>
       </c>
       <c r="Y192" s="5">
+        <f t="shared" si="152"/>
+        <v>27</v>
+      </c>
+      <c r="Z192" s="5">
         <f t="shared" si="153"/>
-        <v>27</v>
-      </c>
-      <c r="Z192" s="5">
-        <f t="shared" si="154"/>
         <v>33</v>
       </c>
       <c r="AA192" s="5">
         <v>30</v>
       </c>
       <c r="AB192" s="5">
+        <f t="shared" si="154"/>
+        <v>27</v>
+      </c>
+      <c r="AC192" s="5">
         <f t="shared" si="155"/>
-        <v>27</v>
-      </c>
-      <c r="AC192" s="5">
-        <f t="shared" si="156"/>
         <v>33</v>
       </c>
       <c r="AE192" s="1" t="str">
@@ -19883,7 +19871,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A193" s="23" t="s">
         <v>26</v>
       </c>
@@ -19932,63 +19920,63 @@
         <v>25</v>
       </c>
       <c r="P193" s="5">
-        <f t="shared" ref="P193:P199" si="159">O193*0.9</f>
+        <f t="shared" ref="P193:P199" si="156">O193*0.9</f>
         <v>22.5</v>
       </c>
       <c r="Q193" s="5">
-        <f t="shared" ref="Q193:Q199" si="160">O193*1.1</f>
+        <f t="shared" ref="Q193:Q199" si="157">O193*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="R193" s="5">
         <v>25</v>
       </c>
       <c r="S193" s="5">
-        <f t="shared" ref="S193:S199" si="161">R193*0.9</f>
+        <f t="shared" ref="S193:S199" si="158">R193*0.9</f>
         <v>22.5</v>
       </c>
       <c r="T193" s="5">
-        <f t="shared" ref="T193:T199" si="162">R193*1.1</f>
+        <f t="shared" ref="T193:T199" si="159">R193*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="U193" s="5">
         <v>25</v>
       </c>
       <c r="V193" s="5">
-        <f t="shared" ref="V193:V199" si="163">U193*0.9</f>
+        <f t="shared" ref="V193:V199" si="160">U193*0.9</f>
         <v>22.5</v>
       </c>
       <c r="W193" s="5">
-        <f t="shared" ref="W193:W199" si="164">U193*1.1</f>
+        <f t="shared" ref="W193:W199" si="161">U193*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="X193" s="5">
         <v>25</v>
       </c>
       <c r="Y193" s="5">
-        <f t="shared" ref="Y193:Y199" si="165">X193*0.9</f>
+        <f t="shared" ref="Y193:Y199" si="162">X193*0.9</f>
         <v>22.5</v>
       </c>
       <c r="Z193" s="5">
-        <f t="shared" ref="Z193:Z199" si="166">X193*1.1</f>
+        <f t="shared" ref="Z193:Z199" si="163">X193*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="AA193" s="5">
         <v>25</v>
       </c>
       <c r="AB193" s="5">
-        <f t="shared" ref="AB193:AB199" si="167">AA193*0.9</f>
+        <f t="shared" ref="AB193:AB199" si="164">AA193*0.9</f>
         <v>22.5</v>
       </c>
       <c r="AC193" s="5">
-        <f t="shared" ref="AC193:AC199" si="168">AA193*1.1</f>
+        <f t="shared" ref="AC193:AC199" si="165">AA193*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="AE193" s="1" t="str">
-        <f t="shared" ref="AE193:AE199" si="169">IF(L193&lt;M193,"ISSUE","")</f>
+        <f t="shared" ref="AE193:AE199" si="166">IF(L193&lt;M193,"ISSUE","")</f>
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A194" s="23" t="s">
         <v>26</v>
       </c>
@@ -20026,74 +20014,74 @@
         <v>24</v>
       </c>
       <c r="M194" s="5">
-        <f t="shared" ref="M194:M199" si="170">L194*0.9</f>
+        <f t="shared" ref="M194:M199" si="167">L194*0.9</f>
         <v>21.6</v>
       </c>
       <c r="N194" s="5">
-        <f t="shared" ref="N194:N199" si="171">L194*1.1</f>
+        <f t="shared" ref="N194:N199" si="168">L194*1.1</f>
         <v>26.400000000000002</v>
       </c>
       <c r="O194" s="5">
         <v>24</v>
       </c>
       <c r="P194" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>21.6</v>
       </c>
       <c r="Q194" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>26.400000000000002</v>
       </c>
       <c r="R194" s="5">
         <v>24</v>
       </c>
       <c r="S194" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>21.6</v>
       </c>
       <c r="T194" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>26.400000000000002</v>
       </c>
       <c r="U194" s="5">
         <v>24</v>
       </c>
       <c r="V194" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>21.6</v>
       </c>
       <c r="W194" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>26.400000000000002</v>
       </c>
       <c r="X194" s="5">
         <v>24</v>
       </c>
       <c r="Y194" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>21.6</v>
       </c>
       <c r="Z194" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="163"/>
         <v>26.400000000000002</v>
       </c>
       <c r="AA194" s="5">
         <v>24</v>
       </c>
       <c r="AB194" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>21.6</v>
       </c>
       <c r="AC194" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="165"/>
         <v>26.400000000000002</v>
       </c>
       <c r="AE194" s="1" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A195" s="23" t="s">
         <v>26</v>
       </c>
@@ -20131,74 +20119,74 @@
         <v>23</v>
       </c>
       <c r="M195" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="167"/>
         <v>20.7</v>
       </c>
       <c r="N195" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>25.3</v>
       </c>
       <c r="O195" s="5">
         <v>23</v>
       </c>
       <c r="P195" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>20.7</v>
       </c>
       <c r="Q195" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>25.3</v>
       </c>
       <c r="R195" s="5">
         <v>23</v>
       </c>
       <c r="S195" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>20.7</v>
       </c>
       <c r="T195" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>25.3</v>
       </c>
       <c r="U195" s="5">
         <v>23</v>
       </c>
       <c r="V195" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>20.7</v>
       </c>
       <c r="W195" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>25.3</v>
       </c>
       <c r="X195" s="5">
         <v>23</v>
       </c>
       <c r="Y195" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>20.7</v>
       </c>
       <c r="Z195" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="163"/>
         <v>25.3</v>
       </c>
       <c r="AA195" s="5">
         <v>23</v>
       </c>
       <c r="AB195" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>20.7</v>
       </c>
       <c r="AC195" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="165"/>
         <v>25.3</v>
       </c>
       <c r="AE195" s="1" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A196" s="23" t="s">
         <v>26</v>
       </c>
@@ -20236,74 +20224,74 @@
         <v>22</v>
       </c>
       <c r="M196" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="167"/>
         <v>19.8</v>
       </c>
       <c r="N196" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>24.200000000000003</v>
       </c>
       <c r="O196" s="5">
         <v>22</v>
       </c>
       <c r="P196" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>19.8</v>
       </c>
       <c r="Q196" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>24.200000000000003</v>
       </c>
       <c r="R196" s="5">
         <v>22</v>
       </c>
       <c r="S196" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>19.8</v>
       </c>
       <c r="T196" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>24.200000000000003</v>
       </c>
       <c r="U196" s="5">
         <v>22</v>
       </c>
       <c r="V196" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>19.8</v>
       </c>
       <c r="W196" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>24.200000000000003</v>
       </c>
       <c r="X196" s="5">
         <v>22</v>
       </c>
       <c r="Y196" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>19.8</v>
       </c>
       <c r="Z196" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="163"/>
         <v>24.200000000000003</v>
       </c>
       <c r="AA196" s="5">
         <v>22</v>
       </c>
       <c r="AB196" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>19.8</v>
       </c>
       <c r="AC196" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="165"/>
         <v>24.200000000000003</v>
       </c>
       <c r="AE196" s="1" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A197" s="23" t="s">
         <v>26</v>
       </c>
@@ -20341,74 +20329,74 @@
         <v>21</v>
       </c>
       <c r="M197" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="167"/>
         <v>18.900000000000002</v>
       </c>
       <c r="N197" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>23.1</v>
       </c>
       <c r="O197" s="5">
         <v>21</v>
       </c>
       <c r="P197" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>18.900000000000002</v>
       </c>
       <c r="Q197" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>23.1</v>
       </c>
       <c r="R197" s="5">
         <v>21</v>
       </c>
       <c r="S197" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>18.900000000000002</v>
       </c>
       <c r="T197" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>23.1</v>
       </c>
       <c r="U197" s="5">
         <v>21</v>
       </c>
       <c r="V197" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>18.900000000000002</v>
       </c>
       <c r="W197" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>23.1</v>
       </c>
       <c r="X197" s="5">
         <v>21</v>
       </c>
       <c r="Y197" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>18.900000000000002</v>
       </c>
       <c r="Z197" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="163"/>
         <v>23.1</v>
       </c>
       <c r="AA197" s="5">
         <v>21</v>
       </c>
       <c r="AB197" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>18.900000000000002</v>
       </c>
       <c r="AC197" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="165"/>
         <v>23.1</v>
       </c>
       <c r="AE197" s="1" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A198" s="23" t="s">
         <v>26</v>
       </c>
@@ -20446,74 +20434,74 @@
         <v>20</v>
       </c>
       <c r="M198" s="5">
-        <f t="shared" si="170"/>
-        <v>18</v>
-      </c>
-      <c r="N198" s="5">
-        <f t="shared" si="171"/>
-        <v>22</v>
-      </c>
-      <c r="O198" s="5">
-        <v>20</v>
-      </c>
-      <c r="P198" s="5">
-        <f t="shared" si="159"/>
-        <v>18</v>
-      </c>
-      <c r="Q198" s="5">
-        <f t="shared" si="160"/>
-        <v>22</v>
-      </c>
-      <c r="R198" s="5">
-        <v>20</v>
-      </c>
-      <c r="S198" s="5">
-        <f t="shared" si="161"/>
-        <v>18</v>
-      </c>
-      <c r="T198" s="5">
-        <f t="shared" si="162"/>
-        <v>22</v>
-      </c>
-      <c r="U198" s="5">
-        <v>20</v>
-      </c>
-      <c r="V198" s="5">
-        <f t="shared" si="163"/>
-        <v>18</v>
-      </c>
-      <c r="W198" s="5">
-        <f t="shared" si="164"/>
-        <v>22</v>
-      </c>
-      <c r="X198" s="5">
-        <v>20</v>
-      </c>
-      <c r="Y198" s="5">
-        <f t="shared" si="165"/>
-        <v>18</v>
-      </c>
-      <c r="Z198" s="5">
-        <f t="shared" si="166"/>
-        <v>22</v>
-      </c>
-      <c r="AA198" s="5">
-        <v>20</v>
-      </c>
-      <c r="AB198" s="5">
         <f t="shared" si="167"/>
         <v>18</v>
       </c>
-      <c r="AC198" s="5">
+      <c r="N198" s="5">
         <f t="shared" si="168"/>
         <v>22</v>
       </c>
+      <c r="O198" s="5">
+        <v>20</v>
+      </c>
+      <c r="P198" s="5">
+        <f t="shared" si="156"/>
+        <v>18</v>
+      </c>
+      <c r="Q198" s="5">
+        <f t="shared" si="157"/>
+        <v>22</v>
+      </c>
+      <c r="R198" s="5">
+        <v>20</v>
+      </c>
+      <c r="S198" s="5">
+        <f t="shared" si="158"/>
+        <v>18</v>
+      </c>
+      <c r="T198" s="5">
+        <f t="shared" si="159"/>
+        <v>22</v>
+      </c>
+      <c r="U198" s="5">
+        <v>20</v>
+      </c>
+      <c r="V198" s="5">
+        <f t="shared" si="160"/>
+        <v>18</v>
+      </c>
+      <c r="W198" s="5">
+        <f t="shared" si="161"/>
+        <v>22</v>
+      </c>
+      <c r="X198" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y198" s="5">
+        <f t="shared" si="162"/>
+        <v>18</v>
+      </c>
+      <c r="Z198" s="5">
+        <f t="shared" si="163"/>
+        <v>22</v>
+      </c>
+      <c r="AA198" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB198" s="5">
+        <f t="shared" si="164"/>
+        <v>18</v>
+      </c>
+      <c r="AC198" s="5">
+        <f t="shared" si="165"/>
+        <v>22</v>
+      </c>
       <c r="AE198" s="1" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A199" s="23" t="s">
         <v>26</v>
       </c>
@@ -20551,70 +20539,70 @@
         <v>19</v>
       </c>
       <c r="M199" s="5">
-        <f t="shared" si="170"/>
+        <f t="shared" si="167"/>
         <v>17.100000000000001</v>
       </c>
       <c r="N199" s="5">
-        <f t="shared" si="171"/>
+        <f t="shared" si="168"/>
         <v>20.900000000000002</v>
       </c>
       <c r="O199" s="5">
         <v>19</v>
       </c>
       <c r="P199" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="156"/>
         <v>17.100000000000001</v>
       </c>
       <c r="Q199" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="157"/>
         <v>20.900000000000002</v>
       </c>
       <c r="R199" s="5">
         <v>19</v>
       </c>
       <c r="S199" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="158"/>
         <v>17.100000000000001</v>
       </c>
       <c r="T199" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="159"/>
         <v>20.900000000000002</v>
       </c>
       <c r="U199" s="5">
         <v>19</v>
       </c>
       <c r="V199" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="160"/>
         <v>17.100000000000001</v>
       </c>
       <c r="W199" s="5">
-        <f t="shared" si="164"/>
+        <f t="shared" si="161"/>
         <v>20.900000000000002</v>
       </c>
       <c r="X199" s="5">
         <v>19</v>
       </c>
       <c r="Y199" s="5">
-        <f t="shared" si="165"/>
+        <f t="shared" si="162"/>
         <v>17.100000000000001</v>
       </c>
       <c r="Z199" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="163"/>
         <v>20.900000000000002</v>
       </c>
       <c r="AA199" s="5">
         <v>19</v>
       </c>
       <c r="AB199" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="164"/>
         <v>17.100000000000001</v>
       </c>
       <c r="AC199" s="5">
-        <f t="shared" si="168"/>
+        <f t="shared" si="165"/>
         <v>20.900000000000002</v>
       </c>
       <c r="AE199" s="1" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" si="166"/>
         <v/>
       </c>
     </row>
@@ -20653,74 +20641,74 @@
         <v>68</v>
       </c>
       <c r="L200" s="13">
-        <f t="shared" ref="L200:Q206" si="172">O200</f>
+        <f t="shared" ref="L200:Q206" si="169">O200</f>
         <v>119</v>
       </c>
       <c r="M200" s="13">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>89.25</v>
       </c>
       <c r="N200" s="13">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>148.75</v>
       </c>
       <c r="O200" s="13">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>119</v>
       </c>
       <c r="P200" s="13">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>89.25</v>
       </c>
       <c r="Q200" s="13">
-        <f t="shared" si="172"/>
+        <f t="shared" si="169"/>
         <v>148.75</v>
       </c>
       <c r="R200" s="13">
         <v>119</v>
       </c>
       <c r="S200" s="13">
-        <f t="shared" ref="S200:S206" si="173">R200*0.75</f>
+        <f t="shared" ref="S200:S206" si="170">R200*0.75</f>
         <v>89.25</v>
       </c>
       <c r="T200" s="13">
-        <f t="shared" ref="T200:T206" si="174">R200*1.25</f>
+        <f t="shared" ref="T200:T206" si="171">R200*1.25</f>
         <v>148.75</v>
       </c>
       <c r="U200" s="13">
-        <f t="shared" ref="U200:U206" si="175">R200</f>
+        <f t="shared" ref="U200:U206" si="172">R200</f>
         <v>119</v>
       </c>
       <c r="V200" s="13">
-        <f t="shared" ref="V200" si="176">U200*0.75</f>
+        <f t="shared" ref="V200" si="173">U200*0.75</f>
         <v>89.25</v>
       </c>
       <c r="W200" s="13">
-        <f t="shared" ref="W200" si="177">U200*1.25</f>
+        <f t="shared" ref="W200" si="174">U200*1.25</f>
         <v>148.75</v>
       </c>
       <c r="X200" s="13">
-        <f t="shared" ref="X200:X206" si="178">R200</f>
+        <f t="shared" ref="X200:X206" si="175">R200</f>
         <v>119</v>
       </c>
       <c r="Y200" s="13">
-        <f t="shared" ref="Y200" si="179">X200*0.75</f>
+        <f t="shared" ref="Y200" si="176">X200*0.75</f>
         <v>89.25</v>
       </c>
       <c r="Z200" s="13">
-        <f t="shared" ref="Z200" si="180">X200*1.25</f>
+        <f t="shared" ref="Z200" si="177">X200*1.25</f>
         <v>148.75</v>
       </c>
       <c r="AA200" s="13">
-        <f t="shared" ref="AA200:AA206" si="181">R200</f>
+        <f t="shared" ref="AA200:AA206" si="178">R200</f>
         <v>119</v>
       </c>
       <c r="AB200" s="13">
-        <f t="shared" ref="AB200" si="182">AA200*0.75</f>
+        <f t="shared" ref="AB200" si="179">AA200*0.75</f>
         <v>89.25</v>
       </c>
       <c r="AC200" s="13">
-        <f t="shared" ref="AC200" si="183">AA200*1.25</f>
+        <f t="shared" ref="AC200" si="180">AA200*1.25</f>
         <v>148.75</v>
       </c>
       <c r="AE200" s="1" t="str">
@@ -20763,74 +20751,74 @@
         <v>68</v>
       </c>
       <c r="L201" s="13">
+        <f t="shared" si="169"/>
+        <v>256</v>
+      </c>
+      <c r="M201" s="13">
+        <f t="shared" si="169"/>
+        <v>192</v>
+      </c>
+      <c r="N201" s="13">
+        <f t="shared" si="169"/>
+        <v>320</v>
+      </c>
+      <c r="O201" s="13">
+        <f t="shared" si="169"/>
+        <v>256</v>
+      </c>
+      <c r="P201" s="13">
+        <f t="shared" si="169"/>
+        <v>192</v>
+      </c>
+      <c r="Q201" s="13">
+        <f t="shared" si="169"/>
+        <v>320</v>
+      </c>
+      <c r="R201" s="13">
+        <v>256</v>
+      </c>
+      <c r="S201" s="13">
+        <f t="shared" si="170"/>
+        <v>192</v>
+      </c>
+      <c r="T201" s="13">
+        <f t="shared" si="171"/>
+        <v>320</v>
+      </c>
+      <c r="U201" s="13">
         <f t="shared" si="172"/>
         <v>256</v>
       </c>
-      <c r="M201" s="13">
-        <f t="shared" si="172"/>
+      <c r="V201" s="13">
+        <f t="shared" ref="V201:V206" si="181">U201*0.75</f>
         <v>192</v>
       </c>
-      <c r="N201" s="13">
-        <f t="shared" si="172"/>
+      <c r="W201" s="13">
+        <f t="shared" ref="W201:W206" si="182">U201*1.25</f>
         <v>320</v>
       </c>
-      <c r="O201" s="13">
-        <f t="shared" si="172"/>
-        <v>256</v>
-      </c>
-      <c r="P201" s="13">
-        <f t="shared" si="172"/>
-        <v>192</v>
-      </c>
-      <c r="Q201" s="13">
-        <f t="shared" si="172"/>
-        <v>320</v>
-      </c>
-      <c r="R201" s="13">
-        <v>256</v>
-      </c>
-      <c r="S201" s="13">
-        <f t="shared" si="173"/>
-        <v>192</v>
-      </c>
-      <c r="T201" s="13">
-        <f t="shared" si="174"/>
-        <v>320</v>
-      </c>
-      <c r="U201" s="13">
+      <c r="X201" s="13">
         <f t="shared" si="175"/>
         <v>256</v>
       </c>
-      <c r="V201" s="13">
-        <f t="shared" ref="V201:V206" si="184">U201*0.75</f>
+      <c r="Y201" s="13">
+        <f t="shared" ref="Y201:Y206" si="183">X201*0.75</f>
         <v>192</v>
       </c>
-      <c r="W201" s="13">
-        <f t="shared" ref="W201:W206" si="185">U201*1.25</f>
+      <c r="Z201" s="13">
+        <f t="shared" ref="Z201:Z206" si="184">X201*1.25</f>
         <v>320</v>
       </c>
-      <c r="X201" s="13">
+      <c r="AA201" s="13">
         <f t="shared" si="178"/>
         <v>256</v>
       </c>
-      <c r="Y201" s="13">
-        <f t="shared" ref="Y201:Y206" si="186">X201*0.75</f>
+      <c r="AB201" s="13">
+        <f t="shared" ref="AB201:AB206" si="185">AA201*0.75</f>
         <v>192</v>
       </c>
-      <c r="Z201" s="13">
-        <f t="shared" ref="Z201:Z206" si="187">X201*1.25</f>
-        <v>320</v>
-      </c>
-      <c r="AA201" s="13">
-        <f t="shared" si="181"/>
-        <v>256</v>
-      </c>
-      <c r="AB201" s="13">
-        <f t="shared" ref="AB201:AB206" si="188">AA201*0.75</f>
-        <v>192</v>
-      </c>
       <c r="AC201" s="13">
-        <f t="shared" ref="AC201:AC206" si="189">AA201*1.25</f>
+        <f t="shared" ref="AC201:AC206" si="186">AA201*1.25</f>
         <v>320</v>
       </c>
       <c r="AE201" s="1" t="str">
@@ -20873,74 +20861,74 @@
         <v>68</v>
       </c>
       <c r="L202" s="13">
+        <f t="shared" si="169"/>
+        <v>614</v>
+      </c>
+      <c r="M202" s="13">
+        <f t="shared" si="169"/>
+        <v>460.5</v>
+      </c>
+      <c r="N202" s="13">
+        <f t="shared" si="169"/>
+        <v>767.5</v>
+      </c>
+      <c r="O202" s="13">
+        <f t="shared" si="169"/>
+        <v>614</v>
+      </c>
+      <c r="P202" s="13">
+        <f t="shared" si="169"/>
+        <v>460.5</v>
+      </c>
+      <c r="Q202" s="13">
+        <f t="shared" si="169"/>
+        <v>767.5</v>
+      </c>
+      <c r="R202" s="13">
+        <v>614</v>
+      </c>
+      <c r="S202" s="13">
+        <f t="shared" si="170"/>
+        <v>460.5</v>
+      </c>
+      <c r="T202" s="13">
+        <f t="shared" si="171"/>
+        <v>767.5</v>
+      </c>
+      <c r="U202" s="13">
         <f t="shared" si="172"/>
         <v>614</v>
       </c>
-      <c r="M202" s="13">
-        <f t="shared" si="172"/>
+      <c r="V202" s="13">
+        <f t="shared" si="181"/>
         <v>460.5</v>
       </c>
-      <c r="N202" s="13">
-        <f t="shared" si="172"/>
+      <c r="W202" s="13">
+        <f t="shared" si="182"/>
         <v>767.5</v>
       </c>
-      <c r="O202" s="13">
-        <f t="shared" si="172"/>
-        <v>614</v>
-      </c>
-      <c r="P202" s="13">
-        <f t="shared" si="172"/>
-        <v>460.5</v>
-      </c>
-      <c r="Q202" s="13">
-        <f t="shared" si="172"/>
-        <v>767.5</v>
-      </c>
-      <c r="R202" s="13">
-        <v>614</v>
-      </c>
-      <c r="S202" s="13">
-        <f t="shared" si="173"/>
-        <v>460.5</v>
-      </c>
-      <c r="T202" s="13">
-        <f t="shared" si="174"/>
-        <v>767.5</v>
-      </c>
-      <c r="U202" s="13">
+      <c r="X202" s="13">
         <f t="shared" si="175"/>
         <v>614</v>
       </c>
-      <c r="V202" s="13">
+      <c r="Y202" s="13">
+        <f t="shared" si="183"/>
+        <v>460.5</v>
+      </c>
+      <c r="Z202" s="13">
         <f t="shared" si="184"/>
-        <v>460.5</v>
-      </c>
-      <c r="W202" s="13">
-        <f t="shared" si="185"/>
         <v>767.5</v>
       </c>
-      <c r="X202" s="13">
+      <c r="AA202" s="13">
         <f t="shared" si="178"/>
         <v>614</v>
       </c>
-      <c r="Y202" s="13">
+      <c r="AB202" s="13">
+        <f t="shared" si="185"/>
+        <v>460.5</v>
+      </c>
+      <c r="AC202" s="13">
         <f t="shared" si="186"/>
-        <v>460.5</v>
-      </c>
-      <c r="Z202" s="13">
-        <f t="shared" si="187"/>
-        <v>767.5</v>
-      </c>
-      <c r="AA202" s="13">
-        <f t="shared" si="181"/>
-        <v>614</v>
-      </c>
-      <c r="AB202" s="13">
-        <f t="shared" si="188"/>
-        <v>460.5</v>
-      </c>
-      <c r="AC202" s="13">
-        <f t="shared" si="189"/>
         <v>767.5</v>
       </c>
       <c r="AE202" s="1" t="str">
@@ -20983,74 +20971,74 @@
         <v>68</v>
       </c>
       <c r="L203" s="13">
+        <f t="shared" si="169"/>
+        <v>886</v>
+      </c>
+      <c r="M203" s="13">
+        <f t="shared" si="169"/>
+        <v>664.5</v>
+      </c>
+      <c r="N203" s="13">
+        <f t="shared" si="169"/>
+        <v>1107.5</v>
+      </c>
+      <c r="O203" s="13">
+        <f t="shared" si="169"/>
+        <v>886</v>
+      </c>
+      <c r="P203" s="13">
+        <f t="shared" si="169"/>
+        <v>664.5</v>
+      </c>
+      <c r="Q203" s="13">
+        <f t="shared" si="169"/>
+        <v>1107.5</v>
+      </c>
+      <c r="R203" s="13">
+        <v>886</v>
+      </c>
+      <c r="S203" s="13">
+        <f t="shared" si="170"/>
+        <v>664.5</v>
+      </c>
+      <c r="T203" s="13">
+        <f t="shared" si="171"/>
+        <v>1107.5</v>
+      </c>
+      <c r="U203" s="13">
         <f t="shared" si="172"/>
         <v>886</v>
       </c>
-      <c r="M203" s="13">
-        <f t="shared" si="172"/>
+      <c r="V203" s="13">
+        <f t="shared" si="181"/>
         <v>664.5</v>
       </c>
-      <c r="N203" s="13">
-        <f t="shared" si="172"/>
+      <c r="W203" s="13">
+        <f t="shared" si="182"/>
         <v>1107.5</v>
       </c>
-      <c r="O203" s="13">
-        <f t="shared" si="172"/>
-        <v>886</v>
-      </c>
-      <c r="P203" s="13">
-        <f t="shared" si="172"/>
-        <v>664.5</v>
-      </c>
-      <c r="Q203" s="13">
-        <f t="shared" si="172"/>
-        <v>1107.5</v>
-      </c>
-      <c r="R203" s="13">
-        <v>886</v>
-      </c>
-      <c r="S203" s="13">
-        <f t="shared" si="173"/>
-        <v>664.5</v>
-      </c>
-      <c r="T203" s="13">
-        <f t="shared" si="174"/>
-        <v>1107.5</v>
-      </c>
-      <c r="U203" s="13">
+      <c r="X203" s="13">
         <f t="shared" si="175"/>
         <v>886</v>
       </c>
-      <c r="V203" s="13">
+      <c r="Y203" s="13">
+        <f t="shared" si="183"/>
+        <v>664.5</v>
+      </c>
+      <c r="Z203" s="13">
         <f t="shared" si="184"/>
-        <v>664.5</v>
-      </c>
-      <c r="W203" s="13">
-        <f t="shared" si="185"/>
         <v>1107.5</v>
       </c>
-      <c r="X203" s="13">
+      <c r="AA203" s="13">
         <f t="shared" si="178"/>
         <v>886</v>
       </c>
-      <c r="Y203" s="13">
+      <c r="AB203" s="13">
+        <f t="shared" si="185"/>
+        <v>664.5</v>
+      </c>
+      <c r="AC203" s="13">
         <f t="shared" si="186"/>
-        <v>664.5</v>
-      </c>
-      <c r="Z203" s="13">
-        <f t="shared" si="187"/>
-        <v>1107.5</v>
-      </c>
-      <c r="AA203" s="13">
-        <f t="shared" si="181"/>
-        <v>886</v>
-      </c>
-      <c r="AB203" s="13">
-        <f t="shared" si="188"/>
-        <v>664.5</v>
-      </c>
-      <c r="AC203" s="13">
-        <f t="shared" si="189"/>
         <v>1107.5</v>
       </c>
       <c r="AE203" s="1" t="str">
@@ -21093,74 +21081,74 @@
         <v>68</v>
       </c>
       <c r="L204" s="13">
+        <f t="shared" si="169"/>
+        <v>847</v>
+      </c>
+      <c r="M204" s="13">
+        <f t="shared" si="169"/>
+        <v>635.25</v>
+      </c>
+      <c r="N204" s="13">
+        <f t="shared" si="169"/>
+        <v>1058.75</v>
+      </c>
+      <c r="O204" s="13">
+        <f t="shared" si="169"/>
+        <v>847</v>
+      </c>
+      <c r="P204" s="13">
+        <f t="shared" si="169"/>
+        <v>635.25</v>
+      </c>
+      <c r="Q204" s="13">
+        <f t="shared" si="169"/>
+        <v>1058.75</v>
+      </c>
+      <c r="R204" s="13">
+        <v>847</v>
+      </c>
+      <c r="S204" s="13">
+        <f t="shared" si="170"/>
+        <v>635.25</v>
+      </c>
+      <c r="T204" s="13">
+        <f t="shared" si="171"/>
+        <v>1058.75</v>
+      </c>
+      <c r="U204" s="13">
         <f t="shared" si="172"/>
         <v>847</v>
       </c>
-      <c r="M204" s="13">
-        <f t="shared" si="172"/>
+      <c r="V204" s="13">
+        <f t="shared" si="181"/>
         <v>635.25</v>
       </c>
-      <c r="N204" s="13">
-        <f t="shared" si="172"/>
+      <c r="W204" s="13">
+        <f t="shared" si="182"/>
         <v>1058.75</v>
       </c>
-      <c r="O204" s="13">
-        <f t="shared" si="172"/>
-        <v>847</v>
-      </c>
-      <c r="P204" s="13">
-        <f t="shared" si="172"/>
-        <v>635.25</v>
-      </c>
-      <c r="Q204" s="13">
-        <f t="shared" si="172"/>
-        <v>1058.75</v>
-      </c>
-      <c r="R204" s="13">
-        <v>847</v>
-      </c>
-      <c r="S204" s="13">
-        <f t="shared" si="173"/>
-        <v>635.25</v>
-      </c>
-      <c r="T204" s="13">
-        <f t="shared" si="174"/>
-        <v>1058.75</v>
-      </c>
-      <c r="U204" s="13">
+      <c r="X204" s="13">
         <f t="shared" si="175"/>
         <v>847</v>
       </c>
-      <c r="V204" s="13">
+      <c r="Y204" s="13">
+        <f t="shared" si="183"/>
+        <v>635.25</v>
+      </c>
+      <c r="Z204" s="13">
         <f t="shared" si="184"/>
-        <v>635.25</v>
-      </c>
-      <c r="W204" s="13">
-        <f t="shared" si="185"/>
         <v>1058.75</v>
       </c>
-      <c r="X204" s="13">
+      <c r="AA204" s="13">
         <f t="shared" si="178"/>
         <v>847</v>
       </c>
-      <c r="Y204" s="13">
+      <c r="AB204" s="13">
+        <f t="shared" si="185"/>
+        <v>635.25</v>
+      </c>
+      <c r="AC204" s="13">
         <f t="shared" si="186"/>
-        <v>635.25</v>
-      </c>
-      <c r="Z204" s="13">
-        <f t="shared" si="187"/>
-        <v>1058.75</v>
-      </c>
-      <c r="AA204" s="13">
-        <f t="shared" si="181"/>
-        <v>847</v>
-      </c>
-      <c r="AB204" s="13">
-        <f t="shared" si="188"/>
-        <v>635.25</v>
-      </c>
-      <c r="AC204" s="13">
-        <f t="shared" si="189"/>
         <v>1058.75</v>
       </c>
       <c r="AE204" s="1" t="str">
@@ -21203,74 +21191,74 @@
         <v>68</v>
       </c>
       <c r="L205" s="13">
+        <f t="shared" si="169"/>
+        <v>1059</v>
+      </c>
+      <c r="M205" s="13">
+        <f t="shared" si="169"/>
+        <v>794.25</v>
+      </c>
+      <c r="N205" s="13">
+        <f t="shared" si="169"/>
+        <v>1323.75</v>
+      </c>
+      <c r="O205" s="13">
+        <f t="shared" si="169"/>
+        <v>1059</v>
+      </c>
+      <c r="P205" s="13">
+        <f t="shared" si="169"/>
+        <v>794.25</v>
+      </c>
+      <c r="Q205" s="13">
+        <f t="shared" si="169"/>
+        <v>1323.75</v>
+      </c>
+      <c r="R205" s="13">
+        <v>1059</v>
+      </c>
+      <c r="S205" s="13">
+        <f t="shared" si="170"/>
+        <v>794.25</v>
+      </c>
+      <c r="T205" s="13">
+        <f t="shared" si="171"/>
+        <v>1323.75</v>
+      </c>
+      <c r="U205" s="13">
         <f t="shared" si="172"/>
         <v>1059</v>
       </c>
-      <c r="M205" s="13">
-        <f t="shared" si="172"/>
+      <c r="V205" s="13">
+        <f t="shared" si="181"/>
         <v>794.25</v>
       </c>
-      <c r="N205" s="13">
-        <f t="shared" si="172"/>
+      <c r="W205" s="13">
+        <f t="shared" si="182"/>
         <v>1323.75</v>
       </c>
-      <c r="O205" s="13">
-        <f t="shared" si="172"/>
-        <v>1059</v>
-      </c>
-      <c r="P205" s="13">
-        <f t="shared" si="172"/>
-        <v>794.25</v>
-      </c>
-      <c r="Q205" s="13">
-        <f t="shared" si="172"/>
-        <v>1323.75</v>
-      </c>
-      <c r="R205" s="13">
-        <v>1059</v>
-      </c>
-      <c r="S205" s="13">
-        <f t="shared" si="173"/>
-        <v>794.25</v>
-      </c>
-      <c r="T205" s="13">
-        <f t="shared" si="174"/>
-        <v>1323.75</v>
-      </c>
-      <c r="U205" s="13">
+      <c r="X205" s="13">
         <f t="shared" si="175"/>
         <v>1059</v>
       </c>
-      <c r="V205" s="13">
+      <c r="Y205" s="13">
+        <f t="shared" si="183"/>
+        <v>794.25</v>
+      </c>
+      <c r="Z205" s="13">
         <f t="shared" si="184"/>
-        <v>794.25</v>
-      </c>
-      <c r="W205" s="13">
-        <f t="shared" si="185"/>
         <v>1323.75</v>
       </c>
-      <c r="X205" s="13">
+      <c r="AA205" s="13">
         <f t="shared" si="178"/>
         <v>1059</v>
       </c>
-      <c r="Y205" s="13">
+      <c r="AB205" s="13">
+        <f t="shared" si="185"/>
+        <v>794.25</v>
+      </c>
+      <c r="AC205" s="13">
         <f t="shared" si="186"/>
-        <v>794.25</v>
-      </c>
-      <c r="Z205" s="13">
-        <f t="shared" si="187"/>
-        <v>1323.75</v>
-      </c>
-      <c r="AA205" s="13">
-        <f t="shared" si="181"/>
-        <v>1059</v>
-      </c>
-      <c r="AB205" s="13">
-        <f t="shared" si="188"/>
-        <v>794.25</v>
-      </c>
-      <c r="AC205" s="13">
-        <f t="shared" si="189"/>
         <v>1323.75</v>
       </c>
       <c r="AE205" s="1" t="str">
@@ -21313,74 +21301,74 @@
         <v>68</v>
       </c>
       <c r="L206" s="13">
+        <f t="shared" si="169"/>
+        <v>1589</v>
+      </c>
+      <c r="M206" s="13">
+        <f t="shared" si="169"/>
+        <v>1191.75</v>
+      </c>
+      <c r="N206" s="13">
+        <f t="shared" si="169"/>
+        <v>1986.25</v>
+      </c>
+      <c r="O206" s="13">
+        <f t="shared" si="169"/>
+        <v>1589</v>
+      </c>
+      <c r="P206" s="13">
+        <f t="shared" si="169"/>
+        <v>1191.75</v>
+      </c>
+      <c r="Q206" s="13">
+        <f t="shared" si="169"/>
+        <v>1986.25</v>
+      </c>
+      <c r="R206" s="13">
+        <v>1589</v>
+      </c>
+      <c r="S206" s="13">
+        <f t="shared" si="170"/>
+        <v>1191.75</v>
+      </c>
+      <c r="T206" s="13">
+        <f t="shared" si="171"/>
+        <v>1986.25</v>
+      </c>
+      <c r="U206" s="13">
         <f t="shared" si="172"/>
         <v>1589</v>
       </c>
-      <c r="M206" s="13">
-        <f t="shared" si="172"/>
+      <c r="V206" s="13">
+        <f t="shared" si="181"/>
         <v>1191.75</v>
       </c>
-      <c r="N206" s="13">
-        <f t="shared" si="172"/>
+      <c r="W206" s="13">
+        <f t="shared" si="182"/>
         <v>1986.25</v>
       </c>
-      <c r="O206" s="13">
-        <f t="shared" si="172"/>
-        <v>1589</v>
-      </c>
-      <c r="P206" s="13">
-        <f t="shared" si="172"/>
-        <v>1191.75</v>
-      </c>
-      <c r="Q206" s="13">
-        <f t="shared" si="172"/>
-        <v>1986.25</v>
-      </c>
-      <c r="R206" s="13">
-        <v>1589</v>
-      </c>
-      <c r="S206" s="13">
-        <f t="shared" si="173"/>
-        <v>1191.75</v>
-      </c>
-      <c r="T206" s="13">
-        <f t="shared" si="174"/>
-        <v>1986.25</v>
-      </c>
-      <c r="U206" s="13">
+      <c r="X206" s="13">
         <f t="shared" si="175"/>
         <v>1589</v>
       </c>
-      <c r="V206" s="13">
+      <c r="Y206" s="13">
+        <f t="shared" si="183"/>
+        <v>1191.75</v>
+      </c>
+      <c r="Z206" s="13">
         <f t="shared" si="184"/>
-        <v>1191.75</v>
-      </c>
-      <c r="W206" s="13">
-        <f t="shared" si="185"/>
         <v>1986.25</v>
       </c>
-      <c r="X206" s="13">
+      <c r="AA206" s="13">
         <f t="shared" si="178"/>
         <v>1589</v>
       </c>
-      <c r="Y206" s="13">
+      <c r="AB206" s="13">
+        <f t="shared" si="185"/>
+        <v>1191.75</v>
+      </c>
+      <c r="AC206" s="13">
         <f t="shared" si="186"/>
-        <v>1191.75</v>
-      </c>
-      <c r="Z206" s="13">
-        <f t="shared" si="187"/>
-        <v>1986.25</v>
-      </c>
-      <c r="AA206" s="13">
-        <f t="shared" si="181"/>
-        <v>1589</v>
-      </c>
-      <c r="AB206" s="13">
-        <f t="shared" si="188"/>
-        <v>1191.75</v>
-      </c>
-      <c r="AC206" s="13">
-        <f t="shared" si="189"/>
         <v>1986.25</v>
       </c>
       <c r="AE206" s="1" t="str">
@@ -21942,7 +21930,7 @@
         <v>28100</v>
       </c>
       <c r="AE212" s="1" t="str">
-        <f t="shared" ref="AE212:AE275" si="190">IF(L212&lt;M212,"ISSUE","")</f>
+        <f t="shared" ref="AE212:AE275" si="187">IF(L212&lt;M212,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -22035,7 +22023,7 @@
         <v>39000</v>
       </c>
       <c r="AE213" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22136,7 +22124,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="AE214" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22237,7 +22225,7 @@
         <v>0.375</v>
       </c>
       <c r="AE215" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22302,7 +22290,7 @@
       <c r="AB216" s="4"/>
       <c r="AC216" s="4"/>
       <c r="AE216" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22367,7 +22355,7 @@
       <c r="AB217" s="4"/>
       <c r="AC217" s="4"/>
       <c r="AE217" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22432,7 +22420,7 @@
       <c r="AB218" s="4"/>
       <c r="AC218" s="4"/>
       <c r="AE218" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22497,7 +22485,7 @@
       <c r="AB219" s="4"/>
       <c r="AC219" s="4"/>
       <c r="AE219" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22562,7 +22550,7 @@
       <c r="AB220" s="4"/>
       <c r="AC220" s="4"/>
       <c r="AE220" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22627,7 +22615,7 @@
       <c r="AB221" s="4"/>
       <c r="AC221" s="4"/>
       <c r="AE221" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22692,7 +22680,7 @@
       <c r="AB222" s="4"/>
       <c r="AC222" s="4"/>
       <c r="AE222" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22797,7 +22785,7 @@
         <v>960</v>
       </c>
       <c r="AE223" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22839,70 +22827,70 @@
         <v>800</v>
       </c>
       <c r="M224" s="4">
-        <f t="shared" ref="M224:M229" si="191">L224*0.8</f>
+        <f t="shared" ref="M224:M229" si="188">L224*0.8</f>
         <v>640</v>
       </c>
       <c r="N224" s="4">
-        <f t="shared" ref="N224:N229" si="192">L224*1.2</f>
+        <f t="shared" ref="N224:N229" si="189">L224*1.2</f>
         <v>960</v>
       </c>
       <c r="O224" s="4">
         <v>800</v>
       </c>
       <c r="P224" s="4">
-        <f t="shared" ref="P224:P229" si="193">O224*0.8</f>
+        <f t="shared" ref="P224:P229" si="190">O224*0.8</f>
         <v>640</v>
       </c>
       <c r="Q224" s="4">
-        <f t="shared" ref="Q224:Q229" si="194">O224*1.2</f>
+        <f t="shared" ref="Q224:Q229" si="191">O224*1.2</f>
         <v>960</v>
       </c>
       <c r="R224" s="4">
         <v>800</v>
       </c>
       <c r="S224" s="4">
-        <f t="shared" ref="S224:S229" si="195">R224*0.8</f>
+        <f t="shared" ref="S224:S229" si="192">R224*0.8</f>
         <v>640</v>
       </c>
       <c r="T224" s="4">
-        <f t="shared" ref="T224:T229" si="196">R224*1.2</f>
+        <f t="shared" ref="T224:T229" si="193">R224*1.2</f>
         <v>960</v>
       </c>
       <c r="U224" s="4">
         <v>800</v>
       </c>
       <c r="V224" s="4">
-        <f t="shared" ref="V224:V229" si="197">U224*0.8</f>
+        <f t="shared" ref="V224:V229" si="194">U224*0.8</f>
         <v>640</v>
       </c>
       <c r="W224" s="4">
-        <f t="shared" ref="W224:W229" si="198">U224*1.2</f>
+        <f t="shared" ref="W224:W229" si="195">U224*1.2</f>
         <v>960</v>
       </c>
       <c r="X224" s="4">
         <v>800</v>
       </c>
       <c r="Y224" s="4">
-        <f t="shared" ref="Y224:Y229" si="199">X224*0.8</f>
+        <f t="shared" ref="Y224:Y229" si="196">X224*0.8</f>
         <v>640</v>
       </c>
       <c r="Z224" s="4">
-        <f t="shared" ref="Z224:Z229" si="200">X224*1.2</f>
+        <f t="shared" ref="Z224:Z229" si="197">X224*1.2</f>
         <v>960</v>
       </c>
       <c r="AA224" s="4">
         <v>800</v>
       </c>
       <c r="AB224" s="4">
-        <f t="shared" ref="AB224:AB229" si="201">AA224*0.8</f>
+        <f t="shared" ref="AB224:AB229" si="198">AA224*0.8</f>
         <v>640</v>
       </c>
       <c r="AC224" s="4">
-        <f t="shared" ref="AC224:AC229" si="202">AA224*1.2</f>
+        <f t="shared" ref="AC224:AC229" si="199">AA224*1.2</f>
         <v>960</v>
       </c>
       <c r="AE224" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -22944,70 +22932,70 @@
         <v>4100</v>
       </c>
       <c r="M225" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>3280</v>
       </c>
       <c r="N225" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>4920</v>
       </c>
       <c r="O225" s="4">
         <v>4100</v>
       </c>
       <c r="P225" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>3280</v>
       </c>
       <c r="Q225" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>4920</v>
       </c>
       <c r="R225" s="4">
         <v>4100</v>
       </c>
       <c r="S225" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>3280</v>
       </c>
       <c r="T225" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>4920</v>
       </c>
       <c r="U225" s="4">
         <v>4100</v>
       </c>
       <c r="V225" s="4">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>3280</v>
       </c>
       <c r="W225" s="4">
-        <f t="shared" si="198"/>
+        <f t="shared" si="195"/>
         <v>4920</v>
       </c>
       <c r="X225" s="4">
         <v>4100</v>
       </c>
       <c r="Y225" s="4">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>3280</v>
       </c>
       <c r="Z225" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>4920</v>
       </c>
       <c r="AA225" s="4">
         <v>4100</v>
       </c>
       <c r="AB225" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>3280</v>
       </c>
       <c r="AC225" s="4">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>4920</v>
       </c>
       <c r="AE225" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23049,70 +23037,70 @@
         <v>6200</v>
       </c>
       <c r="M226" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>4960</v>
       </c>
       <c r="N226" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>7440</v>
       </c>
       <c r="O226" s="4">
         <v>6200</v>
       </c>
       <c r="P226" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>4960</v>
       </c>
       <c r="Q226" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>7440</v>
       </c>
       <c r="R226" s="4">
         <v>6200</v>
       </c>
       <c r="S226" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>4960</v>
       </c>
       <c r="T226" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>7440</v>
       </c>
       <c r="U226" s="4">
         <v>6200</v>
       </c>
       <c r="V226" s="4">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>4960</v>
       </c>
       <c r="W226" s="4">
-        <f t="shared" si="198"/>
+        <f t="shared" si="195"/>
         <v>7440</v>
       </c>
       <c r="X226" s="4">
         <v>6200</v>
       </c>
       <c r="Y226" s="4">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>4960</v>
       </c>
       <c r="Z226" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>7440</v>
       </c>
       <c r="AA226" s="4">
         <v>6200</v>
       </c>
       <c r="AB226" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>4960</v>
       </c>
       <c r="AC226" s="4">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>7440</v>
       </c>
       <c r="AE226" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23154,70 +23142,70 @@
         <v>9100</v>
       </c>
       <c r="M227" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>7280</v>
       </c>
       <c r="N227" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>10920</v>
       </c>
       <c r="O227" s="4">
         <v>9100</v>
       </c>
       <c r="P227" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>7280</v>
       </c>
       <c r="Q227" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>10920</v>
       </c>
       <c r="R227" s="4">
         <v>9100</v>
       </c>
       <c r="S227" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>7280</v>
       </c>
       <c r="T227" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>10920</v>
       </c>
       <c r="U227" s="4">
         <v>9100</v>
       </c>
       <c r="V227" s="4">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>7280</v>
       </c>
       <c r="W227" s="4">
-        <f t="shared" si="198"/>
+        <f t="shared" si="195"/>
         <v>10920</v>
       </c>
       <c r="X227" s="4">
         <v>9100</v>
       </c>
       <c r="Y227" s="4">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>7280</v>
       </c>
       <c r="Z227" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>10920</v>
       </c>
       <c r="AA227" s="4">
         <v>9100</v>
       </c>
       <c r="AB227" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>7280</v>
       </c>
       <c r="AC227" s="4">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>10920</v>
       </c>
       <c r="AE227" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23259,70 +23247,70 @@
         <v>9100</v>
       </c>
       <c r="M228" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>7280</v>
       </c>
       <c r="N228" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>10920</v>
       </c>
       <c r="O228" s="4">
         <v>9100</v>
       </c>
       <c r="P228" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>7280</v>
       </c>
       <c r="Q228" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>10920</v>
       </c>
       <c r="R228" s="4">
         <v>9100</v>
       </c>
       <c r="S228" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>7280</v>
       </c>
       <c r="T228" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>10920</v>
       </c>
       <c r="U228" s="4">
         <v>9100</v>
       </c>
       <c r="V228" s="4">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>7280</v>
       </c>
       <c r="W228" s="4">
-        <f t="shared" si="198"/>
+        <f t="shared" si="195"/>
         <v>10920</v>
       </c>
       <c r="X228" s="4">
         <v>9100</v>
       </c>
       <c r="Y228" s="4">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>7280</v>
       </c>
       <c r="Z228" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>10920</v>
       </c>
       <c r="AA228" s="4">
         <v>9100</v>
       </c>
       <c r="AB228" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>7280</v>
       </c>
       <c r="AC228" s="4">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>10920</v>
       </c>
       <c r="AE228" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23364,70 +23352,70 @@
         <v>22300</v>
       </c>
       <c r="M229" s="4">
-        <f t="shared" si="191"/>
+        <f t="shared" si="188"/>
         <v>17840</v>
       </c>
       <c r="N229" s="4">
-        <f t="shared" si="192"/>
+        <f t="shared" si="189"/>
         <v>26760</v>
       </c>
       <c r="O229" s="4">
         <v>22300</v>
       </c>
       <c r="P229" s="4">
-        <f t="shared" si="193"/>
+        <f t="shared" si="190"/>
         <v>17840</v>
       </c>
       <c r="Q229" s="4">
-        <f t="shared" si="194"/>
+        <f t="shared" si="191"/>
         <v>26760</v>
       </c>
       <c r="R229" s="4">
         <v>22300</v>
       </c>
       <c r="S229" s="4">
-        <f t="shared" si="195"/>
+        <f t="shared" si="192"/>
         <v>17840</v>
       </c>
       <c r="T229" s="4">
-        <f t="shared" si="196"/>
+        <f t="shared" si="193"/>
         <v>26760</v>
       </c>
       <c r="U229" s="4">
         <v>22300</v>
       </c>
       <c r="V229" s="4">
-        <f t="shared" si="197"/>
+        <f t="shared" si="194"/>
         <v>17840</v>
       </c>
       <c r="W229" s="4">
-        <f t="shared" si="198"/>
+        <f t="shared" si="195"/>
         <v>26760</v>
       </c>
       <c r="X229" s="4">
         <v>22300</v>
       </c>
       <c r="Y229" s="4">
-        <f t="shared" si="199"/>
+        <f t="shared" si="196"/>
         <v>17840</v>
       </c>
       <c r="Z229" s="4">
-        <f t="shared" si="200"/>
+        <f t="shared" si="197"/>
         <v>26760</v>
       </c>
       <c r="AA229" s="4">
         <v>22300</v>
       </c>
       <c r="AB229" s="4">
-        <f t="shared" si="201"/>
+        <f t="shared" si="198"/>
         <v>17840</v>
       </c>
       <c r="AC229" s="4">
-        <f t="shared" si="202"/>
+        <f t="shared" si="199"/>
         <v>26760</v>
       </c>
       <c r="AE229" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23537,7 +23525,7 @@
         <v>878.75</v>
       </c>
       <c r="AE230" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23647,7 +23635,7 @@
         <v>1882.5</v>
       </c>
       <c r="AE231" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23758,7 +23746,7 @@
         <v>4518.75</v>
       </c>
       <c r="AE232" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23865,7 +23853,7 @@
         <v>6526.25</v>
       </c>
       <c r="AE233" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -23908,11 +23896,11 @@
         <v>4431</v>
       </c>
       <c r="M234" s="13">
-        <f t="shared" ref="M234" si="203">L234*0.75</f>
+        <f t="shared" ref="M234" si="200">L234*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="N234" s="13">
-        <f t="shared" ref="N234" si="204">L234*1.25</f>
+        <f t="shared" ref="N234" si="201">L234*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="O234" s="13">
@@ -23920,11 +23908,11 @@
         <v>4431</v>
       </c>
       <c r="P234" s="13">
-        <f t="shared" ref="P234" si="205">O234*0.75</f>
+        <f t="shared" ref="P234" si="202">O234*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="Q234" s="13">
-        <f t="shared" ref="Q234" si="206">O234*1.25</f>
+        <f t="shared" ref="Q234" si="203">O234*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="R234" s="13">
@@ -23932,11 +23920,11 @@
         <v>4431</v>
       </c>
       <c r="S234" s="13">
-        <f t="shared" ref="S234" si="207">R234*0.75</f>
+        <f t="shared" ref="S234" si="204">R234*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="T234" s="13">
-        <f t="shared" ref="T234" si="208">R234*1.25</f>
+        <f t="shared" ref="T234" si="205">R234*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="U234" s="13">
@@ -23944,11 +23932,11 @@
         <v>4431</v>
       </c>
       <c r="V234" s="13">
-        <f t="shared" ref="V234" si="209">U234*0.75</f>
+        <f t="shared" ref="V234" si="206">U234*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="W234" s="13">
-        <f t="shared" ref="W234" si="210">U234*1.25</f>
+        <f t="shared" ref="W234" si="207">U234*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="X234" s="13">
@@ -23956,11 +23944,11 @@
         <v>4431</v>
       </c>
       <c r="Y234" s="13">
-        <f t="shared" ref="Y234" si="211">X234*0.75</f>
+        <f t="shared" ref="Y234" si="208">X234*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="Z234" s="13">
-        <f t="shared" ref="Z234" si="212">X234*1.25</f>
+        <f t="shared" ref="Z234" si="209">X234*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="AA234" s="13">
@@ -23968,15 +23956,15 @@
         <v>4431</v>
       </c>
       <c r="AB234" s="13">
-        <f t="shared" ref="AB234" si="213">AA234*0.75</f>
+        <f t="shared" ref="AB234" si="210">AA234*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="AC234" s="13">
-        <f t="shared" ref="AC234" si="214">AA234*1.25</f>
+        <f t="shared" ref="AC234" si="211">AA234*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="AE234" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24087,7 +24075,7 @@
         <v>6923.75</v>
       </c>
       <c r="AE235" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24198,7 +24186,7 @@
         <v>10386.25</v>
       </c>
       <c r="AE236" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24264,43 +24252,43 @@
         <v>4.5</v>
       </c>
       <c r="U237" s="9">
-        <f t="shared" ref="U237:AC240" si="215">R237*0.95</f>
+        <f t="shared" ref="U237:AC240" si="212">R237*0.95</f>
         <v>3.8949999999999996</v>
       </c>
       <c r="V237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>3.7049999999999996</v>
       </c>
       <c r="W237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>4.2749999999999995</v>
       </c>
       <c r="X237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>3.7002499999999996</v>
       </c>
       <c r="Y237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>3.5197499999999993</v>
       </c>
       <c r="Z237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>4.0612499999999994</v>
       </c>
       <c r="AA237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>3.5152374999999996</v>
       </c>
       <c r="AB237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>3.3437624999999991</v>
       </c>
       <c r="AC237" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>3.8581874999999992</v>
       </c>
       <c r="AE237" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24366,43 +24354,43 @@
         <v>6.4</v>
       </c>
       <c r="U238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>5.0349999999999993</v>
       </c>
       <c r="V238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>4.75</v>
       </c>
       <c r="W238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.08</v>
       </c>
       <c r="X238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>4.7832499999999989</v>
       </c>
       <c r="Y238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>4.5125000000000002</v>
       </c>
       <c r="Z238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>5.7759999999999998</v>
       </c>
       <c r="AA238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>4.5440874999999989</v>
       </c>
       <c r="AB238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>4.2868750000000002</v>
       </c>
       <c r="AC238" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>5.4871999999999996</v>
       </c>
       <c r="AE238" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24468,43 +24456,43 @@
         <v>7.8</v>
       </c>
       <c r="U239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>7.125</v>
       </c>
       <c r="V239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.9349999999999996</v>
       </c>
       <c r="W239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>7.4099999999999993</v>
       </c>
       <c r="X239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.7687499999999998</v>
       </c>
       <c r="Y239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.5882499999999995</v>
       </c>
       <c r="Z239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>7.0394999999999985</v>
       </c>
       <c r="AA239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.4303124999999994</v>
       </c>
       <c r="AB239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.2588374999999994</v>
       </c>
       <c r="AC239" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.6875249999999982</v>
       </c>
       <c r="AE239" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24570,43 +24558,43 @@
         <v>7.8</v>
       </c>
       <c r="U240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>7.125</v>
       </c>
       <c r="V240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.9349999999999996</v>
       </c>
       <c r="W240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>7.4099999999999993</v>
       </c>
       <c r="X240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.7687499999999998</v>
       </c>
       <c r="Y240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.5882499999999995</v>
       </c>
       <c r="Z240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>7.0394999999999985</v>
       </c>
       <c r="AA240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.4303124999999994</v>
       </c>
       <c r="AB240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.2588374999999994</v>
       </c>
       <c r="AC240" s="9">
-        <f t="shared" si="215"/>
+        <f t="shared" si="212"/>
         <v>6.6875249999999982</v>
       </c>
       <c r="AE240" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24648,11 +24636,11 @@
         <v>10</v>
       </c>
       <c r="M241" s="19">
-        <f t="shared" ref="M241:M242" si="216">L241*0.9</f>
+        <f t="shared" ref="M241:M242" si="213">L241*0.9</f>
         <v>9</v>
       </c>
       <c r="N241" s="19">
-        <f t="shared" ref="N241:N242" si="217">L241*1.1</f>
+        <f t="shared" ref="N241:N242" si="214">L241*1.1</f>
         <v>11</v>
       </c>
       <c r="O241" s="3">
@@ -24670,48 +24658,48 @@
         <v>10</v>
       </c>
       <c r="S241" s="19">
-        <f t="shared" ref="S241:S242" si="218">R241*0.9</f>
+        <f t="shared" ref="S241:S242" si="215">R241*0.9</f>
         <v>9</v>
       </c>
       <c r="T241" s="19">
-        <f t="shared" ref="T241:T242" si="219">R241*1.1</f>
+        <f t="shared" ref="T241:T242" si="216">R241*1.1</f>
         <v>11</v>
       </c>
       <c r="U241" s="3">
         <v>10</v>
       </c>
       <c r="V241" s="19">
-        <f t="shared" ref="V241:V242" si="220">U241*0.9</f>
+        <f t="shared" ref="V241:V242" si="217">U241*0.9</f>
         <v>9</v>
       </c>
       <c r="W241" s="19">
-        <f t="shared" ref="W241:W242" si="221">U241*1.1</f>
+        <f t="shared" ref="W241:W242" si="218">U241*1.1</f>
         <v>11</v>
       </c>
       <c r="X241" s="3">
         <v>10</v>
       </c>
       <c r="Y241" s="19">
-        <f t="shared" ref="Y241:Y242" si="222">X241*0.9</f>
+        <f t="shared" ref="Y241:Y242" si="219">X241*0.9</f>
         <v>9</v>
       </c>
       <c r="Z241" s="19">
-        <f t="shared" ref="Z241:Z242" si="223">X241*1.1</f>
+        <f t="shared" ref="Z241:Z242" si="220">X241*1.1</f>
         <v>11</v>
       </c>
       <c r="AA241" s="3">
         <v>10</v>
       </c>
       <c r="AB241" s="19">
-        <f t="shared" ref="AB241:AB242" si="224">AA241*0.9</f>
+        <f t="shared" ref="AB241:AB242" si="221">AA241*0.9</f>
         <v>9</v>
       </c>
       <c r="AC241" s="19">
-        <f t="shared" ref="AC241:AC242" si="225">AA241*1.1</f>
+        <f t="shared" ref="AC241:AC242" si="222">AA241*1.1</f>
         <v>11</v>
       </c>
       <c r="AE241" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24753,11 +24741,11 @@
         <v>10</v>
       </c>
       <c r="M242" s="19">
-        <f t="shared" si="216"/>
+        <f t="shared" si="213"/>
         <v>9</v>
       </c>
       <c r="N242" s="19">
-        <f t="shared" si="217"/>
+        <f t="shared" si="214"/>
         <v>11</v>
       </c>
       <c r="O242" s="3">
@@ -24775,48 +24763,48 @@
         <v>10</v>
       </c>
       <c r="S242" s="19">
-        <f t="shared" si="218"/>
+        <f t="shared" si="215"/>
         <v>9</v>
       </c>
       <c r="T242" s="19">
-        <f t="shared" si="219"/>
+        <f t="shared" si="216"/>
         <v>11</v>
       </c>
       <c r="U242" s="3">
         <v>10</v>
       </c>
       <c r="V242" s="19">
-        <f t="shared" si="220"/>
+        <f t="shared" si="217"/>
         <v>9</v>
       </c>
       <c r="W242" s="19">
-        <f t="shared" si="221"/>
+        <f t="shared" si="218"/>
         <v>11</v>
       </c>
       <c r="X242" s="3">
         <v>10</v>
       </c>
       <c r="Y242" s="19">
-        <f t="shared" si="222"/>
+        <f t="shared" si="219"/>
         <v>9</v>
       </c>
       <c r="Z242" s="19">
-        <f t="shared" si="223"/>
+        <f t="shared" si="220"/>
         <v>11</v>
       </c>
       <c r="AA242" s="3">
         <v>10</v>
       </c>
       <c r="AB242" s="19">
-        <f t="shared" si="224"/>
+        <f t="shared" si="221"/>
         <v>9</v>
       </c>
       <c r="AC242" s="19">
-        <f t="shared" si="225"/>
+        <f t="shared" si="222"/>
         <v>11</v>
       </c>
       <c r="AE242" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24921,7 +24909,7 @@
         <v>11</v>
       </c>
       <c r="AE243" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -24963,70 +24951,70 @@
         <v>44</v>
       </c>
       <c r="M244" s="13">
-        <f t="shared" ref="M244:M257" si="226">L244*0.75</f>
+        <f t="shared" ref="M244:M257" si="223">L244*0.75</f>
         <v>33</v>
       </c>
       <c r="N244" s="13">
-        <f t="shared" ref="N244:N257" si="227">L244*1.25</f>
+        <f t="shared" ref="N244:N257" si="224">L244*1.25</f>
         <v>55</v>
       </c>
       <c r="O244" s="13">
         <v>44</v>
       </c>
       <c r="P244" s="13">
-        <f t="shared" ref="P244:P257" si="228">O244*0.75</f>
+        <f t="shared" ref="P244:P257" si="225">O244*0.75</f>
         <v>33</v>
       </c>
       <c r="Q244" s="13">
-        <f t="shared" ref="Q244:Q257" si="229">O244*1.25</f>
+        <f t="shared" ref="Q244:Q257" si="226">O244*1.25</f>
         <v>55</v>
       </c>
       <c r="R244" s="13">
         <v>44</v>
       </c>
       <c r="S244" s="13">
-        <f t="shared" ref="S244:S257" si="230">R244*0.75</f>
+        <f t="shared" ref="S244:S257" si="227">R244*0.75</f>
         <v>33</v>
       </c>
       <c r="T244" s="13">
-        <f t="shared" ref="T244:T257" si="231">R244*1.25</f>
+        <f t="shared" ref="T244:T257" si="228">R244*1.25</f>
         <v>55</v>
       </c>
       <c r="U244" s="13">
         <v>44</v>
       </c>
       <c r="V244" s="13">
-        <f t="shared" ref="V244:V257" si="232">U244*0.75</f>
+        <f t="shared" ref="V244:V257" si="229">U244*0.75</f>
         <v>33</v>
       </c>
       <c r="W244" s="13">
-        <f t="shared" ref="W244:W257" si="233">U244*1.25</f>
+        <f t="shared" ref="W244:W257" si="230">U244*1.25</f>
         <v>55</v>
       </c>
       <c r="X244" s="13">
         <v>44</v>
       </c>
       <c r="Y244" s="13">
-        <f t="shared" ref="Y244:Y257" si="234">X244*0.75</f>
+        <f t="shared" ref="Y244:Y257" si="231">X244*0.75</f>
         <v>33</v>
       </c>
       <c r="Z244" s="13">
-        <f t="shared" ref="Z244:Z257" si="235">X244*1.25</f>
+        <f t="shared" ref="Z244:Z257" si="232">X244*1.25</f>
         <v>55</v>
       </c>
       <c r="AA244" s="13">
         <v>44</v>
       </c>
       <c r="AB244" s="13">
-        <f t="shared" ref="AB244:AB257" si="236">AA244*0.75</f>
+        <f t="shared" ref="AB244:AB257" si="233">AA244*0.75</f>
         <v>33</v>
       </c>
       <c r="AC244" s="13">
-        <f t="shared" ref="AC244:AC257" si="237">AA244*1.25</f>
+        <f t="shared" ref="AC244:AC257" si="234">AA244*1.25</f>
         <v>55</v>
       </c>
       <c r="AE244" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25068,70 +25056,70 @@
         <v>94</v>
       </c>
       <c r="M245" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>70.5</v>
       </c>
       <c r="N245" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>117.5</v>
       </c>
       <c r="O245" s="13">
         <v>94</v>
       </c>
       <c r="P245" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>70.5</v>
       </c>
       <c r="Q245" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>117.5</v>
       </c>
       <c r="R245" s="13">
         <v>94</v>
       </c>
       <c r="S245" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>70.5</v>
       </c>
       <c r="T245" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>117.5</v>
       </c>
       <c r="U245" s="13">
         <v>94</v>
       </c>
       <c r="V245" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>70.5</v>
       </c>
       <c r="W245" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>117.5</v>
       </c>
       <c r="X245" s="13">
         <v>94</v>
       </c>
       <c r="Y245" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>70.5</v>
       </c>
       <c r="Z245" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>117.5</v>
       </c>
       <c r="AA245" s="13">
         <v>94</v>
       </c>
       <c r="AB245" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>70.5</v>
       </c>
       <c r="AC245" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>117.5</v>
       </c>
       <c r="AE245" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25173,70 +25161,70 @@
         <v>225</v>
       </c>
       <c r="M246" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>168.75</v>
       </c>
       <c r="N246" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>281.25</v>
       </c>
       <c r="O246" s="13">
         <v>225</v>
       </c>
       <c r="P246" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>168.75</v>
       </c>
       <c r="Q246" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>281.25</v>
       </c>
       <c r="R246" s="13">
         <v>225</v>
       </c>
       <c r="S246" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>168.75</v>
       </c>
       <c r="T246" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>281.25</v>
       </c>
       <c r="U246" s="13">
         <v>225</v>
       </c>
       <c r="V246" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>168.75</v>
       </c>
       <c r="W246" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>281.25</v>
       </c>
       <c r="X246" s="13">
         <v>225</v>
       </c>
       <c r="Y246" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>168.75</v>
       </c>
       <c r="Z246" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>281.25</v>
       </c>
       <c r="AA246" s="13">
         <v>225</v>
       </c>
       <c r="AB246" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>168.75</v>
       </c>
       <c r="AC246" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>281.25</v>
       </c>
       <c r="AE246" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25279,70 +25267,70 @@
         <v>325</v>
       </c>
       <c r="M247" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>243.75</v>
       </c>
       <c r="N247" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>406.25</v>
       </c>
       <c r="O247" s="13">
         <v>325</v>
       </c>
       <c r="P247" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>243.75</v>
       </c>
       <c r="Q247" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>406.25</v>
       </c>
       <c r="R247" s="13">
         <v>325</v>
       </c>
       <c r="S247" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>243.75</v>
       </c>
       <c r="T247" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>406.25</v>
       </c>
       <c r="U247" s="13">
         <v>325</v>
       </c>
       <c r="V247" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>243.75</v>
       </c>
       <c r="W247" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>406.25</v>
       </c>
       <c r="X247" s="13">
         <v>325</v>
       </c>
       <c r="Y247" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>243.75</v>
       </c>
       <c r="Z247" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>406.25</v>
       </c>
       <c r="AA247" s="13">
         <v>325</v>
       </c>
       <c r="AB247" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>243.75</v>
       </c>
       <c r="AC247" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>406.25</v>
       </c>
       <c r="AE247" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25384,70 +25372,70 @@
         <v>176</v>
       </c>
       <c r="M248" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>132</v>
       </c>
       <c r="N248" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>220</v>
       </c>
       <c r="O248" s="13">
         <v>176</v>
       </c>
       <c r="P248" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>132</v>
       </c>
       <c r="Q248" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>220</v>
       </c>
       <c r="R248" s="13">
         <v>176</v>
       </c>
       <c r="S248" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>132</v>
       </c>
       <c r="T248" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>220</v>
       </c>
       <c r="U248" s="13">
         <v>176</v>
       </c>
       <c r="V248" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>132</v>
       </c>
       <c r="W248" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>220</v>
       </c>
       <c r="X248" s="13">
         <v>176</v>
       </c>
       <c r="Y248" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>132</v>
       </c>
       <c r="Z248" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>220</v>
       </c>
       <c r="AA248" s="13">
         <v>176</v>
       </c>
       <c r="AB248" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>132</v>
       </c>
       <c r="AC248" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>220</v>
       </c>
       <c r="AE248" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25489,70 +25477,70 @@
         <v>220</v>
       </c>
       <c r="M249" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>165</v>
       </c>
       <c r="N249" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>275</v>
       </c>
       <c r="O249" s="13">
         <v>220</v>
       </c>
       <c r="P249" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>165</v>
       </c>
       <c r="Q249" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>275</v>
       </c>
       <c r="R249" s="13">
         <v>220</v>
       </c>
       <c r="S249" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>165</v>
       </c>
       <c r="T249" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>275</v>
       </c>
       <c r="U249" s="13">
         <v>220</v>
       </c>
       <c r="V249" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>165</v>
       </c>
       <c r="W249" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>275</v>
       </c>
       <c r="X249" s="13">
         <v>220</v>
       </c>
       <c r="Y249" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>165</v>
       </c>
       <c r="Z249" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>275</v>
       </c>
       <c r="AA249" s="13">
         <v>220</v>
       </c>
       <c r="AB249" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>165</v>
       </c>
       <c r="AC249" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>275</v>
       </c>
       <c r="AE249" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25594,70 +25582,70 @@
         <v>330</v>
       </c>
       <c r="M250" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>247.5</v>
       </c>
       <c r="N250" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>412.5</v>
       </c>
       <c r="O250" s="13">
         <v>330</v>
       </c>
       <c r="P250" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>247.5</v>
       </c>
       <c r="Q250" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>412.5</v>
       </c>
       <c r="R250" s="13">
         <v>330</v>
       </c>
       <c r="S250" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>247.5</v>
       </c>
       <c r="T250" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>412.5</v>
       </c>
       <c r="U250" s="13">
         <v>330</v>
       </c>
       <c r="V250" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>247.5</v>
       </c>
       <c r="W250" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>412.5</v>
       </c>
       <c r="X250" s="13">
         <v>330</v>
       </c>
       <c r="Y250" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>247.5</v>
       </c>
       <c r="Z250" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>412.5</v>
       </c>
       <c r="AA250" s="13">
         <v>330</v>
       </c>
       <c r="AB250" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>247.5</v>
       </c>
       <c r="AC250" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>412.5</v>
       </c>
       <c r="AE250" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25699,70 +25687,70 @@
         <v>24</v>
       </c>
       <c r="M251" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>18</v>
       </c>
       <c r="N251" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>30</v>
       </c>
       <c r="O251" s="13">
         <v>24</v>
       </c>
       <c r="P251" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>18</v>
       </c>
       <c r="Q251" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>30</v>
       </c>
       <c r="R251" s="13">
         <v>24</v>
       </c>
       <c r="S251" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>18</v>
       </c>
       <c r="T251" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>30</v>
       </c>
       <c r="U251" s="13">
         <v>24</v>
       </c>
       <c r="V251" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>18</v>
       </c>
       <c r="W251" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>30</v>
       </c>
       <c r="X251" s="13">
         <v>24</v>
       </c>
       <c r="Y251" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>18</v>
       </c>
       <c r="Z251" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>30</v>
       </c>
       <c r="AA251" s="13">
         <v>24</v>
       </c>
       <c r="AB251" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>18</v>
       </c>
       <c r="AC251" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>30</v>
       </c>
       <c r="AE251" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25804,70 +25792,70 @@
         <v>52</v>
       </c>
       <c r="M252" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>39</v>
       </c>
       <c r="N252" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>65</v>
       </c>
       <c r="O252" s="13">
         <v>52</v>
       </c>
       <c r="P252" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>39</v>
       </c>
       <c r="Q252" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>65</v>
       </c>
       <c r="R252" s="13">
         <v>52</v>
       </c>
       <c r="S252" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>39</v>
       </c>
       <c r="T252" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>65</v>
       </c>
       <c r="U252" s="13">
         <v>52</v>
       </c>
       <c r="V252" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>39</v>
       </c>
       <c r="W252" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>65</v>
       </c>
       <c r="X252" s="13">
         <v>52</v>
       </c>
       <c r="Y252" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>39</v>
       </c>
       <c r="Z252" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>65</v>
       </c>
       <c r="AA252" s="13">
         <v>52</v>
       </c>
       <c r="AB252" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>39</v>
       </c>
       <c r="AC252" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>65</v>
       </c>
       <c r="AE252" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -25909,70 +25897,70 @@
         <v>125</v>
       </c>
       <c r="M253" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>93.75</v>
       </c>
       <c r="N253" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>156.25</v>
       </c>
       <c r="O253" s="13">
         <v>125</v>
       </c>
       <c r="P253" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>93.75</v>
       </c>
       <c r="Q253" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>156.25</v>
       </c>
       <c r="R253" s="13">
         <v>125</v>
       </c>
       <c r="S253" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>93.75</v>
       </c>
       <c r="T253" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>156.25</v>
       </c>
       <c r="U253" s="13">
         <v>125</v>
       </c>
       <c r="V253" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>93.75</v>
       </c>
       <c r="W253" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>156.25</v>
       </c>
       <c r="X253" s="13">
         <v>125</v>
       </c>
       <c r="Y253" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>93.75</v>
       </c>
       <c r="Z253" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>156.25</v>
       </c>
       <c r="AA253" s="13">
         <v>125</v>
       </c>
       <c r="AB253" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>93.75</v>
       </c>
       <c r="AC253" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>156.25</v>
       </c>
       <c r="AE253" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26015,70 +26003,70 @@
         <v>180</v>
       </c>
       <c r="M254" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>135</v>
       </c>
       <c r="N254" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>225</v>
       </c>
       <c r="O254" s="13">
         <v>180</v>
       </c>
       <c r="P254" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>135</v>
       </c>
       <c r="Q254" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>225</v>
       </c>
       <c r="R254" s="13">
         <v>180</v>
       </c>
       <c r="S254" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>135</v>
       </c>
       <c r="T254" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>225</v>
       </c>
       <c r="U254" s="13">
         <v>180</v>
       </c>
       <c r="V254" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>135</v>
       </c>
       <c r="W254" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>225</v>
       </c>
       <c r="X254" s="13">
         <v>180</v>
       </c>
       <c r="Y254" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>135</v>
       </c>
       <c r="Z254" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>225</v>
       </c>
       <c r="AA254" s="13">
         <v>180</v>
       </c>
       <c r="AB254" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>135</v>
       </c>
       <c r="AC254" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>225</v>
       </c>
       <c r="AE254" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26120,70 +26108,70 @@
         <v>212</v>
       </c>
       <c r="M255" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>159</v>
       </c>
       <c r="N255" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>265</v>
       </c>
       <c r="O255" s="13">
         <v>212</v>
       </c>
       <c r="P255" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>159</v>
       </c>
       <c r="Q255" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>265</v>
       </c>
       <c r="R255" s="13">
         <v>212</v>
       </c>
       <c r="S255" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>159</v>
       </c>
       <c r="T255" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>265</v>
       </c>
       <c r="U255" s="13">
         <v>212</v>
       </c>
       <c r="V255" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>159</v>
       </c>
       <c r="W255" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>265</v>
       </c>
       <c r="X255" s="13">
         <v>212</v>
       </c>
       <c r="Y255" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>159</v>
       </c>
       <c r="Z255" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>265</v>
       </c>
       <c r="AA255" s="13">
         <v>212</v>
       </c>
       <c r="AB255" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>159</v>
       </c>
       <c r="AC255" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>265</v>
       </c>
       <c r="AE255" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26225,70 +26213,70 @@
         <v>265</v>
       </c>
       <c r="M256" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>198.75</v>
       </c>
       <c r="N256" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>331.25</v>
       </c>
       <c r="O256" s="13">
         <v>265</v>
       </c>
       <c r="P256" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>198.75</v>
       </c>
       <c r="Q256" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>331.25</v>
       </c>
       <c r="R256" s="13">
         <v>265</v>
       </c>
       <c r="S256" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>198.75</v>
       </c>
       <c r="T256" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>331.25</v>
       </c>
       <c r="U256" s="13">
         <v>265</v>
       </c>
       <c r="V256" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>198.75</v>
       </c>
       <c r="W256" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>331.25</v>
       </c>
       <c r="X256" s="13">
         <v>265</v>
       </c>
       <c r="Y256" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>198.75</v>
       </c>
       <c r="Z256" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>331.25</v>
       </c>
       <c r="AA256" s="13">
         <v>265</v>
       </c>
       <c r="AB256" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>198.75</v>
       </c>
       <c r="AC256" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>331.25</v>
       </c>
       <c r="AE256" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26330,70 +26318,70 @@
         <v>398</v>
       </c>
       <c r="M257" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="223"/>
         <v>298.5</v>
       </c>
       <c r="N257" s="13">
-        <f t="shared" si="227"/>
+        <f t="shared" si="224"/>
         <v>497.5</v>
       </c>
       <c r="O257" s="13">
         <v>398</v>
       </c>
       <c r="P257" s="13">
-        <f t="shared" si="228"/>
+        <f t="shared" si="225"/>
         <v>298.5</v>
       </c>
       <c r="Q257" s="13">
-        <f t="shared" si="229"/>
+        <f t="shared" si="226"/>
         <v>497.5</v>
       </c>
       <c r="R257" s="13">
         <v>398</v>
       </c>
       <c r="S257" s="13">
-        <f t="shared" si="230"/>
+        <f t="shared" si="227"/>
         <v>298.5</v>
       </c>
       <c r="T257" s="13">
-        <f t="shared" si="231"/>
+        <f t="shared" si="228"/>
         <v>497.5</v>
       </c>
       <c r="U257" s="13">
         <v>398</v>
       </c>
       <c r="V257" s="13">
-        <f t="shared" si="232"/>
+        <f t="shared" si="229"/>
         <v>298.5</v>
       </c>
       <c r="W257" s="13">
-        <f t="shared" si="233"/>
+        <f t="shared" si="230"/>
         <v>497.5</v>
       </c>
       <c r="X257" s="13">
         <v>398</v>
       </c>
       <c r="Y257" s="13">
-        <f t="shared" si="234"/>
+        <f t="shared" si="231"/>
         <v>298.5</v>
       </c>
       <c r="Z257" s="13">
-        <f t="shared" si="235"/>
+        <f t="shared" si="232"/>
         <v>497.5</v>
       </c>
       <c r="AA257" s="13">
         <v>398</v>
       </c>
       <c r="AB257" s="13">
-        <f t="shared" si="236"/>
+        <f t="shared" si="233"/>
         <v>298.5</v>
       </c>
       <c r="AC257" s="13">
-        <f t="shared" si="237"/>
+        <f t="shared" si="234"/>
         <v>497.5</v>
       </c>
       <c r="AE257" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26435,70 +26423,70 @@
         <v>175</v>
       </c>
       <c r="M258" s="13">
-        <f t="shared" ref="M258:M271" si="238">L258*0.75</f>
+        <f t="shared" ref="M258:M271" si="235">L258*0.75</f>
         <v>131.25</v>
       </c>
       <c r="N258" s="13">
-        <f t="shared" ref="N258:N271" si="239">L258*1.25</f>
+        <f t="shared" ref="N258:N271" si="236">L258*1.25</f>
         <v>218.75</v>
       </c>
       <c r="O258" s="13">
         <v>175</v>
       </c>
       <c r="P258" s="13">
-        <f t="shared" ref="P258:P271" si="240">O258*0.75</f>
+        <f t="shared" ref="P258:P271" si="237">O258*0.75</f>
         <v>131.25</v>
       </c>
       <c r="Q258" s="13">
-        <f t="shared" ref="Q258:Q271" si="241">O258*1.25</f>
+        <f t="shared" ref="Q258:Q271" si="238">O258*1.25</f>
         <v>218.75</v>
       </c>
       <c r="R258" s="13">
         <v>175</v>
       </c>
       <c r="S258" s="13">
-        <f t="shared" ref="S258:S271" si="242">R258*0.75</f>
+        <f t="shared" ref="S258:S271" si="239">R258*0.75</f>
         <v>131.25</v>
       </c>
       <c r="T258" s="13">
-        <f t="shared" ref="T258:T271" si="243">R258*1.25</f>
+        <f t="shared" ref="T258:T271" si="240">R258*1.25</f>
         <v>218.75</v>
       </c>
       <c r="U258" s="13">
         <v>175</v>
       </c>
       <c r="V258" s="13">
-        <f t="shared" ref="V258:V271" si="244">U258*0.75</f>
+        <f t="shared" ref="V258:V271" si="241">U258*0.75</f>
         <v>131.25</v>
       </c>
       <c r="W258" s="13">
-        <f t="shared" ref="W258:W271" si="245">U258*1.25</f>
+        <f t="shared" ref="W258:W271" si="242">U258*1.25</f>
         <v>218.75</v>
       </c>
       <c r="X258" s="13">
         <v>175</v>
       </c>
       <c r="Y258" s="13">
-        <f t="shared" ref="Y258:Y271" si="246">X258*0.75</f>
+        <f t="shared" ref="Y258:Y271" si="243">X258*0.75</f>
         <v>131.25</v>
       </c>
       <c r="Z258" s="13">
-        <f t="shared" ref="Z258:Z271" si="247">X258*1.25</f>
+        <f t="shared" ref="Z258:Z271" si="244">X258*1.25</f>
         <v>218.75</v>
       </c>
       <c r="AA258" s="13">
         <v>175</v>
       </c>
       <c r="AB258" s="13">
-        <f t="shared" ref="AB258:AB271" si="248">AA258*0.75</f>
+        <f t="shared" ref="AB258:AB271" si="245">AA258*0.75</f>
         <v>131.25</v>
       </c>
       <c r="AC258" s="13">
-        <f t="shared" ref="AC258:AC271" si="249">AA258*1.25</f>
+        <f t="shared" ref="AC258:AC271" si="246">AA258*1.25</f>
         <v>218.75</v>
       </c>
       <c r="AE258" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26540,70 +26528,70 @@
         <v>375</v>
       </c>
       <c r="M259" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>281.25</v>
       </c>
       <c r="N259" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>468.75</v>
       </c>
       <c r="O259" s="13">
         <v>375</v>
       </c>
       <c r="P259" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>281.25</v>
       </c>
       <c r="Q259" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>468.75</v>
       </c>
       <c r="R259" s="13">
         <v>375</v>
       </c>
       <c r="S259" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>281.25</v>
       </c>
       <c r="T259" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>468.75</v>
       </c>
       <c r="U259" s="13">
         <v>375</v>
       </c>
       <c r="V259" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>281.25</v>
       </c>
       <c r="W259" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>468.75</v>
       </c>
       <c r="X259" s="13">
         <v>375</v>
       </c>
       <c r="Y259" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>281.25</v>
       </c>
       <c r="Z259" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>468.75</v>
       </c>
       <c r="AA259" s="13">
         <v>375</v>
       </c>
       <c r="AB259" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>281.25</v>
       </c>
       <c r="AC259" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>468.75</v>
       </c>
       <c r="AE259" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26645,70 +26633,70 @@
         <v>900</v>
       </c>
       <c r="M260" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>675</v>
       </c>
       <c r="N260" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>1125</v>
       </c>
       <c r="O260" s="13">
         <v>900</v>
       </c>
       <c r="P260" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>675</v>
       </c>
       <c r="Q260" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>1125</v>
       </c>
       <c r="R260" s="13">
         <v>900</v>
       </c>
       <c r="S260" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>675</v>
       </c>
       <c r="T260" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>1125</v>
       </c>
       <c r="U260" s="13">
         <v>900</v>
       </c>
       <c r="V260" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>675</v>
       </c>
       <c r="W260" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>1125</v>
       </c>
       <c r="X260" s="13">
         <v>900</v>
       </c>
       <c r="Y260" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>675</v>
       </c>
       <c r="Z260" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>1125</v>
       </c>
       <c r="AA260" s="13">
         <v>900</v>
       </c>
       <c r="AB260" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>675</v>
       </c>
       <c r="AC260" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>1125</v>
       </c>
       <c r="AE260" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26751,70 +26739,70 @@
         <v>1300</v>
       </c>
       <c r="M261" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>975</v>
       </c>
       <c r="N261" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>1625</v>
       </c>
       <c r="O261" s="13">
         <v>1300</v>
       </c>
       <c r="P261" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>975</v>
       </c>
       <c r="Q261" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>1625</v>
       </c>
       <c r="R261" s="13">
         <v>1300</v>
       </c>
       <c r="S261" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>975</v>
       </c>
       <c r="T261" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>1625</v>
       </c>
       <c r="U261" s="13">
         <v>1300</v>
       </c>
       <c r="V261" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>975</v>
       </c>
       <c r="W261" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>1625</v>
       </c>
       <c r="X261" s="13">
         <v>1300</v>
       </c>
       <c r="Y261" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>975</v>
       </c>
       <c r="Z261" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>1625</v>
       </c>
       <c r="AA261" s="13">
         <v>1300</v>
       </c>
       <c r="AB261" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>975</v>
       </c>
       <c r="AC261" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>1625</v>
       </c>
       <c r="AE261" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26856,70 +26844,70 @@
         <v>922</v>
       </c>
       <c r="M262" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>691.5</v>
       </c>
       <c r="N262" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>1152.5</v>
       </c>
       <c r="O262" s="13">
         <v>922</v>
       </c>
       <c r="P262" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>691.5</v>
       </c>
       <c r="Q262" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>1152.5</v>
       </c>
       <c r="R262" s="13">
         <v>922</v>
       </c>
       <c r="S262" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>691.5</v>
       </c>
       <c r="T262" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>1152.5</v>
       </c>
       <c r="U262" s="13">
         <v>922</v>
       </c>
       <c r="V262" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>691.5</v>
       </c>
       <c r="W262" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>1152.5</v>
       </c>
       <c r="X262" s="13">
         <v>922</v>
       </c>
       <c r="Y262" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>691.5</v>
       </c>
       <c r="Z262" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>1152.5</v>
       </c>
       <c r="AA262" s="13">
         <v>922</v>
       </c>
       <c r="AB262" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>691.5</v>
       </c>
       <c r="AC262" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>1152.5</v>
       </c>
       <c r="AE262" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -26961,70 +26949,70 @@
         <v>1153</v>
       </c>
       <c r="M263" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>864.75</v>
       </c>
       <c r="N263" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>1441.25</v>
       </c>
       <c r="O263" s="13">
         <v>1153</v>
       </c>
       <c r="P263" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>864.75</v>
       </c>
       <c r="Q263" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>1441.25</v>
       </c>
       <c r="R263" s="13">
         <v>1153</v>
       </c>
       <c r="S263" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>864.75</v>
       </c>
       <c r="T263" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>1441.25</v>
       </c>
       <c r="U263" s="13">
         <v>1153</v>
       </c>
       <c r="V263" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>864.75</v>
       </c>
       <c r="W263" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>1441.25</v>
       </c>
       <c r="X263" s="13">
         <v>1153</v>
       </c>
       <c r="Y263" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>864.75</v>
       </c>
       <c r="Z263" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>1441.25</v>
       </c>
       <c r="AA263" s="13">
         <v>1153</v>
       </c>
       <c r="AB263" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>864.75</v>
       </c>
       <c r="AC263" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>1441.25</v>
       </c>
       <c r="AE263" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27066,70 +27054,70 @@
         <v>1730</v>
       </c>
       <c r="M264" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>1297.5</v>
       </c>
       <c r="N264" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>2162.5</v>
       </c>
       <c r="O264" s="13">
         <v>1730</v>
       </c>
       <c r="P264" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>1297.5</v>
       </c>
       <c r="Q264" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>2162.5</v>
       </c>
       <c r="R264" s="13">
         <v>1730</v>
       </c>
       <c r="S264" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>1297.5</v>
       </c>
       <c r="T264" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>2162.5</v>
       </c>
       <c r="U264" s="13">
         <v>1730</v>
       </c>
       <c r="V264" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>1297.5</v>
       </c>
       <c r="W264" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>2162.5</v>
       </c>
       <c r="X264" s="13">
         <v>1730</v>
       </c>
       <c r="Y264" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>1297.5</v>
       </c>
       <c r="Z264" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>2162.5</v>
       </c>
       <c r="AA264" s="13">
         <v>1730</v>
       </c>
       <c r="AB264" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>1297.5</v>
       </c>
       <c r="AC264" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>2162.5</v>
       </c>
       <c r="AE264" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27171,70 +27159,70 @@
         <v>24</v>
       </c>
       <c r="M265" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>18</v>
       </c>
       <c r="N265" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>30</v>
       </c>
       <c r="O265" s="13">
         <v>24</v>
       </c>
       <c r="P265" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>18</v>
       </c>
       <c r="Q265" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>30</v>
       </c>
       <c r="R265" s="13">
         <v>24</v>
       </c>
       <c r="S265" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>18</v>
       </c>
       <c r="T265" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>30</v>
       </c>
       <c r="U265" s="13">
         <v>24</v>
       </c>
       <c r="V265" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>18</v>
       </c>
       <c r="W265" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>30</v>
       </c>
       <c r="X265" s="13">
         <v>24</v>
       </c>
       <c r="Y265" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>18</v>
       </c>
       <c r="Z265" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>30</v>
       </c>
       <c r="AA265" s="13">
         <v>24</v>
       </c>
       <c r="AB265" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>18</v>
       </c>
       <c r="AC265" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>30</v>
       </c>
       <c r="AE265" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27276,70 +27264,70 @@
         <v>52</v>
       </c>
       <c r="M266" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>39</v>
       </c>
       <c r="N266" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>65</v>
       </c>
       <c r="O266" s="13">
         <v>52</v>
       </c>
       <c r="P266" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>39</v>
       </c>
       <c r="Q266" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>65</v>
       </c>
       <c r="R266" s="13">
         <v>52</v>
       </c>
       <c r="S266" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>39</v>
       </c>
       <c r="T266" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>65</v>
       </c>
       <c r="U266" s="13">
         <v>52</v>
       </c>
       <c r="V266" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>39</v>
       </c>
       <c r="W266" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>65</v>
       </c>
       <c r="X266" s="13">
         <v>52</v>
       </c>
       <c r="Y266" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>39</v>
       </c>
       <c r="Z266" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>65</v>
       </c>
       <c r="AA266" s="13">
         <v>52</v>
       </c>
       <c r="AB266" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>39</v>
       </c>
       <c r="AC266" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>65</v>
       </c>
       <c r="AE266" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27381,70 +27369,70 @@
         <v>125</v>
       </c>
       <c r="M267" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>93.75</v>
       </c>
       <c r="N267" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>156.25</v>
       </c>
       <c r="O267" s="13">
         <v>125</v>
       </c>
       <c r="P267" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>93.75</v>
       </c>
       <c r="Q267" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>156.25</v>
       </c>
       <c r="R267" s="13">
         <v>125</v>
       </c>
       <c r="S267" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>93.75</v>
       </c>
       <c r="T267" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>156.25</v>
       </c>
       <c r="U267" s="13">
         <v>125</v>
       </c>
       <c r="V267" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>93.75</v>
       </c>
       <c r="W267" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>156.25</v>
       </c>
       <c r="X267" s="13">
         <v>125</v>
       </c>
       <c r="Y267" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>93.75</v>
       </c>
       <c r="Z267" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>156.25</v>
       </c>
       <c r="AA267" s="13">
         <v>125</v>
       </c>
       <c r="AB267" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>93.75</v>
       </c>
       <c r="AC267" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>156.25</v>
       </c>
       <c r="AE267" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27487,70 +27475,70 @@
         <v>180</v>
       </c>
       <c r="M268" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>135</v>
       </c>
       <c r="N268" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>225</v>
       </c>
       <c r="O268" s="13">
         <v>180</v>
       </c>
       <c r="P268" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>135</v>
       </c>
       <c r="Q268" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>225</v>
       </c>
       <c r="R268" s="13">
         <v>180</v>
       </c>
       <c r="S268" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>135</v>
       </c>
       <c r="T268" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>225</v>
       </c>
       <c r="U268" s="13">
         <v>180</v>
       </c>
       <c r="V268" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>135</v>
       </c>
       <c r="W268" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>225</v>
       </c>
       <c r="X268" s="13">
         <v>180</v>
       </c>
       <c r="Y268" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>135</v>
       </c>
       <c r="Z268" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>225</v>
       </c>
       <c r="AA268" s="13">
         <v>180</v>
       </c>
       <c r="AB268" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>135</v>
       </c>
       <c r="AC268" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>225</v>
       </c>
       <c r="AE268" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27592,70 +27580,70 @@
         <v>627</v>
       </c>
       <c r="M269" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>470.25</v>
       </c>
       <c r="N269" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>783.75</v>
       </c>
       <c r="O269" s="13">
         <v>627</v>
       </c>
       <c r="P269" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>470.25</v>
       </c>
       <c r="Q269" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>783.75</v>
       </c>
       <c r="R269" s="13">
         <v>627</v>
       </c>
       <c r="S269" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>470.25</v>
       </c>
       <c r="T269" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>783.75</v>
       </c>
       <c r="U269" s="13">
         <v>627</v>
       </c>
       <c r="V269" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>470.25</v>
       </c>
       <c r="W269" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>783.75</v>
       </c>
       <c r="X269" s="13">
         <v>627</v>
       </c>
       <c r="Y269" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>470.25</v>
       </c>
       <c r="Z269" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>783.75</v>
       </c>
       <c r="AA269" s="13">
         <v>627</v>
       </c>
       <c r="AB269" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>470.25</v>
       </c>
       <c r="AC269" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>783.75</v>
       </c>
       <c r="AE269" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27697,70 +27685,70 @@
         <v>784</v>
       </c>
       <c r="M270" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>588</v>
       </c>
       <c r="N270" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>980</v>
       </c>
       <c r="O270" s="13">
         <v>784</v>
       </c>
       <c r="P270" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>588</v>
       </c>
       <c r="Q270" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>980</v>
       </c>
       <c r="R270" s="13">
         <v>784</v>
       </c>
       <c r="S270" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>588</v>
       </c>
       <c r="T270" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>980</v>
       </c>
       <c r="U270" s="13">
         <v>784</v>
       </c>
       <c r="V270" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>588</v>
       </c>
       <c r="W270" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>980</v>
       </c>
       <c r="X270" s="13">
         <v>784</v>
       </c>
       <c r="Y270" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>588</v>
       </c>
       <c r="Z270" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>980</v>
       </c>
       <c r="AA270" s="13">
         <v>784</v>
       </c>
       <c r="AB270" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>588</v>
       </c>
       <c r="AC270" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>980</v>
       </c>
       <c r="AE270" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27802,70 +27790,70 @@
         <v>1176</v>
       </c>
       <c r="M271" s="13">
-        <f t="shared" si="238"/>
+        <f t="shared" si="235"/>
         <v>882</v>
       </c>
       <c r="N271" s="13">
-        <f t="shared" si="239"/>
+        <f t="shared" si="236"/>
         <v>1470</v>
       </c>
       <c r="O271" s="13">
         <v>1176</v>
       </c>
       <c r="P271" s="13">
-        <f t="shared" si="240"/>
+        <f t="shared" si="237"/>
         <v>882</v>
       </c>
       <c r="Q271" s="13">
-        <f t="shared" si="241"/>
+        <f t="shared" si="238"/>
         <v>1470</v>
       </c>
       <c r="R271" s="13">
         <v>1176</v>
       </c>
       <c r="S271" s="13">
-        <f t="shared" si="242"/>
+        <f t="shared" si="239"/>
         <v>882</v>
       </c>
       <c r="T271" s="13">
-        <f t="shared" si="243"/>
+        <f t="shared" si="240"/>
         <v>1470</v>
       </c>
       <c r="U271" s="13">
         <v>1176</v>
       </c>
       <c r="V271" s="13">
-        <f t="shared" si="244"/>
+        <f t="shared" si="241"/>
         <v>882</v>
       </c>
       <c r="W271" s="13">
-        <f t="shared" si="245"/>
+        <f t="shared" si="242"/>
         <v>1470</v>
       </c>
       <c r="X271" s="13">
         <v>1176</v>
       </c>
       <c r="Y271" s="13">
-        <f t="shared" si="246"/>
+        <f t="shared" si="243"/>
         <v>882</v>
       </c>
       <c r="Z271" s="13">
-        <f t="shared" si="247"/>
+        <f t="shared" si="244"/>
         <v>1470</v>
       </c>
       <c r="AA271" s="13">
         <v>1176</v>
       </c>
       <c r="AB271" s="13">
-        <f t="shared" si="248"/>
+        <f t="shared" si="245"/>
         <v>882</v>
       </c>
       <c r="AC271" s="13">
-        <f t="shared" si="249"/>
+        <f t="shared" si="246"/>
         <v>1470</v>
       </c>
       <c r="AE271" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -27932,7 +27920,7 @@
       <c r="AB272" s="5"/>
       <c r="AC272" s="5"/>
       <c r="AE272" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -28023,7 +28011,7 @@
         <v>90</v>
       </c>
       <c r="AE273" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -28114,7 +28102,7 @@
         <v>0.4</v>
       </c>
       <c r="AE274" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -28219,7 +28207,7 @@
         <v>25.960000000000004</v>
       </c>
       <c r="AE275" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="187"/>
         <v/>
       </c>
     </row>
@@ -28324,7 +28312,7 @@
         <v>15.400000000000002</v>
       </c>
       <c r="AE276" s="1" t="str">
-        <f t="shared" ref="AE276:AE320" si="250">IF(L276&lt;M276,"ISSUE","")</f>
+        <f t="shared" ref="AE276:AE320" si="247">IF(L276&lt;M276,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -28359,27 +28347,27 @@
         <v>68</v>
       </c>
       <c r="L277" s="4">
-        <f t="shared" ref="L277:Q277" si="251">O277*1.05</f>
+        <f t="shared" ref="L277:Q277" si="248">O277*1.05</f>
         <v>4.41</v>
       </c>
       <c r="M277" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>3.3075000000000006</v>
       </c>
       <c r="N277" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>5.5125000000000002</v>
       </c>
       <c r="O277" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>4.2</v>
       </c>
       <c r="P277" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>3.1500000000000004</v>
       </c>
       <c r="Q277" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="248"/>
         <v>5.25</v>
       </c>
       <c r="R277" s="5">
@@ -28425,7 +28413,7 @@
         <v>4.75</v>
       </c>
       <c r="AE277" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -28524,7 +28512,7 @@
         <v>0.06</v>
       </c>
       <c r="AE278" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -28621,11 +28609,11 @@
         <v>3.8</v>
       </c>
       <c r="AE279" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3" t="s">
         <v>27</v>
       </c>
@@ -28722,11 +28710,11 @@
         <v>0.66</v>
       </c>
       <c r="AE280" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3" t="s">
         <v>27</v>
       </c>
@@ -28761,27 +28749,27 @@
         <v>68</v>
       </c>
       <c r="L281" s="5">
-        <f t="shared" ref="L281:Q281" si="252">L280-0.05</f>
+        <f t="shared" ref="L281:Q281" si="249">L280-0.05</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="M281" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>0.3</v>
       </c>
       <c r="N281" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>0.4</v>
       </c>
       <c r="O281" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>0.45</v>
       </c>
       <c r="P281" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>0.4</v>
       </c>
       <c r="Q281" s="5">
-        <f t="shared" si="252"/>
+        <f t="shared" si="249"/>
         <v>0.5</v>
       </c>
       <c r="R281" s="5">
@@ -28829,7 +28817,7 @@
         <v>0.57200000000000006</v>
       </c>
       <c r="AE281" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -28922,7 +28910,7 @@
         <v>0.3</v>
       </c>
       <c r="AE282" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -28961,79 +28949,79 @@
         <v>68</v>
       </c>
       <c r="L283" s="5">
-        <f t="shared" ref="L283:AC283" si="253">L282-0.05</f>
+        <f t="shared" ref="L283:AC283" si="250">L282-0.05</f>
         <v>0.2</v>
       </c>
       <c r="M283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="N283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.25</v>
       </c>
       <c r="O283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.2</v>
       </c>
       <c r="P283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="Q283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.25</v>
       </c>
       <c r="R283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.2</v>
       </c>
       <c r="S283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="T283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.25</v>
       </c>
       <c r="U283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.3</v>
       </c>
       <c r="V283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.25</v>
       </c>
       <c r="W283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="X283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.3</v>
       </c>
       <c r="Y283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.25</v>
       </c>
       <c r="Z283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="AA283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.2</v>
       </c>
       <c r="AB283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="AC283" s="5">
-        <f t="shared" si="253"/>
+        <f t="shared" si="250"/>
         <v>0.25</v>
       </c>
       <c r="AE283" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29126,7 +29114,7 @@
         <v>700</v>
       </c>
       <c r="AE284" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29211,7 +29199,7 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="AE285" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29242,27 +29230,27 @@
         <v>68</v>
       </c>
       <c r="L286" s="9">
-        <f t="shared" ref="L286:Q289" si="254">O286*1.05</f>
+        <f t="shared" ref="L286:Q289" si="251">O286*1.05</f>
         <v>1.1025</v>
       </c>
       <c r="M286" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.77175000000000005</v>
       </c>
       <c r="N286" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>1.4332500000000004</v>
       </c>
       <c r="O286" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>1.05</v>
       </c>
       <c r="P286" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="Q286" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>1.3650000000000002</v>
       </c>
       <c r="R286" s="9">
@@ -29293,19 +29281,19 @@
         <v>1</v>
       </c>
       <c r="AA286" s="9">
-        <f t="shared" ref="AA286:AC289" si="255">X286*0.95</f>
+        <f t="shared" ref="AA286:AC289" si="252">X286*0.95</f>
         <v>0.66499999999999992</v>
       </c>
       <c r="AB286" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="AC286" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>0.95</v>
       </c>
       <c r="AE286" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29336,27 +29324,27 @@
         <v>68</v>
       </c>
       <c r="L287" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.44100000000000006</v>
       </c>
       <c r="M287" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.33075000000000004</v>
       </c>
       <c r="N287" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.49612500000000004</v>
       </c>
       <c r="O287" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.42000000000000004</v>
       </c>
       <c r="P287" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.315</v>
       </c>
       <c r="Q287" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>0.47250000000000003</v>
       </c>
       <c r="R287" s="9">
@@ -29387,19 +29375,19 @@
         <v>0.34</v>
       </c>
       <c r="AA287" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>0.28499999999999998</v>
       </c>
       <c r="AB287" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="AC287" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>0.32300000000000001</v>
       </c>
       <c r="AE287" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29438,27 +29426,27 @@
         <v>68</v>
       </c>
       <c r="L288" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>3.0870000000000002</v>
       </c>
       <c r="M288" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>2.7562500000000001</v>
       </c>
       <c r="N288" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>3.8587500000000006</v>
       </c>
       <c r="O288" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>2.94</v>
       </c>
       <c r="P288" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>2.625</v>
       </c>
       <c r="Q288" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>3.6750000000000003</v>
       </c>
       <c r="R288" s="5">
@@ -29471,43 +29459,43 @@
         <v>3.5</v>
       </c>
       <c r="U288" s="9">
-        <f t="shared" ref="U288:Z289" si="256">R288*0.95</f>
+        <f t="shared" ref="U288:Z289" si="253">R288*0.95</f>
         <v>2.6599999999999997</v>
       </c>
       <c r="V288" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>2.375</v>
       </c>
       <c r="W288" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>3.3249999999999997</v>
       </c>
       <c r="X288" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>2.5269999999999997</v>
       </c>
       <c r="Y288" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>2.2562500000000001</v>
       </c>
       <c r="Z288" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>3.1587499999999995</v>
       </c>
       <c r="AA288" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>2.4006499999999997</v>
       </c>
       <c r="AB288" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>2.1434375000000001</v>
       </c>
       <c r="AC288" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>3.0008124999999994</v>
       </c>
       <c r="AE288" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29546,27 +29534,27 @@
         <v>68</v>
       </c>
       <c r="L289" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>3.1972499999999999</v>
       </c>
       <c r="M289" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>2.7562500000000001</v>
       </c>
       <c r="N289" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>3.8587500000000006</v>
       </c>
       <c r="O289" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>3.0449999999999999</v>
       </c>
       <c r="P289" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>2.625</v>
       </c>
       <c r="Q289" s="9">
-        <f t="shared" si="254"/>
+        <f t="shared" si="251"/>
         <v>3.6750000000000003</v>
       </c>
       <c r="R289" s="5">
@@ -29579,43 +29567,43 @@
         <v>3.5</v>
       </c>
       <c r="U289" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>2.7549999999999999</v>
       </c>
       <c r="V289" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>2.375</v>
       </c>
       <c r="W289" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>3.3249999999999997</v>
       </c>
       <c r="X289" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>2.6172499999999999</v>
       </c>
       <c r="Y289" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>2.2562500000000001</v>
       </c>
       <c r="Z289" s="9">
-        <f t="shared" si="256"/>
+        <f t="shared" si="253"/>
         <v>3.1587499999999995</v>
       </c>
       <c r="AA289" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>2.4863874999999998</v>
       </c>
       <c r="AB289" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>2.1434375000000001</v>
       </c>
       <c r="AC289" s="9">
-        <f t="shared" si="255"/>
+        <f t="shared" si="252"/>
         <v>3.0008124999999994</v>
       </c>
       <c r="AE289" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29684,7 +29672,7 @@
       <c r="AB290" s="3"/>
       <c r="AC290" s="3"/>
       <c r="AE290" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -29753,11 +29741,11 @@
       <c r="AB291" s="3"/>
       <c r="AC291" s="3"/>
       <c r="AE291" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3" t="s">
         <v>27</v>
       </c>
@@ -29852,11 +29840,11 @@
         <v>0.05</v>
       </c>
       <c r="AE292" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3" t="s">
         <v>27</v>
       </c>
@@ -29918,27 +29906,27 @@
         <v>0.13</v>
       </c>
       <c r="U293" s="5">
-        <f t="shared" ref="U293:U298" si="257">R293*0.5</f>
+        <f t="shared" ref="U293:U298" si="254">R293*0.5</f>
         <v>0.05</v>
       </c>
       <c r="V293" s="5">
-        <f t="shared" ref="V293:V298" si="258">U293*0.8</f>
+        <f t="shared" ref="V293:V298" si="255">U293*0.8</f>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="W293" s="5">
-        <f t="shared" ref="W293:W298" si="259">U293*1.2</f>
+        <f t="shared" ref="W293:W298" si="256">U293*1.2</f>
         <v>0.06</v>
       </c>
       <c r="X293" s="5">
-        <f t="shared" ref="X293:X298" si="260">U293*0.5</f>
+        <f t="shared" ref="X293:X298" si="257">U293*0.5</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y293" s="5">
-        <f t="shared" ref="Y293:Y298" si="261">X293*0.8</f>
+        <f t="shared" ref="Y293:Y298" si="258">X293*0.8</f>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Z293" s="5">
-        <f t="shared" ref="Z293:Z298" si="262">X293*1.2</f>
+        <f t="shared" ref="Z293:Z298" si="259">X293*1.2</f>
         <v>0.03</v>
       </c>
       <c r="AA293" s="5">
@@ -29951,11 +29939,11 @@
         <v>0.05</v>
       </c>
       <c r="AE293" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3" t="s">
         <v>27</v>
       </c>
@@ -30017,27 +30005,27 @@
         <v>0.13</v>
       </c>
       <c r="U294" s="5">
+        <f t="shared" si="254"/>
+        <v>0.05</v>
+      </c>
+      <c r="V294" s="5">
+        <f t="shared" si="255"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="W294" s="5">
+        <f t="shared" si="256"/>
+        <v>0.06</v>
+      </c>
+      <c r="X294" s="5">
         <f t="shared" si="257"/>
-        <v>0.05</v>
-      </c>
-      <c r="V294" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y294" s="5">
         <f t="shared" si="258"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="W294" s="5">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Z294" s="5">
         <f t="shared" si="259"/>
-        <v>0.06</v>
-      </c>
-      <c r="X294" s="5">
-        <f t="shared" si="260"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y294" s="5">
-        <f t="shared" si="261"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Z294" s="5">
-        <f t="shared" si="262"/>
         <v>0.03</v>
       </c>
       <c r="AA294" s="5">
@@ -30050,11 +30038,11 @@
         <v>0.05</v>
       </c>
       <c r="AE294" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3" t="s">
         <v>27</v>
       </c>
@@ -30116,27 +30104,27 @@
         <v>0.13</v>
       </c>
       <c r="U295" s="5">
+        <f t="shared" si="254"/>
+        <v>0.05</v>
+      </c>
+      <c r="V295" s="5">
+        <f t="shared" si="255"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="W295" s="5">
+        <f t="shared" si="256"/>
+        <v>0.06</v>
+      </c>
+      <c r="X295" s="5">
         <f t="shared" si="257"/>
-        <v>0.05</v>
-      </c>
-      <c r="V295" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y295" s="5">
         <f t="shared" si="258"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="W295" s="5">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Z295" s="5">
         <f t="shared" si="259"/>
-        <v>0.06</v>
-      </c>
-      <c r="X295" s="5">
-        <f t="shared" si="260"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y295" s="5">
-        <f t="shared" si="261"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Z295" s="5">
-        <f t="shared" si="262"/>
         <v>0.03</v>
       </c>
       <c r="AA295" s="5">
@@ -30149,11 +30137,11 @@
         <v>0.05</v>
       </c>
       <c r="AE295" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3" t="s">
         <v>27</v>
       </c>
@@ -30215,27 +30203,27 @@
         <v>0.13</v>
       </c>
       <c r="U296" s="5">
+        <f t="shared" si="254"/>
+        <v>0.05</v>
+      </c>
+      <c r="V296" s="5">
+        <f t="shared" si="255"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="W296" s="5">
+        <f t="shared" si="256"/>
+        <v>0.06</v>
+      </c>
+      <c r="X296" s="5">
         <f t="shared" si="257"/>
-        <v>0.05</v>
-      </c>
-      <c r="V296" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y296" s="5">
         <f t="shared" si="258"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="W296" s="5">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Z296" s="5">
         <f t="shared" si="259"/>
-        <v>0.06</v>
-      </c>
-      <c r="X296" s="5">
-        <f t="shared" si="260"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y296" s="5">
-        <f t="shared" si="261"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Z296" s="5">
-        <f t="shared" si="262"/>
         <v>0.03</v>
       </c>
       <c r="AA296" s="5">
@@ -30248,11 +30236,11 @@
         <v>0.05</v>
       </c>
       <c r="AE296" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3" t="s">
         <v>27</v>
       </c>
@@ -30314,27 +30302,27 @@
         <v>0.13</v>
       </c>
       <c r="U297" s="5">
+        <f t="shared" si="254"/>
+        <v>0.05</v>
+      </c>
+      <c r="V297" s="5">
+        <f t="shared" si="255"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="W297" s="5">
+        <f t="shared" si="256"/>
+        <v>0.06</v>
+      </c>
+      <c r="X297" s="5">
         <f t="shared" si="257"/>
-        <v>0.05</v>
-      </c>
-      <c r="V297" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y297" s="5">
         <f t="shared" si="258"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="W297" s="5">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Z297" s="5">
         <f t="shared" si="259"/>
-        <v>0.06</v>
-      </c>
-      <c r="X297" s="5">
-        <f t="shared" si="260"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y297" s="5">
-        <f t="shared" si="261"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Z297" s="5">
-        <f t="shared" si="262"/>
         <v>0.03</v>
       </c>
       <c r="AA297" s="5">
@@ -30347,11 +30335,11 @@
         <v>0.05</v>
       </c>
       <c r="AE297" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3" t="s">
         <v>27</v>
       </c>
@@ -30413,27 +30401,27 @@
         <v>0.13</v>
       </c>
       <c r="U298" s="5">
+        <f t="shared" si="254"/>
+        <v>0.05</v>
+      </c>
+      <c r="V298" s="5">
+        <f t="shared" si="255"/>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="W298" s="5">
+        <f t="shared" si="256"/>
+        <v>0.06</v>
+      </c>
+      <c r="X298" s="5">
         <f t="shared" si="257"/>
-        <v>0.05</v>
-      </c>
-      <c r="V298" s="5">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="Y298" s="5">
         <f t="shared" si="258"/>
-        <v>4.0000000000000008E-2</v>
-      </c>
-      <c r="W298" s="5">
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="Z298" s="5">
         <f t="shared" si="259"/>
-        <v>0.06</v>
-      </c>
-      <c r="X298" s="5">
-        <f t="shared" si="260"/>
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="Y298" s="5">
-        <f t="shared" si="261"/>
-        <v>2.0000000000000004E-2</v>
-      </c>
-      <c r="Z298" s="5">
-        <f t="shared" si="262"/>
         <v>0.03</v>
       </c>
       <c r="AA298" s="5">
@@ -30446,11 +30434,11 @@
         <v>0.05</v>
       </c>
       <c r="AE298" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3" t="s">
         <v>27</v>
       </c>
@@ -30545,11 +30533,11 @@
         <v>0.95</v>
       </c>
       <c r="AE299" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3" t="s">
         <v>27</v>
       </c>
@@ -30587,7 +30575,7 @@
         <v>0.93</v>
       </c>
       <c r="M300" s="5">
-        <f t="shared" ref="M300:M305" si="263">L300*0.9</f>
+        <f t="shared" ref="M300:M305" si="260">L300*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="N300" s="5">
@@ -30597,7 +30585,7 @@
         <v>0.93</v>
       </c>
       <c r="P300" s="5">
-        <f t="shared" ref="P300:P305" si="264">O300*0.9</f>
+        <f t="shared" ref="P300:P305" si="261">O300*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="Q300" s="5">
@@ -30607,7 +30595,7 @@
         <v>0.93</v>
       </c>
       <c r="S300" s="5">
-        <f t="shared" ref="S300:S305" si="265">R300*0.9</f>
+        <f t="shared" ref="S300:S305" si="262">R300*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="T300" s="5">
@@ -30617,7 +30605,7 @@
         <v>0.93</v>
       </c>
       <c r="V300" s="5">
-        <f t="shared" ref="V300:V305" si="266">U300*0.9</f>
+        <f t="shared" ref="V300:V305" si="263">U300*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="W300" s="5">
@@ -30627,7 +30615,7 @@
         <v>0.93</v>
       </c>
       <c r="Y300" s="5">
-        <f t="shared" ref="Y300:Y305" si="267">X300*0.9</f>
+        <f t="shared" ref="Y300:Y305" si="264">X300*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="Z300" s="5">
@@ -30637,18 +30625,18 @@
         <v>0.93</v>
       </c>
       <c r="AB300" s="5">
-        <f t="shared" ref="AB300:AB305" si="268">AA300*0.9</f>
+        <f t="shared" ref="AB300:AB305" si="265">AA300*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="AC300" s="5">
         <v>0.95</v>
       </c>
       <c r="AE300" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3" t="s">
         <v>27</v>
       </c>
@@ -30686,68 +30674,68 @@
         <v>0.93</v>
       </c>
       <c r="M301" s="5">
+        <f t="shared" si="260"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="N301" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="O301" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="P301" s="5">
+        <f t="shared" si="261"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="Q301" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="R301" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="S301" s="5">
+        <f t="shared" si="262"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="T301" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U301" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="V301" s="5">
         <f t="shared" si="263"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="N301" s="5">
+      <c r="W301" s="5">
         <v>0.95</v>
       </c>
-      <c r="O301" s="5">
+      <c r="X301" s="5">
         <v>0.93</v>
       </c>
-      <c r="P301" s="5">
+      <c r="Y301" s="5">
         <f t="shared" si="264"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="Q301" s="5">
+      <c r="Z301" s="5">
         <v>0.95</v>
       </c>
-      <c r="R301" s="5">
+      <c r="AA301" s="5">
         <v>0.93</v>
       </c>
-      <c r="S301" s="5">
+      <c r="AB301" s="5">
         <f t="shared" si="265"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="T301" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="U301" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="V301" s="5">
-        <f t="shared" si="266"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="W301" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="X301" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="Y301" s="5">
-        <f t="shared" si="267"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="Z301" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="AA301" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="AB301" s="5">
-        <f t="shared" si="268"/>
-        <v>0.83700000000000008</v>
-      </c>
       <c r="AC301" s="5">
         <v>0.95</v>
       </c>
       <c r="AE301" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3" t="s">
         <v>27</v>
       </c>
@@ -30785,68 +30773,68 @@
         <v>0.93</v>
       </c>
       <c r="M302" s="5">
+        <f t="shared" si="260"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="N302" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="O302" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="P302" s="5">
+        <f t="shared" si="261"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="Q302" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="R302" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="S302" s="5">
+        <f t="shared" si="262"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="T302" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U302" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="V302" s="5">
         <f t="shared" si="263"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="N302" s="5">
+      <c r="W302" s="5">
         <v>0.95</v>
       </c>
-      <c r="O302" s="5">
+      <c r="X302" s="5">
         <v>0.93</v>
       </c>
-      <c r="P302" s="5">
+      <c r="Y302" s="5">
         <f t="shared" si="264"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="Q302" s="5">
+      <c r="Z302" s="5">
         <v>0.95</v>
       </c>
-      <c r="R302" s="5">
+      <c r="AA302" s="5">
         <v>0.93</v>
       </c>
-      <c r="S302" s="5">
+      <c r="AB302" s="5">
         <f t="shared" si="265"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="T302" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="U302" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="V302" s="5">
-        <f t="shared" si="266"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="W302" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="X302" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="Y302" s="5">
-        <f t="shared" si="267"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="Z302" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="AA302" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="AB302" s="5">
-        <f t="shared" si="268"/>
-        <v>0.83700000000000008</v>
-      </c>
       <c r="AC302" s="5">
         <v>0.95</v>
       </c>
       <c r="AE302" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3" t="s">
         <v>27</v>
       </c>
@@ -30884,68 +30872,68 @@
         <v>0.93</v>
       </c>
       <c r="M303" s="5">
+        <f t="shared" si="260"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="N303" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="O303" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="P303" s="5">
+        <f t="shared" si="261"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="Q303" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="R303" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="S303" s="5">
+        <f t="shared" si="262"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="T303" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U303" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="V303" s="5">
         <f t="shared" si="263"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="N303" s="5">
+      <c r="W303" s="5">
         <v>0.95</v>
       </c>
-      <c r="O303" s="5">
+      <c r="X303" s="5">
         <v>0.93</v>
       </c>
-      <c r="P303" s="5">
+      <c r="Y303" s="5">
         <f t="shared" si="264"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="Q303" s="5">
+      <c r="Z303" s="5">
         <v>0.95</v>
       </c>
-      <c r="R303" s="5">
+      <c r="AA303" s="5">
         <v>0.93</v>
       </c>
-      <c r="S303" s="5">
+      <c r="AB303" s="5">
         <f t="shared" si="265"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="T303" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="U303" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="V303" s="5">
-        <f t="shared" si="266"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="W303" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="X303" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="Y303" s="5">
-        <f t="shared" si="267"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="Z303" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="AA303" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="AB303" s="5">
-        <f t="shared" si="268"/>
-        <v>0.83700000000000008</v>
-      </c>
       <c r="AC303" s="5">
         <v>0.95</v>
       </c>
       <c r="AE303" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3" t="s">
         <v>27</v>
       </c>
@@ -30983,68 +30971,68 @@
         <v>0.93</v>
       </c>
       <c r="M304" s="5">
+        <f t="shared" si="260"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="N304" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="O304" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="P304" s="5">
+        <f t="shared" si="261"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="Q304" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="R304" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="S304" s="5">
+        <f t="shared" si="262"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="T304" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U304" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="V304" s="5">
         <f t="shared" si="263"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="N304" s="5">
+      <c r="W304" s="5">
         <v>0.95</v>
       </c>
-      <c r="O304" s="5">
+      <c r="X304" s="5">
         <v>0.93</v>
       </c>
-      <c r="P304" s="5">
+      <c r="Y304" s="5">
         <f t="shared" si="264"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="Q304" s="5">
+      <c r="Z304" s="5">
         <v>0.95</v>
       </c>
-      <c r="R304" s="5">
+      <c r="AA304" s="5">
         <v>0.93</v>
       </c>
-      <c r="S304" s="5">
+      <c r="AB304" s="5">
         <f t="shared" si="265"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="T304" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="U304" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="V304" s="5">
-        <f t="shared" si="266"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="W304" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="X304" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="Y304" s="5">
-        <f t="shared" si="267"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="Z304" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="AA304" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="AB304" s="5">
-        <f t="shared" si="268"/>
-        <v>0.83700000000000008</v>
-      </c>
       <c r="AC304" s="5">
         <v>0.95</v>
       </c>
       <c r="AE304" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3" t="s">
         <v>27</v>
       </c>
@@ -31082,68 +31070,68 @@
         <v>0.93</v>
       </c>
       <c r="M305" s="5">
+        <f t="shared" si="260"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="N305" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="O305" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="P305" s="5">
+        <f t="shared" si="261"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="Q305" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="R305" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="S305" s="5">
+        <f t="shared" si="262"/>
+        <v>0.83700000000000008</v>
+      </c>
+      <c r="T305" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="U305" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="V305" s="5">
         <f t="shared" si="263"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="N305" s="5">
+      <c r="W305" s="5">
         <v>0.95</v>
       </c>
-      <c r="O305" s="5">
+      <c r="X305" s="5">
         <v>0.93</v>
       </c>
-      <c r="P305" s="5">
+      <c r="Y305" s="5">
         <f t="shared" si="264"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="Q305" s="5">
+      <c r="Z305" s="5">
         <v>0.95</v>
       </c>
-      <c r="R305" s="5">
+      <c r="AA305" s="5">
         <v>0.93</v>
       </c>
-      <c r="S305" s="5">
+      <c r="AB305" s="5">
         <f t="shared" si="265"/>
         <v>0.83700000000000008</v>
       </c>
-      <c r="T305" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="U305" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="V305" s="5">
-        <f t="shared" si="266"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="W305" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="X305" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="Y305" s="5">
-        <f t="shared" si="267"/>
-        <v>0.83700000000000008</v>
-      </c>
-      <c r="Z305" s="5">
-        <v>0.95</v>
-      </c>
-      <c r="AA305" s="5">
-        <v>0.93</v>
-      </c>
-      <c r="AB305" s="5">
-        <f t="shared" si="268"/>
-        <v>0.83700000000000008</v>
-      </c>
       <c r="AC305" s="5">
         <v>0.95</v>
       </c>
       <c r="AE305" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:31" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3" t="s">
         <v>27</v>
       </c>
@@ -31181,7 +31169,7 @@
         <v>0.89</v>
       </c>
       <c r="M306" s="5">
-        <f t="shared" ref="M306" si="269">L306*0.9</f>
+        <f t="shared" ref="M306" si="266">L306*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="N306" s="5">
@@ -31191,7 +31179,7 @@
         <v>0.89</v>
       </c>
       <c r="P306" s="5">
-        <f t="shared" ref="P306" si="270">O306*0.9</f>
+        <f t="shared" ref="P306" si="267">O306*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="Q306" s="5">
@@ -31201,7 +31189,7 @@
         <v>0.89</v>
       </c>
       <c r="S306" s="5">
-        <f t="shared" ref="S306" si="271">R306*0.9</f>
+        <f t="shared" ref="S306" si="268">R306*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="T306" s="5">
@@ -31211,7 +31199,7 @@
         <v>0.89</v>
       </c>
       <c r="V306" s="5">
-        <f t="shared" ref="V306" si="272">U306*0.9</f>
+        <f t="shared" ref="V306" si="269">U306*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="W306" s="5">
@@ -31221,7 +31209,7 @@
         <v>0.89</v>
       </c>
       <c r="Y306" s="5">
-        <f t="shared" ref="Y306" si="273">X306*0.9</f>
+        <f t="shared" ref="Y306" si="270">X306*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="Z306" s="5">
@@ -31231,14 +31219,14 @@
         <v>0.89</v>
       </c>
       <c r="AB306" s="5">
-        <f t="shared" ref="AB306" si="274">AA306*0.9</f>
+        <f t="shared" ref="AB306" si="271">AA306*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="AC306" s="5">
         <v>0.95</v>
       </c>
       <c r="AE306" s="1" t="str">
-        <f t="shared" ref="AE306" si="275">IF(L306&lt;M306,"ISSUE","")</f>
+        <f t="shared" ref="AE306" si="272">IF(L306&lt;M306,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -31331,7 +31319,7 @@
         <v>1.5</v>
       </c>
       <c r="AE307" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -31400,7 +31388,7 @@
       <c r="AB308" s="5"/>
       <c r="AC308" s="5"/>
       <c r="AE308" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v>ISSUE</v>
       </c>
     </row>
@@ -31499,7 +31487,7 @@
         <v>28.5</v>
       </c>
       <c r="AE309" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -31592,7 +31580,7 @@
         <v>0.75</v>
       </c>
       <c r="AE310" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -31685,7 +31673,7 @@
         <v>0.75</v>
       </c>
       <c r="AE311" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -31778,7 +31766,7 @@
         <v>0.75</v>
       </c>
       <c r="AE312" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -31871,7 +31859,7 @@
         <v>0.85</v>
       </c>
       <c r="AE313" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -31964,7 +31952,7 @@
         <v>0.8</v>
       </c>
       <c r="AE314" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -32057,7 +32045,7 @@
         <v>0.8</v>
       </c>
       <c r="AE315" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -32150,7 +32138,7 @@
         <v>0.8</v>
       </c>
       <c r="AE316" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -32219,7 +32207,7 @@
       <c r="AB317" s="3"/>
       <c r="AC317" s="3"/>
       <c r="AE317" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -32288,7 +32276,7 @@
       <c r="AB318" s="5"/>
       <c r="AC318" s="5"/>
       <c r="AE318" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -32357,7 +32345,7 @@
       <c r="AB319" s="3"/>
       <c r="AC319" s="3"/>
       <c r="AE319" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -32396,27 +32384,27 @@
         <v>68</v>
       </c>
       <c r="L320" s="4">
-        <f t="shared" ref="L320:Q320" si="276">O320*1.05</f>
+        <f t="shared" ref="L320:Q320" si="273">O320*1.05</f>
         <v>39.690000000000005</v>
       </c>
       <c r="M320" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="273"/>
         <v>33.075000000000003</v>
       </c>
       <c r="N320" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="273"/>
         <v>44.1</v>
       </c>
       <c r="O320" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="273"/>
         <v>37.800000000000004</v>
       </c>
       <c r="P320" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="273"/>
         <v>31.5</v>
       </c>
       <c r="Q320" s="4">
-        <f t="shared" si="276"/>
+        <f t="shared" si="273"/>
         <v>42</v>
       </c>
       <c r="R320" s="5">
@@ -32462,7 +32450,7 @@
         <v>38</v>
       </c>
       <c r="AE320" s="1" t="str">
-        <f t="shared" si="250"/>
+        <f t="shared" si="247"/>
         <v/>
       </c>
     </row>
@@ -32470,12 +32458,7 @@
   <autoFilter ref="A2:AC320">
     <filterColumn colId="4">
       <filters>
-        <filter val="battery charge efficiency"/>
-        <filter val="battery discharge efficiency"/>
-        <filter val="CNG engine efficiency correction factor"/>
-        <filter val="engine efficiency"/>
-        <filter val="fuel cell stack efficiency"/>
-        <filter val="transmission efficiency"/>
+        <filter val="power to mass ratio"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E82810-0536-5946-B1AF-D4EF0C600078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D103DC48-87E7-0545-902F-76C79E4FDBA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32940" yWindow="2260" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -818,10 +818,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -920,7 +922,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -931,8 +933,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1016,8 +1019,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="11">
+    <cellStyle name="Comma" xfId="10" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
@@ -1366,10 +1376,10 @@
   <dimension ref="A1:AE306"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="P102" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E317" sqref="E317"/>
+      <selection pane="bottomRight" activeCell="L100" sqref="L100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1385,11 +1395,11 @@
     <col min="9" max="9" width="12.33203125" style="2" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" style="2" customWidth="1"/>
     <col min="11" max="11" width="10.5" style="20" bestFit="1" customWidth="1"/>
-    <col min="12" max="18" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.33203125" style="1"/>
+    <col min="12" max="15" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
@@ -10561,69 +10571,69 @@
       <c r="K95" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L95" s="3">
+      <c r="L95" s="34">
         <v>272000</v>
       </c>
-      <c r="M95" s="4">
+      <c r="M95" s="33">
         <f>L95*0.75</f>
         <v>204000</v>
       </c>
-      <c r="N95" s="4">
+      <c r="N95" s="33">
         <f>L95*1.25</f>
         <v>340000</v>
       </c>
-      <c r="O95" s="3">
+      <c r="O95" s="34">
         <v>272000</v>
       </c>
-      <c r="P95" s="4">
+      <c r="P95" s="33">
         <f>O95*0.75</f>
         <v>204000</v>
       </c>
-      <c r="Q95" s="4">
+      <c r="Q95" s="33">
         <f>O95*1.25</f>
         <v>340000</v>
       </c>
-      <c r="R95" s="3">
+      <c r="R95" s="34">
         <v>272000</v>
       </c>
-      <c r="S95" s="4">
+      <c r="S95" s="33">
         <f>R95*0.75</f>
         <v>204000</v>
       </c>
-      <c r="T95" s="4">
+      <c r="T95" s="33">
         <f>R95*1.25</f>
         <v>340000</v>
       </c>
-      <c r="U95" s="3">
+      <c r="U95" s="34">
         <v>272000</v>
       </c>
-      <c r="V95" s="4">
+      <c r="V95" s="33">
         <f>U95*0.75</f>
         <v>204000</v>
       </c>
-      <c r="W95" s="4">
+      <c r="W95" s="33">
         <f>U95*1.25</f>
         <v>340000</v>
       </c>
-      <c r="X95" s="3">
+      <c r="X95" s="34">
         <v>272000</v>
       </c>
-      <c r="Y95" s="4">
+      <c r="Y95" s="33">
         <f>X95*0.75</f>
         <v>204000</v>
       </c>
-      <c r="Z95" s="4">
+      <c r="Z95" s="33">
         <f>X95*1.25</f>
         <v>340000</v>
       </c>
-      <c r="AA95" s="3">
+      <c r="AA95" s="34">
         <v>272000</v>
       </c>
-      <c r="AB95" s="4">
+      <c r="AB95" s="33">
         <f>AA95*0.75</f>
         <v>204000</v>
       </c>
-      <c r="AC95" s="4">
+      <c r="AC95" s="33">
         <f>AA95*1.25</f>
         <v>340000</v>
       </c>
@@ -10666,69 +10676,69 @@
       <c r="K96" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L96" s="3">
+      <c r="L96" s="34">
         <v>397000</v>
       </c>
-      <c r="M96" s="4">
+      <c r="M96" s="33">
         <f t="shared" ref="M96:M101" si="60">L96*0.75</f>
         <v>297750</v>
       </c>
-      <c r="N96" s="4">
+      <c r="N96" s="33">
         <f t="shared" ref="N96:N101" si="61">L96*1.25</f>
         <v>496250</v>
       </c>
-      <c r="O96" s="3">
+      <c r="O96" s="34">
         <v>397000</v>
       </c>
-      <c r="P96" s="4">
+      <c r="P96" s="33">
         <f t="shared" ref="P96:P101" si="62">O96*0.75</f>
         <v>297750</v>
       </c>
-      <c r="Q96" s="4">
+      <c r="Q96" s="33">
         <f t="shared" ref="Q96:Q101" si="63">O96*1.25</f>
         <v>496250</v>
       </c>
-      <c r="R96" s="3">
+      <c r="R96" s="34">
         <v>397000</v>
       </c>
-      <c r="S96" s="4">
+      <c r="S96" s="33">
         <f t="shared" ref="S96:S101" si="64">R96*0.75</f>
         <v>297750</v>
       </c>
-      <c r="T96" s="4">
+      <c r="T96" s="33">
         <f t="shared" ref="T96:T101" si="65">R96*1.25</f>
         <v>496250</v>
       </c>
-      <c r="U96" s="3">
+      <c r="U96" s="34">
         <v>397000</v>
       </c>
-      <c r="V96" s="4">
+      <c r="V96" s="33">
         <f t="shared" ref="V96:V101" si="66">U96*0.75</f>
         <v>297750</v>
       </c>
-      <c r="W96" s="4">
+      <c r="W96" s="33">
         <f t="shared" ref="W96:W101" si="67">U96*1.25</f>
         <v>496250</v>
       </c>
-      <c r="X96" s="3">
+      <c r="X96" s="34">
         <v>397000</v>
       </c>
-      <c r="Y96" s="4">
+      <c r="Y96" s="33">
         <f t="shared" ref="Y96:Y101" si="68">X96*0.75</f>
         <v>297750</v>
       </c>
-      <c r="Z96" s="4">
+      <c r="Z96" s="33">
         <f t="shared" ref="Z96:Z101" si="69">X96*1.25</f>
         <v>496250</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AA96" s="34">
         <v>397000</v>
       </c>
-      <c r="AB96" s="4">
+      <c r="AB96" s="33">
         <f t="shared" ref="AB96:AB101" si="70">AA96*0.75</f>
         <v>297750</v>
       </c>
-      <c r="AC96" s="4">
+      <c r="AC96" s="33">
         <f t="shared" ref="AC96:AC101" si="71">AA96*1.25</f>
         <v>496250</v>
       </c>
@@ -10771,69 +10781,69 @@
       <c r="K97" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L97" s="3">
+      <c r="L97" s="34">
         <v>315000</v>
       </c>
-      <c r="M97" s="4">
+      <c r="M97" s="33">
         <f t="shared" si="60"/>
         <v>236250</v>
       </c>
-      <c r="N97" s="4">
+      <c r="N97" s="33">
         <f t="shared" si="61"/>
         <v>393750</v>
       </c>
-      <c r="O97" s="3">
+      <c r="O97" s="34">
         <v>315000</v>
       </c>
-      <c r="P97" s="4">
+      <c r="P97" s="33">
         <f t="shared" si="62"/>
         <v>236250</v>
       </c>
-      <c r="Q97" s="4">
+      <c r="Q97" s="33">
         <f t="shared" si="63"/>
         <v>393750</v>
       </c>
-      <c r="R97" s="3">
+      <c r="R97" s="34">
         <v>315000</v>
       </c>
-      <c r="S97" s="4">
+      <c r="S97" s="33">
         <f t="shared" si="64"/>
         <v>236250</v>
       </c>
-      <c r="T97" s="4">
+      <c r="T97" s="33">
         <f t="shared" si="65"/>
         <v>393750</v>
       </c>
-      <c r="U97" s="3">
+      <c r="U97" s="34">
         <v>315000</v>
       </c>
-      <c r="V97" s="4">
+      <c r="V97" s="33">
         <f t="shared" si="66"/>
         <v>236250</v>
       </c>
-      <c r="W97" s="4">
+      <c r="W97" s="33">
         <f t="shared" si="67"/>
         <v>393750</v>
       </c>
-      <c r="X97" s="3">
+      <c r="X97" s="34">
         <v>315000</v>
       </c>
-      <c r="Y97" s="4">
+      <c r="Y97" s="33">
         <f t="shared" si="68"/>
         <v>236250</v>
       </c>
-      <c r="Z97" s="4">
+      <c r="Z97" s="33">
         <f t="shared" si="69"/>
         <v>393750</v>
       </c>
-      <c r="AA97" s="3">
+      <c r="AA97" s="34">
         <v>315000</v>
       </c>
-      <c r="AB97" s="4">
+      <c r="AB97" s="33">
         <f t="shared" si="70"/>
         <v>236250</v>
       </c>
-      <c r="AC97" s="4">
+      <c r="AC97" s="33">
         <f t="shared" si="71"/>
         <v>393750</v>
       </c>
@@ -10876,69 +10886,69 @@
       <c r="K98" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L98" s="3">
+      <c r="L98" s="34">
         <v>580000</v>
       </c>
-      <c r="M98" s="4">
+      <c r="M98" s="33">
         <f t="shared" si="60"/>
         <v>435000</v>
       </c>
-      <c r="N98" s="4">
+      <c r="N98" s="33">
         <f t="shared" si="61"/>
         <v>725000</v>
       </c>
-      <c r="O98" s="3">
+      <c r="O98" s="34">
         <v>580000</v>
       </c>
-      <c r="P98" s="4">
+      <c r="P98" s="33">
         <f t="shared" si="62"/>
         <v>435000</v>
       </c>
-      <c r="Q98" s="4">
+      <c r="Q98" s="33">
         <f t="shared" si="63"/>
         <v>725000</v>
       </c>
-      <c r="R98" s="3">
+      <c r="R98" s="34">
         <v>580000</v>
       </c>
-      <c r="S98" s="4">
+      <c r="S98" s="33">
         <f t="shared" si="64"/>
         <v>435000</v>
       </c>
-      <c r="T98" s="4">
+      <c r="T98" s="33">
         <f t="shared" si="65"/>
         <v>725000</v>
       </c>
-      <c r="U98" s="3">
+      <c r="U98" s="34">
         <v>580000</v>
       </c>
-      <c r="V98" s="4">
+      <c r="V98" s="33">
         <f t="shared" si="66"/>
         <v>435000</v>
       </c>
-      <c r="W98" s="4">
+      <c r="W98" s="33">
         <f t="shared" si="67"/>
         <v>725000</v>
       </c>
-      <c r="X98" s="3">
+      <c r="X98" s="34">
         <v>580000</v>
       </c>
-      <c r="Y98" s="4">
+      <c r="Y98" s="33">
         <f t="shared" si="68"/>
         <v>435000</v>
       </c>
-      <c r="Z98" s="4">
+      <c r="Z98" s="33">
         <f t="shared" si="69"/>
         <v>725000</v>
       </c>
-      <c r="AA98" s="3">
+      <c r="AA98" s="34">
         <v>580000</v>
       </c>
-      <c r="AB98" s="4">
+      <c r="AB98" s="33">
         <f t="shared" si="70"/>
         <v>435000</v>
       </c>
-      <c r="AC98" s="4">
+      <c r="AC98" s="33">
         <f t="shared" si="71"/>
         <v>725000</v>
       </c>
@@ -10981,71 +10991,71 @@
       <c r="K99" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L99" s="3">
-        <v>227000</v>
-      </c>
-      <c r="M99" s="4">
-        <f t="shared" si="60"/>
-        <v>170250</v>
-      </c>
-      <c r="N99" s="4">
-        <f t="shared" si="61"/>
-        <v>283750</v>
-      </c>
-      <c r="O99" s="3">
-        <v>227000</v>
-      </c>
-      <c r="P99" s="4">
-        <f t="shared" si="62"/>
-        <v>170250</v>
-      </c>
-      <c r="Q99" s="4">
-        <f t="shared" si="63"/>
-        <v>283750</v>
-      </c>
-      <c r="R99" s="3">
-        <v>227000</v>
-      </c>
-      <c r="S99" s="4">
-        <f t="shared" si="64"/>
-        <v>170250</v>
-      </c>
-      <c r="T99" s="4">
-        <f t="shared" si="65"/>
-        <v>283750</v>
-      </c>
-      <c r="U99" s="3">
-        <v>227000</v>
-      </c>
-      <c r="V99" s="4">
-        <f t="shared" si="66"/>
-        <v>170250</v>
-      </c>
-      <c r="W99" s="4">
-        <f t="shared" si="67"/>
-        <v>283750</v>
-      </c>
-      <c r="X99" s="3">
-        <v>227000</v>
-      </c>
-      <c r="Y99" s="4">
-        <f t="shared" si="68"/>
-        <v>170250</v>
-      </c>
-      <c r="Z99" s="4">
-        <f t="shared" si="69"/>
-        <v>283750</v>
-      </c>
-      <c r="AA99" s="3">
-        <v>227000</v>
-      </c>
-      <c r="AB99" s="4">
-        <f t="shared" si="70"/>
-        <v>170250</v>
-      </c>
-      <c r="AC99" s="4">
-        <f t="shared" si="71"/>
-        <v>283750</v>
+      <c r="L99" s="34">
+        <v>710000</v>
+      </c>
+      <c r="M99" s="33">
+        <f t="shared" ref="M99" si="72">L99*0.75</f>
+        <v>532500</v>
+      </c>
+      <c r="N99" s="33">
+        <f t="shared" ref="N99" si="73">L99*1.25</f>
+        <v>887500</v>
+      </c>
+      <c r="O99" s="34">
+        <v>710000</v>
+      </c>
+      <c r="P99" s="33">
+        <f t="shared" ref="P99" si="74">O99*0.75</f>
+        <v>532500</v>
+      </c>
+      <c r="Q99" s="33">
+        <f t="shared" ref="Q99" si="75">O99*1.25</f>
+        <v>887500</v>
+      </c>
+      <c r="R99" s="34">
+        <v>710000</v>
+      </c>
+      <c r="S99" s="33">
+        <f t="shared" ref="S99" si="76">R99*0.75</f>
+        <v>532500</v>
+      </c>
+      <c r="T99" s="33">
+        <f t="shared" ref="T99" si="77">R99*1.25</f>
+        <v>887500</v>
+      </c>
+      <c r="U99" s="34">
+        <v>710000</v>
+      </c>
+      <c r="V99" s="33">
+        <f t="shared" ref="V99" si="78">U99*0.75</f>
+        <v>532500</v>
+      </c>
+      <c r="W99" s="33">
+        <f t="shared" ref="W99" si="79">U99*1.25</f>
+        <v>887500</v>
+      </c>
+      <c r="X99" s="34">
+        <v>710000</v>
+      </c>
+      <c r="Y99" s="33">
+        <f t="shared" ref="Y99" si="80">X99*0.75</f>
+        <v>532500</v>
+      </c>
+      <c r="Z99" s="33">
+        <f t="shared" ref="Z99" si="81">X99*1.25</f>
+        <v>887500</v>
+      </c>
+      <c r="AA99" s="34">
+        <v>710000</v>
+      </c>
+      <c r="AB99" s="33">
+        <f t="shared" ref="AB99" si="82">AA99*0.75</f>
+        <v>532500</v>
+      </c>
+      <c r="AC99" s="33">
+        <f t="shared" ref="AC99" si="83">AA99*1.25</f>
+        <v>887500</v>
       </c>
       <c r="AE99" s="1" t="str">
         <f t="shared" si="47"/>
@@ -11086,69 +11096,69 @@
       <c r="K100" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="34">
         <v>710000</v>
       </c>
-      <c r="M100" s="4">
+      <c r="M100" s="33">
         <f t="shared" si="60"/>
         <v>532500</v>
       </c>
-      <c r="N100" s="4">
+      <c r="N100" s="33">
         <f t="shared" si="61"/>
         <v>887500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="34">
         <v>710000</v>
       </c>
-      <c r="P100" s="4">
+      <c r="P100" s="33">
         <f t="shared" si="62"/>
         <v>532500</v>
       </c>
-      <c r="Q100" s="4">
+      <c r="Q100" s="33">
         <f t="shared" si="63"/>
         <v>887500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="34">
         <v>710000</v>
       </c>
-      <c r="S100" s="4">
+      <c r="S100" s="33">
         <f t="shared" si="64"/>
         <v>532500</v>
       </c>
-      <c r="T100" s="4">
+      <c r="T100" s="33">
         <f t="shared" si="65"/>
         <v>887500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="34">
         <v>710000</v>
       </c>
-      <c r="V100" s="4">
+      <c r="V100" s="33">
         <f t="shared" si="66"/>
         <v>532500</v>
       </c>
-      <c r="W100" s="4">
+      <c r="W100" s="33">
         <f t="shared" si="67"/>
         <v>887500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="X100" s="34">
         <v>710000</v>
       </c>
-      <c r="Y100" s="4">
+      <c r="Y100" s="33">
         <f t="shared" si="68"/>
         <v>532500</v>
       </c>
-      <c r="Z100" s="4">
+      <c r="Z100" s="33">
         <f t="shared" si="69"/>
         <v>887500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AA100" s="34">
         <v>710000</v>
       </c>
-      <c r="AB100" s="4">
+      <c r="AB100" s="33">
         <f t="shared" si="70"/>
         <v>532500</v>
       </c>
-      <c r="AC100" s="4">
+      <c r="AC100" s="33">
         <f t="shared" si="71"/>
         <v>887500</v>
       </c>
@@ -11191,69 +11201,69 @@
       <c r="K101" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="34">
         <v>710000</v>
       </c>
-      <c r="M101" s="4">
+      <c r="M101" s="33">
         <f t="shared" si="60"/>
         <v>532500</v>
       </c>
-      <c r="N101" s="4">
+      <c r="N101" s="33">
         <f t="shared" si="61"/>
         <v>887500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="34">
         <v>710000</v>
       </c>
-      <c r="P101" s="4">
+      <c r="P101" s="33">
         <f t="shared" si="62"/>
         <v>532500</v>
       </c>
-      <c r="Q101" s="4">
+      <c r="Q101" s="33">
         <f t="shared" si="63"/>
         <v>887500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="34">
         <v>710000</v>
       </c>
-      <c r="S101" s="4">
+      <c r="S101" s="33">
         <f t="shared" si="64"/>
         <v>532500</v>
       </c>
-      <c r="T101" s="4">
+      <c r="T101" s="33">
         <f t="shared" si="65"/>
         <v>887500</v>
       </c>
-      <c r="U101" s="3">
+      <c r="U101" s="34">
         <v>710000</v>
       </c>
-      <c r="V101" s="4">
+      <c r="V101" s="33">
         <f t="shared" si="66"/>
         <v>532500</v>
       </c>
-      <c r="W101" s="4">
+      <c r="W101" s="33">
         <f t="shared" si="67"/>
         <v>887500</v>
       </c>
-      <c r="X101" s="3">
+      <c r="X101" s="34">
         <v>710000</v>
       </c>
-      <c r="Y101" s="4">
+      <c r="Y101" s="33">
         <f t="shared" si="68"/>
         <v>532500</v>
       </c>
-      <c r="Z101" s="4">
+      <c r="Z101" s="33">
         <f t="shared" si="69"/>
         <v>887500</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AA101" s="34">
         <v>710000</v>
       </c>
-      <c r="AB101" s="4">
+      <c r="AB101" s="33">
         <f t="shared" si="70"/>
         <v>532500</v>
       </c>
-      <c r="AC101" s="4">
+      <c r="AC101" s="33">
         <f t="shared" si="71"/>
         <v>887500</v>
       </c>
@@ -12624,58 +12634,58 @@
         <v>7000</v>
       </c>
       <c r="P117" s="4">
-        <f t="shared" ref="P117:P118" si="72">O117*0.75</f>
+        <f t="shared" ref="P117:P118" si="84">O117*0.75</f>
         <v>5250</v>
       </c>
       <c r="Q117" s="4">
-        <f t="shared" ref="Q117:Q118" si="73">O117*1.25</f>
+        <f t="shared" ref="Q117:Q118" si="85">O117*1.25</f>
         <v>8750</v>
       </c>
       <c r="R117" s="5">
         <v>7000</v>
       </c>
       <c r="S117" s="4">
-        <f t="shared" ref="S117:S118" si="74">R117*0.75</f>
+        <f t="shared" ref="S117:S118" si="86">R117*0.75</f>
         <v>5250</v>
       </c>
       <c r="T117" s="4">
-        <f t="shared" ref="T117:T118" si="75">R117*1.25</f>
+        <f t="shared" ref="T117:T118" si="87">R117*1.25</f>
         <v>8750</v>
       </c>
       <c r="U117" s="4">
-        <f t="shared" ref="U117:U118" si="76">R117*1.1</f>
+        <f t="shared" ref="U117:U118" si="88">R117*1.1</f>
         <v>7700.0000000000009</v>
       </c>
       <c r="V117" s="4">
-        <f t="shared" ref="V117:V118" si="77">U117*0.75</f>
+        <f t="shared" ref="V117:V118" si="89">U117*0.75</f>
         <v>5775.0000000000009</v>
       </c>
       <c r="W117" s="4">
-        <f t="shared" ref="W117:W118" si="78">U117*1.25</f>
+        <f t="shared" ref="W117:W118" si="90">U117*1.25</f>
         <v>9625.0000000000018</v>
       </c>
       <c r="X117" s="4">
-        <f t="shared" ref="X117:X118" si="79">U117*1.1</f>
+        <f t="shared" ref="X117:X118" si="91">U117*1.1</f>
         <v>8470.0000000000018</v>
       </c>
       <c r="Y117" s="4">
-        <f t="shared" ref="Y117:Y118" si="80">X117*0.75</f>
+        <f t="shared" ref="Y117:Y118" si="92">X117*0.75</f>
         <v>6352.5000000000018</v>
       </c>
       <c r="Z117" s="4">
-        <f t="shared" ref="Z117:Z118" si="81">X117*1.25</f>
+        <f t="shared" ref="Z117:Z118" si="93">X117*1.25</f>
         <v>10587.500000000002</v>
       </c>
       <c r="AA117" s="4">
-        <f t="shared" ref="AA117:AA118" si="82">X117*1.1</f>
+        <f t="shared" ref="AA117:AA118" si="94">X117*1.1</f>
         <v>9317.0000000000036</v>
       </c>
       <c r="AB117" s="4">
-        <f t="shared" ref="AB117:AB118" si="83">AA117*0.75</f>
+        <f t="shared" ref="AB117:AB118" si="95">AA117*0.75</f>
         <v>6987.7500000000027</v>
       </c>
       <c r="AC117" s="4">
-        <f t="shared" ref="AC117:AC118" si="84">AA117*1.25</f>
+        <f t="shared" ref="AC117:AC118" si="96">AA117*1.25</f>
         <v>11646.250000000004</v>
       </c>
       <c r="AE117" s="1" t="str">
@@ -12730,58 +12740,58 @@
         <v>7000</v>
       </c>
       <c r="P118" s="4">
-        <f t="shared" si="72"/>
+        <f t="shared" si="84"/>
         <v>5250</v>
       </c>
       <c r="Q118" s="4">
-        <f t="shared" si="73"/>
+        <f t="shared" si="85"/>
         <v>8750</v>
       </c>
       <c r="R118" s="5">
         <v>7000</v>
       </c>
       <c r="S118" s="4">
-        <f t="shared" si="74"/>
+        <f t="shared" si="86"/>
         <v>5250</v>
       </c>
       <c r="T118" s="4">
-        <f t="shared" si="75"/>
+        <f t="shared" si="87"/>
         <v>8750</v>
       </c>
       <c r="U118" s="4">
-        <f t="shared" si="76"/>
+        <f t="shared" si="88"/>
         <v>7700.0000000000009</v>
       </c>
       <c r="V118" s="4">
-        <f t="shared" si="77"/>
+        <f t="shared" si="89"/>
         <v>5775.0000000000009</v>
       </c>
       <c r="W118" s="4">
-        <f t="shared" si="78"/>
+        <f t="shared" si="90"/>
         <v>9625.0000000000018</v>
       </c>
       <c r="X118" s="4">
-        <f t="shared" si="79"/>
+        <f t="shared" si="91"/>
         <v>8470.0000000000018</v>
       </c>
       <c r="Y118" s="4">
-        <f t="shared" si="80"/>
+        <f t="shared" si="92"/>
         <v>6352.5000000000018</v>
       </c>
       <c r="Z118" s="4">
-        <f t="shared" si="81"/>
+        <f t="shared" si="93"/>
         <v>10587.500000000002</v>
       </c>
       <c r="AA118" s="4">
-        <f t="shared" si="82"/>
+        <f t="shared" si="94"/>
         <v>9317.0000000000036</v>
       </c>
       <c r="AB118" s="4">
-        <f t="shared" si="83"/>
+        <f t="shared" si="95"/>
         <v>6987.7500000000027</v>
       </c>
       <c r="AC118" s="4">
-        <f t="shared" si="84"/>
+        <f t="shared" si="96"/>
         <v>11646.250000000004</v>
       </c>
       <c r="AE118" s="1" t="str">
@@ -13448,7 +13458,7 @@
         <v>10</v>
       </c>
       <c r="AE125" s="1" t="str">
-        <f t="shared" ref="AE125:AE204" si="85">IF(L125&lt;M125,"ISSUE","")</f>
+        <f t="shared" ref="AE125:AE204" si="97">IF(L125&lt;M125,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -13523,31 +13533,31 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="X126" s="5">
-        <f t="shared" ref="X126:AC126" si="86">R126*1.5</f>
+        <f t="shared" ref="X126:AC126" si="98">R126*1.5</f>
         <v>3</v>
       </c>
       <c r="Y126" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>1.9500000000000002</v>
       </c>
       <c r="Z126" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="AA126" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>3</v>
       </c>
       <c r="AB126" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>1.9500000000000002</v>
       </c>
       <c r="AC126" s="5">
-        <f t="shared" si="86"/>
+        <f t="shared" si="98"/>
         <v>3.4499999999999997</v>
       </c>
       <c r="AE126" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -13640,7 +13650,7 @@
         <v>0.8</v>
       </c>
       <c r="AE127" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -13733,7 +13743,7 @@
         <v>0.7</v>
       </c>
       <c r="AE128" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -13826,7 +13836,7 @@
         <v>0.7</v>
       </c>
       <c r="AE129" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -13919,7 +13929,7 @@
         <v>0.8</v>
       </c>
       <c r="AE130" s="1" t="str">
-        <f t="shared" ref="AE130:AE132" si="87">IF(L130&lt;M130,"ISSUE","")</f>
+        <f t="shared" ref="AE130:AE132" si="99">IF(L130&lt;M130,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -14012,7 +14022,7 @@
         <v>0.7</v>
       </c>
       <c r="AE131" s="1" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
     </row>
@@ -14105,7 +14115,7 @@
         <v>0.7</v>
       </c>
       <c r="AE132" s="1" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" si="99"/>
         <v/>
       </c>
     </row>
@@ -14198,7 +14208,7 @@
         <v>0.95</v>
       </c>
       <c r="AE133" s="1" t="str">
-        <f t="shared" ref="AE133:AE135" si="88">IF(L133&lt;M133,"ISSUE","")</f>
+        <f t="shared" ref="AE133:AE135" si="100">IF(L133&lt;M133,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -14291,7 +14301,7 @@
         <v>0.95</v>
       </c>
       <c r="AE134" s="1" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
     </row>
@@ -14384,7 +14394,7 @@
         <v>0.95</v>
       </c>
       <c r="AE135" s="1" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="100"/>
         <v/>
       </c>
     </row>
@@ -14477,7 +14487,7 @@
         <v>0.8</v>
       </c>
       <c r="AE136" s="1" t="str">
-        <f t="shared" ref="AE136:AE138" si="89">IF(L136&lt;M136,"ISSUE","")</f>
+        <f t="shared" ref="AE136:AE138" si="101">IF(L136&lt;M136,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -14570,7 +14580,7 @@
         <v>0.7</v>
       </c>
       <c r="AE137" s="1" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
     </row>
@@ -14663,7 +14673,7 @@
         <v>0.7</v>
       </c>
       <c r="AE138" s="1" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="101"/>
         <v/>
       </c>
     </row>
@@ -14754,7 +14764,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AE139" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -14845,7 +14855,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="AE140" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -14949,7 +14959,7 @@
         <v>0.375</v>
       </c>
       <c r="AE141" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15052,7 +15062,7 @@
         <v>0.125</v>
       </c>
       <c r="AE142" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15113,37 +15123,37 @@
         <v>20</v>
       </c>
       <c r="V143" s="5">
-        <f t="shared" ref="V143:V149" si="90">U143*0.9</f>
+        <f t="shared" ref="V143:V149" si="102">U143*0.9</f>
         <v>18</v>
       </c>
       <c r="W143" s="5">
-        <f t="shared" ref="W143:W149" si="91">U143*1.1</f>
+        <f t="shared" ref="W143:W149" si="103">U143*1.1</f>
         <v>22</v>
       </c>
       <c r="X143" s="5">
         <v>20</v>
       </c>
       <c r="Y143" s="5">
-        <f t="shared" ref="Y143:Y149" si="92">X143*0.9</f>
+        <f t="shared" ref="Y143:Y149" si="104">X143*0.9</f>
         <v>18</v>
       </c>
       <c r="Z143" s="5">
-        <f t="shared" ref="Z143:Z149" si="93">X143*1.1</f>
+        <f t="shared" ref="Z143:Z149" si="105">X143*1.1</f>
         <v>22</v>
       </c>
       <c r="AA143" s="5">
         <v>20</v>
       </c>
       <c r="AB143" s="5">
-        <f t="shared" ref="AB143:AB149" si="94">AA143*0.9</f>
+        <f t="shared" ref="AB143:AB149" si="106">AA143*0.9</f>
         <v>18</v>
       </c>
       <c r="AC143" s="5">
-        <f t="shared" ref="AC143:AC149" si="95">AA143*1.1</f>
+        <f t="shared" ref="AC143:AC149" si="107">AA143*1.1</f>
         <v>22</v>
       </c>
       <c r="AE143" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15193,48 +15203,48 @@
         <v>30</v>
       </c>
       <c r="S144" s="5">
-        <f t="shared" ref="S144:S149" si="96">R144*0.9</f>
+        <f t="shared" ref="S144:S149" si="108">R144*0.9</f>
         <v>27</v>
       </c>
       <c r="T144" s="5">
-        <f t="shared" ref="T144:T149" si="97">R144*1.1</f>
+        <f t="shared" ref="T144:T149" si="109">R144*1.1</f>
         <v>33</v>
       </c>
       <c r="U144" s="5">
         <v>30</v>
       </c>
       <c r="V144" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>27</v>
       </c>
       <c r="W144" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>33</v>
       </c>
       <c r="X144" s="5">
         <v>30</v>
       </c>
       <c r="Y144" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>27</v>
       </c>
       <c r="Z144" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>33</v>
       </c>
       <c r="AA144" s="5">
         <v>30</v>
       </c>
       <c r="AB144" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>27</v>
       </c>
       <c r="AC144" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>33</v>
       </c>
       <c r="AE144" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15284,48 +15294,48 @@
         <v>70</v>
       </c>
       <c r="S145" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>63</v>
       </c>
       <c r="T145" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>77</v>
       </c>
       <c r="U145" s="5">
         <v>70</v>
       </c>
       <c r="V145" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>63</v>
       </c>
       <c r="W145" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>77</v>
       </c>
       <c r="X145" s="5">
         <v>70</v>
       </c>
       <c r="Y145" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>63</v>
       </c>
       <c r="Z145" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>77</v>
       </c>
       <c r="AA145" s="5">
         <v>70</v>
       </c>
       <c r="AB145" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>63</v>
       </c>
       <c r="AC145" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>77</v>
       </c>
       <c r="AE145" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15375,48 +15385,48 @@
         <v>90</v>
       </c>
       <c r="S146" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>81</v>
       </c>
       <c r="T146" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>99.000000000000014</v>
       </c>
       <c r="U146" s="5">
         <v>90</v>
       </c>
       <c r="V146" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>81</v>
       </c>
       <c r="W146" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>99.000000000000014</v>
       </c>
       <c r="X146" s="5">
         <v>90</v>
       </c>
       <c r="Y146" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>81</v>
       </c>
       <c r="Z146" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>99.000000000000014</v>
       </c>
       <c r="AA146" s="5">
         <v>90</v>
       </c>
       <c r="AB146" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>81</v>
       </c>
       <c r="AC146" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>99.000000000000014</v>
       </c>
       <c r="AE146" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15466,48 +15476,48 @@
         <v>95</v>
       </c>
       <c r="S147" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>85.5</v>
       </c>
       <c r="T147" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>104.50000000000001</v>
       </c>
       <c r="U147" s="5">
         <v>95</v>
       </c>
       <c r="V147" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>85.5</v>
       </c>
       <c r="W147" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>104.50000000000001</v>
       </c>
       <c r="X147" s="5">
         <v>95</v>
       </c>
       <c r="Y147" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>85.5</v>
       </c>
       <c r="Z147" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>104.50000000000001</v>
       </c>
       <c r="AA147" s="5">
         <v>95</v>
       </c>
       <c r="AB147" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>85.5</v>
       </c>
       <c r="AC147" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>104.50000000000001</v>
       </c>
       <c r="AE147" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15557,48 +15567,48 @@
         <v>110</v>
       </c>
       <c r="S148" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>99</v>
       </c>
       <c r="T148" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>121.00000000000001</v>
       </c>
       <c r="U148" s="5">
         <v>110</v>
       </c>
       <c r="V148" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>99</v>
       </c>
       <c r="W148" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>121.00000000000001</v>
       </c>
       <c r="X148" s="5">
         <v>110</v>
       </c>
       <c r="Y148" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>99</v>
       </c>
       <c r="Z148" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>121.00000000000001</v>
       </c>
       <c r="AA148" s="5">
         <v>110</v>
       </c>
       <c r="AB148" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>99</v>
       </c>
       <c r="AC148" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>121.00000000000001</v>
       </c>
       <c r="AE148" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15648,48 +15658,48 @@
         <v>120</v>
       </c>
       <c r="S149" s="5">
-        <f t="shared" si="96"/>
+        <f t="shared" si="108"/>
         <v>108</v>
       </c>
       <c r="T149" s="5">
-        <f t="shared" si="97"/>
+        <f t="shared" si="109"/>
         <v>132</v>
       </c>
       <c r="U149" s="5">
         <v>120</v>
       </c>
       <c r="V149" s="5">
-        <f t="shared" si="90"/>
+        <f t="shared" si="102"/>
         <v>108</v>
       </c>
       <c r="W149" s="5">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>132</v>
       </c>
       <c r="X149" s="5">
         <v>120</v>
       </c>
       <c r="Y149" s="5">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>108</v>
       </c>
       <c r="Z149" s="5">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>132</v>
       </c>
       <c r="AA149" s="5">
         <v>120</v>
       </c>
       <c r="AB149" s="5">
-        <f t="shared" si="94"/>
+        <f t="shared" si="106"/>
         <v>108</v>
       </c>
       <c r="AC149" s="5">
-        <f t="shared" si="95"/>
+        <f t="shared" si="107"/>
         <v>132</v>
       </c>
       <c r="AE149" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15755,7 +15765,7 @@
       <c r="AB150" s="19"/>
       <c r="AC150" s="19"/>
       <c r="AE150" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15821,7 +15831,7 @@
       <c r="AB151" s="19"/>
       <c r="AC151" s="19"/>
       <c r="AE151" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15887,7 +15897,7 @@
       <c r="AB152" s="19"/>
       <c r="AC152" s="19"/>
       <c r="AE152" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -15953,7 +15963,7 @@
       <c r="AB153" s="19"/>
       <c r="AC153" s="19"/>
       <c r="AE153" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16019,7 +16029,7 @@
       <c r="AB154" s="19"/>
       <c r="AC154" s="19"/>
       <c r="AE154" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16085,7 +16095,7 @@
       <c r="AB155" s="19"/>
       <c r="AC155" s="19"/>
       <c r="AE155" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16151,7 +16161,7 @@
       <c r="AB156" s="19"/>
       <c r="AC156" s="19"/>
       <c r="AE156" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16193,70 +16203,70 @@
         <v>194</v>
       </c>
       <c r="M157" s="13">
-        <f t="shared" ref="M157:M164" si="98">L157*0.75</f>
+        <f t="shared" ref="M157:M164" si="110">L157*0.75</f>
         <v>145.5</v>
       </c>
       <c r="N157" s="13">
-        <f t="shared" ref="N157:N164" si="99">L157*1.25</f>
+        <f t="shared" ref="N157:N164" si="111">L157*1.25</f>
         <v>242.5</v>
       </c>
       <c r="O157" s="13">
         <v>194</v>
       </c>
       <c r="P157" s="13">
-        <f t="shared" ref="P157" si="100">O157*0.75</f>
+        <f t="shared" ref="P157" si="112">O157*0.75</f>
         <v>145.5</v>
       </c>
       <c r="Q157" s="13">
-        <f t="shared" ref="Q157" si="101">O157*1.25</f>
+        <f t="shared" ref="Q157" si="113">O157*1.25</f>
         <v>242.5</v>
       </c>
       <c r="R157" s="13">
         <v>194</v>
       </c>
       <c r="S157" s="13">
-        <f t="shared" ref="S157:S170" si="102">R157*0.75</f>
+        <f t="shared" ref="S157:S170" si="114">R157*0.75</f>
         <v>145.5</v>
       </c>
       <c r="T157" s="13">
-        <f t="shared" ref="T157:T170" si="103">R157*1.25</f>
+        <f t="shared" ref="T157:T170" si="115">R157*1.25</f>
         <v>242.5</v>
       </c>
       <c r="U157" s="13">
         <v>194</v>
       </c>
       <c r="V157" s="13">
-        <f t="shared" ref="V157" si="104">U157*0.75</f>
+        <f t="shared" ref="V157" si="116">U157*0.75</f>
         <v>145.5</v>
       </c>
       <c r="W157" s="13">
-        <f t="shared" ref="W157" si="105">U157*1.25</f>
+        <f t="shared" ref="W157" si="117">U157*1.25</f>
         <v>242.5</v>
       </c>
       <c r="X157" s="13">
         <v>194</v>
       </c>
       <c r="Y157" s="13">
-        <f t="shared" ref="Y157" si="106">X157*0.75</f>
+        <f t="shared" ref="Y157" si="118">X157*0.75</f>
         <v>145.5</v>
       </c>
       <c r="Z157" s="13">
-        <f t="shared" ref="Z157" si="107">X157*1.25</f>
+        <f t="shared" ref="Z157" si="119">X157*1.25</f>
         <v>242.5</v>
       </c>
       <c r="AA157" s="13">
         <v>194</v>
       </c>
       <c r="AB157" s="13">
-        <f t="shared" ref="AB157" si="108">AA157*0.75</f>
+        <f t="shared" ref="AB157" si="120">AA157*0.75</f>
         <v>145.5</v>
       </c>
       <c r="AC157" s="13">
-        <f t="shared" ref="AC157" si="109">AA157*1.25</f>
+        <f t="shared" ref="AC157" si="121">AA157*1.25</f>
         <v>242.5</v>
       </c>
       <c r="AE157" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16298,70 +16308,70 @@
         <v>416</v>
       </c>
       <c r="M158" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>312</v>
       </c>
       <c r="N158" s="13">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>520</v>
       </c>
       <c r="O158" s="13">
         <v>416</v>
       </c>
       <c r="P158" s="13">
-        <f t="shared" ref="P158:P164" si="110">O158*0.75</f>
+        <f t="shared" ref="P158:P164" si="122">O158*0.75</f>
         <v>312</v>
       </c>
       <c r="Q158" s="13">
-        <f t="shared" ref="Q158:Q164" si="111">O158*1.25</f>
+        <f t="shared" ref="Q158:Q164" si="123">O158*1.25</f>
         <v>520</v>
       </c>
       <c r="R158" s="13">
         <v>416</v>
       </c>
       <c r="S158" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>312</v>
       </c>
       <c r="T158" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>520</v>
       </c>
       <c r="U158" s="13">
         <v>416</v>
       </c>
       <c r="V158" s="13">
-        <f t="shared" ref="V158:V164" si="112">U158*0.75</f>
+        <f t="shared" ref="V158:V164" si="124">U158*0.75</f>
         <v>312</v>
       </c>
       <c r="W158" s="13">
-        <f t="shared" ref="W158:W164" si="113">U158*1.25</f>
+        <f t="shared" ref="W158:W164" si="125">U158*1.25</f>
         <v>520</v>
       </c>
       <c r="X158" s="13">
         <v>416</v>
       </c>
       <c r="Y158" s="13">
-        <f t="shared" ref="Y158:Y164" si="114">X158*0.75</f>
+        <f t="shared" ref="Y158:Y164" si="126">X158*0.75</f>
         <v>312</v>
       </c>
       <c r="Z158" s="13">
-        <f t="shared" ref="Z158:Z164" si="115">X158*1.25</f>
+        <f t="shared" ref="Z158:Z164" si="127">X158*1.25</f>
         <v>520</v>
       </c>
       <c r="AA158" s="13">
         <v>416</v>
       </c>
       <c r="AB158" s="13">
-        <f t="shared" ref="AB158:AB164" si="116">AA158*0.75</f>
+        <f t="shared" ref="AB158:AB164" si="128">AA158*0.75</f>
         <v>312</v>
       </c>
       <c r="AC158" s="13">
-        <f t="shared" ref="AC158:AC164" si="117">AA158*1.25</f>
+        <f t="shared" ref="AC158:AC164" si="129">AA158*1.25</f>
         <v>520</v>
       </c>
       <c r="AE158" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16403,70 +16413,70 @@
         <v>998</v>
       </c>
       <c r="M159" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>748.5</v>
       </c>
       <c r="N159" s="13">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>1247.5</v>
       </c>
       <c r="O159" s="13">
         <v>998</v>
       </c>
       <c r="P159" s="13">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>748.5</v>
       </c>
       <c r="Q159" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1247.5</v>
       </c>
       <c r="R159" s="13">
         <v>998</v>
       </c>
       <c r="S159" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>748.5</v>
       </c>
       <c r="T159" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>1247.5</v>
       </c>
       <c r="U159" s="13">
         <v>998</v>
       </c>
       <c r="V159" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="124"/>
         <v>748.5</v>
       </c>
       <c r="W159" s="13">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>1247.5</v>
       </c>
       <c r="X159" s="13">
         <v>998</v>
       </c>
       <c r="Y159" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>748.5</v>
       </c>
       <c r="Z159" s="13">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>1247.5</v>
       </c>
       <c r="AA159" s="13">
         <v>998</v>
       </c>
       <c r="AB159" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>748.5</v>
       </c>
       <c r="AC159" s="13">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>1247.5</v>
       </c>
       <c r="AE159" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16509,70 +16519,70 @@
         <v>1100</v>
       </c>
       <c r="M160" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>825</v>
       </c>
       <c r="N160" s="13">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>1375</v>
       </c>
       <c r="O160" s="13">
         <v>1100</v>
       </c>
       <c r="P160" s="13">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>825</v>
       </c>
       <c r="Q160" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1375</v>
       </c>
       <c r="R160" s="13">
         <v>1100</v>
       </c>
       <c r="S160" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>825</v>
       </c>
       <c r="T160" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>1375</v>
       </c>
       <c r="U160" s="13">
         <v>1100</v>
       </c>
       <c r="V160" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="124"/>
         <v>825</v>
       </c>
       <c r="W160" s="13">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>1375</v>
       </c>
       <c r="X160" s="13">
         <v>1100</v>
       </c>
       <c r="Y160" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>825</v>
       </c>
       <c r="Z160" s="13">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>1375</v>
       </c>
       <c r="AA160" s="13">
         <v>1100</v>
       </c>
       <c r="AB160" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>825</v>
       </c>
       <c r="AC160" s="13">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>1375</v>
       </c>
       <c r="AE160" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16614,70 +16624,70 @@
         <v>1138</v>
       </c>
       <c r="M161" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>853.5</v>
       </c>
       <c r="N161" s="13">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>1422.5</v>
       </c>
       <c r="O161" s="13">
         <v>1138</v>
       </c>
       <c r="P161" s="13">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>853.5</v>
       </c>
       <c r="Q161" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1422.5</v>
       </c>
       <c r="R161" s="13">
         <v>1138</v>
       </c>
       <c r="S161" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>853.5</v>
       </c>
       <c r="T161" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>1422.5</v>
       </c>
       <c r="U161" s="13">
         <v>1138</v>
       </c>
       <c r="V161" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="124"/>
         <v>853.5</v>
       </c>
       <c r="W161" s="13">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>1422.5</v>
       </c>
       <c r="X161" s="13">
         <v>1138</v>
       </c>
       <c r="Y161" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>853.5</v>
       </c>
       <c r="Z161" s="13">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>1422.5</v>
       </c>
       <c r="AA161" s="13">
         <v>1138</v>
       </c>
       <c r="AB161" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>853.5</v>
       </c>
       <c r="AC161" s="13">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>1422.5</v>
       </c>
       <c r="AE161" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16719,70 +16729,70 @@
         <v>1422</v>
       </c>
       <c r="M162" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>1066.5</v>
       </c>
       <c r="N162" s="13">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>1777.5</v>
       </c>
       <c r="O162" s="13">
         <v>1422</v>
       </c>
       <c r="P162" s="13">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>1066.5</v>
       </c>
       <c r="Q162" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>1777.5</v>
       </c>
       <c r="R162" s="13">
         <v>1422</v>
       </c>
       <c r="S162" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>1066.5</v>
       </c>
       <c r="T162" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>1777.5</v>
       </c>
       <c r="U162" s="13">
         <v>1422</v>
       </c>
       <c r="V162" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="124"/>
         <v>1066.5</v>
       </c>
       <c r="W162" s="13">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>1777.5</v>
       </c>
       <c r="X162" s="13">
         <v>1422</v>
       </c>
       <c r="Y162" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1066.5</v>
       </c>
       <c r="Z162" s="13">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>1777.5</v>
       </c>
       <c r="AA162" s="13">
         <v>1422</v>
       </c>
       <c r="AB162" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>1066.5</v>
       </c>
       <c r="AC162" s="13">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>1777.5</v>
       </c>
       <c r="AE162" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16824,70 +16834,70 @@
         <v>2133</v>
       </c>
       <c r="M163" s="13">
-        <f t="shared" si="98"/>
+        <f t="shared" si="110"/>
         <v>1599.75</v>
       </c>
       <c r="N163" s="13">
-        <f t="shared" si="99"/>
+        <f t="shared" si="111"/>
         <v>2666.25</v>
       </c>
       <c r="O163" s="13">
         <v>2133</v>
       </c>
       <c r="P163" s="13">
-        <f t="shared" si="110"/>
+        <f t="shared" si="122"/>
         <v>1599.75</v>
       </c>
       <c r="Q163" s="13">
-        <f t="shared" si="111"/>
+        <f t="shared" si="123"/>
         <v>2666.25</v>
       </c>
       <c r="R163" s="13">
         <v>2133</v>
       </c>
       <c r="S163" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>1599.75</v>
       </c>
       <c r="T163" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>2666.25</v>
       </c>
       <c r="U163" s="13">
         <v>2133</v>
       </c>
       <c r="V163" s="13">
-        <f t="shared" si="112"/>
+        <f t="shared" si="124"/>
         <v>1599.75</v>
       </c>
       <c r="W163" s="13">
-        <f t="shared" si="113"/>
+        <f t="shared" si="125"/>
         <v>2666.25</v>
       </c>
       <c r="X163" s="13">
         <v>2133</v>
       </c>
       <c r="Y163" s="13">
-        <f t="shared" si="114"/>
+        <f t="shared" si="126"/>
         <v>1599.75</v>
       </c>
       <c r="Z163" s="13">
-        <f t="shared" si="115"/>
+        <f t="shared" si="127"/>
         <v>2666.25</v>
       </c>
       <c r="AA163" s="13">
         <v>2133</v>
       </c>
       <c r="AB163" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>1599.75</v>
       </c>
       <c r="AC163" s="13">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>2666.25</v>
       </c>
       <c r="AE163" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -16926,78 +16936,78 @@
         <v>67</v>
       </c>
       <c r="L164" s="13">
-        <f t="shared" ref="L164:L170" si="118">R164</f>
+        <f t="shared" ref="L164:L170" si="130">R164</f>
         <v>310</v>
       </c>
       <c r="M164" s="13">
-        <f t="shared" si="98"/>
-        <v>232.5</v>
-      </c>
-      <c r="N164" s="13">
-        <f t="shared" si="99"/>
-        <v>387.5</v>
-      </c>
-      <c r="O164" s="13">
-        <f t="shared" ref="O164:O170" si="119">R164</f>
-        <v>310</v>
-      </c>
-      <c r="P164" s="13">
         <f t="shared" si="110"/>
         <v>232.5</v>
       </c>
-      <c r="Q164" s="13">
+      <c r="N164" s="13">
         <f t="shared" si="111"/>
         <v>387.5</v>
       </c>
+      <c r="O164" s="13">
+        <f t="shared" ref="O164:O170" si="131">R164</f>
+        <v>310</v>
+      </c>
+      <c r="P164" s="13">
+        <f t="shared" si="122"/>
+        <v>232.5</v>
+      </c>
+      <c r="Q164" s="13">
+        <f t="shared" si="123"/>
+        <v>387.5</v>
+      </c>
       <c r="R164" s="13">
         <v>310</v>
       </c>
       <c r="S164" s="13">
-        <f t="shared" si="102"/>
-        <v>232.5</v>
-      </c>
-      <c r="T164" s="13">
-        <f t="shared" si="103"/>
-        <v>387.5</v>
-      </c>
-      <c r="U164" s="13">
-        <f t="shared" ref="U164:U170" si="120">R164</f>
-        <v>310</v>
-      </c>
-      <c r="V164" s="13">
-        <f t="shared" si="112"/>
-        <v>232.5</v>
-      </c>
-      <c r="W164" s="13">
-        <f t="shared" si="113"/>
-        <v>387.5</v>
-      </c>
-      <c r="X164" s="13">
-        <f t="shared" ref="X164:X170" si="121">R164</f>
-        <v>310</v>
-      </c>
-      <c r="Y164" s="13">
         <f t="shared" si="114"/>
         <v>232.5</v>
       </c>
-      <c r="Z164" s="13">
+      <c r="T164" s="13">
         <f t="shared" si="115"/>
         <v>387.5</v>
       </c>
+      <c r="U164" s="13">
+        <f t="shared" ref="U164:U170" si="132">R164</f>
+        <v>310</v>
+      </c>
+      <c r="V164" s="13">
+        <f t="shared" si="124"/>
+        <v>232.5</v>
+      </c>
+      <c r="W164" s="13">
+        <f t="shared" si="125"/>
+        <v>387.5</v>
+      </c>
+      <c r="X164" s="13">
+        <f t="shared" ref="X164:X170" si="133">R164</f>
+        <v>310</v>
+      </c>
+      <c r="Y164" s="13">
+        <f t="shared" si="126"/>
+        <v>232.5</v>
+      </c>
+      <c r="Z164" s="13">
+        <f t="shared" si="127"/>
+        <v>387.5</v>
+      </c>
       <c r="AA164" s="13">
-        <f t="shared" ref="AA164:AA170" si="122">R164</f>
+        <f t="shared" ref="AA164:AA170" si="134">R164</f>
         <v>310</v>
       </c>
       <c r="AB164" s="13">
-        <f t="shared" si="116"/>
+        <f t="shared" si="128"/>
         <v>232.5</v>
       </c>
       <c r="AC164" s="13">
-        <f t="shared" si="117"/>
+        <f t="shared" si="129"/>
         <v>387.5</v>
       </c>
       <c r="AE164" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17036,78 +17046,78 @@
         <v>67</v>
       </c>
       <c r="L165" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>665</v>
       </c>
       <c r="M165" s="13">
-        <f t="shared" ref="M165:M170" si="123">L165*0.75</f>
+        <f t="shared" ref="M165:M170" si="135">L165*0.75</f>
         <v>498.75</v>
       </c>
       <c r="N165" s="13">
-        <f t="shared" ref="N165:N170" si="124">L165*1.25</f>
+        <f t="shared" ref="N165:N170" si="136">L165*1.25</f>
         <v>831.25</v>
       </c>
       <c r="O165" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>665</v>
       </c>
       <c r="P165" s="13">
-        <f t="shared" ref="P165:P170" si="125">O165*0.75</f>
+        <f t="shared" ref="P165:P170" si="137">O165*0.75</f>
         <v>498.75</v>
       </c>
       <c r="Q165" s="13">
-        <f t="shared" ref="Q165:Q170" si="126">O165*1.25</f>
+        <f t="shared" ref="Q165:Q170" si="138">O165*1.25</f>
         <v>831.25</v>
       </c>
       <c r="R165" s="13">
         <v>665</v>
       </c>
       <c r="S165" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>498.75</v>
       </c>
       <c r="T165" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>831.25</v>
       </c>
       <c r="U165" s="13">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>665</v>
       </c>
       <c r="V165" s="13">
-        <f t="shared" ref="V165:V170" si="127">U165*0.75</f>
+        <f t="shared" ref="V165:V170" si="139">U165*0.75</f>
         <v>498.75</v>
       </c>
       <c r="W165" s="13">
-        <f t="shared" ref="W165:W170" si="128">U165*1.25</f>
+        <f t="shared" ref="W165:W170" si="140">U165*1.25</f>
         <v>831.25</v>
       </c>
       <c r="X165" s="13">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>665</v>
       </c>
       <c r="Y165" s="13">
-        <f t="shared" ref="Y165:Y170" si="129">X165*0.75</f>
+        <f t="shared" ref="Y165:Y170" si="141">X165*0.75</f>
         <v>498.75</v>
       </c>
       <c r="Z165" s="13">
-        <f t="shared" ref="Z165:Z170" si="130">X165*1.25</f>
+        <f t="shared" ref="Z165:Z170" si="142">X165*1.25</f>
         <v>831.25</v>
       </c>
       <c r="AA165" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>665</v>
       </c>
       <c r="AB165" s="13">
-        <f t="shared" ref="AB165:AB170" si="131">AA165*0.75</f>
+        <f t="shared" ref="AB165:AB170" si="143">AA165*0.75</f>
         <v>498.75</v>
       </c>
       <c r="AC165" s="13">
-        <f t="shared" ref="AC165:AC170" si="132">AA165*1.25</f>
+        <f t="shared" ref="AC165:AC170" si="144">AA165*1.25</f>
         <v>831.25</v>
       </c>
       <c r="AE165" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17146,78 +17156,78 @@
         <v>67</v>
       </c>
       <c r="L166" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>1596</v>
       </c>
       <c r="M166" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="135"/>
         <v>1197</v>
       </c>
       <c r="N166" s="13">
-        <f t="shared" si="124"/>
+        <f t="shared" si="136"/>
         <v>1995</v>
       </c>
       <c r="O166" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>1596</v>
       </c>
       <c r="P166" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>1197</v>
       </c>
       <c r="Q166" s="13">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>1995</v>
       </c>
       <c r="R166" s="13">
         <v>1596</v>
       </c>
       <c r="S166" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>1197</v>
       </c>
       <c r="T166" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>1995</v>
       </c>
       <c r="U166" s="13">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>1596</v>
       </c>
       <c r="V166" s="13">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>1197</v>
       </c>
       <c r="W166" s="13">
-        <f t="shared" si="128"/>
+        <f t="shared" si="140"/>
         <v>1995</v>
       </c>
       <c r="X166" s="13">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>1596</v>
       </c>
       <c r="Y166" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="141"/>
         <v>1197</v>
       </c>
       <c r="Z166" s="13">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>1995</v>
       </c>
       <c r="AA166" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>1596</v>
       </c>
       <c r="AB166" s="13">
-        <f t="shared" si="131"/>
+        <f t="shared" si="143"/>
         <v>1197</v>
       </c>
       <c r="AC166" s="13">
-        <f t="shared" si="132"/>
+        <f t="shared" si="144"/>
         <v>1995</v>
       </c>
       <c r="AE166" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17256,78 +17266,78 @@
         <v>67</v>
       </c>
       <c r="L167" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>2000</v>
       </c>
       <c r="M167" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="135"/>
         <v>1500</v>
       </c>
       <c r="N167" s="13">
-        <f t="shared" si="124"/>
+        <f t="shared" si="136"/>
         <v>2500</v>
       </c>
       <c r="O167" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>2000</v>
       </c>
       <c r="P167" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>1500</v>
       </c>
       <c r="Q167" s="13">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>2500</v>
       </c>
       <c r="R167" s="13">
         <v>2000</v>
       </c>
       <c r="S167" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>1500</v>
       </c>
       <c r="T167" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>2500</v>
       </c>
       <c r="U167" s="13">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>2000</v>
       </c>
       <c r="V167" s="13">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>1500</v>
       </c>
       <c r="W167" s="13">
-        <f t="shared" si="128"/>
+        <f t="shared" si="140"/>
         <v>2500</v>
       </c>
       <c r="X167" s="13">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>2000</v>
       </c>
       <c r="Y167" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="141"/>
         <v>1500</v>
       </c>
       <c r="Z167" s="13">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>2500</v>
       </c>
       <c r="AA167" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>2000</v>
       </c>
       <c r="AB167" s="13">
-        <f t="shared" si="131"/>
+        <f t="shared" si="143"/>
         <v>1500</v>
       </c>
       <c r="AC167" s="13">
-        <f t="shared" si="132"/>
+        <f t="shared" si="144"/>
         <v>2500</v>
       </c>
       <c r="AE167" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17366,78 +17376,78 @@
         <v>67</v>
       </c>
       <c r="L168" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>2125</v>
       </c>
       <c r="M168" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="135"/>
         <v>1593.75</v>
       </c>
       <c r="N168" s="13">
-        <f t="shared" si="124"/>
+        <f t="shared" si="136"/>
         <v>2656.25</v>
       </c>
       <c r="O168" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>2125</v>
       </c>
       <c r="P168" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>1593.75</v>
       </c>
       <c r="Q168" s="13">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>2656.25</v>
       </c>
       <c r="R168" s="13">
         <v>2125</v>
       </c>
       <c r="S168" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>1593.75</v>
       </c>
       <c r="T168" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>2656.25</v>
       </c>
       <c r="U168" s="13">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>2125</v>
       </c>
       <c r="V168" s="13">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>1593.75</v>
       </c>
       <c r="W168" s="13">
-        <f t="shared" si="128"/>
+        <f t="shared" si="140"/>
         <v>2656.25</v>
       </c>
       <c r="X168" s="13">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>2125</v>
       </c>
       <c r="Y168" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="141"/>
         <v>1593.75</v>
       </c>
       <c r="Z168" s="13">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>2656.25</v>
       </c>
       <c r="AA168" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>2125</v>
       </c>
       <c r="AB168" s="13">
-        <f t="shared" si="131"/>
+        <f t="shared" si="143"/>
         <v>1593.75</v>
       </c>
       <c r="AC168" s="13">
-        <f t="shared" si="132"/>
+        <f t="shared" si="144"/>
         <v>2656.25</v>
       </c>
       <c r="AE168" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17476,78 +17486,78 @@
         <v>67</v>
       </c>
       <c r="L169" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>2656</v>
       </c>
       <c r="M169" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="135"/>
         <v>1992</v>
       </c>
       <c r="N169" s="13">
-        <f t="shared" si="124"/>
+        <f t="shared" si="136"/>
         <v>3320</v>
       </c>
       <c r="O169" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>2656</v>
       </c>
       <c r="P169" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>1992</v>
       </c>
       <c r="Q169" s="13">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>3320</v>
       </c>
       <c r="R169" s="13">
         <v>2656</v>
       </c>
       <c r="S169" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>1992</v>
       </c>
       <c r="T169" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>3320</v>
       </c>
       <c r="U169" s="13">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>2656</v>
       </c>
       <c r="V169" s="13">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>1992</v>
       </c>
       <c r="W169" s="13">
-        <f t="shared" si="128"/>
+        <f t="shared" si="140"/>
         <v>3320</v>
       </c>
       <c r="X169" s="13">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>2656</v>
       </c>
       <c r="Y169" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="141"/>
         <v>1992</v>
       </c>
       <c r="Z169" s="13">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>3320</v>
       </c>
       <c r="AA169" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>2656</v>
       </c>
       <c r="AB169" s="13">
-        <f t="shared" si="131"/>
+        <f t="shared" si="143"/>
         <v>1992</v>
       </c>
       <c r="AC169" s="13">
-        <f t="shared" si="132"/>
+        <f t="shared" si="144"/>
         <v>3320</v>
       </c>
       <c r="AE169" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17586,78 +17596,78 @@
         <v>67</v>
       </c>
       <c r="L170" s="13">
-        <f t="shared" si="118"/>
+        <f t="shared" si="130"/>
         <v>3984</v>
       </c>
       <c r="M170" s="13">
-        <f t="shared" si="123"/>
+        <f t="shared" si="135"/>
         <v>2988</v>
       </c>
       <c r="N170" s="13">
-        <f t="shared" si="124"/>
+        <f t="shared" si="136"/>
         <v>4980</v>
       </c>
       <c r="O170" s="13">
-        <f t="shared" si="119"/>
+        <f t="shared" si="131"/>
         <v>3984</v>
       </c>
       <c r="P170" s="13">
-        <f t="shared" si="125"/>
+        <f t="shared" si="137"/>
         <v>2988</v>
       </c>
       <c r="Q170" s="13">
-        <f t="shared" si="126"/>
+        <f t="shared" si="138"/>
         <v>4980</v>
       </c>
       <c r="R170" s="13">
         <v>3984</v>
       </c>
       <c r="S170" s="13">
-        <f t="shared" si="102"/>
+        <f t="shared" si="114"/>
         <v>2988</v>
       </c>
       <c r="T170" s="13">
-        <f t="shared" si="103"/>
+        <f t="shared" si="115"/>
         <v>4980</v>
       </c>
       <c r="U170" s="13">
-        <f t="shared" si="120"/>
+        <f t="shared" si="132"/>
         <v>3984</v>
       </c>
       <c r="V170" s="13">
-        <f t="shared" si="127"/>
+        <f t="shared" si="139"/>
         <v>2988</v>
       </c>
       <c r="W170" s="13">
-        <f t="shared" si="128"/>
+        <f t="shared" si="140"/>
         <v>4980</v>
       </c>
       <c r="X170" s="13">
-        <f t="shared" si="121"/>
+        <f t="shared" si="133"/>
         <v>3984</v>
       </c>
       <c r="Y170" s="13">
-        <f t="shared" si="129"/>
+        <f t="shared" si="141"/>
         <v>2988</v>
       </c>
       <c r="Z170" s="13">
-        <f t="shared" si="130"/>
+        <f t="shared" si="142"/>
         <v>4980</v>
       </c>
       <c r="AA170" s="13">
-        <f t="shared" si="122"/>
+        <f t="shared" si="134"/>
         <v>3984</v>
       </c>
       <c r="AB170" s="13">
-        <f t="shared" si="131"/>
+        <f t="shared" si="143"/>
         <v>2988</v>
       </c>
       <c r="AC170" s="13">
-        <f t="shared" si="132"/>
+        <f t="shared" si="144"/>
         <v>4980</v>
       </c>
       <c r="AE170" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17756,7 +17766,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AE171" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17832,7 +17842,7 @@
         <v>70</v>
       </c>
       <c r="X172" s="4">
-        <f t="shared" ref="X172:X178" si="133">U172*0.98</f>
+        <f t="shared" ref="X172:X178" si="145">U172*0.98</f>
         <v>63.386399999999995</v>
       </c>
       <c r="Y172" s="4">
@@ -17842,7 +17852,7 @@
         <v>70</v>
       </c>
       <c r="AA172" s="4">
-        <f t="shared" ref="AA172:AA178" si="134">X172*0.97</f>
+        <f t="shared" ref="AA172:AA178" si="146">X172*0.97</f>
         <v>61.484807999999994</v>
       </c>
       <c r="AB172" s="4">
@@ -17852,7 +17862,7 @@
         <v>70</v>
       </c>
       <c r="AE172" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -17918,7 +17928,7 @@
         <v>43</v>
       </c>
       <c r="U173" s="4">
-        <f t="shared" ref="U173:U178" si="135">R173*0.98</f>
+        <f t="shared" ref="U173:U178" si="147">R173*0.98</f>
         <v>37.24</v>
       </c>
       <c r="V173" s="4">
@@ -17928,7 +17938,7 @@
         <v>43</v>
       </c>
       <c r="X173" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="145"/>
         <v>36.495200000000004</v>
       </c>
       <c r="Y173" s="4">
@@ -17938,7 +17948,7 @@
         <v>43</v>
       </c>
       <c r="AA173" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" si="146"/>
         <v>35.400344000000004</v>
       </c>
       <c r="AB173" s="4">
@@ -17948,7 +17958,7 @@
         <v>43</v>
       </c>
       <c r="AE173" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18014,7 +18024,7 @@
         <v>44</v>
       </c>
       <c r="U174" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>34.299999999999997</v>
       </c>
       <c r="V174" s="4">
@@ -18024,7 +18034,7 @@
         <v>44</v>
       </c>
       <c r="X174" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="145"/>
         <v>33.613999999999997</v>
       </c>
       <c r="Y174" s="4">
@@ -18034,7 +18044,7 @@
         <v>44</v>
       </c>
       <c r="AA174" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" si="146"/>
         <v>32.605579999999996</v>
       </c>
       <c r="AB174" s="4">
@@ -18044,7 +18054,7 @@
         <v>44</v>
       </c>
       <c r="AE174" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18110,7 +18120,7 @@
         <v>39</v>
       </c>
       <c r="U175" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>28.419999999999998</v>
       </c>
       <c r="V175" s="4">
@@ -18120,7 +18130,7 @@
         <v>39</v>
       </c>
       <c r="X175" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="145"/>
         <v>27.851599999999998</v>
       </c>
       <c r="Y175" s="4">
@@ -18130,7 +18140,7 @@
         <v>39</v>
       </c>
       <c r="AA175" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" si="146"/>
         <v>27.016051999999998</v>
       </c>
       <c r="AB175" s="4">
@@ -18140,7 +18150,7 @@
         <v>39</v>
       </c>
       <c r="AE175" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18206,7 +18216,7 @@
         <v>30</v>
       </c>
       <c r="U176" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>27.93</v>
       </c>
       <c r="V176" s="4">
@@ -18216,7 +18226,7 @@
         <v>30</v>
       </c>
       <c r="X176" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="145"/>
         <v>27.371399999999998</v>
       </c>
       <c r="Y176" s="4">
@@ -18226,7 +18236,7 @@
         <v>30</v>
       </c>
       <c r="AA176" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" si="146"/>
         <v>26.550257999999996</v>
       </c>
       <c r="AB176" s="4">
@@ -18236,7 +18246,7 @@
         <v>30</v>
       </c>
       <c r="AE176" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18302,7 +18312,7 @@
         <v>33</v>
       </c>
       <c r="U177" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>27.439999999999998</v>
       </c>
       <c r="V177" s="4">
@@ -18312,7 +18322,7 @@
         <v>33</v>
       </c>
       <c r="X177" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="145"/>
         <v>26.891199999999998</v>
       </c>
       <c r="Y177" s="4">
@@ -18322,7 +18332,7 @@
         <v>33</v>
       </c>
       <c r="AA177" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" si="146"/>
         <v>26.084463999999997</v>
       </c>
       <c r="AB177" s="4">
@@ -18332,7 +18342,7 @@
         <v>33</v>
       </c>
       <c r="AE177" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18398,7 +18408,7 @@
         <v>24</v>
       </c>
       <c r="U178" s="4">
-        <f t="shared" si="135"/>
+        <f t="shared" si="147"/>
         <v>21.56</v>
       </c>
       <c r="V178" s="4">
@@ -18408,7 +18418,7 @@
         <v>24</v>
       </c>
       <c r="X178" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="145"/>
         <v>21.128799999999998</v>
       </c>
       <c r="Y178" s="4">
@@ -18418,7 +18428,7 @@
         <v>24</v>
       </c>
       <c r="AA178" s="4">
-        <f t="shared" si="134"/>
+        <f t="shared" si="146"/>
         <v>20.494935999999999</v>
       </c>
       <c r="AB178" s="4">
@@ -18428,7 +18438,7 @@
         <v>24</v>
       </c>
       <c r="AE178" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18470,70 +18480,70 @@
         <v>30</v>
       </c>
       <c r="M179" s="5">
-        <f t="shared" ref="M179:M185" si="136">L179*0.9</f>
+        <f t="shared" ref="M179:M185" si="148">L179*0.9</f>
         <v>27</v>
       </c>
       <c r="N179" s="5">
-        <f t="shared" ref="N179:N185" si="137">L179*1.1</f>
+        <f t="shared" ref="N179:N185" si="149">L179*1.1</f>
         <v>33</v>
       </c>
       <c r="O179" s="5">
         <v>30</v>
       </c>
       <c r="P179" s="5">
-        <f t="shared" ref="P179:P185" si="138">O179*0.9</f>
+        <f t="shared" ref="P179:P185" si="150">O179*0.9</f>
         <v>27</v>
       </c>
       <c r="Q179" s="5">
-        <f t="shared" ref="Q179:Q185" si="139">O179*1.1</f>
+        <f t="shared" ref="Q179:Q185" si="151">O179*1.1</f>
         <v>33</v>
       </c>
       <c r="R179" s="5">
         <v>30</v>
       </c>
       <c r="S179" s="5">
-        <f t="shared" ref="S179:S185" si="140">R179*0.9</f>
+        <f t="shared" ref="S179:S185" si="152">R179*0.9</f>
         <v>27</v>
       </c>
       <c r="T179" s="5">
-        <f t="shared" ref="T179:T185" si="141">R179*1.1</f>
+        <f t="shared" ref="T179:T185" si="153">R179*1.1</f>
         <v>33</v>
       </c>
       <c r="U179" s="5">
         <v>30</v>
       </c>
       <c r="V179" s="5">
-        <f t="shared" ref="V179:V185" si="142">U179*0.9</f>
+        <f t="shared" ref="V179:V185" si="154">U179*0.9</f>
         <v>27</v>
       </c>
       <c r="W179" s="5">
-        <f t="shared" ref="W179:W185" si="143">U179*1.1</f>
+        <f t="shared" ref="W179:W185" si="155">U179*1.1</f>
         <v>33</v>
       </c>
       <c r="X179" s="5">
         <v>30</v>
       </c>
       <c r="Y179" s="5">
-        <f t="shared" ref="Y179:Y185" si="144">X179*0.9</f>
+        <f t="shared" ref="Y179:Y185" si="156">X179*0.9</f>
         <v>27</v>
       </c>
       <c r="Z179" s="5">
-        <f t="shared" ref="Z179:Z185" si="145">X179*1.1</f>
+        <f t="shared" ref="Z179:Z185" si="157">X179*1.1</f>
         <v>33</v>
       </c>
       <c r="AA179" s="5">
         <v>30</v>
       </c>
       <c r="AB179" s="5">
-        <f t="shared" ref="AB179:AB185" si="146">AA179*0.9</f>
+        <f t="shared" ref="AB179:AB185" si="158">AA179*0.9</f>
         <v>27</v>
       </c>
       <c r="AC179" s="5">
-        <f t="shared" ref="AC179:AC185" si="147">AA179*1.1</f>
+        <f t="shared" ref="AC179:AC185" si="159">AA179*1.1</f>
         <v>33</v>
       </c>
       <c r="AE179" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18575,70 +18585,70 @@
         <v>30</v>
       </c>
       <c r="M180" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>27</v>
       </c>
       <c r="N180" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>33</v>
       </c>
       <c r="O180" s="5">
         <v>30</v>
       </c>
       <c r="P180" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="150"/>
         <v>27</v>
       </c>
       <c r="Q180" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="151"/>
         <v>33</v>
       </c>
       <c r="R180" s="5">
         <v>30</v>
       </c>
       <c r="S180" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="152"/>
         <v>27</v>
       </c>
       <c r="T180" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="153"/>
         <v>33</v>
       </c>
       <c r="U180" s="5">
         <v>30</v>
       </c>
       <c r="V180" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="154"/>
         <v>27</v>
       </c>
       <c r="W180" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="155"/>
         <v>33</v>
       </c>
       <c r="X180" s="5">
         <v>30</v>
       </c>
       <c r="Y180" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="156"/>
         <v>27</v>
       </c>
       <c r="Z180" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="157"/>
         <v>33</v>
       </c>
       <c r="AA180" s="5">
         <v>30</v>
       </c>
       <c r="AB180" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="158"/>
         <v>27</v>
       </c>
       <c r="AC180" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>33</v>
       </c>
       <c r="AE180" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18680,70 +18690,70 @@
         <v>30</v>
       </c>
       <c r="M181" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>27</v>
       </c>
       <c r="N181" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>33</v>
       </c>
       <c r="O181" s="5">
         <v>30</v>
       </c>
       <c r="P181" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="150"/>
         <v>27</v>
       </c>
       <c r="Q181" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="151"/>
         <v>33</v>
       </c>
       <c r="R181" s="5">
         <v>30</v>
       </c>
       <c r="S181" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="152"/>
         <v>27</v>
       </c>
       <c r="T181" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="153"/>
         <v>33</v>
       </c>
       <c r="U181" s="5">
         <v>30</v>
       </c>
       <c r="V181" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="154"/>
         <v>27</v>
       </c>
       <c r="W181" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="155"/>
         <v>33</v>
       </c>
       <c r="X181" s="5">
         <v>30</v>
       </c>
       <c r="Y181" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="156"/>
         <v>27</v>
       </c>
       <c r="Z181" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="157"/>
         <v>33</v>
       </c>
       <c r="AA181" s="5">
         <v>30</v>
       </c>
       <c r="AB181" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="158"/>
         <v>27</v>
       </c>
       <c r="AC181" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>33</v>
       </c>
       <c r="AE181" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18785,70 +18795,70 @@
         <v>30</v>
       </c>
       <c r="M182" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>27</v>
       </c>
       <c r="N182" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>33</v>
       </c>
       <c r="O182" s="5">
         <v>30</v>
       </c>
       <c r="P182" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="150"/>
         <v>27</v>
       </c>
       <c r="Q182" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="151"/>
         <v>33</v>
       </c>
       <c r="R182" s="5">
         <v>30</v>
       </c>
       <c r="S182" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="152"/>
         <v>27</v>
       </c>
       <c r="T182" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="153"/>
         <v>33</v>
       </c>
       <c r="U182" s="5">
         <v>30</v>
       </c>
       <c r="V182" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="154"/>
         <v>27</v>
       </c>
       <c r="W182" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="155"/>
         <v>33</v>
       </c>
       <c r="X182" s="5">
         <v>30</v>
       </c>
       <c r="Y182" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="156"/>
         <v>27</v>
       </c>
       <c r="Z182" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="157"/>
         <v>33</v>
       </c>
       <c r="AA182" s="5">
         <v>30</v>
       </c>
       <c r="AB182" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="158"/>
         <v>27</v>
       </c>
       <c r="AC182" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>33</v>
       </c>
       <c r="AE182" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18890,70 +18900,70 @@
         <v>30</v>
       </c>
       <c r="M183" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>27</v>
       </c>
       <c r="N183" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>33</v>
       </c>
       <c r="O183" s="5">
         <v>30</v>
       </c>
       <c r="P183" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="150"/>
         <v>27</v>
       </c>
       <c r="Q183" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="151"/>
         <v>33</v>
       </c>
       <c r="R183" s="5">
         <v>30</v>
       </c>
       <c r="S183" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="152"/>
         <v>27</v>
       </c>
       <c r="T183" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="153"/>
         <v>33</v>
       </c>
       <c r="U183" s="5">
         <v>30</v>
       </c>
       <c r="V183" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="154"/>
         <v>27</v>
       </c>
       <c r="W183" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="155"/>
         <v>33</v>
       </c>
       <c r="X183" s="5">
         <v>30</v>
       </c>
       <c r="Y183" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="156"/>
         <v>27</v>
       </c>
       <c r="Z183" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="157"/>
         <v>33</v>
       </c>
       <c r="AA183" s="5">
         <v>30</v>
       </c>
       <c r="AB183" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="158"/>
         <v>27</v>
       </c>
       <c r="AC183" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>33</v>
       </c>
       <c r="AE183" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -18995,70 +19005,70 @@
         <v>30</v>
       </c>
       <c r="M184" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>27</v>
       </c>
       <c r="N184" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>33</v>
       </c>
       <c r="O184" s="5">
         <v>30</v>
       </c>
       <c r="P184" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="150"/>
         <v>27</v>
       </c>
       <c r="Q184" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="151"/>
         <v>33</v>
       </c>
       <c r="R184" s="5">
         <v>30</v>
       </c>
       <c r="S184" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="152"/>
         <v>27</v>
       </c>
       <c r="T184" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="153"/>
         <v>33</v>
       </c>
       <c r="U184" s="5">
         <v>30</v>
       </c>
       <c r="V184" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="154"/>
         <v>27</v>
       </c>
       <c r="W184" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="155"/>
         <v>33</v>
       </c>
       <c r="X184" s="5">
         <v>30</v>
       </c>
       <c r="Y184" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="156"/>
         <v>27</v>
       </c>
       <c r="Z184" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="157"/>
         <v>33</v>
       </c>
       <c r="AA184" s="5">
         <v>30</v>
       </c>
       <c r="AB184" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="158"/>
         <v>27</v>
       </c>
       <c r="AC184" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>33</v>
       </c>
       <c r="AE184" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -19100,70 +19110,70 @@
         <v>30</v>
       </c>
       <c r="M185" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="148"/>
         <v>27</v>
       </c>
       <c r="N185" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="149"/>
         <v>33</v>
       </c>
       <c r="O185" s="5">
         <v>30</v>
       </c>
       <c r="P185" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="150"/>
         <v>27</v>
       </c>
       <c r="Q185" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="151"/>
         <v>33</v>
       </c>
       <c r="R185" s="5">
         <v>30</v>
       </c>
       <c r="S185" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="152"/>
         <v>27</v>
       </c>
       <c r="T185" s="5">
-        <f t="shared" si="141"/>
+        <f t="shared" si="153"/>
         <v>33</v>
       </c>
       <c r="U185" s="5">
         <v>30</v>
       </c>
       <c r="V185" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="154"/>
         <v>27</v>
       </c>
       <c r="W185" s="5">
-        <f t="shared" si="143"/>
+        <f t="shared" si="155"/>
         <v>33</v>
       </c>
       <c r="X185" s="5">
         <v>30</v>
       </c>
       <c r="Y185" s="5">
-        <f t="shared" si="144"/>
+        <f t="shared" si="156"/>
         <v>27</v>
       </c>
       <c r="Z185" s="5">
-        <f t="shared" si="145"/>
+        <f t="shared" si="157"/>
         <v>33</v>
       </c>
       <c r="AA185" s="5">
         <v>30</v>
       </c>
       <c r="AB185" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="158"/>
         <v>27</v>
       </c>
       <c r="AC185" s="5">
-        <f t="shared" si="147"/>
+        <f t="shared" si="159"/>
         <v>33</v>
       </c>
       <c r="AE185" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -19216,59 +19226,59 @@
         <v>25</v>
       </c>
       <c r="P186" s="5">
-        <f t="shared" ref="P186:P192" si="148">O186*0.9</f>
+        <f t="shared" ref="P186:P192" si="160">O186*0.9</f>
         <v>22.5</v>
       </c>
       <c r="Q186" s="5">
-        <f t="shared" ref="Q186:Q192" si="149">O186*1.1</f>
+        <f t="shared" ref="Q186:Q192" si="161">O186*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="R186" s="5">
         <v>25</v>
       </c>
       <c r="S186" s="5">
-        <f t="shared" ref="S186:S192" si="150">R186*0.9</f>
+        <f t="shared" ref="S186:S192" si="162">R186*0.9</f>
         <v>22.5</v>
       </c>
       <c r="T186" s="5">
-        <f t="shared" ref="T186:T192" si="151">R186*1.1</f>
+        <f t="shared" ref="T186:T192" si="163">R186*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="U186" s="5">
         <v>25</v>
       </c>
       <c r="V186" s="5">
-        <f t="shared" ref="V186:V192" si="152">U186*0.9</f>
+        <f t="shared" ref="V186:V192" si="164">U186*0.9</f>
         <v>22.5</v>
       </c>
       <c r="W186" s="5">
-        <f t="shared" ref="W186:W192" si="153">U186*1.1</f>
+        <f t="shared" ref="W186:W192" si="165">U186*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="X186" s="5">
         <v>25</v>
       </c>
       <c r="Y186" s="5">
-        <f t="shared" ref="Y186:Y192" si="154">X186*0.9</f>
+        <f t="shared" ref="Y186:Y192" si="166">X186*0.9</f>
         <v>22.5</v>
       </c>
       <c r="Z186" s="5">
-        <f t="shared" ref="Z186:Z192" si="155">X186*1.1</f>
+        <f t="shared" ref="Z186:Z192" si="167">X186*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="AA186" s="5">
         <v>25</v>
       </c>
       <c r="AB186" s="5">
-        <f t="shared" ref="AB186:AB192" si="156">AA186*0.9</f>
+        <f t="shared" ref="AB186:AB192" si="168">AA186*0.9</f>
         <v>22.5</v>
       </c>
       <c r="AC186" s="5">
-        <f t="shared" ref="AC186:AC192" si="157">AA186*1.1</f>
+        <f t="shared" ref="AC186:AC192" si="169">AA186*1.1</f>
         <v>27.500000000000004</v>
       </c>
       <c r="AE186" s="1" t="str">
-        <f t="shared" ref="AE186:AE192" si="158">IF(L186&lt;M186,"ISSUE","")</f>
+        <f t="shared" ref="AE186:AE192" si="170">IF(L186&lt;M186,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -19310,70 +19320,70 @@
         <v>24</v>
       </c>
       <c r="M187" s="5">
-        <f t="shared" ref="M187:M192" si="159">L187*0.9</f>
+        <f t="shared" ref="M187:M192" si="171">L187*0.9</f>
         <v>21.6</v>
       </c>
       <c r="N187" s="5">
-        <f t="shared" ref="N187:N192" si="160">L187*1.1</f>
+        <f t="shared" ref="N187:N192" si="172">L187*1.1</f>
         <v>26.400000000000002</v>
       </c>
       <c r="O187" s="5">
         <v>24</v>
       </c>
       <c r="P187" s="5">
-        <f t="shared" si="148"/>
+        <f t="shared" si="160"/>
         <v>21.6</v>
       </c>
       <c r="Q187" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="161"/>
         <v>26.400000000000002</v>
       </c>
       <c r="R187" s="5">
         <v>24</v>
       </c>
       <c r="S187" s="5">
-        <f t="shared" si="150"/>
+        <f t="shared" si="162"/>
         <v>21.6</v>
       </c>
       <c r="T187" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="163"/>
         <v>26.400000000000002</v>
       </c>
       <c r="U187" s="5">
         <v>24</v>
       </c>
       <c r="V187" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="164"/>
         <v>21.6</v>
       </c>
       <c r="W187" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>26.400000000000002</v>
       </c>
       <c r="X187" s="5">
         <v>24</v>
       </c>
       <c r="Y187" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="166"/>
         <v>21.6</v>
       </c>
       <c r="Z187" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>26.400000000000002</v>
       </c>
       <c r="AA187" s="5">
         <v>24</v>
       </c>
       <c r="AB187" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>21.6</v>
       </c>
       <c r="AC187" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>26.400000000000002</v>
       </c>
       <c r="AE187" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
     </row>
@@ -19415,70 +19425,70 @@
         <v>23</v>
       </c>
       <c r="M188" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>20.7</v>
       </c>
       <c r="N188" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>25.3</v>
       </c>
       <c r="O188" s="5">
         <v>23</v>
       </c>
       <c r="P188" s="5">
-        <f t="shared" si="148"/>
+        <f t="shared" si="160"/>
         <v>20.7</v>
       </c>
       <c r="Q188" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="161"/>
         <v>25.3</v>
       </c>
       <c r="R188" s="5">
         <v>23</v>
       </c>
       <c r="S188" s="5">
-        <f t="shared" si="150"/>
+        <f t="shared" si="162"/>
         <v>20.7</v>
       </c>
       <c r="T188" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="163"/>
         <v>25.3</v>
       </c>
       <c r="U188" s="5">
         <v>23</v>
       </c>
       <c r="V188" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="164"/>
         <v>20.7</v>
       </c>
       <c r="W188" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>25.3</v>
       </c>
       <c r="X188" s="5">
         <v>23</v>
       </c>
       <c r="Y188" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="166"/>
         <v>20.7</v>
       </c>
       <c r="Z188" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>25.3</v>
       </c>
       <c r="AA188" s="5">
         <v>23</v>
       </c>
       <c r="AB188" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>20.7</v>
       </c>
       <c r="AC188" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>25.3</v>
       </c>
       <c r="AE188" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
     </row>
@@ -19520,70 +19530,70 @@
         <v>22</v>
       </c>
       <c r="M189" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>19.8</v>
       </c>
       <c r="N189" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>24.200000000000003</v>
       </c>
       <c r="O189" s="5">
         <v>22</v>
       </c>
       <c r="P189" s="5">
-        <f t="shared" si="148"/>
+        <f t="shared" si="160"/>
         <v>19.8</v>
       </c>
       <c r="Q189" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="161"/>
         <v>24.200000000000003</v>
       </c>
       <c r="R189" s="5">
         <v>22</v>
       </c>
       <c r="S189" s="5">
-        <f t="shared" si="150"/>
+        <f t="shared" si="162"/>
         <v>19.8</v>
       </c>
       <c r="T189" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="163"/>
         <v>24.200000000000003</v>
       </c>
       <c r="U189" s="5">
         <v>22</v>
       </c>
       <c r="V189" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="164"/>
         <v>19.8</v>
       </c>
       <c r="W189" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>24.200000000000003</v>
       </c>
       <c r="X189" s="5">
         <v>22</v>
       </c>
       <c r="Y189" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="166"/>
         <v>19.8</v>
       </c>
       <c r="Z189" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>24.200000000000003</v>
       </c>
       <c r="AA189" s="5">
         <v>22</v>
       </c>
       <c r="AB189" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>19.8</v>
       </c>
       <c r="AC189" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>24.200000000000003</v>
       </c>
       <c r="AE189" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
     </row>
@@ -19625,70 +19635,70 @@
         <v>21</v>
       </c>
       <c r="M190" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>18.900000000000002</v>
       </c>
       <c r="N190" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>23.1</v>
       </c>
       <c r="O190" s="5">
         <v>21</v>
       </c>
       <c r="P190" s="5">
-        <f t="shared" si="148"/>
+        <f t="shared" si="160"/>
         <v>18.900000000000002</v>
       </c>
       <c r="Q190" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="161"/>
         <v>23.1</v>
       </c>
       <c r="R190" s="5">
         <v>21</v>
       </c>
       <c r="S190" s="5">
-        <f t="shared" si="150"/>
+        <f t="shared" si="162"/>
         <v>18.900000000000002</v>
       </c>
       <c r="T190" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="163"/>
         <v>23.1</v>
       </c>
       <c r="U190" s="5">
         <v>21</v>
       </c>
       <c r="V190" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="164"/>
         <v>18.900000000000002</v>
       </c>
       <c r="W190" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>23.1</v>
       </c>
       <c r="X190" s="5">
         <v>21</v>
       </c>
       <c r="Y190" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="166"/>
         <v>18.900000000000002</v>
       </c>
       <c r="Z190" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>23.1</v>
       </c>
       <c r="AA190" s="5">
         <v>21</v>
       </c>
       <c r="AB190" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>18.900000000000002</v>
       </c>
       <c r="AC190" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>23.1</v>
       </c>
       <c r="AE190" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
     </row>
@@ -19730,70 +19740,70 @@
         <v>20</v>
       </c>
       <c r="M191" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>18</v>
       </c>
       <c r="N191" s="5">
+        <f t="shared" si="172"/>
+        <v>22</v>
+      </c>
+      <c r="O191" s="5">
+        <v>20</v>
+      </c>
+      <c r="P191" s="5">
         <f t="shared" si="160"/>
+        <v>18</v>
+      </c>
+      <c r="Q191" s="5">
+        <f t="shared" si="161"/>
         <v>22</v>
       </c>
-      <c r="O191" s="5">
-        <v>20</v>
-      </c>
-      <c r="P191" s="5">
-        <f t="shared" si="148"/>
+      <c r="R191" s="5">
+        <v>20</v>
+      </c>
+      <c r="S191" s="5">
+        <f t="shared" si="162"/>
         <v>18</v>
       </c>
-      <c r="Q191" s="5">
-        <f t="shared" si="149"/>
+      <c r="T191" s="5">
+        <f t="shared" si="163"/>
         <v>22</v>
       </c>
-      <c r="R191" s="5">
-        <v>20</v>
-      </c>
-      <c r="S191" s="5">
-        <f t="shared" si="150"/>
+      <c r="U191" s="5">
+        <v>20</v>
+      </c>
+      <c r="V191" s="5">
+        <f t="shared" si="164"/>
         <v>18</v>
       </c>
-      <c r="T191" s="5">
-        <f t="shared" si="151"/>
+      <c r="W191" s="5">
+        <f t="shared" si="165"/>
         <v>22</v>
       </c>
-      <c r="U191" s="5">
-        <v>20</v>
-      </c>
-      <c r="V191" s="5">
-        <f t="shared" si="152"/>
+      <c r="X191" s="5">
+        <v>20</v>
+      </c>
+      <c r="Y191" s="5">
+        <f t="shared" si="166"/>
         <v>18</v>
       </c>
-      <c r="W191" s="5">
-        <f t="shared" si="153"/>
+      <c r="Z191" s="5">
+        <f t="shared" si="167"/>
         <v>22</v>
       </c>
-      <c r="X191" s="5">
-        <v>20</v>
-      </c>
-      <c r="Y191" s="5">
-        <f t="shared" si="154"/>
+      <c r="AA191" s="5">
+        <v>20</v>
+      </c>
+      <c r="AB191" s="5">
+        <f t="shared" si="168"/>
         <v>18</v>
       </c>
-      <c r="Z191" s="5">
-        <f t="shared" si="155"/>
+      <c r="AC191" s="5">
+        <f t="shared" si="169"/>
         <v>22</v>
       </c>
-      <c r="AA191" s="5">
-        <v>20</v>
-      </c>
-      <c r="AB191" s="5">
-        <f t="shared" si="156"/>
-        <v>18</v>
-      </c>
-      <c r="AC191" s="5">
-        <f t="shared" si="157"/>
-        <v>22</v>
-      </c>
       <c r="AE191" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
     </row>
@@ -19835,70 +19845,70 @@
         <v>19</v>
       </c>
       <c r="M192" s="5">
-        <f t="shared" si="159"/>
+        <f t="shared" si="171"/>
         <v>17.100000000000001</v>
       </c>
       <c r="N192" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="172"/>
         <v>20.900000000000002</v>
       </c>
       <c r="O192" s="5">
         <v>19</v>
       </c>
       <c r="P192" s="5">
-        <f t="shared" si="148"/>
+        <f t="shared" si="160"/>
         <v>17.100000000000001</v>
       </c>
       <c r="Q192" s="5">
-        <f t="shared" si="149"/>
+        <f t="shared" si="161"/>
         <v>20.900000000000002</v>
       </c>
       <c r="R192" s="5">
         <v>19</v>
       </c>
       <c r="S192" s="5">
-        <f t="shared" si="150"/>
+        <f t="shared" si="162"/>
         <v>17.100000000000001</v>
       </c>
       <c r="T192" s="5">
-        <f t="shared" si="151"/>
+        <f t="shared" si="163"/>
         <v>20.900000000000002</v>
       </c>
       <c r="U192" s="5">
         <v>19</v>
       </c>
       <c r="V192" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="164"/>
         <v>17.100000000000001</v>
       </c>
       <c r="W192" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="165"/>
         <v>20.900000000000002</v>
       </c>
       <c r="X192" s="5">
         <v>19</v>
       </c>
       <c r="Y192" s="5">
-        <f t="shared" si="154"/>
+        <f t="shared" si="166"/>
         <v>17.100000000000001</v>
       </c>
       <c r="Z192" s="5">
-        <f t="shared" si="155"/>
+        <f t="shared" si="167"/>
         <v>20.900000000000002</v>
       </c>
       <c r="AA192" s="5">
         <v>19</v>
       </c>
       <c r="AB192" s="5">
-        <f t="shared" si="156"/>
+        <f t="shared" si="168"/>
         <v>17.100000000000001</v>
       </c>
       <c r="AC192" s="5">
-        <f t="shared" si="157"/>
+        <f t="shared" si="169"/>
         <v>20.900000000000002</v>
       </c>
       <c r="AE192" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" si="170"/>
         <v/>
       </c>
     </row>
@@ -19937,78 +19947,78 @@
         <v>67</v>
       </c>
       <c r="L193" s="13">
-        <f t="shared" ref="L193:Q199" si="161">O193</f>
+        <f t="shared" ref="L193:Q199" si="173">O193</f>
         <v>119</v>
       </c>
       <c r="M193" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>89.25</v>
       </c>
       <c r="N193" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>148.75</v>
       </c>
       <c r="O193" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>119</v>
       </c>
       <c r="P193" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>89.25</v>
       </c>
       <c r="Q193" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>148.75</v>
       </c>
       <c r="R193" s="13">
         <v>119</v>
       </c>
       <c r="S193" s="13">
-        <f t="shared" ref="S193:S199" si="162">R193*0.75</f>
+        <f t="shared" ref="S193:S199" si="174">R193*0.75</f>
         <v>89.25</v>
       </c>
       <c r="T193" s="13">
-        <f t="shared" ref="T193:T199" si="163">R193*1.25</f>
+        <f t="shared" ref="T193:T199" si="175">R193*1.25</f>
         <v>148.75</v>
       </c>
       <c r="U193" s="13">
-        <f t="shared" ref="U193:U199" si="164">R193</f>
+        <f t="shared" ref="U193:U199" si="176">R193</f>
         <v>119</v>
       </c>
       <c r="V193" s="13">
-        <f t="shared" ref="V193" si="165">U193*0.75</f>
+        <f t="shared" ref="V193" si="177">U193*0.75</f>
         <v>89.25</v>
       </c>
       <c r="W193" s="13">
-        <f t="shared" ref="W193" si="166">U193*1.25</f>
+        <f t="shared" ref="W193" si="178">U193*1.25</f>
         <v>148.75</v>
       </c>
       <c r="X193" s="13">
-        <f t="shared" ref="X193:X199" si="167">R193</f>
+        <f t="shared" ref="X193:X199" si="179">R193</f>
         <v>119</v>
       </c>
       <c r="Y193" s="13">
-        <f t="shared" ref="Y193" si="168">X193*0.75</f>
+        <f t="shared" ref="Y193" si="180">X193*0.75</f>
         <v>89.25</v>
       </c>
       <c r="Z193" s="13">
-        <f t="shared" ref="Z193" si="169">X193*1.25</f>
+        <f t="shared" ref="Z193" si="181">X193*1.25</f>
         <v>148.75</v>
       </c>
       <c r="AA193" s="13">
-        <f t="shared" ref="AA193:AA199" si="170">R193</f>
+        <f t="shared" ref="AA193:AA199" si="182">R193</f>
         <v>119</v>
       </c>
       <c r="AB193" s="13">
-        <f t="shared" ref="AB193" si="171">AA193*0.75</f>
+        <f t="shared" ref="AB193" si="183">AA193*0.75</f>
         <v>89.25</v>
       </c>
       <c r="AC193" s="13">
-        <f t="shared" ref="AC193" si="172">AA193*1.25</f>
+        <f t="shared" ref="AC193" si="184">AA193*1.25</f>
         <v>148.75</v>
       </c>
       <c r="AE193" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20047,78 +20057,78 @@
         <v>67</v>
       </c>
       <c r="L194" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>256</v>
       </c>
       <c r="M194" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>192</v>
       </c>
       <c r="N194" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>320</v>
       </c>
       <c r="O194" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>256</v>
       </c>
       <c r="P194" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>192</v>
       </c>
       <c r="Q194" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>320</v>
       </c>
       <c r="R194" s="13">
         <v>256</v>
       </c>
       <c r="S194" s="13">
-        <f t="shared" si="162"/>
+        <f t="shared" si="174"/>
         <v>192</v>
       </c>
       <c r="T194" s="13">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>320</v>
       </c>
       <c r="U194" s="13">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>256</v>
       </c>
       <c r="V194" s="13">
-        <f t="shared" ref="V194:V199" si="173">U194*0.75</f>
+        <f t="shared" ref="V194:V199" si="185">U194*0.75</f>
         <v>192</v>
       </c>
       <c r="W194" s="13">
-        <f t="shared" ref="W194:W199" si="174">U194*1.25</f>
+        <f t="shared" ref="W194:W199" si="186">U194*1.25</f>
         <v>320</v>
       </c>
       <c r="X194" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>256</v>
       </c>
       <c r="Y194" s="13">
-        <f t="shared" ref="Y194:Y199" si="175">X194*0.75</f>
+        <f t="shared" ref="Y194:Y199" si="187">X194*0.75</f>
         <v>192</v>
       </c>
       <c r="Z194" s="13">
-        <f t="shared" ref="Z194:Z199" si="176">X194*1.25</f>
+        <f t="shared" ref="Z194:Z199" si="188">X194*1.25</f>
         <v>320</v>
       </c>
       <c r="AA194" s="13">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>256</v>
       </c>
       <c r="AB194" s="13">
-        <f t="shared" ref="AB194:AB199" si="177">AA194*0.75</f>
+        <f t="shared" ref="AB194:AB199" si="189">AA194*0.75</f>
         <v>192</v>
       </c>
       <c r="AC194" s="13">
-        <f t="shared" ref="AC194:AC199" si="178">AA194*1.25</f>
+        <f t="shared" ref="AC194:AC199" si="190">AA194*1.25</f>
         <v>320</v>
       </c>
       <c r="AE194" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20157,78 +20167,78 @@
         <v>67</v>
       </c>
       <c r="L195" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>614</v>
       </c>
       <c r="M195" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>460.5</v>
       </c>
       <c r="N195" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>767.5</v>
       </c>
       <c r="O195" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>614</v>
       </c>
       <c r="P195" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>460.5</v>
       </c>
       <c r="Q195" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>767.5</v>
       </c>
       <c r="R195" s="13">
         <v>614</v>
       </c>
       <c r="S195" s="13">
-        <f t="shared" si="162"/>
+        <f t="shared" si="174"/>
         <v>460.5</v>
       </c>
       <c r="T195" s="13">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>767.5</v>
       </c>
       <c r="U195" s="13">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>614</v>
       </c>
       <c r="V195" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>460.5</v>
       </c>
       <c r="W195" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>767.5</v>
       </c>
       <c r="X195" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>614</v>
       </c>
       <c r="Y195" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>460.5</v>
       </c>
       <c r="Z195" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="188"/>
         <v>767.5</v>
       </c>
       <c r="AA195" s="13">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>614</v>
       </c>
       <c r="AB195" s="13">
-        <f t="shared" si="177"/>
+        <f t="shared" si="189"/>
         <v>460.5</v>
       </c>
       <c r="AC195" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="190"/>
         <v>767.5</v>
       </c>
       <c r="AE195" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20267,78 +20277,78 @@
         <v>67</v>
       </c>
       <c r="L196" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>886</v>
       </c>
       <c r="M196" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>664.5</v>
       </c>
       <c r="N196" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1107.5</v>
       </c>
       <c r="O196" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>886</v>
       </c>
       <c r="P196" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>664.5</v>
       </c>
       <c r="Q196" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1107.5</v>
       </c>
       <c r="R196" s="13">
         <v>886</v>
       </c>
       <c r="S196" s="13">
-        <f t="shared" si="162"/>
+        <f t="shared" si="174"/>
         <v>664.5</v>
       </c>
       <c r="T196" s="13">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>1107.5</v>
       </c>
       <c r="U196" s="13">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>886</v>
       </c>
       <c r="V196" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>664.5</v>
       </c>
       <c r="W196" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>1107.5</v>
       </c>
       <c r="X196" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>886</v>
       </c>
       <c r="Y196" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>664.5</v>
       </c>
       <c r="Z196" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="188"/>
         <v>1107.5</v>
       </c>
       <c r="AA196" s="13">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>886</v>
       </c>
       <c r="AB196" s="13">
-        <f t="shared" si="177"/>
+        <f t="shared" si="189"/>
         <v>664.5</v>
       </c>
       <c r="AC196" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="190"/>
         <v>1107.5</v>
       </c>
       <c r="AE196" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20377,78 +20387,78 @@
         <v>67</v>
       </c>
       <c r="L197" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>847</v>
       </c>
       <c r="M197" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>635.25</v>
       </c>
       <c r="N197" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1058.75</v>
       </c>
       <c r="O197" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>847</v>
       </c>
       <c r="P197" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>635.25</v>
       </c>
       <c r="Q197" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1058.75</v>
       </c>
       <c r="R197" s="13">
         <v>847</v>
       </c>
       <c r="S197" s="13">
-        <f t="shared" si="162"/>
+        <f t="shared" si="174"/>
         <v>635.25</v>
       </c>
       <c r="T197" s="13">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>1058.75</v>
       </c>
       <c r="U197" s="13">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>847</v>
       </c>
       <c r="V197" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>635.25</v>
       </c>
       <c r="W197" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>1058.75</v>
       </c>
       <c r="X197" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>847</v>
       </c>
       <c r="Y197" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>635.25</v>
       </c>
       <c r="Z197" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="188"/>
         <v>1058.75</v>
       </c>
       <c r="AA197" s="13">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>847</v>
       </c>
       <c r="AB197" s="13">
-        <f t="shared" si="177"/>
+        <f t="shared" si="189"/>
         <v>635.25</v>
       </c>
       <c r="AC197" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="190"/>
         <v>1058.75</v>
       </c>
       <c r="AE197" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20487,78 +20497,78 @@
         <v>67</v>
       </c>
       <c r="L198" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1059</v>
       </c>
       <c r="M198" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>794.25</v>
       </c>
       <c r="N198" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1323.75</v>
       </c>
       <c r="O198" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1059</v>
       </c>
       <c r="P198" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>794.25</v>
       </c>
       <c r="Q198" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1323.75</v>
       </c>
       <c r="R198" s="13">
         <v>1059</v>
       </c>
       <c r="S198" s="13">
-        <f t="shared" si="162"/>
+        <f t="shared" si="174"/>
         <v>794.25</v>
       </c>
       <c r="T198" s="13">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>1323.75</v>
       </c>
       <c r="U198" s="13">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>1059</v>
       </c>
       <c r="V198" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>794.25</v>
       </c>
       <c r="W198" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>1323.75</v>
       </c>
       <c r="X198" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>1059</v>
       </c>
       <c r="Y198" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>794.25</v>
       </c>
       <c r="Z198" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="188"/>
         <v>1323.75</v>
       </c>
       <c r="AA198" s="13">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>1059</v>
       </c>
       <c r="AB198" s="13">
-        <f t="shared" si="177"/>
+        <f t="shared" si="189"/>
         <v>794.25</v>
       </c>
       <c r="AC198" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="190"/>
         <v>1323.75</v>
       </c>
       <c r="AE198" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20597,78 +20607,78 @@
         <v>67</v>
       </c>
       <c r="L199" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1589</v>
       </c>
       <c r="M199" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1191.75</v>
       </c>
       <c r="N199" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1986.25</v>
       </c>
       <c r="O199" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1589</v>
       </c>
       <c r="P199" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1191.75</v>
       </c>
       <c r="Q199" s="13">
-        <f t="shared" si="161"/>
+        <f t="shared" si="173"/>
         <v>1986.25</v>
       </c>
       <c r="R199" s="13">
         <v>1589</v>
       </c>
       <c r="S199" s="13">
-        <f t="shared" si="162"/>
+        <f t="shared" si="174"/>
         <v>1191.75</v>
       </c>
       <c r="T199" s="13">
-        <f t="shared" si="163"/>
+        <f t="shared" si="175"/>
         <v>1986.25</v>
       </c>
       <c r="U199" s="13">
-        <f t="shared" si="164"/>
+        <f t="shared" si="176"/>
         <v>1589</v>
       </c>
       <c r="V199" s="13">
-        <f t="shared" si="173"/>
+        <f t="shared" si="185"/>
         <v>1191.75</v>
       </c>
       <c r="W199" s="13">
-        <f t="shared" si="174"/>
+        <f t="shared" si="186"/>
         <v>1986.25</v>
       </c>
       <c r="X199" s="13">
-        <f t="shared" si="167"/>
+        <f t="shared" si="179"/>
         <v>1589</v>
       </c>
       <c r="Y199" s="13">
-        <f t="shared" si="175"/>
+        <f t="shared" si="187"/>
         <v>1191.75</v>
       </c>
       <c r="Z199" s="13">
-        <f t="shared" si="176"/>
+        <f t="shared" si="188"/>
         <v>1986.25</v>
       </c>
       <c r="AA199" s="13">
-        <f t="shared" si="170"/>
+        <f t="shared" si="182"/>
         <v>1589</v>
       </c>
       <c r="AB199" s="13">
-        <f t="shared" si="177"/>
+        <f t="shared" si="189"/>
         <v>1191.75</v>
       </c>
       <c r="AC199" s="13">
-        <f t="shared" si="178"/>
+        <f t="shared" si="190"/>
         <v>1986.25</v>
       </c>
       <c r="AE199" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20761,7 +20771,7 @@
         <v>1650</v>
       </c>
       <c r="AE200" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20854,7 +20864,7 @@
         <v>4000</v>
       </c>
       <c r="AE201" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -20947,7 +20957,7 @@
         <v>10900</v>
       </c>
       <c r="AE202" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -21040,7 +21050,7 @@
         <v>16400</v>
       </c>
       <c r="AE203" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -21133,7 +21143,7 @@
         <v>21000</v>
       </c>
       <c r="AE204" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v/>
       </c>
     </row>
@@ -21226,7 +21236,7 @@
         <v>28100</v>
       </c>
       <c r="AE205" s="1" t="str">
-        <f t="shared" ref="AE205:AE261" si="179">IF(L205&lt;M205,"ISSUE","")</f>
+        <f t="shared" ref="AE205:AE261" si="191">IF(L205&lt;M205,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -21319,7 +21329,7 @@
         <v>39000</v>
       </c>
       <c r="AE206" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21420,7 +21430,7 @@
         <v>0.35000000000000003</v>
       </c>
       <c r="AE207" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21521,7 +21531,7 @@
         <v>0.375</v>
       </c>
       <c r="AE208" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21586,7 +21596,7 @@
       <c r="AB209" s="4"/>
       <c r="AC209" s="4"/>
       <c r="AE209" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21651,7 +21661,7 @@
       <c r="AB210" s="4"/>
       <c r="AC210" s="4"/>
       <c r="AE210" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21716,7 +21726,7 @@
       <c r="AB211" s="4"/>
       <c r="AC211" s="4"/>
       <c r="AE211" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21781,7 +21791,7 @@
       <c r="AB212" s="4"/>
       <c r="AC212" s="4"/>
       <c r="AE212" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21846,7 +21856,7 @@
       <c r="AB213" s="4"/>
       <c r="AC213" s="4"/>
       <c r="AE213" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21911,7 +21921,7 @@
       <c r="AB214" s="4"/>
       <c r="AC214" s="4"/>
       <c r="AE214" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -21976,7 +21986,7 @@
       <c r="AB215" s="4"/>
       <c r="AC215" s="4"/>
       <c r="AE215" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22086,7 +22096,7 @@
         <v>878.75</v>
       </c>
       <c r="AE216" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22196,7 +22206,7 @@
         <v>1882.5</v>
       </c>
       <c r="AE217" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22307,7 +22317,7 @@
         <v>4518.75</v>
       </c>
       <c r="AE218" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22414,7 +22424,7 @@
         <v>6526.25</v>
       </c>
       <c r="AE219" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22457,11 +22467,11 @@
         <v>4431</v>
       </c>
       <c r="M220" s="13">
-        <f t="shared" ref="M220" si="180">L220*0.75</f>
+        <f t="shared" ref="M220" si="192">L220*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="N220" s="13">
-        <f t="shared" ref="N220" si="181">L220*1.25</f>
+        <f t="shared" ref="N220" si="193">L220*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="O220" s="13">
@@ -22469,11 +22479,11 @@
         <v>4431</v>
       </c>
       <c r="P220" s="13">
-        <f t="shared" ref="P220" si="182">O220*0.75</f>
+        <f t="shared" ref="P220" si="194">O220*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="Q220" s="13">
-        <f t="shared" ref="Q220" si="183">O220*1.25</f>
+        <f t="shared" ref="Q220" si="195">O220*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="R220" s="13">
@@ -22481,11 +22491,11 @@
         <v>4431</v>
       </c>
       <c r="S220" s="13">
-        <f t="shared" ref="S220" si="184">R220*0.75</f>
+        <f t="shared" ref="S220" si="196">R220*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="T220" s="13">
-        <f t="shared" ref="T220" si="185">R220*1.25</f>
+        <f t="shared" ref="T220" si="197">R220*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="U220" s="13">
@@ -22493,11 +22503,11 @@
         <v>4431</v>
       </c>
       <c r="V220" s="13">
-        <f t="shared" ref="V220" si="186">U220*0.75</f>
+        <f t="shared" ref="V220" si="198">U220*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="W220" s="13">
-        <f t="shared" ref="W220" si="187">U220*1.25</f>
+        <f t="shared" ref="W220" si="199">U220*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="X220" s="13">
@@ -22505,11 +22515,11 @@
         <v>4431</v>
       </c>
       <c r="Y220" s="13">
-        <f t="shared" ref="Y220" si="188">X220*0.75</f>
+        <f t="shared" ref="Y220" si="200">X220*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="Z220" s="13">
-        <f t="shared" ref="Z220" si="189">X220*1.25</f>
+        <f t="shared" ref="Z220" si="201">X220*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="AA220" s="13">
@@ -22517,15 +22527,15 @@
         <v>4431</v>
       </c>
       <c r="AB220" s="13">
-        <f t="shared" ref="AB220" si="190">AA220*0.75</f>
+        <f t="shared" ref="AB220" si="202">AA220*0.75</f>
         <v>3323.25</v>
       </c>
       <c r="AC220" s="13">
-        <f t="shared" ref="AC220" si="191">AA220*1.25</f>
+        <f t="shared" ref="AC220" si="203">AA220*1.25</f>
         <v>5538.75</v>
       </c>
       <c r="AE220" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22636,7 +22646,7 @@
         <v>6923.75</v>
       </c>
       <c r="AE221" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22747,7 +22757,7 @@
         <v>10386.25</v>
       </c>
       <c r="AE222" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22813,43 +22823,43 @@
         <v>4.5</v>
       </c>
       <c r="U223" s="9">
-        <f t="shared" ref="U223:AC226" si="192">R223*0.95</f>
+        <f t="shared" ref="U223:AC226" si="204">R223*0.95</f>
         <v>3.8949999999999996</v>
       </c>
       <c r="V223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>3.7049999999999996</v>
       </c>
       <c r="W223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>4.2749999999999995</v>
       </c>
       <c r="X223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>3.7002499999999996</v>
       </c>
       <c r="Y223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>3.5197499999999993</v>
       </c>
       <c r="Z223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>4.0612499999999994</v>
       </c>
       <c r="AA223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>3.5152374999999996</v>
       </c>
       <c r="AB223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>3.3437624999999991</v>
       </c>
       <c r="AC223" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>3.8581874999999992</v>
       </c>
       <c r="AE223" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -22915,43 +22925,43 @@
         <v>6.4</v>
       </c>
       <c r="U224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>5.0349999999999993</v>
       </c>
       <c r="V224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>4.75</v>
       </c>
       <c r="W224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.08</v>
       </c>
       <c r="X224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>4.7832499999999989</v>
       </c>
       <c r="Y224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>4.5125000000000002</v>
       </c>
       <c r="Z224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>5.7759999999999998</v>
       </c>
       <c r="AA224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>4.5440874999999989</v>
       </c>
       <c r="AB224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>4.2868750000000002</v>
       </c>
       <c r="AC224" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>5.4871999999999996</v>
       </c>
       <c r="AE224" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23017,43 +23027,43 @@
         <v>7.8</v>
       </c>
       <c r="U225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>7.125</v>
       </c>
       <c r="V225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.9349999999999996</v>
       </c>
       <c r="W225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>7.4099999999999993</v>
       </c>
       <c r="X225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.7687499999999998</v>
       </c>
       <c r="Y225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.5882499999999995</v>
       </c>
       <c r="Z225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>7.0394999999999985</v>
       </c>
       <c r="AA225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.4303124999999994</v>
       </c>
       <c r="AB225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.2588374999999994</v>
       </c>
       <c r="AC225" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.6875249999999982</v>
       </c>
       <c r="AE225" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23119,43 +23129,43 @@
         <v>7.8</v>
       </c>
       <c r="U226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>7.125</v>
       </c>
       <c r="V226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.9349999999999996</v>
       </c>
       <c r="W226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>7.4099999999999993</v>
       </c>
       <c r="X226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.7687499999999998</v>
       </c>
       <c r="Y226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.5882499999999995</v>
       </c>
       <c r="Z226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>7.0394999999999985</v>
       </c>
       <c r="AA226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.4303124999999994</v>
       </c>
       <c r="AB226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.2588374999999994</v>
       </c>
       <c r="AC226" s="9">
-        <f t="shared" si="192"/>
+        <f t="shared" si="204"/>
         <v>6.6875249999999982</v>
       </c>
       <c r="AE226" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23197,11 +23207,11 @@
         <v>10</v>
       </c>
       <c r="M227" s="19">
-        <f t="shared" ref="M227:M228" si="193">L227*0.9</f>
+        <f t="shared" ref="M227:M228" si="205">L227*0.9</f>
         <v>9</v>
       </c>
       <c r="N227" s="19">
-        <f t="shared" ref="N227:N228" si="194">L227*1.1</f>
+        <f t="shared" ref="N227:N228" si="206">L227*1.1</f>
         <v>11</v>
       </c>
       <c r="O227" s="3">
@@ -23219,48 +23229,48 @@
         <v>10</v>
       </c>
       <c r="S227" s="19">
-        <f t="shared" ref="S227:S228" si="195">R227*0.9</f>
+        <f t="shared" ref="S227:S228" si="207">R227*0.9</f>
         <v>9</v>
       </c>
       <c r="T227" s="19">
-        <f t="shared" ref="T227:T228" si="196">R227*1.1</f>
+        <f t="shared" ref="T227:T228" si="208">R227*1.1</f>
         <v>11</v>
       </c>
       <c r="U227" s="3">
         <v>10</v>
       </c>
       <c r="V227" s="19">
-        <f t="shared" ref="V227:V228" si="197">U227*0.9</f>
+        <f t="shared" ref="V227:V228" si="209">U227*0.9</f>
         <v>9</v>
       </c>
       <c r="W227" s="19">
-        <f t="shared" ref="W227:W228" si="198">U227*1.1</f>
+        <f t="shared" ref="W227:W228" si="210">U227*1.1</f>
         <v>11</v>
       </c>
       <c r="X227" s="3">
         <v>10</v>
       </c>
       <c r="Y227" s="19">
-        <f t="shared" ref="Y227:Y228" si="199">X227*0.9</f>
+        <f t="shared" ref="Y227:Y228" si="211">X227*0.9</f>
         <v>9</v>
       </c>
       <c r="Z227" s="19">
-        <f t="shared" ref="Z227:Z228" si="200">X227*1.1</f>
+        <f t="shared" ref="Z227:Z228" si="212">X227*1.1</f>
         <v>11</v>
       </c>
       <c r="AA227" s="3">
         <v>10</v>
       </c>
       <c r="AB227" s="19">
-        <f t="shared" ref="AB227:AB228" si="201">AA227*0.9</f>
+        <f t="shared" ref="AB227:AB228" si="213">AA227*0.9</f>
         <v>9</v>
       </c>
       <c r="AC227" s="19">
-        <f t="shared" ref="AC227:AC228" si="202">AA227*1.1</f>
+        <f t="shared" ref="AC227:AC228" si="214">AA227*1.1</f>
         <v>11</v>
       </c>
       <c r="AE227" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23302,11 +23312,11 @@
         <v>10</v>
       </c>
       <c r="M228" s="19">
-        <f t="shared" si="193"/>
+        <f t="shared" si="205"/>
         <v>9</v>
       </c>
       <c r="N228" s="19">
-        <f t="shared" si="194"/>
+        <f t="shared" si="206"/>
         <v>11</v>
       </c>
       <c r="O228" s="3">
@@ -23324,48 +23334,48 @@
         <v>10</v>
       </c>
       <c r="S228" s="19">
-        <f t="shared" si="195"/>
+        <f t="shared" si="207"/>
         <v>9</v>
       </c>
       <c r="T228" s="19">
-        <f t="shared" si="196"/>
+        <f t="shared" si="208"/>
         <v>11</v>
       </c>
       <c r="U228" s="3">
         <v>10</v>
       </c>
       <c r="V228" s="19">
-        <f t="shared" si="197"/>
+        <f t="shared" si="209"/>
         <v>9</v>
       </c>
       <c r="W228" s="19">
-        <f t="shared" si="198"/>
+        <f t="shared" si="210"/>
         <v>11</v>
       </c>
       <c r="X228" s="3">
         <v>10</v>
       </c>
       <c r="Y228" s="19">
-        <f t="shared" si="199"/>
+        <f t="shared" si="211"/>
         <v>9</v>
       </c>
       <c r="Z228" s="19">
-        <f t="shared" si="200"/>
+        <f t="shared" si="212"/>
         <v>11</v>
       </c>
       <c r="AA228" s="3">
         <v>10</v>
       </c>
       <c r="AB228" s="19">
-        <f t="shared" si="201"/>
+        <f t="shared" si="213"/>
         <v>9</v>
       </c>
       <c r="AC228" s="19">
-        <f t="shared" si="202"/>
+        <f t="shared" si="214"/>
         <v>11</v>
       </c>
       <c r="AE228" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23470,7 +23480,7 @@
         <v>11</v>
       </c>
       <c r="AE229" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23512,70 +23522,70 @@
         <v>44</v>
       </c>
       <c r="M230" s="13">
-        <f t="shared" ref="M230:M243" si="203">L230*0.75</f>
+        <f t="shared" ref="M230:M243" si="215">L230*0.75</f>
         <v>33</v>
       </c>
       <c r="N230" s="13">
-        <f t="shared" ref="N230:N243" si="204">L230*1.25</f>
+        <f t="shared" ref="N230:N243" si="216">L230*1.25</f>
         <v>55</v>
       </c>
       <c r="O230" s="13">
         <v>44</v>
       </c>
       <c r="P230" s="13">
-        <f t="shared" ref="P230:P243" si="205">O230*0.75</f>
+        <f t="shared" ref="P230:P243" si="217">O230*0.75</f>
         <v>33</v>
       </c>
       <c r="Q230" s="13">
-        <f t="shared" ref="Q230:Q243" si="206">O230*1.25</f>
+        <f t="shared" ref="Q230:Q243" si="218">O230*1.25</f>
         <v>55</v>
       </c>
       <c r="R230" s="13">
         <v>44</v>
       </c>
       <c r="S230" s="13">
-        <f t="shared" ref="S230:S243" si="207">R230*0.75</f>
+        <f t="shared" ref="S230:S243" si="219">R230*0.75</f>
         <v>33</v>
       </c>
       <c r="T230" s="13">
-        <f t="shared" ref="T230:T243" si="208">R230*1.25</f>
+        <f t="shared" ref="T230:T243" si="220">R230*1.25</f>
         <v>55</v>
       </c>
       <c r="U230" s="13">
         <v>44</v>
       </c>
       <c r="V230" s="13">
-        <f t="shared" ref="V230:V243" si="209">U230*0.75</f>
+        <f t="shared" ref="V230:V243" si="221">U230*0.75</f>
         <v>33</v>
       </c>
       <c r="W230" s="13">
-        <f t="shared" ref="W230:W243" si="210">U230*1.25</f>
+        <f t="shared" ref="W230:W243" si="222">U230*1.25</f>
         <v>55</v>
       </c>
       <c r="X230" s="13">
         <v>44</v>
       </c>
       <c r="Y230" s="13">
-        <f t="shared" ref="Y230:Y243" si="211">X230*0.75</f>
+        <f t="shared" ref="Y230:Y243" si="223">X230*0.75</f>
         <v>33</v>
       </c>
       <c r="Z230" s="13">
-        <f t="shared" ref="Z230:Z243" si="212">X230*1.25</f>
+        <f t="shared" ref="Z230:Z243" si="224">X230*1.25</f>
         <v>55</v>
       </c>
       <c r="AA230" s="13">
         <v>44</v>
       </c>
       <c r="AB230" s="13">
-        <f t="shared" ref="AB230:AB243" si="213">AA230*0.75</f>
+        <f t="shared" ref="AB230:AB243" si="225">AA230*0.75</f>
         <v>33</v>
       </c>
       <c r="AC230" s="13">
-        <f t="shared" ref="AC230:AC243" si="214">AA230*1.25</f>
+        <f t="shared" ref="AC230:AC243" si="226">AA230*1.25</f>
         <v>55</v>
       </c>
       <c r="AE230" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23617,70 +23627,70 @@
         <v>94</v>
       </c>
       <c r="M231" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>70.5</v>
       </c>
       <c r="N231" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>117.5</v>
       </c>
       <c r="O231" s="13">
         <v>94</v>
       </c>
       <c r="P231" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>70.5</v>
       </c>
       <c r="Q231" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>117.5</v>
       </c>
       <c r="R231" s="13">
         <v>94</v>
       </c>
       <c r="S231" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>70.5</v>
       </c>
       <c r="T231" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>117.5</v>
       </c>
       <c r="U231" s="13">
         <v>94</v>
       </c>
       <c r="V231" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>70.5</v>
       </c>
       <c r="W231" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>117.5</v>
       </c>
       <c r="X231" s="13">
         <v>94</v>
       </c>
       <c r="Y231" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>70.5</v>
       </c>
       <c r="Z231" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>117.5</v>
       </c>
       <c r="AA231" s="13">
         <v>94</v>
       </c>
       <c r="AB231" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>70.5</v>
       </c>
       <c r="AC231" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>117.5</v>
       </c>
       <c r="AE231" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23722,70 +23732,70 @@
         <v>225</v>
       </c>
       <c r="M232" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>168.75</v>
       </c>
       <c r="N232" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>281.25</v>
       </c>
       <c r="O232" s="13">
         <v>225</v>
       </c>
       <c r="P232" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>168.75</v>
       </c>
       <c r="Q232" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>281.25</v>
       </c>
       <c r="R232" s="13">
         <v>225</v>
       </c>
       <c r="S232" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>168.75</v>
       </c>
       <c r="T232" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>281.25</v>
       </c>
       <c r="U232" s="13">
         <v>225</v>
       </c>
       <c r="V232" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>168.75</v>
       </c>
       <c r="W232" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>281.25</v>
       </c>
       <c r="X232" s="13">
         <v>225</v>
       </c>
       <c r="Y232" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>168.75</v>
       </c>
       <c r="Z232" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>281.25</v>
       </c>
       <c r="AA232" s="13">
         <v>225</v>
       </c>
       <c r="AB232" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>168.75</v>
       </c>
       <c r="AC232" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>281.25</v>
       </c>
       <c r="AE232" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23828,70 +23838,70 @@
         <v>325</v>
       </c>
       <c r="M233" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>243.75</v>
       </c>
       <c r="N233" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>406.25</v>
       </c>
       <c r="O233" s="13">
         <v>325</v>
       </c>
       <c r="P233" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>243.75</v>
       </c>
       <c r="Q233" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>406.25</v>
       </c>
       <c r="R233" s="13">
         <v>325</v>
       </c>
       <c r="S233" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>243.75</v>
       </c>
       <c r="T233" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>406.25</v>
       </c>
       <c r="U233" s="13">
         <v>325</v>
       </c>
       <c r="V233" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>243.75</v>
       </c>
       <c r="W233" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>406.25</v>
       </c>
       <c r="X233" s="13">
         <v>325</v>
       </c>
       <c r="Y233" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>243.75</v>
       </c>
       <c r="Z233" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>406.25</v>
       </c>
       <c r="AA233" s="13">
         <v>325</v>
       </c>
       <c r="AB233" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>243.75</v>
       </c>
       <c r="AC233" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>406.25</v>
       </c>
       <c r="AE233" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -23933,70 +23943,70 @@
         <v>176</v>
       </c>
       <c r="M234" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>132</v>
       </c>
       <c r="N234" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>220</v>
       </c>
       <c r="O234" s="13">
         <v>176</v>
       </c>
       <c r="P234" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>132</v>
       </c>
       <c r="Q234" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>220</v>
       </c>
       <c r="R234" s="13">
         <v>176</v>
       </c>
       <c r="S234" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>132</v>
       </c>
       <c r="T234" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>220</v>
       </c>
       <c r="U234" s="13">
         <v>176</v>
       </c>
       <c r="V234" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>132</v>
       </c>
       <c r="W234" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>220</v>
       </c>
       <c r="X234" s="13">
         <v>176</v>
       </c>
       <c r="Y234" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>132</v>
       </c>
       <c r="Z234" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>220</v>
       </c>
       <c r="AA234" s="13">
         <v>176</v>
       </c>
       <c r="AB234" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>132</v>
       </c>
       <c r="AC234" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>220</v>
       </c>
       <c r="AE234" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24038,70 +24048,70 @@
         <v>220</v>
       </c>
       <c r="M235" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>165</v>
       </c>
       <c r="N235" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>275</v>
       </c>
       <c r="O235" s="13">
         <v>220</v>
       </c>
       <c r="P235" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>165</v>
       </c>
       <c r="Q235" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>275</v>
       </c>
       <c r="R235" s="13">
         <v>220</v>
       </c>
       <c r="S235" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>165</v>
       </c>
       <c r="T235" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>275</v>
       </c>
       <c r="U235" s="13">
         <v>220</v>
       </c>
       <c r="V235" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>165</v>
       </c>
       <c r="W235" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>275</v>
       </c>
       <c r="X235" s="13">
         <v>220</v>
       </c>
       <c r="Y235" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>165</v>
       </c>
       <c r="Z235" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>275</v>
       </c>
       <c r="AA235" s="13">
         <v>220</v>
       </c>
       <c r="AB235" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>165</v>
       </c>
       <c r="AC235" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>275</v>
       </c>
       <c r="AE235" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24143,70 +24153,70 @@
         <v>330</v>
       </c>
       <c r="M236" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>247.5</v>
       </c>
       <c r="N236" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>412.5</v>
       </c>
       <c r="O236" s="13">
         <v>330</v>
       </c>
       <c r="P236" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>247.5</v>
       </c>
       <c r="Q236" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>412.5</v>
       </c>
       <c r="R236" s="13">
         <v>330</v>
       </c>
       <c r="S236" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>247.5</v>
       </c>
       <c r="T236" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>412.5</v>
       </c>
       <c r="U236" s="13">
         <v>330</v>
       </c>
       <c r="V236" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>247.5</v>
       </c>
       <c r="W236" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>412.5</v>
       </c>
       <c r="X236" s="13">
         <v>330</v>
       </c>
       <c r="Y236" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>247.5</v>
       </c>
       <c r="Z236" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>412.5</v>
       </c>
       <c r="AA236" s="13">
         <v>330</v>
       </c>
       <c r="AB236" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>247.5</v>
       </c>
       <c r="AC236" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>412.5</v>
       </c>
       <c r="AE236" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24248,70 +24258,70 @@
         <v>24</v>
       </c>
       <c r="M237" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>18</v>
       </c>
       <c r="N237" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>30</v>
       </c>
       <c r="O237" s="13">
         <v>24</v>
       </c>
       <c r="P237" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>18</v>
       </c>
       <c r="Q237" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>30</v>
       </c>
       <c r="R237" s="13">
         <v>24</v>
       </c>
       <c r="S237" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>18</v>
       </c>
       <c r="T237" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>30</v>
       </c>
       <c r="U237" s="13">
         <v>24</v>
       </c>
       <c r="V237" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>18</v>
       </c>
       <c r="W237" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>30</v>
       </c>
       <c r="X237" s="13">
         <v>24</v>
       </c>
       <c r="Y237" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>18</v>
       </c>
       <c r="Z237" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>30</v>
       </c>
       <c r="AA237" s="13">
         <v>24</v>
       </c>
       <c r="AB237" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>18</v>
       </c>
       <c r="AC237" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>30</v>
       </c>
       <c r="AE237" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24353,70 +24363,70 @@
         <v>52</v>
       </c>
       <c r="M238" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>39</v>
       </c>
       <c r="N238" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>65</v>
       </c>
       <c r="O238" s="13">
         <v>52</v>
       </c>
       <c r="P238" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>39</v>
       </c>
       <c r="Q238" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>65</v>
       </c>
       <c r="R238" s="13">
         <v>52</v>
       </c>
       <c r="S238" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>39</v>
       </c>
       <c r="T238" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>65</v>
       </c>
       <c r="U238" s="13">
         <v>52</v>
       </c>
       <c r="V238" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>39</v>
       </c>
       <c r="W238" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>65</v>
       </c>
       <c r="X238" s="13">
         <v>52</v>
       </c>
       <c r="Y238" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>39</v>
       </c>
       <c r="Z238" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>65</v>
       </c>
       <c r="AA238" s="13">
         <v>52</v>
       </c>
       <c r="AB238" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>39</v>
       </c>
       <c r="AC238" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>65</v>
       </c>
       <c r="AE238" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24458,70 +24468,70 @@
         <v>125</v>
       </c>
       <c r="M239" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>93.75</v>
       </c>
       <c r="N239" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>156.25</v>
       </c>
       <c r="O239" s="13">
         <v>125</v>
       </c>
       <c r="P239" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>93.75</v>
       </c>
       <c r="Q239" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>156.25</v>
       </c>
       <c r="R239" s="13">
         <v>125</v>
       </c>
       <c r="S239" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>93.75</v>
       </c>
       <c r="T239" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>156.25</v>
       </c>
       <c r="U239" s="13">
         <v>125</v>
       </c>
       <c r="V239" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>93.75</v>
       </c>
       <c r="W239" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>156.25</v>
       </c>
       <c r="X239" s="13">
         <v>125</v>
       </c>
       <c r="Y239" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>93.75</v>
       </c>
       <c r="Z239" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>156.25</v>
       </c>
       <c r="AA239" s="13">
         <v>125</v>
       </c>
       <c r="AB239" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>93.75</v>
       </c>
       <c r="AC239" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>156.25</v>
       </c>
       <c r="AE239" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24564,70 +24574,70 @@
         <v>180</v>
       </c>
       <c r="M240" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>135</v>
       </c>
       <c r="N240" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>225</v>
       </c>
       <c r="O240" s="13">
         <v>180</v>
       </c>
       <c r="P240" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>135</v>
       </c>
       <c r="Q240" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>225</v>
       </c>
       <c r="R240" s="13">
         <v>180</v>
       </c>
       <c r="S240" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>135</v>
       </c>
       <c r="T240" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>225</v>
       </c>
       <c r="U240" s="13">
         <v>180</v>
       </c>
       <c r="V240" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>135</v>
       </c>
       <c r="W240" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>225</v>
       </c>
       <c r="X240" s="13">
         <v>180</v>
       </c>
       <c r="Y240" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>135</v>
       </c>
       <c r="Z240" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>225</v>
       </c>
       <c r="AA240" s="13">
         <v>180</v>
       </c>
       <c r="AB240" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>135</v>
       </c>
       <c r="AC240" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>225</v>
       </c>
       <c r="AE240" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24669,70 +24679,70 @@
         <v>212</v>
       </c>
       <c r="M241" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>159</v>
       </c>
       <c r="N241" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>265</v>
       </c>
       <c r="O241" s="13">
         <v>212</v>
       </c>
       <c r="P241" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>159</v>
       </c>
       <c r="Q241" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>265</v>
       </c>
       <c r="R241" s="13">
         <v>212</v>
       </c>
       <c r="S241" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>159</v>
       </c>
       <c r="T241" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>265</v>
       </c>
       <c r="U241" s="13">
         <v>212</v>
       </c>
       <c r="V241" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>159</v>
       </c>
       <c r="W241" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>265</v>
       </c>
       <c r="X241" s="13">
         <v>212</v>
       </c>
       <c r="Y241" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>159</v>
       </c>
       <c r="Z241" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>265</v>
       </c>
       <c r="AA241" s="13">
         <v>212</v>
       </c>
       <c r="AB241" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>159</v>
       </c>
       <c r="AC241" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>265</v>
       </c>
       <c r="AE241" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24774,70 +24784,70 @@
         <v>265</v>
       </c>
       <c r="M242" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>198.75</v>
       </c>
       <c r="N242" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>331.25</v>
       </c>
       <c r="O242" s="13">
         <v>265</v>
       </c>
       <c r="P242" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>198.75</v>
       </c>
       <c r="Q242" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>331.25</v>
       </c>
       <c r="R242" s="13">
         <v>265</v>
       </c>
       <c r="S242" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>198.75</v>
       </c>
       <c r="T242" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>331.25</v>
       </c>
       <c r="U242" s="13">
         <v>265</v>
       </c>
       <c r="V242" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>198.75</v>
       </c>
       <c r="W242" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>331.25</v>
       </c>
       <c r="X242" s="13">
         <v>265</v>
       </c>
       <c r="Y242" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>198.75</v>
       </c>
       <c r="Z242" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>331.25</v>
       </c>
       <c r="AA242" s="13">
         <v>265</v>
       </c>
       <c r="AB242" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>198.75</v>
       </c>
       <c r="AC242" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>331.25</v>
       </c>
       <c r="AE242" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24879,70 +24889,70 @@
         <v>398</v>
       </c>
       <c r="M243" s="13">
-        <f t="shared" si="203"/>
+        <f t="shared" si="215"/>
         <v>298.5</v>
       </c>
       <c r="N243" s="13">
-        <f t="shared" si="204"/>
+        <f t="shared" si="216"/>
         <v>497.5</v>
       </c>
       <c r="O243" s="13">
         <v>398</v>
       </c>
       <c r="P243" s="13">
-        <f t="shared" si="205"/>
+        <f t="shared" si="217"/>
         <v>298.5</v>
       </c>
       <c r="Q243" s="13">
-        <f t="shared" si="206"/>
+        <f t="shared" si="218"/>
         <v>497.5</v>
       </c>
       <c r="R243" s="13">
         <v>398</v>
       </c>
       <c r="S243" s="13">
-        <f t="shared" si="207"/>
+        <f t="shared" si="219"/>
         <v>298.5</v>
       </c>
       <c r="T243" s="13">
-        <f t="shared" si="208"/>
+        <f t="shared" si="220"/>
         <v>497.5</v>
       </c>
       <c r="U243" s="13">
         <v>398</v>
       </c>
       <c r="V243" s="13">
-        <f t="shared" si="209"/>
+        <f t="shared" si="221"/>
         <v>298.5</v>
       </c>
       <c r="W243" s="13">
-        <f t="shared" si="210"/>
+        <f t="shared" si="222"/>
         <v>497.5</v>
       </c>
       <c r="X243" s="13">
         <v>398</v>
       </c>
       <c r="Y243" s="13">
-        <f t="shared" si="211"/>
+        <f t="shared" si="223"/>
         <v>298.5</v>
       </c>
       <c r="Z243" s="13">
-        <f t="shared" si="212"/>
+        <f t="shared" si="224"/>
         <v>497.5</v>
       </c>
       <c r="AA243" s="13">
         <v>398</v>
       </c>
       <c r="AB243" s="13">
-        <f t="shared" si="213"/>
+        <f t="shared" si="225"/>
         <v>298.5</v>
       </c>
       <c r="AC243" s="13">
-        <f t="shared" si="214"/>
+        <f t="shared" si="226"/>
         <v>497.5</v>
       </c>
       <c r="AE243" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -24984,70 +24994,70 @@
         <v>175</v>
       </c>
       <c r="M244" s="13">
-        <f t="shared" ref="M244:M257" si="215">L244*0.75</f>
+        <f t="shared" ref="M244:M257" si="227">L244*0.75</f>
         <v>131.25</v>
       </c>
       <c r="N244" s="13">
-        <f t="shared" ref="N244:N257" si="216">L244*1.25</f>
+        <f t="shared" ref="N244:N257" si="228">L244*1.25</f>
         <v>218.75</v>
       </c>
       <c r="O244" s="13">
         <v>175</v>
       </c>
       <c r="P244" s="13">
-        <f t="shared" ref="P244:P257" si="217">O244*0.75</f>
+        <f t="shared" ref="P244:P257" si="229">O244*0.75</f>
         <v>131.25</v>
       </c>
       <c r="Q244" s="13">
-        <f t="shared" ref="Q244:Q257" si="218">O244*1.25</f>
+        <f t="shared" ref="Q244:Q257" si="230">O244*1.25</f>
         <v>218.75</v>
       </c>
       <c r="R244" s="13">
         <v>175</v>
       </c>
       <c r="S244" s="13">
-        <f t="shared" ref="S244:S257" si="219">R244*0.75</f>
+        <f t="shared" ref="S244:S257" si="231">R244*0.75</f>
         <v>131.25</v>
       </c>
       <c r="T244" s="13">
-        <f t="shared" ref="T244:T257" si="220">R244*1.25</f>
+        <f t="shared" ref="T244:T257" si="232">R244*1.25</f>
         <v>218.75</v>
       </c>
       <c r="U244" s="13">
         <v>175</v>
       </c>
       <c r="V244" s="13">
-        <f t="shared" ref="V244:V257" si="221">U244*0.75</f>
+        <f t="shared" ref="V244:V257" si="233">U244*0.75</f>
         <v>131.25</v>
       </c>
       <c r="W244" s="13">
-        <f t="shared" ref="W244:W257" si="222">U244*1.25</f>
+        <f t="shared" ref="W244:W257" si="234">U244*1.25</f>
         <v>218.75</v>
       </c>
       <c r="X244" s="13">
         <v>175</v>
       </c>
       <c r="Y244" s="13">
-        <f t="shared" ref="Y244:Y257" si="223">X244*0.75</f>
+        <f t="shared" ref="Y244:Y257" si="235">X244*0.75</f>
         <v>131.25</v>
       </c>
       <c r="Z244" s="13">
-        <f t="shared" ref="Z244:Z257" si="224">X244*1.25</f>
+        <f t="shared" ref="Z244:Z257" si="236">X244*1.25</f>
         <v>218.75</v>
       </c>
       <c r="AA244" s="13">
         <v>175</v>
       </c>
       <c r="AB244" s="13">
-        <f t="shared" ref="AB244:AB257" si="225">AA244*0.75</f>
+        <f t="shared" ref="AB244:AB257" si="237">AA244*0.75</f>
         <v>131.25</v>
       </c>
       <c r="AC244" s="13">
-        <f t="shared" ref="AC244:AC257" si="226">AA244*1.25</f>
+        <f t="shared" ref="AC244:AC257" si="238">AA244*1.25</f>
         <v>218.75</v>
       </c>
       <c r="AE244" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25089,70 +25099,70 @@
         <v>375</v>
       </c>
       <c r="M245" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>281.25</v>
       </c>
       <c r="N245" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>468.75</v>
       </c>
       <c r="O245" s="13">
         <v>375</v>
       </c>
       <c r="P245" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>281.25</v>
       </c>
       <c r="Q245" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>468.75</v>
       </c>
       <c r="R245" s="13">
         <v>375</v>
       </c>
       <c r="S245" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>281.25</v>
       </c>
       <c r="T245" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>468.75</v>
       </c>
       <c r="U245" s="13">
         <v>375</v>
       </c>
       <c r="V245" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>281.25</v>
       </c>
       <c r="W245" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>468.75</v>
       </c>
       <c r="X245" s="13">
         <v>375</v>
       </c>
       <c r="Y245" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>281.25</v>
       </c>
       <c r="Z245" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>468.75</v>
       </c>
       <c r="AA245" s="13">
         <v>375</v>
       </c>
       <c r="AB245" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>281.25</v>
       </c>
       <c r="AC245" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>468.75</v>
       </c>
       <c r="AE245" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25194,70 +25204,70 @@
         <v>900</v>
       </c>
       <c r="M246" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>675</v>
       </c>
       <c r="N246" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>1125</v>
       </c>
       <c r="O246" s="13">
         <v>900</v>
       </c>
       <c r="P246" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>675</v>
       </c>
       <c r="Q246" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>1125</v>
       </c>
       <c r="R246" s="13">
         <v>900</v>
       </c>
       <c r="S246" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>675</v>
       </c>
       <c r="T246" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>1125</v>
       </c>
       <c r="U246" s="13">
         <v>900</v>
       </c>
       <c r="V246" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>675</v>
       </c>
       <c r="W246" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>1125</v>
       </c>
       <c r="X246" s="13">
         <v>900</v>
       </c>
       <c r="Y246" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>675</v>
       </c>
       <c r="Z246" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>1125</v>
       </c>
       <c r="AA246" s="13">
         <v>900</v>
       </c>
       <c r="AB246" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>675</v>
       </c>
       <c r="AC246" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>1125</v>
       </c>
       <c r="AE246" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25300,70 +25310,70 @@
         <v>1300</v>
       </c>
       <c r="M247" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>975</v>
       </c>
       <c r="N247" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>1625</v>
       </c>
       <c r="O247" s="13">
         <v>1300</v>
       </c>
       <c r="P247" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>975</v>
       </c>
       <c r="Q247" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>1625</v>
       </c>
       <c r="R247" s="13">
         <v>1300</v>
       </c>
       <c r="S247" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>975</v>
       </c>
       <c r="T247" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>1625</v>
       </c>
       <c r="U247" s="13">
         <v>1300</v>
       </c>
       <c r="V247" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>975</v>
       </c>
       <c r="W247" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>1625</v>
       </c>
       <c r="X247" s="13">
         <v>1300</v>
       </c>
       <c r="Y247" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>975</v>
       </c>
       <c r="Z247" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>1625</v>
       </c>
       <c r="AA247" s="13">
         <v>1300</v>
       </c>
       <c r="AB247" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>975</v>
       </c>
       <c r="AC247" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>1625</v>
       </c>
       <c r="AE247" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25405,70 +25415,70 @@
         <v>922</v>
       </c>
       <c r="M248" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>691.5</v>
       </c>
       <c r="N248" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>1152.5</v>
       </c>
       <c r="O248" s="13">
         <v>922</v>
       </c>
       <c r="P248" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>691.5</v>
       </c>
       <c r="Q248" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>1152.5</v>
       </c>
       <c r="R248" s="13">
         <v>922</v>
       </c>
       <c r="S248" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>691.5</v>
       </c>
       <c r="T248" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>1152.5</v>
       </c>
       <c r="U248" s="13">
         <v>922</v>
       </c>
       <c r="V248" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>691.5</v>
       </c>
       <c r="W248" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>1152.5</v>
       </c>
       <c r="X248" s="13">
         <v>922</v>
       </c>
       <c r="Y248" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>691.5</v>
       </c>
       <c r="Z248" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>1152.5</v>
       </c>
       <c r="AA248" s="13">
         <v>922</v>
       </c>
       <c r="AB248" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>691.5</v>
       </c>
       <c r="AC248" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>1152.5</v>
       </c>
       <c r="AE248" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25510,70 +25520,70 @@
         <v>1153</v>
       </c>
       <c r="M249" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>864.75</v>
       </c>
       <c r="N249" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>1441.25</v>
       </c>
       <c r="O249" s="13">
         <v>1153</v>
       </c>
       <c r="P249" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>864.75</v>
       </c>
       <c r="Q249" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>1441.25</v>
       </c>
       <c r="R249" s="13">
         <v>1153</v>
       </c>
       <c r="S249" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>864.75</v>
       </c>
       <c r="T249" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>1441.25</v>
       </c>
       <c r="U249" s="13">
         <v>1153</v>
       </c>
       <c r="V249" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>864.75</v>
       </c>
       <c r="W249" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>1441.25</v>
       </c>
       <c r="X249" s="13">
         <v>1153</v>
       </c>
       <c r="Y249" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>864.75</v>
       </c>
       <c r="Z249" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>1441.25</v>
       </c>
       <c r="AA249" s="13">
         <v>1153</v>
       </c>
       <c r="AB249" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>864.75</v>
       </c>
       <c r="AC249" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>1441.25</v>
       </c>
       <c r="AE249" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25615,70 +25625,70 @@
         <v>1730</v>
       </c>
       <c r="M250" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>1297.5</v>
       </c>
       <c r="N250" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>2162.5</v>
       </c>
       <c r="O250" s="13">
         <v>1730</v>
       </c>
       <c r="P250" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>1297.5</v>
       </c>
       <c r="Q250" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>2162.5</v>
       </c>
       <c r="R250" s="13">
         <v>1730</v>
       </c>
       <c r="S250" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>1297.5</v>
       </c>
       <c r="T250" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>2162.5</v>
       </c>
       <c r="U250" s="13">
         <v>1730</v>
       </c>
       <c r="V250" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>1297.5</v>
       </c>
       <c r="W250" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>2162.5</v>
       </c>
       <c r="X250" s="13">
         <v>1730</v>
       </c>
       <c r="Y250" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>1297.5</v>
       </c>
       <c r="Z250" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>2162.5</v>
       </c>
       <c r="AA250" s="13">
         <v>1730</v>
       </c>
       <c r="AB250" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>1297.5</v>
       </c>
       <c r="AC250" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>2162.5</v>
       </c>
       <c r="AE250" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25720,70 +25730,70 @@
         <v>24</v>
       </c>
       <c r="M251" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>18</v>
       </c>
       <c r="N251" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>30</v>
       </c>
       <c r="O251" s="13">
         <v>24</v>
       </c>
       <c r="P251" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>18</v>
       </c>
       <c r="Q251" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>30</v>
       </c>
       <c r="R251" s="13">
         <v>24</v>
       </c>
       <c r="S251" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>18</v>
       </c>
       <c r="T251" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>30</v>
       </c>
       <c r="U251" s="13">
         <v>24</v>
       </c>
       <c r="V251" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>18</v>
       </c>
       <c r="W251" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>30</v>
       </c>
       <c r="X251" s="13">
         <v>24</v>
       </c>
       <c r="Y251" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>18</v>
       </c>
       <c r="Z251" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>30</v>
       </c>
       <c r="AA251" s="13">
         <v>24</v>
       </c>
       <c r="AB251" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>18</v>
       </c>
       <c r="AC251" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>30</v>
       </c>
       <c r="AE251" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25825,70 +25835,70 @@
         <v>52</v>
       </c>
       <c r="M252" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>39</v>
       </c>
       <c r="N252" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>65</v>
       </c>
       <c r="O252" s="13">
         <v>52</v>
       </c>
       <c r="P252" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>39</v>
       </c>
       <c r="Q252" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>65</v>
       </c>
       <c r="R252" s="13">
         <v>52</v>
       </c>
       <c r="S252" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>39</v>
       </c>
       <c r="T252" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>65</v>
       </c>
       <c r="U252" s="13">
         <v>52</v>
       </c>
       <c r="V252" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>39</v>
       </c>
       <c r="W252" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>65</v>
       </c>
       <c r="X252" s="13">
         <v>52</v>
       </c>
       <c r="Y252" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>39</v>
       </c>
       <c r="Z252" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>65</v>
       </c>
       <c r="AA252" s="13">
         <v>52</v>
       </c>
       <c r="AB252" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>39</v>
       </c>
       <c r="AC252" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>65</v>
       </c>
       <c r="AE252" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -25930,70 +25940,70 @@
         <v>125</v>
       </c>
       <c r="M253" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>93.75</v>
       </c>
       <c r="N253" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>156.25</v>
       </c>
       <c r="O253" s="13">
         <v>125</v>
       </c>
       <c r="P253" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>93.75</v>
       </c>
       <c r="Q253" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>156.25</v>
       </c>
       <c r="R253" s="13">
         <v>125</v>
       </c>
       <c r="S253" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>93.75</v>
       </c>
       <c r="T253" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>156.25</v>
       </c>
       <c r="U253" s="13">
         <v>125</v>
       </c>
       <c r="V253" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>93.75</v>
       </c>
       <c r="W253" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>156.25</v>
       </c>
       <c r="X253" s="13">
         <v>125</v>
       </c>
       <c r="Y253" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>93.75</v>
       </c>
       <c r="Z253" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>156.25</v>
       </c>
       <c r="AA253" s="13">
         <v>125</v>
       </c>
       <c r="AB253" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>93.75</v>
       </c>
       <c r="AC253" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>156.25</v>
       </c>
       <c r="AE253" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26036,70 +26046,70 @@
         <v>180</v>
       </c>
       <c r="M254" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>135</v>
       </c>
       <c r="N254" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>225</v>
       </c>
       <c r="O254" s="13">
         <v>180</v>
       </c>
       <c r="P254" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>135</v>
       </c>
       <c r="Q254" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>225</v>
       </c>
       <c r="R254" s="13">
         <v>180</v>
       </c>
       <c r="S254" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>135</v>
       </c>
       <c r="T254" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>225</v>
       </c>
       <c r="U254" s="13">
         <v>180</v>
       </c>
       <c r="V254" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>135</v>
       </c>
       <c r="W254" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>225</v>
       </c>
       <c r="X254" s="13">
         <v>180</v>
       </c>
       <c r="Y254" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>135</v>
       </c>
       <c r="Z254" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>225</v>
       </c>
       <c r="AA254" s="13">
         <v>180</v>
       </c>
       <c r="AB254" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>135</v>
       </c>
       <c r="AC254" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>225</v>
       </c>
       <c r="AE254" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26141,70 +26151,70 @@
         <v>627</v>
       </c>
       <c r="M255" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>470.25</v>
       </c>
       <c r="N255" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>783.75</v>
       </c>
       <c r="O255" s="13">
         <v>627</v>
       </c>
       <c r="P255" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>470.25</v>
       </c>
       <c r="Q255" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>783.75</v>
       </c>
       <c r="R255" s="13">
         <v>627</v>
       </c>
       <c r="S255" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>470.25</v>
       </c>
       <c r="T255" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>783.75</v>
       </c>
       <c r="U255" s="13">
         <v>627</v>
       </c>
       <c r="V255" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>470.25</v>
       </c>
       <c r="W255" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>783.75</v>
       </c>
       <c r="X255" s="13">
         <v>627</v>
       </c>
       <c r="Y255" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>470.25</v>
       </c>
       <c r="Z255" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>783.75</v>
       </c>
       <c r="AA255" s="13">
         <v>627</v>
       </c>
       <c r="AB255" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>470.25</v>
       </c>
       <c r="AC255" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>783.75</v>
       </c>
       <c r="AE255" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26246,70 +26256,70 @@
         <v>784</v>
       </c>
       <c r="M256" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>588</v>
       </c>
       <c r="N256" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>980</v>
       </c>
       <c r="O256" s="13">
         <v>784</v>
       </c>
       <c r="P256" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>588</v>
       </c>
       <c r="Q256" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>980</v>
       </c>
       <c r="R256" s="13">
         <v>784</v>
       </c>
       <c r="S256" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>588</v>
       </c>
       <c r="T256" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>980</v>
       </c>
       <c r="U256" s="13">
         <v>784</v>
       </c>
       <c r="V256" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>588</v>
       </c>
       <c r="W256" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>980</v>
       </c>
       <c r="X256" s="13">
         <v>784</v>
       </c>
       <c r="Y256" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>588</v>
       </c>
       <c r="Z256" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>980</v>
       </c>
       <c r="AA256" s="13">
         <v>784</v>
       </c>
       <c r="AB256" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>588</v>
       </c>
       <c r="AC256" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>980</v>
       </c>
       <c r="AE256" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26351,70 +26361,70 @@
         <v>1176</v>
       </c>
       <c r="M257" s="13">
-        <f t="shared" si="215"/>
+        <f t="shared" si="227"/>
         <v>882</v>
       </c>
       <c r="N257" s="13">
-        <f t="shared" si="216"/>
+        <f t="shared" si="228"/>
         <v>1470</v>
       </c>
       <c r="O257" s="13">
         <v>1176</v>
       </c>
       <c r="P257" s="13">
-        <f t="shared" si="217"/>
+        <f t="shared" si="229"/>
         <v>882</v>
       </c>
       <c r="Q257" s="13">
-        <f t="shared" si="218"/>
+        <f t="shared" si="230"/>
         <v>1470</v>
       </c>
       <c r="R257" s="13">
         <v>1176</v>
       </c>
       <c r="S257" s="13">
-        <f t="shared" si="219"/>
+        <f t="shared" si="231"/>
         <v>882</v>
       </c>
       <c r="T257" s="13">
-        <f t="shared" si="220"/>
+        <f t="shared" si="232"/>
         <v>1470</v>
       </c>
       <c r="U257" s="13">
         <v>1176</v>
       </c>
       <c r="V257" s="13">
-        <f t="shared" si="221"/>
+        <f t="shared" si="233"/>
         <v>882</v>
       </c>
       <c r="W257" s="13">
-        <f t="shared" si="222"/>
+        <f t="shared" si="234"/>
         <v>1470</v>
       </c>
       <c r="X257" s="13">
         <v>1176</v>
       </c>
       <c r="Y257" s="13">
-        <f t="shared" si="223"/>
+        <f t="shared" si="235"/>
         <v>882</v>
       </c>
       <c r="Z257" s="13">
-        <f t="shared" si="224"/>
+        <f t="shared" si="236"/>
         <v>1470</v>
       </c>
       <c r="AA257" s="13">
         <v>1176</v>
       </c>
       <c r="AB257" s="13">
-        <f t="shared" si="225"/>
+        <f t="shared" si="237"/>
         <v>882</v>
       </c>
       <c r="AC257" s="13">
-        <f t="shared" si="226"/>
+        <f t="shared" si="238"/>
         <v>1470</v>
       </c>
       <c r="AE257" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26481,7 +26491,7 @@
       <c r="AB258" s="5"/>
       <c r="AC258" s="5"/>
       <c r="AE258" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26572,7 +26582,7 @@
         <v>90</v>
       </c>
       <c r="AE259" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26663,7 +26673,7 @@
         <v>0.35</v>
       </c>
       <c r="AE260" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26768,7 +26778,7 @@
         <v>25.960000000000004</v>
       </c>
       <c r="AE261" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" si="191"/>
         <v/>
       </c>
     </row>
@@ -26873,7 +26883,7 @@
         <v>15.400000000000002</v>
       </c>
       <c r="AE262" s="1" t="str">
-        <f t="shared" ref="AE262:AE306" si="227">IF(L262&lt;M262,"ISSUE","")</f>
+        <f t="shared" ref="AE262:AE306" si="239">IF(L262&lt;M262,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -26908,27 +26918,27 @@
         <v>67</v>
       </c>
       <c r="L263" s="4">
-        <f t="shared" ref="L263:Q263" si="228">O263*1.05</f>
+        <f t="shared" ref="L263:Q263" si="240">O263*1.05</f>
         <v>4.41</v>
       </c>
       <c r="M263" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="240"/>
         <v>3.3075000000000006</v>
       </c>
       <c r="N263" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="240"/>
         <v>5.5125000000000002</v>
       </c>
       <c r="O263" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="240"/>
         <v>4.2</v>
       </c>
       <c r="P263" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="240"/>
         <v>3.1500000000000004</v>
       </c>
       <c r="Q263" s="4">
-        <f t="shared" si="228"/>
+        <f t="shared" si="240"/>
         <v>5.25</v>
       </c>
       <c r="R263" s="5">
@@ -26974,7 +26984,7 @@
         <v>4.75</v>
       </c>
       <c r="AE263" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27073,7 +27083,7 @@
         <v>0.06</v>
       </c>
       <c r="AE264" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27170,7 +27180,7 @@
         <v>3.8</v>
       </c>
       <c r="AE265" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27271,7 +27281,7 @@
         <v>0.66</v>
       </c>
       <c r="AE266" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27310,27 +27320,27 @@
         <v>67</v>
       </c>
       <c r="L267" s="5">
-        <f t="shared" ref="L267:Q267" si="229">L266-0.05</f>
+        <f t="shared" ref="L267:Q267" si="241">L266-0.05</f>
         <v>0.35000000000000003</v>
       </c>
       <c r="M267" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="241"/>
         <v>0.3</v>
       </c>
       <c r="N267" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="241"/>
         <v>0.4</v>
       </c>
       <c r="O267" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="241"/>
         <v>0.45</v>
       </c>
       <c r="P267" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="241"/>
         <v>0.4</v>
       </c>
       <c r="Q267" s="5">
-        <f t="shared" si="229"/>
+        <f t="shared" si="241"/>
         <v>0.5</v>
       </c>
       <c r="R267" s="5">
@@ -27378,7 +27388,7 @@
         <v>0.627</v>
       </c>
       <c r="AE267" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27471,7 +27481,7 @@
         <v>0.3</v>
       </c>
       <c r="AE268" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27510,79 +27520,79 @@
         <v>67</v>
       </c>
       <c r="L269" s="5">
-        <f t="shared" ref="L269:AC269" si="230">L268-0.05</f>
+        <f t="shared" ref="L269:AC269" si="242">L268-0.05</f>
         <v>0.2</v>
       </c>
       <c r="M269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="N269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.25</v>
       </c>
       <c r="O269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.2</v>
       </c>
       <c r="P269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="Q269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.25</v>
       </c>
       <c r="R269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.2</v>
       </c>
       <c r="S269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="T269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.25</v>
       </c>
       <c r="U269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.3</v>
       </c>
       <c r="V269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.25</v>
       </c>
       <c r="W269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="X269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.3</v>
       </c>
       <c r="Y269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.25</v>
       </c>
       <c r="Z269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.35000000000000003</v>
       </c>
       <c r="AA269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.2</v>
       </c>
       <c r="AB269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.15000000000000002</v>
       </c>
       <c r="AC269" s="5">
-        <f t="shared" si="230"/>
+        <f t="shared" si="242"/>
         <v>0.25</v>
       </c>
       <c r="AE269" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27675,7 +27685,7 @@
         <v>700</v>
       </c>
       <c r="AE270" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27766,7 +27776,7 @@
         <v>1.0965</v>
       </c>
       <c r="AE271" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27797,27 +27807,27 @@
         <v>67</v>
       </c>
       <c r="L272" s="9">
-        <f t="shared" ref="L272:Q275" si="231">O272*1.05</f>
+        <f t="shared" ref="L272:Q275" si="243">O272*1.05</f>
         <v>1.1025</v>
       </c>
       <c r="M272" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.77175000000000005</v>
       </c>
       <c r="N272" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>1.4332500000000004</v>
       </c>
       <c r="O272" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>1.05</v>
       </c>
       <c r="P272" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="Q272" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>1.3650000000000002</v>
       </c>
       <c r="R272" s="9">
@@ -27848,19 +27858,19 @@
         <v>1</v>
       </c>
       <c r="AA272" s="9">
-        <f t="shared" ref="AA272:AC275" si="232">X272*0.95</f>
+        <f t="shared" ref="AA272:AC275" si="244">X272*0.95</f>
         <v>0.66499999999999992</v>
       </c>
       <c r="AB272" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="AC272" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>0.95</v>
       </c>
       <c r="AE272" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27891,27 +27901,27 @@
         <v>67</v>
       </c>
       <c r="L273" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.44100000000000006</v>
       </c>
       <c r="M273" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.33075000000000004</v>
       </c>
       <c r="N273" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.49612500000000004</v>
       </c>
       <c r="O273" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.42000000000000004</v>
       </c>
       <c r="P273" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.315</v>
       </c>
       <c r="Q273" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>0.47250000000000003</v>
       </c>
       <c r="R273" s="9">
@@ -27942,19 +27952,19 @@
         <v>0.34</v>
       </c>
       <c r="AA273" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>0.28499999999999998</v>
       </c>
       <c r="AB273" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>0.26600000000000001</v>
       </c>
       <c r="AC273" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>0.32300000000000001</v>
       </c>
       <c r="AE273" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -27993,27 +28003,27 @@
         <v>67</v>
       </c>
       <c r="L274" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>3.0870000000000002</v>
       </c>
       <c r="M274" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>2.7562500000000001</v>
       </c>
       <c r="N274" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>3.8587500000000006</v>
       </c>
       <c r="O274" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>2.94</v>
       </c>
       <c r="P274" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>2.625</v>
       </c>
       <c r="Q274" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>3.6750000000000003</v>
       </c>
       <c r="R274" s="5">
@@ -28029,37 +28039,37 @@
         <v>2.8</v>
       </c>
       <c r="V274" s="9">
-        <f t="shared" ref="V274:Z275" si="233">S274*0.95</f>
+        <f t="shared" ref="V274:Z275" si="245">S274*0.95</f>
         <v>2.375</v>
       </c>
       <c r="W274" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="245"/>
         <v>3.3249999999999997</v>
       </c>
       <c r="X274" s="5">
         <v>2.8</v>
       </c>
       <c r="Y274" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="245"/>
         <v>2.2562500000000001</v>
       </c>
       <c r="Z274" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="245"/>
         <v>3.1587499999999995</v>
       </c>
       <c r="AA274" s="5">
         <v>2.8</v>
       </c>
       <c r="AB274" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>2.1434375000000001</v>
       </c>
       <c r="AC274" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>3.0008124999999994</v>
       </c>
       <c r="AE274" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28098,27 +28108,27 @@
         <v>67</v>
       </c>
       <c r="L275" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>3.1972499999999999</v>
       </c>
       <c r="M275" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>2.7562500000000001</v>
       </c>
       <c r="N275" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>3.8587500000000006</v>
       </c>
       <c r="O275" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>3.0449999999999999</v>
       </c>
       <c r="P275" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>2.625</v>
       </c>
       <c r="Q275" s="9">
-        <f t="shared" si="231"/>
+        <f t="shared" si="243"/>
         <v>3.6750000000000003</v>
       </c>
       <c r="R275" s="5">
@@ -28134,37 +28144,37 @@
         <v>2.9</v>
       </c>
       <c r="V275" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="245"/>
         <v>2.375</v>
       </c>
       <c r="W275" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="245"/>
         <v>3.3249999999999997</v>
       </c>
       <c r="X275" s="5">
         <v>2.9</v>
       </c>
       <c r="Y275" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="245"/>
         <v>2.2562500000000001</v>
       </c>
       <c r="Z275" s="9">
-        <f t="shared" si="233"/>
+        <f t="shared" si="245"/>
         <v>3.1587499999999995</v>
       </c>
       <c r="AA275" s="5">
         <v>2.9</v>
       </c>
       <c r="AB275" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>2.1434375000000001</v>
       </c>
       <c r="AC275" s="9">
-        <f t="shared" si="232"/>
+        <f t="shared" si="244"/>
         <v>3.0008124999999994</v>
       </c>
       <c r="AE275" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28233,7 +28243,7 @@
       <c r="AB276" s="3"/>
       <c r="AC276" s="3"/>
       <c r="AE276" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28302,7 +28312,7 @@
       <c r="AB277" s="3"/>
       <c r="AC277" s="3"/>
       <c r="AE277" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28401,7 +28411,7 @@
         <v>0.05</v>
       </c>
       <c r="AE278" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28467,27 +28477,27 @@
         <v>0.13</v>
       </c>
       <c r="U279" s="5">
-        <f t="shared" ref="U279:U284" si="234">R279*0.5</f>
+        <f t="shared" ref="U279:U284" si="246">R279*0.5</f>
         <v>0.05</v>
       </c>
       <c r="V279" s="5">
-        <f t="shared" ref="V279:V284" si="235">U279*0.8</f>
+        <f t="shared" ref="V279:V284" si="247">U279*0.8</f>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="W279" s="5">
-        <f t="shared" ref="W279:W284" si="236">U279*1.2</f>
+        <f t="shared" ref="W279:W284" si="248">U279*1.2</f>
         <v>0.06</v>
       </c>
       <c r="X279" s="5">
-        <f t="shared" ref="X279:X284" si="237">U279*0.5</f>
+        <f t="shared" ref="X279:X284" si="249">U279*0.5</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y279" s="5">
-        <f t="shared" ref="Y279:Y284" si="238">X279*0.8</f>
+        <f t="shared" ref="Y279:Y284" si="250">X279*0.8</f>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Z279" s="5">
-        <f t="shared" ref="Z279:Z284" si="239">X279*1.2</f>
+        <f t="shared" ref="Z279:Z284" si="251">X279*1.2</f>
         <v>0.03</v>
       </c>
       <c r="AA279" s="5">
@@ -28500,7 +28510,7 @@
         <v>0.05</v>
       </c>
       <c r="AE279" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28566,27 +28576,27 @@
         <v>0.13</v>
       </c>
       <c r="U280" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="246"/>
         <v>0.05</v>
       </c>
       <c r="V280" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="247"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="W280" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="248"/>
         <v>0.06</v>
       </c>
       <c r="X280" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="249"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y280" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="250"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Z280" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="251"/>
         <v>0.03</v>
       </c>
       <c r="AA280" s="5">
@@ -28599,7 +28609,7 @@
         <v>0.05</v>
       </c>
       <c r="AE280" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28665,27 +28675,27 @@
         <v>0.13</v>
       </c>
       <c r="U281" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="246"/>
         <v>0.05</v>
       </c>
       <c r="V281" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="247"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="W281" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="248"/>
         <v>0.06</v>
       </c>
       <c r="X281" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="249"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y281" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="250"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Z281" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="251"/>
         <v>0.03</v>
       </c>
       <c r="AA281" s="5">
@@ -28698,7 +28708,7 @@
         <v>0.05</v>
       </c>
       <c r="AE281" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28764,27 +28774,27 @@
         <v>0.13</v>
       </c>
       <c r="U282" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="246"/>
         <v>0.05</v>
       </c>
       <c r="V282" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="247"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="W282" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="248"/>
         <v>0.06</v>
       </c>
       <c r="X282" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="249"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y282" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="250"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Z282" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="251"/>
         <v>0.03</v>
       </c>
       <c r="AA282" s="5">
@@ -28797,7 +28807,7 @@
         <v>0.05</v>
       </c>
       <c r="AE282" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28863,27 +28873,27 @@
         <v>0.13</v>
       </c>
       <c r="U283" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="246"/>
         <v>0.05</v>
       </c>
       <c r="V283" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="247"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="W283" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="248"/>
         <v>0.06</v>
       </c>
       <c r="X283" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="249"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y283" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="250"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Z283" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="251"/>
         <v>0.03</v>
       </c>
       <c r="AA283" s="5">
@@ -28896,7 +28906,7 @@
         <v>0.05</v>
       </c>
       <c r="AE283" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -28962,27 +28972,27 @@
         <v>0.13</v>
       </c>
       <c r="U284" s="5">
-        <f t="shared" si="234"/>
+        <f t="shared" si="246"/>
         <v>0.05</v>
       </c>
       <c r="V284" s="5">
-        <f t="shared" si="235"/>
+        <f t="shared" si="247"/>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="W284" s="5">
-        <f t="shared" si="236"/>
+        <f t="shared" si="248"/>
         <v>0.06</v>
       </c>
       <c r="X284" s="5">
-        <f t="shared" si="237"/>
+        <f t="shared" si="249"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="Y284" s="5">
-        <f t="shared" si="238"/>
+        <f t="shared" si="250"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="Z284" s="5">
-        <f t="shared" si="239"/>
+        <f t="shared" si="251"/>
         <v>0.03</v>
       </c>
       <c r="AA284" s="5">
@@ -28995,7 +29005,7 @@
         <v>0.05</v>
       </c>
       <c r="AE284" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29094,7 +29104,7 @@
         <v>0.96</v>
       </c>
       <c r="AE285" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29136,7 +29146,7 @@
         <v>0.93</v>
       </c>
       <c r="M286" s="5">
-        <f t="shared" ref="M286:M291" si="240">L286*0.9</f>
+        <f t="shared" ref="M286:M291" si="252">L286*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="N286" s="5">
@@ -29146,7 +29156,7 @@
         <v>0.93</v>
       </c>
       <c r="P286" s="5">
-        <f t="shared" ref="P286:P291" si="241">O286*0.9</f>
+        <f t="shared" ref="P286:P291" si="253">O286*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="Q286" s="5">
@@ -29156,7 +29166,7 @@
         <v>0.93</v>
       </c>
       <c r="S286" s="5">
-        <f t="shared" ref="S286:S291" si="242">R286*0.9</f>
+        <f t="shared" ref="S286:S291" si="254">R286*0.9</f>
         <v>0.83700000000000008</v>
       </c>
       <c r="T286" s="5">
@@ -29166,7 +29176,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="V286" s="5">
-        <f t="shared" ref="V286:V292" si="243">U286*0.9</f>
+        <f t="shared" ref="V286:V292" si="255">U286*0.9</f>
         <v>0.84150000000000003</v>
       </c>
       <c r="W286" s="5">
@@ -29176,7 +29186,7 @@
         <v>0.94</v>
       </c>
       <c r="Y286" s="5">
-        <f t="shared" ref="Y286:Y292" si="244">X286*0.9</f>
+        <f t="shared" ref="Y286:Y292" si="256">X286*0.9</f>
         <v>0.84599999999999997</v>
       </c>
       <c r="Z286" s="5">
@@ -29186,14 +29196,14 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="AB286" s="5">
-        <f t="shared" ref="AB286:AB291" si="245">AA286*0.9</f>
+        <f t="shared" ref="AB286:AB291" si="257">AA286*0.9</f>
         <v>0.85049999999999992</v>
       </c>
       <c r="AC286" s="5">
         <v>0.96</v>
       </c>
       <c r="AE286" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29235,7 +29245,7 @@
         <v>0.93</v>
       </c>
       <c r="M287" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="252"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="N287" s="5">
@@ -29245,7 +29255,7 @@
         <v>0.93</v>
       </c>
       <c r="P287" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="253"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="Q287" s="5">
@@ -29255,7 +29265,7 @@
         <v>0.93</v>
       </c>
       <c r="S287" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="254"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="T287" s="5">
@@ -29265,7 +29275,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="V287" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="255"/>
         <v>0.84150000000000003</v>
       </c>
       <c r="W287" s="5">
@@ -29275,7 +29285,7 @@
         <v>0.94</v>
       </c>
       <c r="Y287" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="256"/>
         <v>0.84599999999999997</v>
       </c>
       <c r="Z287" s="5">
@@ -29285,14 +29295,14 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="AB287" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="257"/>
         <v>0.85049999999999992</v>
       </c>
       <c r="AC287" s="5">
         <v>0.96</v>
       </c>
       <c r="AE287" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29334,7 +29344,7 @@
         <v>0.93</v>
       </c>
       <c r="M288" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="252"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="N288" s="5">
@@ -29344,7 +29354,7 @@
         <v>0.93</v>
       </c>
       <c r="P288" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="253"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="Q288" s="5">
@@ -29354,7 +29364,7 @@
         <v>0.93</v>
       </c>
       <c r="S288" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="254"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="T288" s="5">
@@ -29364,7 +29374,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="V288" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="255"/>
         <v>0.84150000000000003</v>
       </c>
       <c r="W288" s="5">
@@ -29374,7 +29384,7 @@
         <v>0.94</v>
       </c>
       <c r="Y288" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="256"/>
         <v>0.84599999999999997</v>
       </c>
       <c r="Z288" s="5">
@@ -29384,14 +29394,14 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="AB288" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="257"/>
         <v>0.85049999999999992</v>
       </c>
       <c r="AC288" s="5">
         <v>0.96</v>
       </c>
       <c r="AE288" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29433,7 +29443,7 @@
         <v>0.93</v>
       </c>
       <c r="M289" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="252"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="N289" s="5">
@@ -29443,7 +29453,7 @@
         <v>0.93</v>
       </c>
       <c r="P289" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="253"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="Q289" s="5">
@@ -29453,7 +29463,7 @@
         <v>0.93</v>
       </c>
       <c r="S289" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="254"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="T289" s="5">
@@ -29463,7 +29473,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="V289" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="255"/>
         <v>0.84150000000000003</v>
       </c>
       <c r="W289" s="5">
@@ -29473,7 +29483,7 @@
         <v>0.94</v>
       </c>
       <c r="Y289" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="256"/>
         <v>0.84599999999999997</v>
       </c>
       <c r="Z289" s="5">
@@ -29483,14 +29493,14 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="AB289" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="257"/>
         <v>0.85049999999999992</v>
       </c>
       <c r="AC289" s="5">
         <v>0.96</v>
       </c>
       <c r="AE289" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29532,7 +29542,7 @@
         <v>0.93</v>
       </c>
       <c r="M290" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="252"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="N290" s="5">
@@ -29542,7 +29552,7 @@
         <v>0.93</v>
       </c>
       <c r="P290" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="253"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="Q290" s="5">
@@ -29552,7 +29562,7 @@
         <v>0.93</v>
       </c>
       <c r="S290" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="254"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="T290" s="5">
@@ -29562,7 +29572,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="V290" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="255"/>
         <v>0.84150000000000003</v>
       </c>
       <c r="W290" s="5">
@@ -29572,7 +29582,7 @@
         <v>0.94</v>
       </c>
       <c r="Y290" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="256"/>
         <v>0.84599999999999997</v>
       </c>
       <c r="Z290" s="5">
@@ -29582,14 +29592,14 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="AB290" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="257"/>
         <v>0.85049999999999992</v>
       </c>
       <c r="AC290" s="5">
         <v>0.96</v>
       </c>
       <c r="AE290" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29631,7 +29641,7 @@
         <v>0.93</v>
       </c>
       <c r="M291" s="5">
-        <f t="shared" si="240"/>
+        <f t="shared" si="252"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="N291" s="5">
@@ -29641,7 +29651,7 @@
         <v>0.93</v>
       </c>
       <c r="P291" s="5">
-        <f t="shared" si="241"/>
+        <f t="shared" si="253"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="Q291" s="5">
@@ -29651,7 +29661,7 @@
         <v>0.93</v>
       </c>
       <c r="S291" s="5">
-        <f t="shared" si="242"/>
+        <f t="shared" si="254"/>
         <v>0.83700000000000008</v>
       </c>
       <c r="T291" s="5">
@@ -29661,7 +29671,7 @@
         <v>0.93500000000000005</v>
       </c>
       <c r="V291" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="255"/>
         <v>0.84150000000000003</v>
       </c>
       <c r="W291" s="5">
@@ -29671,7 +29681,7 @@
         <v>0.94</v>
       </c>
       <c r="Y291" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="256"/>
         <v>0.84599999999999997</v>
       </c>
       <c r="Z291" s="5">
@@ -29681,14 +29691,14 @@
         <v>0.94499999999999995</v>
       </c>
       <c r="AB291" s="5">
-        <f t="shared" si="245"/>
+        <f t="shared" si="257"/>
         <v>0.85049999999999992</v>
       </c>
       <c r="AC291" s="5">
         <v>0.96</v>
       </c>
       <c r="AE291" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29730,7 +29740,7 @@
         <v>0.89</v>
       </c>
       <c r="M292" s="5">
-        <f t="shared" ref="M292" si="246">L292*0.9</f>
+        <f t="shared" ref="M292" si="258">L292*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="N292" s="5">
@@ -29740,7 +29750,7 @@
         <v>0.89</v>
       </c>
       <c r="P292" s="5">
-        <f t="shared" ref="P292" si="247">O292*0.9</f>
+        <f t="shared" ref="P292" si="259">O292*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="Q292" s="5">
@@ -29750,7 +29760,7 @@
         <v>0.89</v>
       </c>
       <c r="S292" s="5">
-        <f t="shared" ref="S292" si="248">R292*0.9</f>
+        <f t="shared" ref="S292" si="260">R292*0.9</f>
         <v>0.80100000000000005</v>
       </c>
       <c r="T292" s="5">
@@ -29761,7 +29771,7 @@
         <v>0.9</v>
       </c>
       <c r="V292" s="5">
-        <f t="shared" si="243"/>
+        <f t="shared" si="255"/>
         <v>0.81</v>
       </c>
       <c r="W292" s="5">
@@ -29772,7 +29782,7 @@
         <v>0.91</v>
       </c>
       <c r="Y292" s="5">
-        <f t="shared" si="244"/>
+        <f t="shared" si="256"/>
         <v>0.81900000000000006</v>
       </c>
       <c r="Z292" s="5">
@@ -29782,14 +29792,14 @@
         <v>0.92</v>
       </c>
       <c r="AB292" s="5">
-        <f t="shared" ref="AB292" si="249">AA292*0.9</f>
+        <f t="shared" ref="AB292" si="261">AA292*0.9</f>
         <v>0.82800000000000007</v>
       </c>
       <c r="AC292" s="5">
         <v>0.97</v>
       </c>
       <c r="AE292" s="1" t="str">
-        <f t="shared" ref="AE292" si="250">IF(L292&lt;M292,"ISSUE","")</f>
+        <f t="shared" ref="AE292" si="262">IF(L292&lt;M292,"ISSUE","")</f>
         <v/>
       </c>
     </row>
@@ -29882,7 +29892,7 @@
         <v>1.5</v>
       </c>
       <c r="AE293" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -29951,7 +29961,7 @@
       <c r="AB294" s="5"/>
       <c r="AC294" s="5"/>
       <c r="AE294" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v>ISSUE</v>
       </c>
     </row>
@@ -30050,7 +30060,7 @@
         <v>28.5</v>
       </c>
       <c r="AE295" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30143,7 +30153,7 @@
         <v>0.75</v>
       </c>
       <c r="AE296" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30236,7 +30246,7 @@
         <v>0.75</v>
       </c>
       <c r="AE297" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30329,7 +30339,7 @@
         <v>0.75</v>
       </c>
       <c r="AE298" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30422,7 +30432,7 @@
         <v>0.85</v>
       </c>
       <c r="AE299" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30515,7 +30525,7 @@
         <v>0.8</v>
       </c>
       <c r="AE300" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30608,7 +30618,7 @@
         <v>0.8</v>
       </c>
       <c r="AE301" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30701,7 +30711,7 @@
         <v>0.8</v>
       </c>
       <c r="AE302" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30770,7 +30780,7 @@
       <c r="AB303" s="3"/>
       <c r="AC303" s="3"/>
       <c r="AE303" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30839,7 +30849,7 @@
       <c r="AB304" s="5"/>
       <c r="AC304" s="5"/>
       <c r="AE304" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30908,7 +30918,7 @@
       <c r="AB305" s="3"/>
       <c r="AC305" s="3"/>
       <c r="AE305" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>
@@ -30947,27 +30957,27 @@
         <v>67</v>
       </c>
       <c r="L306" s="4">
-        <f t="shared" ref="L306:Q306" si="251">O306*1.05</f>
+        <f t="shared" ref="L306:Q306" si="263">O306*1.05</f>
         <v>39.690000000000005</v>
       </c>
       <c r="M306" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="263"/>
         <v>33.075000000000003</v>
       </c>
       <c r="N306" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="263"/>
         <v>44.1</v>
       </c>
       <c r="O306" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="263"/>
         <v>37.800000000000004</v>
       </c>
       <c r="P306" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="263"/>
         <v>31.5</v>
       </c>
       <c r="Q306" s="4">
-        <f t="shared" si="251"/>
+        <f t="shared" si="263"/>
         <v>42</v>
       </c>
       <c r="R306" s="5">
@@ -31013,7 +31023,7 @@
         <v>38</v>
       </c>
       <c r="AE306" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" si="239"/>
         <v/>
       </c>
     </row>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3BCB8A8-ED87-6A4D-B296-0EFD5AA4663A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16529A28-44E8-2C49-9932-775610643269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1060" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19980" yWindow="660" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AC$308</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -883,11 +883,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -997,7 +997,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1020,7 +1020,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1029,7 +1029,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1041,7 +1041,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1050,24 +1050,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1082,7 +1082,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1095,7 @@
     <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
@@ -1399,14 +1399,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AU313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L115" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E318" sqref="E318"/>
+      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1574,7 +1573,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1679,7 +1678,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1784,7 +1783,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1889,7 +1888,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1994,7 +1993,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2095,7 +2094,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2196,7 +2195,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="12.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2366,7 +2365,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2435,7 +2434,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2540,7 +2539,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2645,7 +2644,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2750,7 +2749,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2855,7 +2854,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="14.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2956,7 +2955,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3057,7 +3056,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3158,7 +3157,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3247,7 +3246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3351,7 +3350,7 @@
         <v>2057.6999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3455,7 +3454,7 @@
         <v>3086.5499999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3559,7 +3558,7 @@
         <v>4115.3999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3663,7 +3662,7 @@
         <v>4321.1699999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3767,7 +3766,7 @@
         <v>4629.8249999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3869,7 +3868,7 @@
         <v>5144.25</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>5350.0199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -4173,7 +4172,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -4274,7 +4273,7 @@
         <v>2.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4476,7 +4475,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4577,7 +4576,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -4678,7 +4677,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -4840,7 +4839,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -4921,7 +4920,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -5002,7 +5001,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
@@ -5083,7 +5082,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -5164,7 +5163,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -5245,7 +5244,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -5459,7 +5458,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -5566,7 +5565,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -5673,7 +5672,7 @@
         <v>0.10400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -5780,7 +5779,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -5887,7 +5886,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -5994,7 +5993,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -6208,7 +6207,7 @@
         <v>0.10500000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -6315,7 +6314,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -6422,7 +6421,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -6529,7 +6528,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -6743,7 +6742,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -6832,7 +6831,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -6921,7 +6920,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -7099,7 +7098,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -7188,7 +7187,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -7277,7 +7276,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -7447,7 +7446,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -7536,7 +7535,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -7625,7 +7624,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -7714,7 +7713,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -7892,7 +7891,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -7981,7 +7980,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -8070,7 +8069,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -8151,7 +8150,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -8232,7 +8231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8400,7 +8399,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -8507,7 +8506,7 @@
         <v>34.267517746478866</v>
       </c>
     </row>
-    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -8588,7 +8587,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -8750,7 +8749,7 @@
         <v>0.14904036144578314</v>
       </c>
     </row>
-    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -8831,7 +8830,7 @@
         <v>0.13097295891891891</v>
       </c>
     </row>
-    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -8912,7 +8911,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>56</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -9074,7 +9073,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>56</v>
       </c>
@@ -9131,7 +9130,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -9212,7 +9211,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>56</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>56</v>
       </c>
@@ -9374,7 +9373,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>56</v>
       </c>
@@ -9455,7 +9454,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -9544,7 +9543,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>56</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>56</v>
       </c>
@@ -9722,7 +9721,7 @@
         <v>3806.3999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>56</v>
       </c>
@@ -9811,7 +9810,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>56</v>
       </c>
@@ -9900,7 +9899,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -9989,7 +9988,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>56</v>
       </c>
@@ -10070,7 +10069,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>56</v>
       </c>
@@ -10157,7 +10156,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>34</v>
       </c>
@@ -10258,7 +10257,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>34</v>
       </c>
@@ -10359,7 +10358,7 @@
         <v>496250</v>
       </c>
     </row>
-    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>34</v>
       </c>
@@ -10460,7 +10459,7 @@
         <v>393750</v>
       </c>
     </row>
-    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>34</v>
       </c>
@@ -10561,7 +10560,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>34</v>
       </c>
@@ -10662,7 +10661,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>34</v>
       </c>
@@ -10763,7 +10762,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>34</v>
       </c>
@@ -10864,7 +10863,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>36</v>
       </c>
@@ -10951,7 +10950,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -11042,7 +11041,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -11127,7 +11126,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>36</v>
       </c>
@@ -11212,7 +11211,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>29</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>29</v>
       </c>
@@ -11342,7 +11341,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>29</v>
       </c>
@@ -11407,7 +11406,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>29</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>29</v>
       </c>
@@ -11581,7 +11580,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>29</v>
       </c>
@@ -11670,7 +11669,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>29</v>
       </c>
@@ -11755,7 +11754,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>29</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>29</v>
       </c>
@@ -12335,7 +12334,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>29</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>29</v>
       </c>
@@ -12519,7 +12518,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>29</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>29</v>
       </c>
@@ -12703,7 +12702,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>29</v>
       </c>
@@ -12792,7 +12791,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>29</v>
       </c>
@@ -12881,7 +12880,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>29</v>
       </c>
@@ -12970,7 +12969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>29</v>
       </c>
@@ -13065,7 +13064,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>29</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>29</v>
       </c>
@@ -13239,7 +13238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>29</v>
       </c>
@@ -13326,7 +13325,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>29</v>
       </c>
@@ -13413,7 +13412,7 @@
         <v>99.000000000000014</v>
       </c>
     </row>
-    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>29</v>
       </c>
@@ -13500,7 +13499,7 @@
         <v>104.50000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>29</v>
       </c>
@@ -13587,7 +13586,7 @@
         <v>121.00000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>29</v>
       </c>
@@ -13674,7 +13673,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>26</v>
       </c>
@@ -13740,7 +13739,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>26</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>26</v>
       </c>
@@ -13872,7 +13871,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>26</v>
       </c>
@@ -13938,7 +13937,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>26</v>
       </c>
@@ -14004,7 +14003,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>26</v>
       </c>
@@ -14070,7 +14069,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>26</v>
       </c>
@@ -14136,7 +14135,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>26</v>
       </c>
@@ -14237,7 +14236,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>26</v>
       </c>
@@ -14338,7 +14337,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>26</v>
       </c>
@@ -14439,7 +14438,7 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>26</v>
       </c>
@@ -14541,7 +14540,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>26</v>
       </c>
@@ -14642,7 +14641,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>26</v>
       </c>
@@ -14743,7 +14742,7 @@
         <v>1777.5</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>26</v>
       </c>
@@ -14844,7 +14843,7 @@
         <v>2666.25</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>26</v>
       </c>
@@ -14950,7 +14949,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>26</v>
       </c>
@@ -15056,7 +15055,7 @@
         <v>831.25</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>26</v>
       </c>
@@ -15162,7 +15161,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>26</v>
       </c>
@@ -15268,7 +15267,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>26</v>
       </c>
@@ -15374,7 +15373,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>26</v>
       </c>
@@ -15480,7 +15479,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>26</v>
       </c>
@@ -15586,7 +15585,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>26</v>
       </c>
@@ -15681,7 +15680,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>26</v>
       </c>
@@ -15785,7 +15784,7 @@
         <v>68.330539200000004</v>
       </c>
     </row>
-    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>26</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>39.341825600000007</v>
       </c>
     </row>
-    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>26</v>
       </c>
@@ -15993,7 +15992,7 @@
         <v>36.235892</v>
       </c>
     </row>
-    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>26</v>
       </c>
@@ -16097,7 +16096,7 @@
         <v>30.024024799999999</v>
       </c>
     </row>
-    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>26</v>
       </c>
@@ -16201,7 +16200,7 @@
         <v>25.88278</v>
       </c>
     </row>
-    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>26</v>
       </c>
@@ -16305,7 +16304,7 @@
         <v>25.88278</v>
       </c>
     </row>
-    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>26</v>
       </c>
@@ -16409,7 +16408,7 @@
         <v>22.7768464</v>
       </c>
     </row>
-    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>26</v>
       </c>
@@ -16513,7 +16512,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>26</v>
       </c>
@@ -16617,7 +16616,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>26</v>
       </c>
@@ -16721,7 +16720,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>26</v>
       </c>
@@ -16825,7 +16824,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>26</v>
       </c>
@@ -16929,7 +16928,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>26</v>
       </c>
@@ -17033,7 +17032,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>26</v>
       </c>
@@ -17137,7 +17136,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>26</v>
       </c>
@@ -17238,7 +17237,7 @@
         <v>27.500000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>26</v>
       </c>
@@ -17339,7 +17338,7 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>26</v>
       </c>
@@ -17440,7 +17439,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>26</v>
       </c>
@@ -17541,7 +17540,7 @@
         <v>24.200000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>26</v>
       </c>
@@ -17642,7 +17641,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>26</v>
       </c>
@@ -17743,7 +17742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>26</v>
       </c>
@@ -17844,7 +17843,7 @@
         <v>20.900000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>26</v>
       </c>
@@ -17950,7 +17949,7 @@
         <v>148.75</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>26</v>
       </c>
@@ -18056,7 +18055,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>26</v>
       </c>
@@ -18162,7 +18161,7 @@
         <v>767.5</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>26</v>
       </c>
@@ -18268,7 +18267,7 @@
         <v>1107.5</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>26</v>
       </c>
@@ -18374,7 +18373,7 @@
         <v>1058.75</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>26</v>
       </c>
@@ -18480,7 +18479,7 @@
         <v>1323.75</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>26</v>
       </c>
@@ -18586,7 +18585,7 @@
         <v>1986.25</v>
       </c>
     </row>
-    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>26</v>
       </c>
@@ -18675,7 +18674,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>26</v>
       </c>
@@ -18764,7 +18763,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>26</v>
       </c>
@@ -18853,7 +18852,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>26</v>
       </c>
@@ -18942,7 +18941,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>26</v>
       </c>
@@ -19031,7 +19030,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>26</v>
       </c>
@@ -19120,7 +19119,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>26</v>
       </c>
@@ -19209,7 +19208,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>26</v>
       </c>
@@ -19306,7 +19305,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>26</v>
       </c>
@@ -19403,7 +19402,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>26</v>
       </c>
@@ -19468,7 +19467,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>26</v>
       </c>
@@ -19533,7 +19532,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>26</v>
       </c>
@@ -19598,7 +19597,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>26</v>
       </c>
@@ -19663,7 +19662,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>26</v>
       </c>
@@ -19728,7 +19727,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>26</v>
       </c>
@@ -19793,7 +19792,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>26</v>
       </c>
@@ -19858,7 +19857,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>26</v>
       </c>
@@ -19964,7 +19963,7 @@
         <v>878.75</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>26</v>
       </c>
@@ -20070,7 +20069,7 @@
         <v>1882.5</v>
       </c>
     </row>
-    <row r="202" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>26</v>
       </c>
@@ -20177,7 +20176,7 @@
         <v>4518.75</v>
       </c>
     </row>
-    <row r="203" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>26</v>
       </c>
@@ -20280,7 +20279,7 @@
         <v>6526.25</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>26</v>
       </c>
@@ -20387,7 +20386,7 @@
         <v>5538.75</v>
       </c>
     </row>
-    <row r="205" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>26</v>
       </c>
@@ -20494,7 +20493,7 @@
         <v>6923.75</v>
       </c>
     </row>
-    <row r="206" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>26</v>
       </c>
@@ -20601,7 +20600,7 @@
         <v>10386.25</v>
       </c>
     </row>
-    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>26</v>
       </c>
@@ -20699,7 +20698,7 @@
         <v>3.8581874999999992</v>
       </c>
     </row>
-    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>26</v>
       </c>
@@ -20797,7 +20796,7 @@
         <v>5.4871999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>26</v>
       </c>
@@ -20895,7 +20894,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>26</v>
       </c>
@@ -20993,7 +20992,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>26</v>
       </c>
@@ -21094,7 +21093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>26</v>
       </c>
@@ -21195,7 +21194,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>26</v>
       </c>
@@ -21296,7 +21295,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>26</v>
       </c>
@@ -21397,7 +21396,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>26</v>
       </c>
@@ -21498,7 +21497,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>26</v>
       </c>
@@ -21599,7 +21598,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>26</v>
       </c>
@@ -21701,7 +21700,7 @@
         <v>406.25</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>26</v>
       </c>
@@ -21802,7 +21801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>26</v>
       </c>
@@ -21903,7 +21902,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>26</v>
       </c>
@@ -22004,7 +22003,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>26</v>
       </c>
@@ -22105,7 +22104,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>26</v>
       </c>
@@ -22206,7 +22205,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>26</v>
       </c>
@@ -22307,7 +22306,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>26</v>
       </c>
@@ -22409,7 +22408,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>26</v>
       </c>
@@ -22510,7 +22509,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>26</v>
       </c>
@@ -22611,7 +22610,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>26</v>
       </c>
@@ -22712,7 +22711,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>26</v>
       </c>
@@ -22813,7 +22812,7 @@
         <v>218.75</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>26</v>
       </c>
@@ -22914,7 +22913,7 @@
         <v>468.75</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>26</v>
       </c>
@@ -23015,7 +23014,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>26</v>
       </c>
@@ -23117,7 +23116,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>26</v>
       </c>
@@ -23218,7 +23217,7 @@
         <v>1152.5</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>26</v>
       </c>
@@ -23319,7 +23318,7 @@
         <v>1441.25</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>26</v>
       </c>
@@ -23420,7 +23419,7 @@
         <v>2162.5</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>26</v>
       </c>
@@ -23521,7 +23520,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>26</v>
       </c>
@@ -23622,7 +23621,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>26</v>
       </c>
@@ -23723,7 +23722,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>26</v>
       </c>
@@ -23825,7 +23824,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>26</v>
       </c>
@@ -23926,7 +23925,7 @@
         <v>783.75</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>26</v>
       </c>
@@ -24027,7 +24026,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="241" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>26</v>
       </c>
@@ -24128,7 +24127,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="242" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>26</v>
       </c>
@@ -24195,7 +24194,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>26</v>
       </c>
@@ -24282,7 +24281,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>26</v>
       </c>
@@ -24381,7 +24380,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="245" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>27</v>
       </c>
@@ -24482,7 +24481,7 @@
         <v>25.960000000000004</v>
       </c>
     </row>
-    <row r="246" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>27</v>
       </c>
@@ -24583,7 +24582,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>27</v>
       </c>
@@ -24680,7 +24679,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="248" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>27</v>
       </c>
@@ -24775,7 +24774,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="249" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>27</v>
       </c>
@@ -24868,7 +24867,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="250" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>27</v>
       </c>
@@ -24957,7 +24956,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="251" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>27</v>
       </c>
@@ -25063,7 +25062,7 @@
       <c r="AT251" s="1"/>
       <c r="AU251" s="1"/>
     </row>
-    <row r="252" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>27</v>
       </c>
@@ -25187,7 +25186,7 @@
       <c r="AT252" s="1"/>
       <c r="AU252" s="1"/>
     </row>
-    <row r="253" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>27</v>
       </c>
@@ -25293,7 +25292,7 @@
       <c r="AT253" s="1"/>
       <c r="AU253" s="1"/>
     </row>
-    <row r="254" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>27</v>
       </c>
@@ -25397,7 +25396,7 @@
       <c r="AT254" s="1"/>
       <c r="AU254" s="1"/>
     </row>
-    <row r="255" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>27</v>
       </c>
@@ -25504,7 +25503,7 @@
       <c r="AT255" s="1"/>
       <c r="AU255" s="1"/>
     </row>
-    <row r="256" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>27</v>
       </c>
@@ -25611,7 +25610,7 @@
       <c r="AT256" s="1"/>
       <c r="AU256" s="1"/>
     </row>
-    <row r="257" spans="1:47" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:47" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>27</v>
       </c>
@@ -25729,7 +25728,7 @@
       <c r="AT257" s="1"/>
       <c r="AU257" s="1"/>
     </row>
-    <row r="258" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>27</v>
       </c>
@@ -25830,7 +25829,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>27</v>
       </c>
@@ -25899,7 +25898,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>27</v>
       </c>
@@ -25968,7 +25967,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -26063,7 +26062,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="262" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>27</v>
       </c>
@@ -26158,7 +26157,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="263" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>27</v>
       </c>
@@ -26253,7 +26252,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="264" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>27</v>
       </c>
@@ -26348,7 +26347,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="265" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>27</v>
       </c>
@@ -26443,7 +26442,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="266" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>27</v>
       </c>
@@ -26538,7 +26537,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="267" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>27</v>
       </c>
@@ -26633,7 +26632,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="268" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>27</v>
       </c>
@@ -26728,7 +26727,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="269" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:47" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>27</v>
       </c>
@@ -26825,7 +26824,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="270" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>27</v>
       </c>
@@ -26914,7 +26913,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="271" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>27</v>
       </c>
@@ -26983,7 +26982,7 @@
         <v>ISSUE</v>
       </c>
     </row>
-    <row r="272" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:47" ht="15" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>27</v>
       </c>
@@ -27078,7 +27077,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>27</v>
       </c>
@@ -27167,7 +27166,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="274" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>27</v>
       </c>
@@ -27256,7 +27255,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>27</v>
       </c>
@@ -27345,7 +27344,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="276" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>27</v>
       </c>
@@ -27434,7 +27433,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="277" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>27</v>
       </c>
@@ -27523,7 +27522,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="278" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>27</v>
       </c>
@@ -27612,7 +27611,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="279" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>27</v>
       </c>
@@ -27701,7 +27700,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>27</v>
       </c>
@@ -27770,7 +27769,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>27</v>
       </c>
@@ -27839,7 +27838,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>27</v>
       </c>
@@ -27908,7 +27907,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>27</v>
       </c>
@@ -28009,7 +28008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>29</v>
       </c>
@@ -28074,7 +28073,7 @@
       <c r="AB284" s="5"/>
       <c r="AC284" s="5"/>
     </row>
-    <row r="285" spans="1:31" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>29</v>
       </c>
@@ -28124,7 +28123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" ht="15" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>27</v>
       </c>
@@ -28192,7 +28191,7 @@
       <c r="AB286" s="26"/>
       <c r="AC286" s="26"/>
     </row>
-    <row r="287" spans="1:31" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="28" t="s">
         <v>29</v>
       </c>
@@ -28279,7 +28278,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="288" spans="1:31" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="28" t="s">
         <v>29</v>
       </c>
@@ -28366,7 +28365,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="289" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A289" s="28" t="s">
         <v>29</v>
       </c>
@@ -28453,7 +28452,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="290" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A290" s="28" t="s">
         <v>29</v>
       </c>
@@ -28540,7 +28539,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="291" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A291" s="28" t="s">
         <v>29</v>
       </c>
@@ -28627,7 +28626,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="292" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A292" s="28" t="s">
         <v>29</v>
       </c>
@@ -28714,7 +28713,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="293" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A293" s="28" t="s">
         <v>29</v>
       </c>
@@ -28801,7 +28800,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="294" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A294" s="28" t="s">
         <v>29</v>
       </c>
@@ -28888,7 +28887,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="295" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A295" s="28" t="s">
         <v>29</v>
       </c>
@@ -28975,7 +28974,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="296" spans="1:29" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:29" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A296" s="28" t="s">
         <v>29</v>
       </c>
@@ -29062,7 +29061,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="297" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:29" ht="15" x14ac:dyDescent="0.2">
       <c r="A297" s="3" t="s">
         <v>29</v>
       </c>
@@ -29151,7 +29150,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="298" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="28" t="s">
         <v>29</v>
       </c>
@@ -29245,7 +29244,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="28" t="s">
         <v>29</v>
       </c>
@@ -29339,7 +29338,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="28" t="s">
         <v>29</v>
       </c>
@@ -29433,7 +29432,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="28" t="s">
         <v>29</v>
       </c>
@@ -29527,7 +29526,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="302" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="28" t="s">
         <v>29</v>
       </c>
@@ -29621,7 +29620,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="28" t="s">
         <v>29</v>
       </c>
@@ -29715,7 +29714,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="304" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="28" t="s">
         <v>29</v>
       </c>
@@ -29809,7 +29808,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="28" t="s">
         <v>29</v>
       </c>
@@ -29903,7 +29902,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="306" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="28" t="s">
         <v>29</v>
       </c>
@@ -29997,7 +29996,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="28" t="s">
         <v>29</v>
       </c>
@@ -30091,7 +30090,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>29</v>
       </c>
@@ -30686,16 +30685,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AC308" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="battery cycle life, LFP"/>
-        <filter val="battery cycle life, LTO"/>
-        <filter val="battery cycle life, NCA"/>
-        <filter val="battery cycle life, NMC"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:AC308" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I244" r:id="rId1" display="https://theicct.org/wp-content/uploads/2021/12/eu-tractor-trailers-analysis-aug21-2.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/dev/Input data_truck.xlsx
+++ b/dev/Input data_truck.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/carculator_truck/dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/carculator_truck/dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16529A28-44E8-2C49-9932-775610643269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70557B01-68C1-0F4E-9B9D-46FD56A2D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19980" yWindow="660" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="1480" windowWidth="30240" windowHeight="18880" tabRatio="518" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicle parameters" sheetId="22" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AC$308</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Vehicle parameters'!$A$2:$AC$313</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -883,11 +883,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -997,7 +997,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1020,7 +1020,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1029,7 +1029,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1041,7 +1041,7 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1050,24 +1050,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1082,7 +1082,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1095,7 +1095,7 @@
     <cellStyle name="Normal 2 2 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2 3" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
     <cellStyle name="Percent 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Standard 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
@@ -1399,13 +1399,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AU313"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomRight" activeCell="A287" sqref="A287:XFD297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -1573,7 +1574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1678,7 +1679,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1783,7 +1784,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1888,7 +1889,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>28</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -2094,7 +2095,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
@@ -2195,7 +2196,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2296,7 +2297,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="12.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="12.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>28</v>
       </c>
@@ -2434,7 +2435,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2539,7 +2540,7 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>112.5</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
@@ -2749,7 +2750,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="14.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="14.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="14.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
@@ -2955,7 +2956,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>28</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -3157,7 +3158,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
@@ -3246,7 +3247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
@@ -3350,7 +3351,7 @@
         <v>2057.6999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
@@ -3454,7 +3455,7 @@
         <v>3086.5499999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>28</v>
       </c>
@@ -3558,7 +3559,7 @@
         <v>4115.3999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
@@ -3662,7 +3663,7 @@
         <v>4321.1699999999992</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>28</v>
       </c>
@@ -3766,7 +3767,7 @@
         <v>4629.8249999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>28</v>
       </c>
@@ -3868,7 +3869,7 @@
         <v>5144.25</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>28</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>5350.0199999999995</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>56</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -4172,7 +4173,7 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>56</v>
       </c>
@@ -4273,7 +4274,7 @@
         <v>2.1599999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>56</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>6.1199999999999991E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>56</v>
       </c>
@@ -4475,7 +4476,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>56</v>
       </c>
@@ -4576,7 +4577,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>56</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>3.8399999999999997E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>56</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -4839,7 +4840,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>56</v>
       </c>
@@ -4920,7 +4921,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>56</v>
       </c>
@@ -5001,7 +5002,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>56</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
@@ -5244,7 +5245,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -5351,7 +5352,7 @@
         <v>0.16000000000000003</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>56</v>
       </c>
@@ -5458,7 +5459,7 @@
         <v>5.6000000000000008E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
@@ -5565,7 +5566,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>0.10400000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>56</v>
       </c>
@@ -5779,7 +5780,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>56</v>
       </c>
@@ -5886,7 +5887,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>56</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>8.0000000000000016E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>56</v>
       </c>
@@ -6100,7 +6101,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>56</v>
       </c>
@@ -6207,7 +6208,7 @@
         <v>0.10500000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>56</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>0.22499999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>0.19500000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>56</v>
       </c>
@@ -6528,7 +6529,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>56</v>
       </c>
@@ -6635,7 +6636,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>56</v>
       </c>
@@ -6742,7 +6743,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
@@ -6831,7 +6832,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>56</v>
       </c>
@@ -7009,7 +7010,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>56</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -7276,7 +7277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>56</v>
       </c>
@@ -7365,7 +7366,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>56</v>
       </c>
@@ -7446,7 +7447,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>56</v>
       </c>
@@ -7535,7 +7536,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>56</v>
       </c>
@@ -7624,7 +7625,7 @@
         <v>2673</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>56</v>
       </c>
@@ -7713,7 +7714,7 @@
         <v>3905</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>56</v>
       </c>
@@ -7802,7 +7803,7 @@
         <v>5137</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>56</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>56</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>56</v>
       </c>
@@ -8069,7 +8070,7 @@
         <v>6368</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>56</v>
       </c>
@@ -8150,7 +8151,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>56</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>56</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>56</v>
       </c>
@@ -8399,7 +8400,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>56</v>
       </c>
@@ -8506,7 +8507,7 @@
         <v>34.267517746478866</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>56</v>
       </c>
@@ -8587,7 +8588,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
@@ -8668,7 +8669,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>56</v>
       </c>
@@ -8749,7 +8750,7 @@
         <v>0.14904036144578314</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>56</v>
       </c>
@@ -8830,7 +8831,7 @@
         <v>0.13097295891891891</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>56</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>56</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>56</v>
       </c>
@@ -9073,7 +9074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>56</v>
       </c>
@@ -9130,7 +9131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>56</v>
       </c>
@@ -9211,7 +9212,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>56</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>56</v>
       </c>
@@ -9373,7 +9374,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>56</v>
       </c>
@@ -9454,7 +9455,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="87" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>56</v>
       </c>
@@ -9543,7 +9544,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="88" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>56</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>3235.2</v>
       </c>
     </row>
-    <row r="89" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>56</v>
       </c>
@@ -9721,7 +9722,7 @@
         <v>3806.3999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>56</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>56</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>56</v>
       </c>
@@ -9988,7 +9989,7 @@
         <v>4393.2</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>56</v>
       </c>
@@ -10069,7 +10070,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>56</v>
       </c>
@@ -10156,7 +10157,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>34</v>
       </c>
@@ -10257,7 +10258,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>34</v>
       </c>
@@ -10358,7 +10359,7 @@
         <v>496250</v>
       </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>34</v>
       </c>
@@ -10459,7 +10460,7 @@
         <v>393750</v>
       </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>34</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>725000</v>
       </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>34</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>34</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>34</v>
       </c>
@@ -10863,7 +10864,7 @@
         <v>887500</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>36</v>
       </c>
@@ -10950,7 +10951,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>36</v>
       </c>
@@ -11041,7 +11042,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>36</v>
       </c>
@@ -11126,7 +11127,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>36</v>
       </c>
@@ -11211,7 +11212,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>29</v>
       </c>
@@ -11276,7 +11277,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>29</v>
       </c>
@@ -11341,7 +11342,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>29</v>
       </c>
@@ -11406,7 +11407,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>29</v>
       </c>
@@ -11495,7 +11496,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>29</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>29</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>27500</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>29</v>
       </c>
@@ -11754,7 +11755,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="113" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>29</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>29</v>
       </c>
@@ -11932,7 +11933,7 @@
         <v>9.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>29</v>
       </c>
@@ -12031,7 +12032,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="116" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>29</v>
       </c>
@@ -12130,7 +12131,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="117" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>29</v>
       </c>
@@ -12232,7 +12233,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="118" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
         <v>29</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>11646.250000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
         <v>29</v>
       </c>
@@ -12423,7 +12424,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="120" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
         <v>29</v>
       </c>
@@ -12518,7 +12519,7 @@
         <v>0.94760000000000011</v>
       </c>
     </row>
-    <row r="121" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
         <v>29</v>
       </c>
@@ -12613,7 +12614,7 @@
         <v>0.92700000000000005</v>
       </c>
     </row>
-    <row r="122" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
         <v>29</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="123" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
         <v>29</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="124" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>29</v>
       </c>
@@ -12880,7 +12881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
         <v>29</v>
       </c>
@@ -12969,7 +12970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>29</v>
       </c>
@@ -13064,7 +13065,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="127" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>29</v>
       </c>
@@ -13151,7 +13152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
         <v>29</v>
       </c>
@@ -13238,7 +13239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
         <v>29</v>
       </c>
@@ -13325,7 +13326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>29</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>99.000000000000014</v>
       </c>
     </row>
-    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
         <v>29</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>104.50000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
         <v>29</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>121.00000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>29</v>
       </c>
@@ -13673,7 +13674,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>26</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
         <v>26</v>
       </c>
@@ -13805,7 +13806,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
         <v>26</v>
       </c>
@@ -13871,7 +13872,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
         <v>26</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="3" t="s">
         <v>26</v>
       </c>
@@ -14003,7 +14004,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="3" t="s">
         <v>26</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="3" t="s">
         <v>26</v>
       </c>
@@ -14135,7 +14136,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>26</v>
       </c>
@@ -14236,7 +14237,7 @@
         <v>242.5</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>26</v>
       </c>
@@ -14337,7 +14338,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>26</v>
       </c>
@@ -14438,7 +14439,7 @@
         <v>1247.5</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>26</v>
       </c>
@@ -14540,7 +14541,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="3" t="s">
         <v>26</v>
       </c>
@@ -14641,7 +14642,7 @@
         <v>1422.5</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="3" t="s">
         <v>26</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>1777.5</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="3" t="s">
         <v>26</v>
       </c>
@@ -14843,7 +14844,7 @@
         <v>2666.25</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="3" t="s">
         <v>26</v>
       </c>
@@ -14949,7 +14950,7 @@
         <v>387.5</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>26</v>
       </c>
@@ -15055,7 +15056,7 @@
         <v>831.25</v>
       </c>
     </row>
-    <row r="150" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>26</v>
       </c>
@@ -15161,7 +15162,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="151" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>26</v>
       </c>
@@ -15267,7 +15268,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="152" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>26</v>
       </c>
@@ -15373,7 +15374,7 @@
         <v>2656.25</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="3" t="s">
         <v>26</v>
       </c>
@@ -15479,7 +15480,7 @@
         <v>3320</v>
       </c>
     </row>
-    <row r="154" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>26</v>
       </c>
@@ -15585,7 +15586,7 @@
         <v>4980</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>26</v>
       </c>
@@ -15680,7 +15681,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>26</v>
       </c>
@@ -15784,7 +15785,7 @@
         <v>68.330539200000004</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="3" t="s">
         <v>26</v>
       </c>
@@ -15888,7 +15889,7 @@
         <v>39.341825600000007</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="3" t="s">
         <v>26</v>
       </c>
@@ -15992,7 +15993,7 @@
         <v>36.235892</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
         <v>26</v>
       </c>
@@ -16096,7 +16097,7 @@
         <v>30.024024799999999</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="3" t="s">
         <v>26</v>
       </c>
@@ -16200,7 +16201,7 @@
         <v>25.88278</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="3" t="s">
         <v>26</v>
       </c>
@@ -16304,7 +16305,7 @@
         <v>25.88278</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>26</v>
       </c>
@@ -16408,7 +16409,7 @@
         <v>22.7768464</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3" t="s">
         <v>26</v>
       </c>
@@ -16512,7 +16513,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3" t="s">
         <v>26</v>
       </c>
@@ -16616,7 +16617,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>26</v>
       </c>
@@ -16720,7 +16721,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3" t="s">
         <v>26</v>
       </c>
@@ -16824,7 +16825,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>26</v>
       </c>
@@ -16928,7 +16929,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>26</v>
       </c>
@@ -17032,7 +17033,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>26</v>
       </c>
@@ -17136,7 +17137,7 @@
         <v>26.918091200000006</v>
       </c>
     </row>
-    <row r="170" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>26</v>
       </c>
@@ -17237,7 +17238,7 @@
         <v>27.500000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>26</v>
       </c>
@@ -17338,7 +17339,7 @@
         <v>26.400000000000002</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="3" t="s">
         <v>26</v>
       </c>
@@ -17439,7 +17440,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="3" t="s">
         <v>26</v>
       </c>
@@ -17540,7 +17541,7 @@
         <v>24.200000000000003</v>
       </c>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>26</v>
       </c>
@@ -17641,7 +17642,7 @@
         <v>23.1</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="3" t="s">
         <v>26</v>
       </c>
@@ -17742,7 +17743,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="3" t="s">
         <v>26</v>
       </c>
@@ -17843,7 +17844,7 @@
         <v>20.900000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="3" t="s">
         <v>26</v>
       </c>
@@ -17949,7 +17950,7 @@
         <v>148.75</v>
       </c>
     </row>
-    <row r="178" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>26</v>
       </c>
@@ -18055,7 +18056,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="179" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3" t="s">
         <v>26</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>767.5</v>
       </c>
     </row>
-    <row r="180" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3" t="s">
         <v>26</v>
       </c>
@@ -18267,7 +18268,7 @@
         <v>1107.5</v>
       </c>
     </row>
-    <row r="181" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>26</v>
       </c>
@@ -18373,7 +18374,7 @@
         <v>1058.75</v>
       </c>
     </row>
-    <row r="182" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3" t="s">
         <v>26</v>
       </c>
@@ -18479,7 +18480,7 @@
         <v>1323.75</v>
       </c>
     </row>
-    <row r="183" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>26</v>
       </c>
@@ -18585,7 +18586,7 @@
         <v>1986.25</v>
       </c>
     </row>
-    <row r="184" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="3" t="s">
         <v>26</v>
       </c>
@@ -18674,7 +18675,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="185" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="3" t="s">
         <v>26</v>
       </c>
@@ -18763,7 +18764,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="186" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>26</v>
       </c>
@@ -18852,7 +18853,7 @@
         <v>10900</v>
       </c>
     </row>
-    <row r="187" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3" t="s">
         <v>26</v>
       </c>
@@ -18941,7 +18942,7 @@
         <v>16400</v>
       </c>
     </row>
-    <row r="188" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>26</v>
       </c>
@@ -19030,7 +19031,7 @@
         <v>21000</v>
       </c>
     </row>
-    <row r="189" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>26</v>
       </c>
@@ -19119,7 +19120,7 @@
         <v>28100</v>
       </c>
     </row>
-    <row r="190" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>26</v>
       </c>
@@ -19208,7 +19209,7 @@
         <v>39000</v>
       </c>
     </row>
-    <row r="191" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>26</v>
       </c>
@@ -19305,7 +19306,7 @@
         <v>0.35000000000000003</v>
       </c>
     </row>
-    <row r="192" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="3" t="s">
         <v>26</v>
       </c>
@@ -19402,7 +19403,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="3" t="s">
         <v>26</v>
       </c>
@@ -19467,7 +19468,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="3" t="s">
         <v>26</v>
       </c>
@@ -19532,7 +19533,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>26</v>
       </c>
@@ -19597,7 +19598,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="3" t="s">
         <v>26</v>
       </c>
@@ -19662,7 +19663,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="3" t="s">
         <v>26</v>
       </c>
@@ -19727,7 +19728,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" ht="13.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>26</v>
       </c>
@@ -19792,7 +19793,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>26</v>
       </c>
@@ -19857,7 +19858,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="3" t="s">
         <v>26</v>
       </c>
@@ -19963,7 +19964,7 @@
         <v>878.75</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="3" t="s">
         <v>26</v>
       </c>
@@ -20069,7 +20070,7 @@
         <v>1882.5</v>
       </c>
     </row>
-    <row r="202" spans="1:31" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" ht="14" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="3" t="s">
         <v>26</v>
       </c>
@@ -20176,7 +20177,7 @@
         <v>4518.75</v>
       </c>
     </row>
-    <row r="203" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="3" t="s">
         <v>26</v>
       </c>
@@ -20279,7 +20280,7 @@
         <v>6526.25</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="3" t="s">
         <v>26</v>
       </c>
@@ -20386,7 +20387,7 @@
         <v>5538.75</v>
       </c>
     </row>
-    <row r="205" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="3" t="s">
         <v>26</v>
       </c>
@@ -20493,7 +20494,7 @@
         <v>6923.75</v>
       </c>
     </row>
-    <row r="206" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
         <v>26</v>
       </c>
@@ -20600,7 +20601,7 @@
         <v>10386.25</v>
       </c>
     </row>
-    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
         <v>26</v>
       </c>
@@ -20698,7 +20699,7 @@
         <v>3.8581874999999992</v>
       </c>
     </row>
-    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3" t="s">
         <v>26</v>
       </c>
@@ -20796,7 +20797,7 @@
         <v>5.4871999999999996</v>
       </c>
     </row>
-    <row r="209" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3" t="s">
         <v>26</v>
       </c>
@@ -20894,7 +20895,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="210" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="3" t="s">
         <v>26</v>
       </c>
@@ -20992,7 +20993,7 @@
         <v>6.6875249999999982</v>
       </c>
     </row>
-    <row r="211" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="3" t="s">
         <v>26</v>
       </c>
@@ -21093,7 +21094,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="212" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="3" t="s">
         <v>26</v>
       </c>
@@ -21194,7 +21195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="213" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="3" t="s">
         <v>26</v>
       </c>
@@ -21295,7 +21296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="214" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="3" t="s">
         <v>26</v>
       </c>
@@ -21396,7 +21397,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="215" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="3" t="s">
         <v>26</v>
       </c>
@@ -21497,7 +21498,7 @@
         <v>117.5</v>
       </c>
     </row>
-    <row r="216" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="3" t="s">
         <v>26</v>
       </c>
@@ -21598,7 +21599,7 @@
         <v>281.25</v>
       </c>
     </row>
-    <row r="217" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3" t="s">
         <v>26</v>
       </c>
@@ -21700,7 +21701,7 @@
         <v>406.25</v>
       </c>
     </row>
-    <row r="218" spans="1:29" ht="15.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:29" ht="15.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="3" t="s">
         <v>26</v>
       </c>
@@ -21801,7 +21802,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="219" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3" t="s">
         <v>26</v>
       </c>
@@ -21902,7 +21903,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="220" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3" t="s">
         <v>26</v>
       </c>
@@ -22003,7 +22004,7 @@
         <v>412.5</v>
       </c>
     </row>
-    <row r="221" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3" t="s">
         <v>26</v>
       </c>
@@ -22104,7 +22105,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="222" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3" t="s">
         <v>26</v>
       </c>
@@ -22205,7 +22206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3" t="s">
         <v>26</v>
       </c>
@@ -22306,7 +22307,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="224" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3" t="s">
         <v>26</v>
       </c>
@@ -22408,7 +22409,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="225" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>26</v>
       </c>
@@ -22509,7 +22510,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="226" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>26</v>
       </c>
@@ -22610,7 +22611,7 @@
         <v>331.25</v>
       </c>
     </row>
-    <row r="227" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3" t="s">
         <v>26</v>
       </c>
@@ -22711,7 +22712,7 @@
         <v>497.5</v>
       </c>
     </row>
-    <row r="228" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3" t="s">
         <v>26</v>
       </c>
@@ -22812,7 +22813,7 @@
         <v>218.75</v>
       </c>
     </row>
-    <row r="229" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3" t="s">
         <v>26</v>
       </c>
@@ -22913,7 +22914,7 @@
         <v>468.75</v>
       </c>
     </row>
-    <row r="230" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3" t="s">
         <v>26</v>
       </c>
@@ -23014,7 +23015,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="231" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3" t="s">
         <v>26</v>
       </c>
@@ -23116,7 +23117,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="232" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3" t="s">
         <v>26</v>
       </c>
@@ -23217,7 +23218,7 @@
         <v>1152.5</v>
       </c>
     </row>
-    <row r="233" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3" t="s">
         <v>26</v>
       </c>
@@ -23318,7 +23319,7 @@
         <v>1441.25</v>
       </c>
     </row>
-    <row r="234" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3" t="s">
         <v>26</v>
       </c>
@@ -23419,7 +23420,7 @@
         <v>2162.5</v>
       </c>
     </row>
-    <row r="235" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3" t="s">
         <v>26</v>
       </c>
@@ -23520,7 +23521,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="236" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3" t="s">
         <v>26</v>
       </c>
@@ -23621,7 +23622,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="3" t="s">
         <v>26</v>
       </c>
@@ -23722,7 +23723,7 @@
         <v>156.25</v>
       </c>
     </row>
-    <row r="238" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="3" t="s">
         <v>26</v>
       </c>
@@ -23824,7 +23825,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="239" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="3" t="s">
         <v>26</v>
       </c>
@@ -23925,7 +23926,7 @@
         <v>783.75</v>
       </c>
     </row>
-    <row r="240" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:29" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="3" t="s">
         <v>26</v>
       </c>
@@ -24026,7 +24027,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="241" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="3" t="s">
         <v>26</v>
       </c>
@@ -24127,7 +24128,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="242" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="3" t="s">
         <v>26</v>
       </c>
@@ -24194,7 +24195,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3" t="s">
         <v>26</v>
       </c>
@@ -24281,7 +24282,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="244" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="3" t="s">
         <v>26</v>
       </c>
@@ -24380,7 +24381,7 @@
         <v>0.44000000000000006</v>
       </c>
     </row>
-    <row r="245" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3" t="s">
         <v>27</v>
       </c>
@@ -24481,7 +24482,7 @@
         <v>25.960000000000004</v>
       </c>
     </row>
-    <row r="246" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="3" t="s">
         <v>27</v>
       </c>
@@ -24582,7 +24583,7 @@
         <v>15.400000000000002</v>
       </c>
     </row>
-    <row r="247" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="3" t="s">
         <v>27</v>
       </c>
@@ -24679,7 +24680,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="248" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="3" t="s">
         <v>27</v>
       </c>
@@ -24774,7 +24775,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="249" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="3" t="s">
         <v>27</v>
       </c>
@@ -24867,7 +24868,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="250" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3" t="s">
         <v>27</v>
       </c>
@@ -24956,7 +24957,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="251" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3" t="s">
         <v>27</v>
       </c>
@@ -25062,7 +25063,7 @@
       <c r="AT251" s="1"/>
       <c r="AU251" s="1"/>
     </row>
-    <row r="252" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3" t="s">
         <v>27</v>
       </c>
@@ -25186,7 +25187,7 @@
       <c r="AT252" s="1"/>
       <c r="AU252" s="1"/>
     </row>
-    <row r="253" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3" t="s">
         <v>27</v>
       </c>
@@ -25292,7 +25293,7 @@
       <c r="AT253" s="1"/>
       <c r="AU253" s="1"/>
     </row>
-    <row r="254" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3" t="s">
         <v>27</v>
       </c>
@@ -25396,7 +25397,7 @@
       <c r="AT254" s="1"/>
       <c r="AU254" s="1"/>
     </row>
-    <row r="255" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3" t="s">
         <v>27</v>
       </c>
@@ -25503,7 +25504,7 @@
       <c r="AT255" s="1"/>
       <c r="AU255" s="1"/>
     </row>
-    <row r="256" spans="1:47" s="19" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:47" s="19" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3" t="s">
         <v>27</v>
       </c>
@@ -25610,7 +25611,7 @@
       <c r="AT256" s="1"/>
       <c r="AU256" s="1"/>
     </row>
-    <row r="257" spans="1:47" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:47" s="19" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3" t="s">
         <v>27</v>
       </c>
@@ -25728,7 +25729,7 @@
       <c r="AT257" s="1"/>
       <c r="AU257" s="1"/>
     </row>
-    <row r="258" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3" t="s">
         <v>27</v>
       </c>
@@ -25829,7 +25830,7 @@
         <v>3.0008124999999994</v>
       </c>
     </row>
-    <row r="259" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3" t="s">
         <v>27</v>
       </c>
@@ -25898,7 +25899,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3" t="s">
         <v>27</v>
       </c>
@@ -25967,7 +25968,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3" t="s">
         <v>27</v>
       </c>
@@ -26062,7 +26063,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="262" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3" t="s">
         <v>27</v>
       </c>
@@ -26157,7 +26158,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="263" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3" t="s">
         <v>27</v>
       </c>
@@ -26252,7 +26253,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="264" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3" t="s">
         <v>27</v>
       </c>
@@ -26347,7 +26348,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="265" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3" t="s">
         <v>27</v>
       </c>
@@ -26442,7 +26443,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="266" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3" t="s">
         <v>27</v>
       </c>
@@ -26537,7 +26538,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="267" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3" t="s">
         <v>27</v>
       </c>
@@ -26632,7 +26633,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="268" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3" t="s">
         <v>27</v>
       </c>
@@ -26727,7 +26728,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="269" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:47" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3" t="s">
         <v>27</v>
       </c>
@@ -26824,7 +26825,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="270" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3" t="s">
         <v>27</v>
       </c>
@@ -26913,7 +26914,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="271" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3" t="s">
         <v>27</v>
       </c>
@@ -26982,7 +26983,7 @@
         <v>ISSUE</v>
       </c>
     </row>
-    <row r="272" spans="1:47" ht="15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:47" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3" t="s">
         <v>27</v>
       </c>
@@ -27077,7 +27078,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3" t="s">
         <v>27</v>
       </c>
@@ -27166,7 +27167,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="274" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3" t="s">
         <v>27</v>
       </c>
@@ -27255,7 +27256,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3" t="s">
         <v>27</v>
       </c>
@@ -27344,7 +27345,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="276" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3" t="s">
         <v>27</v>
       </c>
@@ -27433,7 +27434,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="277" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3" t="s">
         <v>27</v>
       </c>
@@ -27522,7 +27523,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="278" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3" t="s">
         <v>27</v>
       </c>
@@ -27611,7 +27612,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="279" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3" t="s">
         <v>27</v>
       </c>
@@ -27700,7 +27701,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3" t="s">
         <v>27</v>
       </c>
@@ -27769,7 +27770,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3" t="s">
         <v>27</v>
       </c>
@@ -27838,7 +27839,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3" t="s">
         <v>27</v>
       </c>
@@ -27907,7 +27908,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3" t="s">
         <v>27</v>
       </c>
@@ -28008,7 +28009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3" t="s">
         <v>29</v>
       </c>
@@ -28073,7 +28074,7 @@
       <c r="AB284" s="5"/>
       <c r="AC284" s="5"/>
     </row>
-    <row r="285" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3" t="s">
         <v>29</v>
       </c>
@@ -28123,7 +28124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:31" ht="15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3" t="s">
         <v>27</v>
       </c>
@@ -29150,7 +29151,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="298" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="28" t="s">
         <v>29</v>
       </c>
@@ -29244,7 +29245,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="299" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="28" t="s">
         <v>29</v>
       </c>
@@ -29338,7 +29339,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="28" t="s">
         <v>29</v>
       </c>
@@ -29432,7 +29433,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="28" t="s">
         <v>29</v>
       </c>
@@ -29526,7 +29527,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="302" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="28" t="s">
         <v>29</v>
       </c>
@@ -29620,7 +29621,7 @@
         <v>0.39900000000000002</v>
       </c>
     </row>
-    <row r="303" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="28" t="s">
         <v>29</v>
       </c>
@@ -29714,7 +29715,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="304" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="28" t="s">
         <v>29</v>
       </c>
@@ -29808,7 +29809,7 @@
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="28" t="s">
         <v>29</v>
       </c>
@@ -29902,7 +29903,7 @@
         <v>0.97650000000000015</v>
       </c>
     </row>
-    <row r="306" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="28" t="s">
         <v>29</v>
       </c>
@@ -29996,7 +29997,7 @@
         <v>0.35700000000000004</v>
       </c>
     </row>
-    <row r="307" spans="1:29" s="28" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:29" s="28" customFormat="1" ht="14.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="28" t="s">
         <v>29</v>
       </c>
@@ -30090,7 +30091,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="308" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3" t="s">
         <v>29</v>
       </c>
@@ -30189,7 +30190,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="309" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3" t="s">
         <v>29</v>
       </c>
@@ -30288,7 +30289,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="310" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3" t="s">
         <v>29</v>
       </c>
@@ -30387,7 +30388,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="311" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3" t="s">
         <v>29</v>
       </c>
@@ -30486,7 +30487,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="312" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="3" t="s">
         <v>29</v>
       </c>
@@ -30585,7 +30586,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="313" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="3" t="s">
         <v>29</v>
       </c>
@@ -30685,7 +30686,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AC308" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AC313" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="battery cell mass share, LFP"/>
+        <filter val="battery cell mass share, Li-O2"/>
+        <filter val="battery cell mass share, Li-S"/>
+        <filter val="battery cell mass share, LTO"/>
+        <filter val="battery cell mass share, NCA"/>
+        <filter val="battery cell mass share, NMC-111"/>
+        <filter val="battery cell mass share, NMC-523"/>
+        <filter val="battery cell mass share, NMC-622"/>
+        <filter val="battery cell mass share, NMC-811"/>
+        <filter val="battery cell mass share, NMC-955"/>
+        <filter val="battery cell mass share, SiB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I244" r:id="rId1" display="https://theicct.org/wp-content/uploads/2021/12/eu-tractor-trailers-analysis-aug21-2.pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
